--- a/mitchell8x3.xlsx
+++ b/mitchell8x3.xlsx
@@ -568,12 +568,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Name 87</t>
+          <t>Name 73</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Name 43</t>
+          <t>Name 44</t>
         </is>
       </c>
       <c r="D8" s="4">
@@ -591,12 +591,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Name 36</t>
+          <t>Name 22</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Name 37</t>
+          <t>Name 60</t>
         </is>
       </c>
       <c r="D9" s="4">
@@ -614,12 +614,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Name 67</t>
+          <t>Name 64</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Name 26</t>
+          <t>Name 38</t>
         </is>
       </c>
       <c r="D10" s="4">
@@ -637,12 +637,12 @@
       </c>
       <c r="B11" s="7" t="inlineStr">
         <is>
-          <t>Name 85</t>
+          <t>Name 28</t>
         </is>
       </c>
       <c r="C11" s="7" t="inlineStr">
         <is>
-          <t>Name 32</t>
+          <t>Name 76</t>
         </is>
       </c>
       <c r="D11" s="8">
@@ -693,12 +693,12 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Name 53</t>
+          <t>Name 66</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Name 88</t>
+          <t>Name 72</t>
         </is>
       </c>
       <c r="D15" s="4">
@@ -716,7 +716,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Name 58</t>
+          <t>Name 68</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -739,12 +739,12 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Name 13</t>
+          <t>Name 12</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Name 76</t>
+          <t>Name 60</t>
         </is>
       </c>
       <c r="D17" s="4">
@@ -762,12 +762,12 @@
       </c>
       <c r="B18" s="7" t="inlineStr">
         <is>
-          <t>Name 69</t>
+          <t>Name 11</t>
         </is>
       </c>
       <c r="C18" s="7" t="inlineStr">
         <is>
-          <t>Name 48</t>
+          <t>Name 30</t>
         </is>
       </c>
       <c r="D18" s="8">
@@ -2457,46 +2457,46 @@
     </row>
     <row r="15">
       <c r="A15" s="15" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B15" s="15">
-        <f>'By Round'!A15</f>
+        <f>'By Round'!A39</f>
         <v/>
       </c>
       <c r="C15" s="15">
-        <f>'By Round'!B15</f>
+        <f>'By Round'!B39</f>
         <v/>
       </c>
       <c r="D15" s="15">
-        <f>'By Round'!C15</f>
+        <f>'By Round'!C39</f>
         <v/>
       </c>
       <c r="E15" s="15">
-        <f>'By Round'!D15</f>
+        <f>'By Round'!D39</f>
         <v/>
       </c>
       <c r="F15" s="15">
-        <f>IF(ISBLANK('By Round'!F15),"",'By Round'!F15)</f>
+        <f>IF(ISBLANK('By Round'!F39),"",'By Round'!F39)</f>
         <v/>
       </c>
       <c r="G15">
-        <f>IF(ISBLANK('By Round'!G15),"",'By Round'!G15)</f>
+        <f>IF(ISBLANK('By Round'!G39),"",'By Round'!G39)</f>
         <v/>
       </c>
       <c r="H15">
-        <f>IF(ISBLANK('By Round'!H15),"",'By Round'!H15)</f>
+        <f>IF(ISBLANK('By Round'!H39),"",'By Round'!H39)</f>
         <v/>
       </c>
       <c r="I15">
-        <f>IF(ISBLANK('By Round'!I15),"",'By Round'!I15)</f>
+        <f>IF(ISBLANK('By Round'!I39),"",'By Round'!I39)</f>
         <v/>
       </c>
       <c r="J15">
-        <f>IF(ISBLANK('By Round'!J15),"",'By Round'!J15)</f>
+        <f>IF(ISBLANK('By Round'!J39),"",'By Round'!J39)</f>
         <v/>
       </c>
       <c r="K15">
-        <f>IF(ISBLANK('By Round'!K15),"",'By Round'!K15)</f>
+        <f>IF(ISBLANK('By Round'!K39),"",'By Round'!K39)</f>
         <v/>
       </c>
       <c r="L15" s="16">
@@ -2582,43 +2582,43 @@
     </row>
     <row r="16">
       <c r="B16" s="15">
-        <f>'By Round'!A27</f>
+        <f>'By Round'!A3</f>
         <v/>
       </c>
       <c r="C16" s="15">
-        <f>'By Round'!B30</f>
+        <f>'By Round'!B6</f>
         <v/>
       </c>
       <c r="D16" s="15">
-        <f>'By Round'!C30</f>
+        <f>'By Round'!C6</f>
         <v/>
       </c>
       <c r="E16" s="15">
-        <f>'By Round'!D30</f>
+        <f>'By Round'!D6</f>
         <v/>
       </c>
       <c r="F16" s="15">
-        <f>IF(ISBLANK('By Round'!F30),"",'By Round'!F30)</f>
+        <f>IF(ISBLANK('By Round'!F6),"",'By Round'!F6)</f>
         <v/>
       </c>
       <c r="G16">
-        <f>IF(ISBLANK('By Round'!G30),"",'By Round'!G30)</f>
+        <f>IF(ISBLANK('By Round'!G6),"",'By Round'!G6)</f>
         <v/>
       </c>
       <c r="H16">
-        <f>IF(ISBLANK('By Round'!H30),"",'By Round'!H30)</f>
+        <f>IF(ISBLANK('By Round'!H6),"",'By Round'!H6)</f>
         <v/>
       </c>
       <c r="I16">
-        <f>IF(ISBLANK('By Round'!I30),"",'By Round'!I30)</f>
+        <f>IF(ISBLANK('By Round'!I6),"",'By Round'!I6)</f>
         <v/>
       </c>
       <c r="J16">
-        <f>IF(ISBLANK('By Round'!J30),"",'By Round'!J30)</f>
+        <f>IF(ISBLANK('By Round'!J6),"",'By Round'!J6)</f>
         <v/>
       </c>
       <c r="K16">
-        <f>IF(ISBLANK('By Round'!K30),"",'By Round'!K30)</f>
+        <f>IF(ISBLANK('By Round'!K6),"",'By Round'!K6)</f>
         <v/>
       </c>
       <c r="L16" s="16">
@@ -2704,43 +2704,43 @@
     </row>
     <row r="17">
       <c r="B17" s="15">
-        <f>'By Round'!A39</f>
+        <f>'By Round'!A15</f>
         <v/>
       </c>
       <c r="C17" s="15">
-        <f>'By Round'!B45</f>
+        <f>'By Round'!B21</f>
         <v/>
       </c>
       <c r="D17" s="15">
-        <f>'By Round'!C45</f>
+        <f>'By Round'!C21</f>
         <v/>
       </c>
       <c r="E17" s="15">
-        <f>'By Round'!D45</f>
+        <f>'By Round'!D21</f>
         <v/>
       </c>
       <c r="F17" s="15">
-        <f>IF(ISBLANK('By Round'!F45),"",'By Round'!F45)</f>
+        <f>IF(ISBLANK('By Round'!F21),"",'By Round'!F21)</f>
         <v/>
       </c>
       <c r="G17">
-        <f>IF(ISBLANK('By Round'!G45),"",'By Round'!G45)</f>
+        <f>IF(ISBLANK('By Round'!G21),"",'By Round'!G21)</f>
         <v/>
       </c>
       <c r="H17">
-        <f>IF(ISBLANK('By Round'!H45),"",'By Round'!H45)</f>
+        <f>IF(ISBLANK('By Round'!H21),"",'By Round'!H21)</f>
         <v/>
       </c>
       <c r="I17">
-        <f>IF(ISBLANK('By Round'!I45),"",'By Round'!I45)</f>
+        <f>IF(ISBLANK('By Round'!I21),"",'By Round'!I21)</f>
         <v/>
       </c>
       <c r="J17">
-        <f>IF(ISBLANK('By Round'!J45),"",'By Round'!J45)</f>
+        <f>IF(ISBLANK('By Round'!J21),"",'By Round'!J21)</f>
         <v/>
       </c>
       <c r="K17">
-        <f>IF(ISBLANK('By Round'!K45),"",'By Round'!K45)</f>
+        <f>IF(ISBLANK('By Round'!K21),"",'By Round'!K21)</f>
         <v/>
       </c>
       <c r="L17" s="16">
@@ -2827,43 +2827,43 @@
     <row r="18">
       <c r="A18" s="7" t="n"/>
       <c r="B18" s="19">
-        <f>'By Round'!A3</f>
+        <f>'By Round'!A27</f>
         <v/>
       </c>
       <c r="C18" s="19">
-        <f>'By Round'!B12</f>
+        <f>'By Round'!B36</f>
         <v/>
       </c>
       <c r="D18" s="19">
-        <f>'By Round'!C12</f>
+        <f>'By Round'!C36</f>
         <v/>
       </c>
       <c r="E18" s="19">
-        <f>'By Round'!D12</f>
+        <f>'By Round'!D36</f>
         <v/>
       </c>
       <c r="F18" s="19">
-        <f>IF(ISBLANK('By Round'!F12),"",'By Round'!F12)</f>
+        <f>IF(ISBLANK('By Round'!F36),"",'By Round'!F36)</f>
         <v/>
       </c>
       <c r="G18" s="7">
-        <f>IF(ISBLANK('By Round'!G12),"",'By Round'!G12)</f>
+        <f>IF(ISBLANK('By Round'!G36),"",'By Round'!G36)</f>
         <v/>
       </c>
       <c r="H18" s="7">
-        <f>IF(ISBLANK('By Round'!H12),"",'By Round'!H12)</f>
+        <f>IF(ISBLANK('By Round'!H36),"",'By Round'!H36)</f>
         <v/>
       </c>
       <c r="I18" s="7">
-        <f>IF(ISBLANK('By Round'!I12),"",'By Round'!I12)</f>
+        <f>IF(ISBLANK('By Round'!I36),"",'By Round'!I36)</f>
         <v/>
       </c>
       <c r="J18" s="7">
-        <f>IF(ISBLANK('By Round'!J12),"",'By Round'!J12)</f>
+        <f>IF(ISBLANK('By Round'!J36),"",'By Round'!J36)</f>
         <v/>
       </c>
       <c r="K18" s="7">
-        <f>IF(ISBLANK('By Round'!K12),"",'By Round'!K12)</f>
+        <f>IF(ISBLANK('By Round'!K36),"",'By Round'!K36)</f>
         <v/>
       </c>
       <c r="L18" s="20">
@@ -2949,46 +2949,46 @@
     </row>
     <row r="19">
       <c r="A19" s="15" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B19" s="15">
-        <f>'By Round'!A15</f>
+        <f>'By Round'!A39</f>
         <v/>
       </c>
       <c r="C19" s="15">
-        <f>'By Round'!B15</f>
+        <f>'By Round'!B39</f>
         <v/>
       </c>
       <c r="D19" s="15">
-        <f>'By Round'!C15</f>
+        <f>'By Round'!C39</f>
         <v/>
       </c>
       <c r="E19" s="15">
-        <f>'By Round'!D15</f>
+        <f>'By Round'!D39</f>
         <v/>
       </c>
       <c r="F19" s="15">
-        <f>IF(ISBLANK('By Round'!F16),"",'By Round'!F16)</f>
+        <f>IF(ISBLANK('By Round'!F40),"",'By Round'!F40)</f>
         <v/>
       </c>
       <c r="G19">
-        <f>IF(ISBLANK('By Round'!G16),"",'By Round'!G16)</f>
+        <f>IF(ISBLANK('By Round'!G40),"",'By Round'!G40)</f>
         <v/>
       </c>
       <c r="H19">
-        <f>IF(ISBLANK('By Round'!H16),"",'By Round'!H16)</f>
+        <f>IF(ISBLANK('By Round'!H40),"",'By Round'!H40)</f>
         <v/>
       </c>
       <c r="I19">
-        <f>IF(ISBLANK('By Round'!I16),"",'By Round'!I16)</f>
+        <f>IF(ISBLANK('By Round'!I40),"",'By Round'!I40)</f>
         <v/>
       </c>
       <c r="J19">
-        <f>IF(ISBLANK('By Round'!J16),"",'By Round'!J16)</f>
+        <f>IF(ISBLANK('By Round'!J40),"",'By Round'!J40)</f>
         <v/>
       </c>
       <c r="K19">
-        <f>IF(ISBLANK('By Round'!K16),"",'By Round'!K16)</f>
+        <f>IF(ISBLANK('By Round'!K40),"",'By Round'!K40)</f>
         <v/>
       </c>
       <c r="L19" s="16">
@@ -3074,43 +3074,43 @@
     </row>
     <row r="20">
       <c r="B20" s="15">
-        <f>'By Round'!A27</f>
+        <f>'By Round'!A3</f>
         <v/>
       </c>
       <c r="C20" s="15">
-        <f>'By Round'!B30</f>
+        <f>'By Round'!B6</f>
         <v/>
       </c>
       <c r="D20" s="15">
-        <f>'By Round'!C30</f>
+        <f>'By Round'!C6</f>
         <v/>
       </c>
       <c r="E20" s="15">
-        <f>'By Round'!D30</f>
+        <f>'By Round'!D6</f>
         <v/>
       </c>
       <c r="F20" s="15">
-        <f>IF(ISBLANK('By Round'!F31),"",'By Round'!F31)</f>
+        <f>IF(ISBLANK('By Round'!F7),"",'By Round'!F7)</f>
         <v/>
       </c>
       <c r="G20">
-        <f>IF(ISBLANK('By Round'!G31),"",'By Round'!G31)</f>
+        <f>IF(ISBLANK('By Round'!G7),"",'By Round'!G7)</f>
         <v/>
       </c>
       <c r="H20">
-        <f>IF(ISBLANK('By Round'!H31),"",'By Round'!H31)</f>
+        <f>IF(ISBLANK('By Round'!H7),"",'By Round'!H7)</f>
         <v/>
       </c>
       <c r="I20">
-        <f>IF(ISBLANK('By Round'!I31),"",'By Round'!I31)</f>
+        <f>IF(ISBLANK('By Round'!I7),"",'By Round'!I7)</f>
         <v/>
       </c>
       <c r="J20">
-        <f>IF(ISBLANK('By Round'!J31),"",'By Round'!J31)</f>
+        <f>IF(ISBLANK('By Round'!J7),"",'By Round'!J7)</f>
         <v/>
       </c>
       <c r="K20">
-        <f>IF(ISBLANK('By Round'!K31),"",'By Round'!K31)</f>
+        <f>IF(ISBLANK('By Round'!K7),"",'By Round'!K7)</f>
         <v/>
       </c>
       <c r="L20" s="16">
@@ -3196,43 +3196,43 @@
     </row>
     <row r="21">
       <c r="B21" s="15">
-        <f>'By Round'!A39</f>
+        <f>'By Round'!A15</f>
         <v/>
       </c>
       <c r="C21" s="15">
-        <f>'By Round'!B45</f>
+        <f>'By Round'!B21</f>
         <v/>
       </c>
       <c r="D21" s="15">
-        <f>'By Round'!C45</f>
+        <f>'By Round'!C21</f>
         <v/>
       </c>
       <c r="E21" s="15">
-        <f>'By Round'!D45</f>
+        <f>'By Round'!D21</f>
         <v/>
       </c>
       <c r="F21" s="15">
-        <f>IF(ISBLANK('By Round'!F46),"",'By Round'!F46)</f>
+        <f>IF(ISBLANK('By Round'!F22),"",'By Round'!F22)</f>
         <v/>
       </c>
       <c r="G21">
-        <f>IF(ISBLANK('By Round'!G46),"",'By Round'!G46)</f>
+        <f>IF(ISBLANK('By Round'!G22),"",'By Round'!G22)</f>
         <v/>
       </c>
       <c r="H21">
-        <f>IF(ISBLANK('By Round'!H46),"",'By Round'!H46)</f>
+        <f>IF(ISBLANK('By Round'!H22),"",'By Round'!H22)</f>
         <v/>
       </c>
       <c r="I21">
-        <f>IF(ISBLANK('By Round'!I46),"",'By Round'!I46)</f>
+        <f>IF(ISBLANK('By Round'!I22),"",'By Round'!I22)</f>
         <v/>
       </c>
       <c r="J21">
-        <f>IF(ISBLANK('By Round'!J46),"",'By Round'!J46)</f>
+        <f>IF(ISBLANK('By Round'!J22),"",'By Round'!J22)</f>
         <v/>
       </c>
       <c r="K21">
-        <f>IF(ISBLANK('By Round'!K46),"",'By Round'!K46)</f>
+        <f>IF(ISBLANK('By Round'!K22),"",'By Round'!K22)</f>
         <v/>
       </c>
       <c r="L21" s="16">
@@ -3319,43 +3319,43 @@
     <row r="22">
       <c r="A22" s="7" t="n"/>
       <c r="B22" s="19">
-        <f>'By Round'!A3</f>
+        <f>'By Round'!A27</f>
         <v/>
       </c>
       <c r="C22" s="19">
-        <f>'By Round'!B12</f>
+        <f>'By Round'!B36</f>
         <v/>
       </c>
       <c r="D22" s="19">
-        <f>'By Round'!C12</f>
+        <f>'By Round'!C36</f>
         <v/>
       </c>
       <c r="E22" s="19">
-        <f>'By Round'!D12</f>
+        <f>'By Round'!D36</f>
         <v/>
       </c>
       <c r="F22" s="19">
-        <f>IF(ISBLANK('By Round'!F13),"",'By Round'!F13)</f>
+        <f>IF(ISBLANK('By Round'!F37),"",'By Round'!F37)</f>
         <v/>
       </c>
       <c r="G22" s="7">
-        <f>IF(ISBLANK('By Round'!G13),"",'By Round'!G13)</f>
+        <f>IF(ISBLANK('By Round'!G37),"",'By Round'!G37)</f>
         <v/>
       </c>
       <c r="H22" s="7">
-        <f>IF(ISBLANK('By Round'!H13),"",'By Round'!H13)</f>
+        <f>IF(ISBLANK('By Round'!H37),"",'By Round'!H37)</f>
         <v/>
       </c>
       <c r="I22" s="7">
-        <f>IF(ISBLANK('By Round'!I13),"",'By Round'!I13)</f>
+        <f>IF(ISBLANK('By Round'!I37),"",'By Round'!I37)</f>
         <v/>
       </c>
       <c r="J22" s="7">
-        <f>IF(ISBLANK('By Round'!J13),"",'By Round'!J13)</f>
+        <f>IF(ISBLANK('By Round'!J37),"",'By Round'!J37)</f>
         <v/>
       </c>
       <c r="K22" s="7">
-        <f>IF(ISBLANK('By Round'!K13),"",'By Round'!K13)</f>
+        <f>IF(ISBLANK('By Round'!K37),"",'By Round'!K37)</f>
         <v/>
       </c>
       <c r="L22" s="20">
@@ -3441,46 +3441,46 @@
     </row>
     <row r="23">
       <c r="A23" s="15" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B23" s="15">
-        <f>'By Round'!A15</f>
+        <f>'By Round'!A39</f>
         <v/>
       </c>
       <c r="C23" s="15">
-        <f>'By Round'!B15</f>
+        <f>'By Round'!B39</f>
         <v/>
       </c>
       <c r="D23" s="15">
-        <f>'By Round'!C15</f>
+        <f>'By Round'!C39</f>
         <v/>
       </c>
       <c r="E23" s="15">
-        <f>'By Round'!D15</f>
+        <f>'By Round'!D39</f>
         <v/>
       </c>
       <c r="F23" s="15">
-        <f>IF(ISBLANK('By Round'!F17),"",'By Round'!F17)</f>
+        <f>IF(ISBLANK('By Round'!F41),"",'By Round'!F41)</f>
         <v/>
       </c>
       <c r="G23">
-        <f>IF(ISBLANK('By Round'!G17),"",'By Round'!G17)</f>
+        <f>IF(ISBLANK('By Round'!G41),"",'By Round'!G41)</f>
         <v/>
       </c>
       <c r="H23">
-        <f>IF(ISBLANK('By Round'!H17),"",'By Round'!H17)</f>
+        <f>IF(ISBLANK('By Round'!H41),"",'By Round'!H41)</f>
         <v/>
       </c>
       <c r="I23">
-        <f>IF(ISBLANK('By Round'!I17),"",'By Round'!I17)</f>
+        <f>IF(ISBLANK('By Round'!I41),"",'By Round'!I41)</f>
         <v/>
       </c>
       <c r="J23">
-        <f>IF(ISBLANK('By Round'!J17),"",'By Round'!J17)</f>
+        <f>IF(ISBLANK('By Round'!J41),"",'By Round'!J41)</f>
         <v/>
       </c>
       <c r="K23">
-        <f>IF(ISBLANK('By Round'!K17),"",'By Round'!K17)</f>
+        <f>IF(ISBLANK('By Round'!K41),"",'By Round'!K41)</f>
         <v/>
       </c>
       <c r="L23" s="16">
@@ -3566,43 +3566,43 @@
     </row>
     <row r="24">
       <c r="B24" s="15">
-        <f>'By Round'!A27</f>
+        <f>'By Round'!A3</f>
         <v/>
       </c>
       <c r="C24" s="15">
-        <f>'By Round'!B30</f>
+        <f>'By Round'!B6</f>
         <v/>
       </c>
       <c r="D24" s="15">
-        <f>'By Round'!C30</f>
+        <f>'By Round'!C6</f>
         <v/>
       </c>
       <c r="E24" s="15">
-        <f>'By Round'!D30</f>
+        <f>'By Round'!D6</f>
         <v/>
       </c>
       <c r="F24" s="15">
-        <f>IF(ISBLANK('By Round'!F32),"",'By Round'!F32)</f>
+        <f>IF(ISBLANK('By Round'!F8),"",'By Round'!F8)</f>
         <v/>
       </c>
       <c r="G24">
-        <f>IF(ISBLANK('By Round'!G32),"",'By Round'!G32)</f>
+        <f>IF(ISBLANK('By Round'!G8),"",'By Round'!G8)</f>
         <v/>
       </c>
       <c r="H24">
-        <f>IF(ISBLANK('By Round'!H32),"",'By Round'!H32)</f>
+        <f>IF(ISBLANK('By Round'!H8),"",'By Round'!H8)</f>
         <v/>
       </c>
       <c r="I24">
-        <f>IF(ISBLANK('By Round'!I32),"",'By Round'!I32)</f>
+        <f>IF(ISBLANK('By Round'!I8),"",'By Round'!I8)</f>
         <v/>
       </c>
       <c r="J24">
-        <f>IF(ISBLANK('By Round'!J32),"",'By Round'!J32)</f>
+        <f>IF(ISBLANK('By Round'!J8),"",'By Round'!J8)</f>
         <v/>
       </c>
       <c r="K24">
-        <f>IF(ISBLANK('By Round'!K32),"",'By Round'!K32)</f>
+        <f>IF(ISBLANK('By Round'!K8),"",'By Round'!K8)</f>
         <v/>
       </c>
       <c r="L24" s="16">
@@ -3688,43 +3688,43 @@
     </row>
     <row r="25">
       <c r="B25" s="15">
-        <f>'By Round'!A39</f>
+        <f>'By Round'!A15</f>
         <v/>
       </c>
       <c r="C25" s="15">
-        <f>'By Round'!B45</f>
+        <f>'By Round'!B21</f>
         <v/>
       </c>
       <c r="D25" s="15">
-        <f>'By Round'!C45</f>
+        <f>'By Round'!C21</f>
         <v/>
       </c>
       <c r="E25" s="15">
-        <f>'By Round'!D45</f>
+        <f>'By Round'!D21</f>
         <v/>
       </c>
       <c r="F25" s="15">
-        <f>IF(ISBLANK('By Round'!F47),"",'By Round'!F47)</f>
+        <f>IF(ISBLANK('By Round'!F23),"",'By Round'!F23)</f>
         <v/>
       </c>
       <c r="G25">
-        <f>IF(ISBLANK('By Round'!G47),"",'By Round'!G47)</f>
+        <f>IF(ISBLANK('By Round'!G23),"",'By Round'!G23)</f>
         <v/>
       </c>
       <c r="H25">
-        <f>IF(ISBLANK('By Round'!H47),"",'By Round'!H47)</f>
+        <f>IF(ISBLANK('By Round'!H23),"",'By Round'!H23)</f>
         <v/>
       </c>
       <c r="I25">
-        <f>IF(ISBLANK('By Round'!I47),"",'By Round'!I47)</f>
+        <f>IF(ISBLANK('By Round'!I23),"",'By Round'!I23)</f>
         <v/>
       </c>
       <c r="J25">
-        <f>IF(ISBLANK('By Round'!J47),"",'By Round'!J47)</f>
+        <f>IF(ISBLANK('By Round'!J23),"",'By Round'!J23)</f>
         <v/>
       </c>
       <c r="K25">
-        <f>IF(ISBLANK('By Round'!K47),"",'By Round'!K47)</f>
+        <f>IF(ISBLANK('By Round'!K23),"",'By Round'!K23)</f>
         <v/>
       </c>
       <c r="L25" s="16">
@@ -3811,43 +3811,43 @@
     <row r="26">
       <c r="A26" s="7" t="n"/>
       <c r="B26" s="19">
-        <f>'By Round'!A3</f>
+        <f>'By Round'!A27</f>
         <v/>
       </c>
       <c r="C26" s="19">
-        <f>'By Round'!B12</f>
+        <f>'By Round'!B36</f>
         <v/>
       </c>
       <c r="D26" s="19">
-        <f>'By Round'!C12</f>
+        <f>'By Round'!C36</f>
         <v/>
       </c>
       <c r="E26" s="19">
-        <f>'By Round'!D12</f>
+        <f>'By Round'!D36</f>
         <v/>
       </c>
       <c r="F26" s="19">
-        <f>IF(ISBLANK('By Round'!F14),"",'By Round'!F14)</f>
+        <f>IF(ISBLANK('By Round'!F38),"",'By Round'!F38)</f>
         <v/>
       </c>
       <c r="G26" s="7">
-        <f>IF(ISBLANK('By Round'!G14),"",'By Round'!G14)</f>
+        <f>IF(ISBLANK('By Round'!G38),"",'By Round'!G38)</f>
         <v/>
       </c>
       <c r="H26" s="7">
-        <f>IF(ISBLANK('By Round'!H14),"",'By Round'!H14)</f>
+        <f>IF(ISBLANK('By Round'!H38),"",'By Round'!H38)</f>
         <v/>
       </c>
       <c r="I26" s="7">
-        <f>IF(ISBLANK('By Round'!I14),"",'By Round'!I14)</f>
+        <f>IF(ISBLANK('By Round'!I38),"",'By Round'!I38)</f>
         <v/>
       </c>
       <c r="J26" s="7">
-        <f>IF(ISBLANK('By Round'!J14),"",'By Round'!J14)</f>
+        <f>IF(ISBLANK('By Round'!J38),"",'By Round'!J38)</f>
         <v/>
       </c>
       <c r="K26" s="7">
-        <f>IF(ISBLANK('By Round'!K14),"",'By Round'!K14)</f>
+        <f>IF(ISBLANK('By Round'!K38),"",'By Round'!K38)</f>
         <v/>
       </c>
       <c r="L26" s="20">
@@ -5409,46 +5409,46 @@
     </row>
     <row r="39">
       <c r="A39" s="15" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B39" s="15">
-        <f>'By Round'!A39</f>
+        <f>'By Round'!A15</f>
         <v/>
       </c>
       <c r="C39" s="15">
-        <f>'By Round'!B39</f>
+        <f>'By Round'!B15</f>
         <v/>
       </c>
       <c r="D39" s="15">
-        <f>'By Round'!C39</f>
+        <f>'By Round'!C15</f>
         <v/>
       </c>
       <c r="E39" s="15">
-        <f>'By Round'!D39</f>
+        <f>'By Round'!D15</f>
         <v/>
       </c>
       <c r="F39" s="15">
-        <f>IF(ISBLANK('By Round'!F39),"",'By Round'!F39)</f>
+        <f>IF(ISBLANK('By Round'!F15),"",'By Round'!F15)</f>
         <v/>
       </c>
       <c r="G39">
-        <f>IF(ISBLANK('By Round'!G39),"",'By Round'!G39)</f>
+        <f>IF(ISBLANK('By Round'!G15),"",'By Round'!G15)</f>
         <v/>
       </c>
       <c r="H39">
-        <f>IF(ISBLANK('By Round'!H39),"",'By Round'!H39)</f>
+        <f>IF(ISBLANK('By Round'!H15),"",'By Round'!H15)</f>
         <v/>
       </c>
       <c r="I39">
-        <f>IF(ISBLANK('By Round'!I39),"",'By Round'!I39)</f>
+        <f>IF(ISBLANK('By Round'!I15),"",'By Round'!I15)</f>
         <v/>
       </c>
       <c r="J39">
-        <f>IF(ISBLANK('By Round'!J39),"",'By Round'!J39)</f>
+        <f>IF(ISBLANK('By Round'!J15),"",'By Round'!J15)</f>
         <v/>
       </c>
       <c r="K39">
-        <f>IF(ISBLANK('By Round'!K39),"",'By Round'!K39)</f>
+        <f>IF(ISBLANK('By Round'!K15),"",'By Round'!K15)</f>
         <v/>
       </c>
       <c r="L39" s="16">
@@ -5534,43 +5534,43 @@
     </row>
     <row r="40">
       <c r="B40" s="15">
-        <f>'By Round'!A3</f>
+        <f>'By Round'!A27</f>
         <v/>
       </c>
       <c r="C40" s="15">
-        <f>'By Round'!B6</f>
+        <f>'By Round'!B30</f>
         <v/>
       </c>
       <c r="D40" s="15">
-        <f>'By Round'!C6</f>
+        <f>'By Round'!C30</f>
         <v/>
       </c>
       <c r="E40" s="15">
-        <f>'By Round'!D6</f>
+        <f>'By Round'!D30</f>
         <v/>
       </c>
       <c r="F40" s="15">
-        <f>IF(ISBLANK('By Round'!F6),"",'By Round'!F6)</f>
+        <f>IF(ISBLANK('By Round'!F30),"",'By Round'!F30)</f>
         <v/>
       </c>
       <c r="G40">
-        <f>IF(ISBLANK('By Round'!G6),"",'By Round'!G6)</f>
+        <f>IF(ISBLANK('By Round'!G30),"",'By Round'!G30)</f>
         <v/>
       </c>
       <c r="H40">
-        <f>IF(ISBLANK('By Round'!H6),"",'By Round'!H6)</f>
+        <f>IF(ISBLANK('By Round'!H30),"",'By Round'!H30)</f>
         <v/>
       </c>
       <c r="I40">
-        <f>IF(ISBLANK('By Round'!I6),"",'By Round'!I6)</f>
+        <f>IF(ISBLANK('By Round'!I30),"",'By Round'!I30)</f>
         <v/>
       </c>
       <c r="J40">
-        <f>IF(ISBLANK('By Round'!J6),"",'By Round'!J6)</f>
+        <f>IF(ISBLANK('By Round'!J30),"",'By Round'!J30)</f>
         <v/>
       </c>
       <c r="K40">
-        <f>IF(ISBLANK('By Round'!K6),"",'By Round'!K6)</f>
+        <f>IF(ISBLANK('By Round'!K30),"",'By Round'!K30)</f>
         <v/>
       </c>
       <c r="L40" s="16">
@@ -5656,43 +5656,43 @@
     </row>
     <row r="41">
       <c r="B41" s="15">
-        <f>'By Round'!A15</f>
+        <f>'By Round'!A39</f>
         <v/>
       </c>
       <c r="C41" s="15">
-        <f>'By Round'!B21</f>
+        <f>'By Round'!B45</f>
         <v/>
       </c>
       <c r="D41" s="15">
-        <f>'By Round'!C21</f>
+        <f>'By Round'!C45</f>
         <v/>
       </c>
       <c r="E41" s="15">
-        <f>'By Round'!D21</f>
+        <f>'By Round'!D45</f>
         <v/>
       </c>
       <c r="F41" s="15">
-        <f>IF(ISBLANK('By Round'!F21),"",'By Round'!F21)</f>
+        <f>IF(ISBLANK('By Round'!F45),"",'By Round'!F45)</f>
         <v/>
       </c>
       <c r="G41">
-        <f>IF(ISBLANK('By Round'!G21),"",'By Round'!G21)</f>
+        <f>IF(ISBLANK('By Round'!G45),"",'By Round'!G45)</f>
         <v/>
       </c>
       <c r="H41">
-        <f>IF(ISBLANK('By Round'!H21),"",'By Round'!H21)</f>
+        <f>IF(ISBLANK('By Round'!H45),"",'By Round'!H45)</f>
         <v/>
       </c>
       <c r="I41">
-        <f>IF(ISBLANK('By Round'!I21),"",'By Round'!I21)</f>
+        <f>IF(ISBLANK('By Round'!I45),"",'By Round'!I45)</f>
         <v/>
       </c>
       <c r="J41">
-        <f>IF(ISBLANK('By Round'!J21),"",'By Round'!J21)</f>
+        <f>IF(ISBLANK('By Round'!J45),"",'By Round'!J45)</f>
         <v/>
       </c>
       <c r="K41">
-        <f>IF(ISBLANK('By Round'!K21),"",'By Round'!K21)</f>
+        <f>IF(ISBLANK('By Round'!K45),"",'By Round'!K45)</f>
         <v/>
       </c>
       <c r="L41" s="16">
@@ -5779,43 +5779,43 @@
     <row r="42">
       <c r="A42" s="7" t="n"/>
       <c r="B42" s="19">
-        <f>'By Round'!A27</f>
+        <f>'By Round'!A3</f>
         <v/>
       </c>
       <c r="C42" s="19">
-        <f>'By Round'!B36</f>
+        <f>'By Round'!B12</f>
         <v/>
       </c>
       <c r="D42" s="19">
-        <f>'By Round'!C36</f>
+        <f>'By Round'!C12</f>
         <v/>
       </c>
       <c r="E42" s="19">
-        <f>'By Round'!D36</f>
+        <f>'By Round'!D12</f>
         <v/>
       </c>
       <c r="F42" s="19">
-        <f>IF(ISBLANK('By Round'!F36),"",'By Round'!F36)</f>
+        <f>IF(ISBLANK('By Round'!F12),"",'By Round'!F12)</f>
         <v/>
       </c>
       <c r="G42" s="7">
-        <f>IF(ISBLANK('By Round'!G36),"",'By Round'!G36)</f>
+        <f>IF(ISBLANK('By Round'!G12),"",'By Round'!G12)</f>
         <v/>
       </c>
       <c r="H42" s="7">
-        <f>IF(ISBLANK('By Round'!H36),"",'By Round'!H36)</f>
+        <f>IF(ISBLANK('By Round'!H12),"",'By Round'!H12)</f>
         <v/>
       </c>
       <c r="I42" s="7">
-        <f>IF(ISBLANK('By Round'!I36),"",'By Round'!I36)</f>
+        <f>IF(ISBLANK('By Round'!I12),"",'By Round'!I12)</f>
         <v/>
       </c>
       <c r="J42" s="7">
-        <f>IF(ISBLANK('By Round'!J36),"",'By Round'!J36)</f>
+        <f>IF(ISBLANK('By Round'!J12),"",'By Round'!J12)</f>
         <v/>
       </c>
       <c r="K42" s="7">
-        <f>IF(ISBLANK('By Round'!K36),"",'By Round'!K36)</f>
+        <f>IF(ISBLANK('By Round'!K12),"",'By Round'!K12)</f>
         <v/>
       </c>
       <c r="L42" s="20">
@@ -5901,46 +5901,46 @@
     </row>
     <row r="43">
       <c r="A43" s="15" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B43" s="15">
-        <f>'By Round'!A39</f>
+        <f>'By Round'!A15</f>
         <v/>
       </c>
       <c r="C43" s="15">
-        <f>'By Round'!B39</f>
+        <f>'By Round'!B15</f>
         <v/>
       </c>
       <c r="D43" s="15">
-        <f>'By Round'!C39</f>
+        <f>'By Round'!C15</f>
         <v/>
       </c>
       <c r="E43" s="15">
-        <f>'By Round'!D39</f>
+        <f>'By Round'!D15</f>
         <v/>
       </c>
       <c r="F43" s="15">
-        <f>IF(ISBLANK('By Round'!F40),"",'By Round'!F40)</f>
+        <f>IF(ISBLANK('By Round'!F16),"",'By Round'!F16)</f>
         <v/>
       </c>
       <c r="G43">
-        <f>IF(ISBLANK('By Round'!G40),"",'By Round'!G40)</f>
+        <f>IF(ISBLANK('By Round'!G16),"",'By Round'!G16)</f>
         <v/>
       </c>
       <c r="H43">
-        <f>IF(ISBLANK('By Round'!H40),"",'By Round'!H40)</f>
+        <f>IF(ISBLANK('By Round'!H16),"",'By Round'!H16)</f>
         <v/>
       </c>
       <c r="I43">
-        <f>IF(ISBLANK('By Round'!I40),"",'By Round'!I40)</f>
+        <f>IF(ISBLANK('By Round'!I16),"",'By Round'!I16)</f>
         <v/>
       </c>
       <c r="J43">
-        <f>IF(ISBLANK('By Round'!J40),"",'By Round'!J40)</f>
+        <f>IF(ISBLANK('By Round'!J16),"",'By Round'!J16)</f>
         <v/>
       </c>
       <c r="K43">
-        <f>IF(ISBLANK('By Round'!K40),"",'By Round'!K40)</f>
+        <f>IF(ISBLANK('By Round'!K16),"",'By Round'!K16)</f>
         <v/>
       </c>
       <c r="L43" s="16">
@@ -6026,43 +6026,43 @@
     </row>
     <row r="44">
       <c r="B44" s="15">
-        <f>'By Round'!A3</f>
+        <f>'By Round'!A27</f>
         <v/>
       </c>
       <c r="C44" s="15">
-        <f>'By Round'!B6</f>
+        <f>'By Round'!B30</f>
         <v/>
       </c>
       <c r="D44" s="15">
-        <f>'By Round'!C6</f>
+        <f>'By Round'!C30</f>
         <v/>
       </c>
       <c r="E44" s="15">
-        <f>'By Round'!D6</f>
+        <f>'By Round'!D30</f>
         <v/>
       </c>
       <c r="F44" s="15">
-        <f>IF(ISBLANK('By Round'!F7),"",'By Round'!F7)</f>
+        <f>IF(ISBLANK('By Round'!F31),"",'By Round'!F31)</f>
         <v/>
       </c>
       <c r="G44">
-        <f>IF(ISBLANK('By Round'!G7),"",'By Round'!G7)</f>
+        <f>IF(ISBLANK('By Round'!G31),"",'By Round'!G31)</f>
         <v/>
       </c>
       <c r="H44">
-        <f>IF(ISBLANK('By Round'!H7),"",'By Round'!H7)</f>
+        <f>IF(ISBLANK('By Round'!H31),"",'By Round'!H31)</f>
         <v/>
       </c>
       <c r="I44">
-        <f>IF(ISBLANK('By Round'!I7),"",'By Round'!I7)</f>
+        <f>IF(ISBLANK('By Round'!I31),"",'By Round'!I31)</f>
         <v/>
       </c>
       <c r="J44">
-        <f>IF(ISBLANK('By Round'!J7),"",'By Round'!J7)</f>
+        <f>IF(ISBLANK('By Round'!J31),"",'By Round'!J31)</f>
         <v/>
       </c>
       <c r="K44">
-        <f>IF(ISBLANK('By Round'!K7),"",'By Round'!K7)</f>
+        <f>IF(ISBLANK('By Round'!K31),"",'By Round'!K31)</f>
         <v/>
       </c>
       <c r="L44" s="16">
@@ -6148,43 +6148,43 @@
     </row>
     <row r="45">
       <c r="B45" s="15">
-        <f>'By Round'!A15</f>
+        <f>'By Round'!A39</f>
         <v/>
       </c>
       <c r="C45" s="15">
-        <f>'By Round'!B21</f>
+        <f>'By Round'!B45</f>
         <v/>
       </c>
       <c r="D45" s="15">
-        <f>'By Round'!C21</f>
+        <f>'By Round'!C45</f>
         <v/>
       </c>
       <c r="E45" s="15">
-        <f>'By Round'!D21</f>
+        <f>'By Round'!D45</f>
         <v/>
       </c>
       <c r="F45" s="15">
-        <f>IF(ISBLANK('By Round'!F22),"",'By Round'!F22)</f>
+        <f>IF(ISBLANK('By Round'!F46),"",'By Round'!F46)</f>
         <v/>
       </c>
       <c r="G45">
-        <f>IF(ISBLANK('By Round'!G22),"",'By Round'!G22)</f>
+        <f>IF(ISBLANK('By Round'!G46),"",'By Round'!G46)</f>
         <v/>
       </c>
       <c r="H45">
-        <f>IF(ISBLANK('By Round'!H22),"",'By Round'!H22)</f>
+        <f>IF(ISBLANK('By Round'!H46),"",'By Round'!H46)</f>
         <v/>
       </c>
       <c r="I45">
-        <f>IF(ISBLANK('By Round'!I22),"",'By Round'!I22)</f>
+        <f>IF(ISBLANK('By Round'!I46),"",'By Round'!I46)</f>
         <v/>
       </c>
       <c r="J45">
-        <f>IF(ISBLANK('By Round'!J22),"",'By Round'!J22)</f>
+        <f>IF(ISBLANK('By Round'!J46),"",'By Round'!J46)</f>
         <v/>
       </c>
       <c r="K45">
-        <f>IF(ISBLANK('By Round'!K22),"",'By Round'!K22)</f>
+        <f>IF(ISBLANK('By Round'!K46),"",'By Round'!K46)</f>
         <v/>
       </c>
       <c r="L45" s="16">
@@ -6271,43 +6271,43 @@
     <row r="46">
       <c r="A46" s="7" t="n"/>
       <c r="B46" s="19">
-        <f>'By Round'!A27</f>
+        <f>'By Round'!A3</f>
         <v/>
       </c>
       <c r="C46" s="19">
-        <f>'By Round'!B36</f>
+        <f>'By Round'!B12</f>
         <v/>
       </c>
       <c r="D46" s="19">
-        <f>'By Round'!C36</f>
+        <f>'By Round'!C12</f>
         <v/>
       </c>
       <c r="E46" s="19">
-        <f>'By Round'!D36</f>
+        <f>'By Round'!D12</f>
         <v/>
       </c>
       <c r="F46" s="19">
-        <f>IF(ISBLANK('By Round'!F37),"",'By Round'!F37)</f>
+        <f>IF(ISBLANK('By Round'!F13),"",'By Round'!F13)</f>
         <v/>
       </c>
       <c r="G46" s="7">
-        <f>IF(ISBLANK('By Round'!G37),"",'By Round'!G37)</f>
+        <f>IF(ISBLANK('By Round'!G13),"",'By Round'!G13)</f>
         <v/>
       </c>
       <c r="H46" s="7">
-        <f>IF(ISBLANK('By Round'!H37),"",'By Round'!H37)</f>
+        <f>IF(ISBLANK('By Round'!H13),"",'By Round'!H13)</f>
         <v/>
       </c>
       <c r="I46" s="7">
-        <f>IF(ISBLANK('By Round'!I37),"",'By Round'!I37)</f>
+        <f>IF(ISBLANK('By Round'!I13),"",'By Round'!I13)</f>
         <v/>
       </c>
       <c r="J46" s="7">
-        <f>IF(ISBLANK('By Round'!J37),"",'By Round'!J37)</f>
+        <f>IF(ISBLANK('By Round'!J13),"",'By Round'!J13)</f>
         <v/>
       </c>
       <c r="K46" s="7">
-        <f>IF(ISBLANK('By Round'!K37),"",'By Round'!K37)</f>
+        <f>IF(ISBLANK('By Round'!K13),"",'By Round'!K13)</f>
         <v/>
       </c>
       <c r="L46" s="20">
@@ -6393,46 +6393,46 @@
     </row>
     <row r="47">
       <c r="A47" s="15" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B47" s="15">
-        <f>'By Round'!A39</f>
+        <f>'By Round'!A15</f>
         <v/>
       </c>
       <c r="C47" s="15">
-        <f>'By Round'!B39</f>
+        <f>'By Round'!B15</f>
         <v/>
       </c>
       <c r="D47" s="15">
-        <f>'By Round'!C39</f>
+        <f>'By Round'!C15</f>
         <v/>
       </c>
       <c r="E47" s="15">
-        <f>'By Round'!D39</f>
+        <f>'By Round'!D15</f>
         <v/>
       </c>
       <c r="F47" s="15">
-        <f>IF(ISBLANK('By Round'!F41),"",'By Round'!F41)</f>
+        <f>IF(ISBLANK('By Round'!F17),"",'By Round'!F17)</f>
         <v/>
       </c>
       <c r="G47">
-        <f>IF(ISBLANK('By Round'!G41),"",'By Round'!G41)</f>
+        <f>IF(ISBLANK('By Round'!G17),"",'By Round'!G17)</f>
         <v/>
       </c>
       <c r="H47">
-        <f>IF(ISBLANK('By Round'!H41),"",'By Round'!H41)</f>
+        <f>IF(ISBLANK('By Round'!H17),"",'By Round'!H17)</f>
         <v/>
       </c>
       <c r="I47">
-        <f>IF(ISBLANK('By Round'!I41),"",'By Round'!I41)</f>
+        <f>IF(ISBLANK('By Round'!I17),"",'By Round'!I17)</f>
         <v/>
       </c>
       <c r="J47">
-        <f>IF(ISBLANK('By Round'!J41),"",'By Round'!J41)</f>
+        <f>IF(ISBLANK('By Round'!J17),"",'By Round'!J17)</f>
         <v/>
       </c>
       <c r="K47">
-        <f>IF(ISBLANK('By Round'!K41),"",'By Round'!K41)</f>
+        <f>IF(ISBLANK('By Round'!K17),"",'By Round'!K17)</f>
         <v/>
       </c>
       <c r="L47" s="16">
@@ -6518,43 +6518,43 @@
     </row>
     <row r="48">
       <c r="B48" s="15">
-        <f>'By Round'!A3</f>
+        <f>'By Round'!A27</f>
         <v/>
       </c>
       <c r="C48" s="15">
-        <f>'By Round'!B6</f>
+        <f>'By Round'!B30</f>
         <v/>
       </c>
       <c r="D48" s="15">
-        <f>'By Round'!C6</f>
+        <f>'By Round'!C30</f>
         <v/>
       </c>
       <c r="E48" s="15">
-        <f>'By Round'!D6</f>
+        <f>'By Round'!D30</f>
         <v/>
       </c>
       <c r="F48" s="15">
-        <f>IF(ISBLANK('By Round'!F8),"",'By Round'!F8)</f>
+        <f>IF(ISBLANK('By Round'!F32),"",'By Round'!F32)</f>
         <v/>
       </c>
       <c r="G48">
-        <f>IF(ISBLANK('By Round'!G8),"",'By Round'!G8)</f>
+        <f>IF(ISBLANK('By Round'!G32),"",'By Round'!G32)</f>
         <v/>
       </c>
       <c r="H48">
-        <f>IF(ISBLANK('By Round'!H8),"",'By Round'!H8)</f>
+        <f>IF(ISBLANK('By Round'!H32),"",'By Round'!H32)</f>
         <v/>
       </c>
       <c r="I48">
-        <f>IF(ISBLANK('By Round'!I8),"",'By Round'!I8)</f>
+        <f>IF(ISBLANK('By Round'!I32),"",'By Round'!I32)</f>
         <v/>
       </c>
       <c r="J48">
-        <f>IF(ISBLANK('By Round'!J8),"",'By Round'!J8)</f>
+        <f>IF(ISBLANK('By Round'!J32),"",'By Round'!J32)</f>
         <v/>
       </c>
       <c r="K48">
-        <f>IF(ISBLANK('By Round'!K8),"",'By Round'!K8)</f>
+        <f>IF(ISBLANK('By Round'!K32),"",'By Round'!K32)</f>
         <v/>
       </c>
       <c r="L48" s="16">
@@ -6640,43 +6640,43 @@
     </row>
     <row r="49">
       <c r="B49" s="15">
-        <f>'By Round'!A15</f>
+        <f>'By Round'!A39</f>
         <v/>
       </c>
       <c r="C49" s="15">
-        <f>'By Round'!B21</f>
+        <f>'By Round'!B45</f>
         <v/>
       </c>
       <c r="D49" s="15">
-        <f>'By Round'!C21</f>
+        <f>'By Round'!C45</f>
         <v/>
       </c>
       <c r="E49" s="15">
-        <f>'By Round'!D21</f>
+        <f>'By Round'!D45</f>
         <v/>
       </c>
       <c r="F49" s="15">
-        <f>IF(ISBLANK('By Round'!F23),"",'By Round'!F23)</f>
+        <f>IF(ISBLANK('By Round'!F47),"",'By Round'!F47)</f>
         <v/>
       </c>
       <c r="G49">
-        <f>IF(ISBLANK('By Round'!G23),"",'By Round'!G23)</f>
+        <f>IF(ISBLANK('By Round'!G47),"",'By Round'!G47)</f>
         <v/>
       </c>
       <c r="H49">
-        <f>IF(ISBLANK('By Round'!H23),"",'By Round'!H23)</f>
+        <f>IF(ISBLANK('By Round'!H47),"",'By Round'!H47)</f>
         <v/>
       </c>
       <c r="I49">
-        <f>IF(ISBLANK('By Round'!I23),"",'By Round'!I23)</f>
+        <f>IF(ISBLANK('By Round'!I47),"",'By Round'!I47)</f>
         <v/>
       </c>
       <c r="J49">
-        <f>IF(ISBLANK('By Round'!J23),"",'By Round'!J23)</f>
+        <f>IF(ISBLANK('By Round'!J47),"",'By Round'!J47)</f>
         <v/>
       </c>
       <c r="K49">
-        <f>IF(ISBLANK('By Round'!K23),"",'By Round'!K23)</f>
+        <f>IF(ISBLANK('By Round'!K47),"",'By Round'!K47)</f>
         <v/>
       </c>
       <c r="L49" s="16">
@@ -6763,43 +6763,43 @@
     <row r="50">
       <c r="A50" s="7" t="n"/>
       <c r="B50" s="19">
-        <f>'By Round'!A27</f>
+        <f>'By Round'!A3</f>
         <v/>
       </c>
       <c r="C50" s="19">
-        <f>'By Round'!B36</f>
+        <f>'By Round'!B12</f>
         <v/>
       </c>
       <c r="D50" s="19">
-        <f>'By Round'!C36</f>
+        <f>'By Round'!C12</f>
         <v/>
       </c>
       <c r="E50" s="19">
-        <f>'By Round'!D36</f>
+        <f>'By Round'!D12</f>
         <v/>
       </c>
       <c r="F50" s="19">
-        <f>IF(ISBLANK('By Round'!F38),"",'By Round'!F38)</f>
+        <f>IF(ISBLANK('By Round'!F14),"",'By Round'!F14)</f>
         <v/>
       </c>
       <c r="G50" s="7">
-        <f>IF(ISBLANK('By Round'!G38),"",'By Round'!G38)</f>
+        <f>IF(ISBLANK('By Round'!G14),"",'By Round'!G14)</f>
         <v/>
       </c>
       <c r="H50" s="7">
-        <f>IF(ISBLANK('By Round'!H38),"",'By Round'!H38)</f>
+        <f>IF(ISBLANK('By Round'!H14),"",'By Round'!H14)</f>
         <v/>
       </c>
       <c r="I50" s="7">
-        <f>IF(ISBLANK('By Round'!I38),"",'By Round'!I38)</f>
+        <f>IF(ISBLANK('By Round'!I14),"",'By Round'!I14)</f>
         <v/>
       </c>
       <c r="J50" s="7">
-        <f>IF(ISBLANK('By Round'!J38),"",'By Round'!J38)</f>
+        <f>IF(ISBLANK('By Round'!J14),"",'By Round'!J14)</f>
         <v/>
       </c>
       <c r="K50" s="7">
-        <f>IF(ISBLANK('By Round'!K38),"",'By Round'!K38)</f>
+        <f>IF(ISBLANK('By Round'!K14),"",'By Round'!K14)</f>
         <v/>
       </c>
       <c r="L50" s="20">

--- a/mitchell8x3.xlsx
+++ b/mitchell8x3.xlsx
@@ -568,12 +568,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Name 73</t>
+          <t>Name 25</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Name 44</t>
+          <t>Name 41</t>
         </is>
       </c>
       <c r="D8" s="4">
@@ -591,12 +591,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Name 22</t>
+          <t>Name 57</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Name 60</t>
+          <t>Name 43</t>
         </is>
       </c>
       <c r="D9" s="4">
@@ -614,12 +614,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Name 64</t>
+          <t>Name 84</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Name 38</t>
+          <t>Name 16</t>
         </is>
       </c>
       <c r="D10" s="4">
@@ -637,12 +637,12 @@
       </c>
       <c r="B11" s="7" t="inlineStr">
         <is>
-          <t>Name 28</t>
+          <t>Name 40</t>
         </is>
       </c>
       <c r="C11" s="7" t="inlineStr">
         <is>
-          <t>Name 76</t>
+          <t>Name 64</t>
         </is>
       </c>
       <c r="D11" s="8">
@@ -693,12 +693,12 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Name 66</t>
+          <t>Name 42</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Name 72</t>
+          <t>Name 35</t>
         </is>
       </c>
       <c r="D15" s="4">
@@ -716,12 +716,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Name 68</t>
+          <t>Name 65</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Name 17</t>
+          <t>Name 70</t>
         </is>
       </c>
       <c r="D16" s="4">
@@ -739,12 +739,12 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Name 12</t>
+          <t>Name 27</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Name 60</t>
+          <t>Name 71</t>
         </is>
       </c>
       <c r="D17" s="4">
@@ -762,12 +762,12 @@
       </c>
       <c r="B18" s="7" t="inlineStr">
         <is>
-          <t>Name 11</t>
+          <t>Name 48</t>
         </is>
       </c>
       <c r="C18" s="7" t="inlineStr">
         <is>
-          <t>Name 30</t>
+          <t>Name 52</t>
         </is>
       </c>
       <c r="D18" s="8">
@@ -6907,7 +6907,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K50"/>
+  <dimension ref="A1:M49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6919,888 +6919,902 @@
   </cols>
   <sheetData>
     <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>Round</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>Table</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>EW</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>Board</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>Vul</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>Contract</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>By</t>
+        </is>
+      </c>
+      <c r="I1" s="2" t="inlineStr">
+        <is>
+          <t>Result</t>
+        </is>
+      </c>
       <c r="J1" s="2" t="inlineStr">
         <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="K1" s="2" t="inlineStr">
+        <is>
+          <t>EW</t>
+        </is>
+      </c>
+      <c r="L1" s="2" t="inlineStr">
+        <is>
           <t>Scores</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="inlineStr">
-        <is>
-          <t>Round</t>
-        </is>
-      </c>
-      <c r="B2" s="2" t="inlineStr">
-        <is>
-          <t>Table</t>
-        </is>
-      </c>
-      <c r="C2" s="2" t="inlineStr">
+      <c r="A2" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2" s="15" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="B3" s="15" t="n"/>
+      <c r="C3" s="15" t="n"/>
+      <c r="D3" s="15" t="n"/>
+      <c r="E3" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="F3" s="15" t="inlineStr">
         <is>
           <t>NS</t>
         </is>
       </c>
-      <c r="D2" s="2" t="inlineStr">
+    </row>
+    <row r="4">
+      <c r="B4" s="19" t="n"/>
+      <c r="C4" s="19" t="n"/>
+      <c r="D4" s="19" t="n"/>
+      <c r="E4" s="19" t="n">
+        <v>3</v>
+      </c>
+      <c r="F4" s="19" t="inlineStr">
         <is>
           <t>EW</t>
         </is>
       </c>
-      <c r="E2" s="2" t="inlineStr">
-        <is>
-          <t>Board</t>
-        </is>
-      </c>
-      <c r="F2" s="2" t="inlineStr">
-        <is>
-          <t>Vul</t>
-        </is>
-      </c>
-      <c r="G2" s="2" t="inlineStr">
-        <is>
-          <t>Contract</t>
-        </is>
-      </c>
-      <c r="H2" s="2" t="inlineStr">
-        <is>
-          <t>By</t>
-        </is>
-      </c>
-      <c r="I2" s="2" t="inlineStr">
-        <is>
-          <t>Result</t>
-        </is>
-      </c>
-      <c r="J2" s="2" t="inlineStr">
+      <c r="G4" s="7" t="n"/>
+      <c r="H4" s="7" t="n"/>
+      <c r="I4" s="7" t="n"/>
+      <c r="J4" s="7" t="n"/>
+      <c r="K4" s="7" t="n"/>
+      <c r="L4" s="7" t="n"/>
+    </row>
+    <row r="5">
+      <c r="B5" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="C5" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="E5" s="15" t="n">
+        <v>4</v>
+      </c>
+      <c r="F5" s="15" t="inlineStr">
+        <is>
+          <t>Both</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="B6" s="15" t="n"/>
+      <c r="C6" s="15" t="n"/>
+      <c r="D6" s="15" t="n"/>
+      <c r="E6" s="15" t="n">
+        <v>5</v>
+      </c>
+      <c r="F6" s="15" t="inlineStr">
         <is>
           <t>NS</t>
         </is>
       </c>
-      <c r="K2" s="2" t="inlineStr">
+    </row>
+    <row r="7">
+      <c r="B7" s="19" t="n"/>
+      <c r="C7" s="19" t="n"/>
+      <c r="D7" s="19" t="n"/>
+      <c r="E7" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="F7" s="19" t="inlineStr">
         <is>
           <t>EW</t>
         </is>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="15" t="n">
+      <c r="G7" s="7" t="n"/>
+      <c r="H7" s="7" t="n"/>
+      <c r="I7" s="7" t="n"/>
+      <c r="J7" s="7" t="n"/>
+      <c r="K7" s="7" t="n"/>
+      <c r="L7" s="7" t="n"/>
+    </row>
+    <row r="8">
+      <c r="B8" s="15" t="n">
+        <v>3</v>
+      </c>
+      <c r="C8" s="15" t="n">
+        <v>3</v>
+      </c>
+      <c r="D8" s="15" t="n">
+        <v>3</v>
+      </c>
+      <c r="E8" s="15" t="n">
+        <v>7</v>
+      </c>
+      <c r="F8" s="15" t="inlineStr">
+        <is>
+          <t>Both</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="B9" s="15" t="n"/>
+      <c r="C9" s="15" t="n"/>
+      <c r="D9" s="15" t="n"/>
+      <c r="E9" s="15" t="n">
+        <v>8</v>
+      </c>
+      <c r="F9" s="15" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="B10" s="19" t="n"/>
+      <c r="C10" s="19" t="n"/>
+      <c r="D10" s="19" t="n"/>
+      <c r="E10" s="19" t="n">
+        <v>9</v>
+      </c>
+      <c r="F10" s="19" t="inlineStr">
+        <is>
+          <t>EW</t>
+        </is>
+      </c>
+      <c r="G10" s="7" t="n"/>
+      <c r="H10" s="7" t="n"/>
+      <c r="I10" s="7" t="n"/>
+      <c r="J10" s="7" t="n"/>
+      <c r="K10" s="7" t="n"/>
+      <c r="L10" s="7" t="n"/>
+    </row>
+    <row r="11">
+      <c r="B11" s="15" t="n">
+        <v>4</v>
+      </c>
+      <c r="C11" s="15" t="n">
+        <v>4</v>
+      </c>
+      <c r="D11" s="15" t="n">
+        <v>4</v>
+      </c>
+      <c r="E11" s="15" t="n">
+        <v>10</v>
+      </c>
+      <c r="F11" s="15" t="inlineStr">
+        <is>
+          <t>Both</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="B12" s="15" t="n"/>
+      <c r="C12" s="15" t="n"/>
+      <c r="D12" s="15" t="n"/>
+      <c r="E12" s="15" t="n">
+        <v>11</v>
+      </c>
+      <c r="F12" s="15" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="7" t="n"/>
+      <c r="B13" s="19" t="n"/>
+      <c r="C13" s="19" t="n"/>
+      <c r="D13" s="19" t="n"/>
+      <c r="E13" s="19" t="n">
+        <v>12</v>
+      </c>
+      <c r="F13" s="19" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="G13" s="7" t="n"/>
+      <c r="H13" s="7" t="n"/>
+      <c r="I13" s="7" t="n"/>
+      <c r="J13" s="7" t="n"/>
+      <c r="K13" s="7" t="n"/>
+      <c r="L13" s="7" t="n"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="B14" s="15" t="n">
         <v>1</v>
       </c>
-      <c r="B3" s="15" t="n">
+      <c r="C14" s="15" t="n">
         <v>1</v>
       </c>
-      <c r="C3" s="15" t="n">
+      <c r="D14" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="E14" s="15" t="n">
+        <v>10</v>
+      </c>
+      <c r="F14" s="15" t="inlineStr">
+        <is>
+          <t>Both</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="B15" s="15" t="n"/>
+      <c r="C15" s="15" t="n"/>
+      <c r="D15" s="15" t="n"/>
+      <c r="E15" s="15" t="n">
+        <v>11</v>
+      </c>
+      <c r="F15" s="15" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="B16" s="19" t="n"/>
+      <c r="C16" s="19" t="n"/>
+      <c r="D16" s="19" t="n"/>
+      <c r="E16" s="19" t="n">
+        <v>12</v>
+      </c>
+      <c r="F16" s="19" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="G16" s="7" t="n"/>
+      <c r="H16" s="7" t="n"/>
+      <c r="I16" s="7" t="n"/>
+      <c r="J16" s="7" t="n"/>
+      <c r="K16" s="7" t="n"/>
+      <c r="L16" s="7" t="n"/>
+    </row>
+    <row r="17">
+      <c r="B17" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="C17" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="D17" s="15" t="n">
         <v>1</v>
       </c>
-      <c r="D3" s="15" t="n">
+      <c r="E17" s="15" t="n">
+        <v>7</v>
+      </c>
+      <c r="F17" s="15" t="inlineStr">
+        <is>
+          <t>Both</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="B18" s="15" t="n"/>
+      <c r="C18" s="15" t="n"/>
+      <c r="D18" s="15" t="n"/>
+      <c r="E18" s="15" t="n">
+        <v>8</v>
+      </c>
+      <c r="F18" s="15" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="B19" s="19" t="n"/>
+      <c r="C19" s="19" t="n"/>
+      <c r="D19" s="19" t="n"/>
+      <c r="E19" s="19" t="n">
+        <v>9</v>
+      </c>
+      <c r="F19" s="19" t="inlineStr">
+        <is>
+          <t>EW</t>
+        </is>
+      </c>
+      <c r="G19" s="7" t="n"/>
+      <c r="H19" s="7" t="n"/>
+      <c r="I19" s="7" t="n"/>
+      <c r="J19" s="7" t="n"/>
+      <c r="K19" s="7" t="n"/>
+      <c r="L19" s="7" t="n"/>
+    </row>
+    <row r="20">
+      <c r="B20" s="15" t="n">
+        <v>3</v>
+      </c>
+      <c r="C20" s="15" t="n">
+        <v>3</v>
+      </c>
+      <c r="D20" s="15" t="n">
+        <v>4</v>
+      </c>
+      <c r="E20" s="15" t="n">
+        <v>4</v>
+      </c>
+      <c r="F20" s="15" t="inlineStr">
+        <is>
+          <t>Both</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="B21" s="15" t="n"/>
+      <c r="C21" s="15" t="n"/>
+      <c r="D21" s="15" t="n"/>
+      <c r="E21" s="15" t="n">
+        <v>5</v>
+      </c>
+      <c r="F21" s="15" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="B22" s="19" t="n"/>
+      <c r="C22" s="19" t="n"/>
+      <c r="D22" s="19" t="n"/>
+      <c r="E22" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="F22" s="19" t="inlineStr">
+        <is>
+          <t>EW</t>
+        </is>
+      </c>
+      <c r="G22" s="7" t="n"/>
+      <c r="H22" s="7" t="n"/>
+      <c r="I22" s="7" t="n"/>
+      <c r="J22" s="7" t="n"/>
+      <c r="K22" s="7" t="n"/>
+      <c r="L22" s="7" t="n"/>
+    </row>
+    <row r="23">
+      <c r="B23" s="15" t="n">
+        <v>4</v>
+      </c>
+      <c r="C23" s="15" t="n">
+        <v>4</v>
+      </c>
+      <c r="D23" s="15" t="n">
+        <v>3</v>
+      </c>
+      <c r="E23" s="15" t="n">
         <v>1</v>
       </c>
-      <c r="E3" s="15" t="n">
+      <c r="F23" s="15" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="B24" s="15" t="n"/>
+      <c r="C24" s="15" t="n"/>
+      <c r="D24" s="15" t="n"/>
+      <c r="E24" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="F24" s="15" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="7" t="n"/>
+      <c r="B25" s="19" t="n"/>
+      <c r="C25" s="19" t="n"/>
+      <c r="D25" s="19" t="n"/>
+      <c r="E25" s="19" t="n">
+        <v>3</v>
+      </c>
+      <c r="F25" s="19" t="inlineStr">
+        <is>
+          <t>EW</t>
+        </is>
+      </c>
+      <c r="G25" s="7" t="n"/>
+      <c r="H25" s="7" t="n"/>
+      <c r="I25" s="7" t="n"/>
+      <c r="J25" s="7" t="n"/>
+      <c r="K25" s="7" t="n"/>
+      <c r="L25" s="7" t="n"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="15" t="n">
+        <v>3</v>
+      </c>
+      <c r="B26" s="15" t="n">
         <v>1</v>
       </c>
-      <c r="F3" s="15" t="inlineStr">
+      <c r="C26" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="D26" s="15" t="n">
+        <v>4</v>
+      </c>
+      <c r="E26" s="15" t="n">
+        <v>7</v>
+      </c>
+      <c r="F26" s="15" t="inlineStr">
+        <is>
+          <t>Both</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="B27" s="15" t="n"/>
+      <c r="C27" s="15" t="n"/>
+      <c r="D27" s="15" t="n"/>
+      <c r="E27" s="15" t="n">
+        <v>8</v>
+      </c>
+      <c r="F27" s="15" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="B4" s="15" t="n"/>
-      <c r="C4" s="15" t="n"/>
-      <c r="D4" s="15" t="n"/>
-      <c r="E4" s="15" t="n">
+    <row r="28">
+      <c r="B28" s="19" t="n"/>
+      <c r="C28" s="19" t="n"/>
+      <c r="D28" s="19" t="n"/>
+      <c r="E28" s="19" t="n">
+        <v>9</v>
+      </c>
+      <c r="F28" s="19" t="inlineStr">
+        <is>
+          <t>EW</t>
+        </is>
+      </c>
+      <c r="G28" s="7" t="n"/>
+      <c r="H28" s="7" t="n"/>
+      <c r="I28" s="7" t="n"/>
+      <c r="J28" s="7" t="n"/>
+      <c r="K28" s="7" t="n"/>
+      <c r="L28" s="7" t="n"/>
+    </row>
+    <row r="29">
+      <c r="B29" s="15" t="n">
         <v>2</v>
       </c>
-      <c r="F4" s="15" t="inlineStr">
+      <c r="C29" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="D29" s="15" t="n">
+        <v>3</v>
+      </c>
+      <c r="E29" s="15" t="n">
+        <v>10</v>
+      </c>
+      <c r="F29" s="15" t="inlineStr">
+        <is>
+          <t>Both</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="B30" s="15" t="n"/>
+      <c r="C30" s="15" t="n"/>
+      <c r="D30" s="15" t="n"/>
+      <c r="E30" s="15" t="n">
+        <v>11</v>
+      </c>
+      <c r="F30" s="15" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="B31" s="19" t="n"/>
+      <c r="C31" s="19" t="n"/>
+      <c r="D31" s="19" t="n"/>
+      <c r="E31" s="19" t="n">
+        <v>12</v>
+      </c>
+      <c r="F31" s="19" t="inlineStr">
         <is>
           <t>NS</t>
         </is>
       </c>
-    </row>
-    <row r="5">
-      <c r="B5" s="19" t="n"/>
-      <c r="C5" s="19" t="n"/>
-      <c r="D5" s="19" t="n"/>
-      <c r="E5" s="19" t="n">
+      <c r="G31" s="7" t="n"/>
+      <c r="H31" s="7" t="n"/>
+      <c r="I31" s="7" t="n"/>
+      <c r="J31" s="7" t="n"/>
+      <c r="K31" s="7" t="n"/>
+      <c r="L31" s="7" t="n"/>
+    </row>
+    <row r="32">
+      <c r="B32" s="15" t="n">
         <v>3</v>
       </c>
-      <c r="F5" s="19" t="inlineStr">
+      <c r="C32" s="15" t="n">
+        <v>3</v>
+      </c>
+      <c r="D32" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="E32" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="F32" s="15" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="B33" s="15" t="n"/>
+      <c r="C33" s="15" t="n"/>
+      <c r="D33" s="15" t="n"/>
+      <c r="E33" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="F33" s="15" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="B34" s="19" t="n"/>
+      <c r="C34" s="19" t="n"/>
+      <c r="D34" s="19" t="n"/>
+      <c r="E34" s="19" t="n">
+        <v>3</v>
+      </c>
+      <c r="F34" s="19" t="inlineStr">
         <is>
           <t>EW</t>
         </is>
       </c>
-      <c r="G5" s="7" t="n"/>
-      <c r="H5" s="7" t="n"/>
-      <c r="I5" s="7" t="n"/>
-      <c r="J5" s="7" t="n"/>
-      <c r="K5" s="7" t="n"/>
-    </row>
-    <row r="6">
-      <c r="B6" s="15" t="n">
+      <c r="G34" s="7" t="n"/>
+      <c r="H34" s="7" t="n"/>
+      <c r="I34" s="7" t="n"/>
+      <c r="J34" s="7" t="n"/>
+      <c r="K34" s="7" t="n"/>
+      <c r="L34" s="7" t="n"/>
+    </row>
+    <row r="35">
+      <c r="B35" s="15" t="n">
+        <v>4</v>
+      </c>
+      <c r="C35" s="15" t="n">
+        <v>4</v>
+      </c>
+      <c r="D35" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="E35" s="15" t="n">
+        <v>4</v>
+      </c>
+      <c r="F35" s="15" t="inlineStr">
+        <is>
+          <t>Both</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="B36" s="15" t="n"/>
+      <c r="C36" s="15" t="n"/>
+      <c r="D36" s="15" t="n"/>
+      <c r="E36" s="15" t="n">
+        <v>5</v>
+      </c>
+      <c r="F36" s="15" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="7" t="n"/>
+      <c r="B37" s="19" t="n"/>
+      <c r="C37" s="19" t="n"/>
+      <c r="D37" s="19" t="n"/>
+      <c r="E37" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="F37" s="19" t="inlineStr">
+        <is>
+          <t>EW</t>
+        </is>
+      </c>
+      <c r="G37" s="7" t="n"/>
+      <c r="H37" s="7" t="n"/>
+      <c r="I37" s="7" t="n"/>
+      <c r="J37" s="7" t="n"/>
+      <c r="K37" s="7" t="n"/>
+      <c r="L37" s="7" t="n"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="15" t="n">
+        <v>4</v>
+      </c>
+      <c r="B38" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="C38" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="D38" s="15" t="n">
+        <v>3</v>
+      </c>
+      <c r="E38" s="15" t="n">
+        <v>4</v>
+      </c>
+      <c r="F38" s="15" t="inlineStr">
+        <is>
+          <t>Both</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="B39" s="15" t="n"/>
+      <c r="C39" s="15" t="n"/>
+      <c r="D39" s="15" t="n"/>
+      <c r="E39" s="15" t="n">
+        <v>5</v>
+      </c>
+      <c r="F39" s="15" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="B40" s="19" t="n"/>
+      <c r="C40" s="19" t="n"/>
+      <c r="D40" s="19" t="n"/>
+      <c r="E40" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="F40" s="19" t="inlineStr">
+        <is>
+          <t>EW</t>
+        </is>
+      </c>
+      <c r="G40" s="7" t="n"/>
+      <c r="H40" s="7" t="n"/>
+      <c r="I40" s="7" t="n"/>
+      <c r="J40" s="7" t="n"/>
+      <c r="K40" s="7" t="n"/>
+      <c r="L40" s="7" t="n"/>
+    </row>
+    <row r="41">
+      <c r="B41" s="15" t="n">
         <v>2</v>
       </c>
-      <c r="C6" s="15" t="n">
+      <c r="C41" s="15" t="n">
         <v>2</v>
       </c>
-      <c r="D6" s="15" t="n">
+      <c r="D41" s="15" t="n">
+        <v>4</v>
+      </c>
+      <c r="E41" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="F41" s="15" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="B42" s="15" t="n"/>
+      <c r="C42" s="15" t="n"/>
+      <c r="D42" s="15" t="n"/>
+      <c r="E42" s="15" t="n">
         <v>2</v>
       </c>
-      <c r="E6" s="15" t="n">
+      <c r="F42" s="15" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="B43" s="19" t="n"/>
+      <c r="C43" s="19" t="n"/>
+      <c r="D43" s="19" t="n"/>
+      <c r="E43" s="19" t="n">
+        <v>3</v>
+      </c>
+      <c r="F43" s="19" t="inlineStr">
+        <is>
+          <t>EW</t>
+        </is>
+      </c>
+      <c r="G43" s="7" t="n"/>
+      <c r="H43" s="7" t="n"/>
+      <c r="I43" s="7" t="n"/>
+      <c r="J43" s="7" t="n"/>
+      <c r="K43" s="7" t="n"/>
+      <c r="L43" s="7" t="n"/>
+    </row>
+    <row r="44">
+      <c r="B44" s="15" t="n">
+        <v>3</v>
+      </c>
+      <c r="C44" s="15" t="n">
+        <v>3</v>
+      </c>
+      <c r="D44" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="E44" s="15" t="n">
+        <v>10</v>
+      </c>
+      <c r="F44" s="15" t="inlineStr">
+        <is>
+          <t>Both</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="B45" s="15" t="n"/>
+      <c r="C45" s="15" t="n"/>
+      <c r="D45" s="15" t="n"/>
+      <c r="E45" s="15" t="n">
+        <v>11</v>
+      </c>
+      <c r="F45" s="15" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="B46" s="19" t="n"/>
+      <c r="C46" s="19" t="n"/>
+      <c r="D46" s="19" t="n"/>
+      <c r="E46" s="19" t="n">
+        <v>12</v>
+      </c>
+      <c r="F46" s="19" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="G46" s="7" t="n"/>
+      <c r="H46" s="7" t="n"/>
+      <c r="I46" s="7" t="n"/>
+      <c r="J46" s="7" t="n"/>
+      <c r="K46" s="7" t="n"/>
+      <c r="L46" s="7" t="n"/>
+    </row>
+    <row r="47">
+      <c r="B47" s="15" t="n">
         <v>4</v>
       </c>
-      <c r="F6" s="15" t="inlineStr">
+      <c r="C47" s="15" t="n">
+        <v>4</v>
+      </c>
+      <c r="D47" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="E47" s="15" t="n">
+        <v>7</v>
+      </c>
+      <c r="F47" s="15" t="inlineStr">
         <is>
           <t>Both</t>
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="B7" s="15" t="n"/>
-      <c r="C7" s="15" t="n"/>
-      <c r="D7" s="15" t="n"/>
-      <c r="E7" s="15" t="n">
-        <v>5</v>
-      </c>
-      <c r="F7" s="15" t="inlineStr">
-        <is>
-          <t>NS</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="B8" s="19" t="n"/>
-      <c r="C8" s="19" t="n"/>
-      <c r="D8" s="19" t="n"/>
-      <c r="E8" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="F8" s="19" t="inlineStr">
+    <row r="48">
+      <c r="B48" s="15" t="n"/>
+      <c r="C48" s="15" t="n"/>
+      <c r="D48" s="15" t="n"/>
+      <c r="E48" s="15" t="n">
+        <v>8</v>
+      </c>
+      <c r="F48" s="15" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="7" t="n"/>
+      <c r="B49" s="19" t="n"/>
+      <c r="C49" s="19" t="n"/>
+      <c r="D49" s="19" t="n"/>
+      <c r="E49" s="19" t="n">
+        <v>9</v>
+      </c>
+      <c r="F49" s="19" t="inlineStr">
         <is>
           <t>EW</t>
         </is>
       </c>
-      <c r="G8" s="7" t="n"/>
-      <c r="H8" s="7" t="n"/>
-      <c r="I8" s="7" t="n"/>
-      <c r="J8" s="7" t="n"/>
-      <c r="K8" s="7" t="n"/>
-    </row>
-    <row r="9">
-      <c r="B9" s="15" t="n">
-        <v>3</v>
-      </c>
-      <c r="C9" s="15" t="n">
-        <v>3</v>
-      </c>
-      <c r="D9" s="15" t="n">
-        <v>3</v>
-      </c>
-      <c r="E9" s="15" t="n">
-        <v>7</v>
-      </c>
-      <c r="F9" s="15" t="inlineStr">
-        <is>
-          <t>Both</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="B10" s="15" t="n"/>
-      <c r="C10" s="15" t="n"/>
-      <c r="D10" s="15" t="n"/>
-      <c r="E10" s="15" t="n">
-        <v>8</v>
-      </c>
-      <c r="F10" s="15" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="B11" s="19" t="n"/>
-      <c r="C11" s="19" t="n"/>
-      <c r="D11" s="19" t="n"/>
-      <c r="E11" s="19" t="n">
-        <v>9</v>
-      </c>
-      <c r="F11" s="19" t="inlineStr">
-        <is>
-          <t>EW</t>
-        </is>
-      </c>
-      <c r="G11" s="7" t="n"/>
-      <c r="H11" s="7" t="n"/>
-      <c r="I11" s="7" t="n"/>
-      <c r="J11" s="7" t="n"/>
-      <c r="K11" s="7" t="n"/>
-    </row>
-    <row r="12">
-      <c r="B12" s="15" t="n">
-        <v>4</v>
-      </c>
-      <c r="C12" s="15" t="n">
-        <v>4</v>
-      </c>
-      <c r="D12" s="15" t="n">
-        <v>4</v>
-      </c>
-      <c r="E12" s="15" t="n">
-        <v>10</v>
-      </c>
-      <c r="F12" s="15" t="inlineStr">
-        <is>
-          <t>Both</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="B13" s="15" t="n"/>
-      <c r="C13" s="15" t="n"/>
-      <c r="D13" s="15" t="n"/>
-      <c r="E13" s="15" t="n">
-        <v>11</v>
-      </c>
-      <c r="F13" s="15" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="7" t="n"/>
-      <c r="B14" s="19" t="n"/>
-      <c r="C14" s="19" t="n"/>
-      <c r="D14" s="19" t="n"/>
-      <c r="E14" s="19" t="n">
-        <v>12</v>
-      </c>
-      <c r="F14" s="19" t="inlineStr">
-        <is>
-          <t>NS</t>
-        </is>
-      </c>
-      <c r="G14" s="7" t="n"/>
-      <c r="H14" s="7" t="n"/>
-      <c r="I14" s="7" t="n"/>
-      <c r="J14" s="7" t="n"/>
-      <c r="K14" s="7" t="n"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="15" t="n">
-        <v>2</v>
-      </c>
-      <c r="B15" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="C15" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="D15" s="15" t="n">
-        <v>2</v>
-      </c>
-      <c r="E15" s="15" t="n">
-        <v>10</v>
-      </c>
-      <c r="F15" s="15" t="inlineStr">
-        <is>
-          <t>Both</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="B16" s="15" t="n"/>
-      <c r="C16" s="15" t="n"/>
-      <c r="D16" s="15" t="n"/>
-      <c r="E16" s="15" t="n">
-        <v>11</v>
-      </c>
-      <c r="F16" s="15" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="B17" s="19" t="n"/>
-      <c r="C17" s="19" t="n"/>
-      <c r="D17" s="19" t="n"/>
-      <c r="E17" s="19" t="n">
-        <v>12</v>
-      </c>
-      <c r="F17" s="19" t="inlineStr">
-        <is>
-          <t>NS</t>
-        </is>
-      </c>
-      <c r="G17" s="7" t="n"/>
-      <c r="H17" s="7" t="n"/>
-      <c r="I17" s="7" t="n"/>
-      <c r="J17" s="7" t="n"/>
-      <c r="K17" s="7" t="n"/>
-    </row>
-    <row r="18">
-      <c r="B18" s="15" t="n">
-        <v>2</v>
-      </c>
-      <c r="C18" s="15" t="n">
-        <v>2</v>
-      </c>
-      <c r="D18" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="E18" s="15" t="n">
-        <v>7</v>
-      </c>
-      <c r="F18" s="15" t="inlineStr">
-        <is>
-          <t>Both</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="B19" s="15" t="n"/>
-      <c r="C19" s="15" t="n"/>
-      <c r="D19" s="15" t="n"/>
-      <c r="E19" s="15" t="n">
-        <v>8</v>
-      </c>
-      <c r="F19" s="15" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="B20" s="19" t="n"/>
-      <c r="C20" s="19" t="n"/>
-      <c r="D20" s="19" t="n"/>
-      <c r="E20" s="19" t="n">
-        <v>9</v>
-      </c>
-      <c r="F20" s="19" t="inlineStr">
-        <is>
-          <t>EW</t>
-        </is>
-      </c>
-      <c r="G20" s="7" t="n"/>
-      <c r="H20" s="7" t="n"/>
-      <c r="I20" s="7" t="n"/>
-      <c r="J20" s="7" t="n"/>
-      <c r="K20" s="7" t="n"/>
-    </row>
-    <row r="21">
-      <c r="B21" s="15" t="n">
-        <v>3</v>
-      </c>
-      <c r="C21" s="15" t="n">
-        <v>3</v>
-      </c>
-      <c r="D21" s="15" t="n">
-        <v>4</v>
-      </c>
-      <c r="E21" s="15" t="n">
-        <v>4</v>
-      </c>
-      <c r="F21" s="15" t="inlineStr">
-        <is>
-          <t>Both</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="B22" s="15" t="n"/>
-      <c r="C22" s="15" t="n"/>
-      <c r="D22" s="15" t="n"/>
-      <c r="E22" s="15" t="n">
-        <v>5</v>
-      </c>
-      <c r="F22" s="15" t="inlineStr">
-        <is>
-          <t>NS</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="B23" s="19" t="n"/>
-      <c r="C23" s="19" t="n"/>
-      <c r="D23" s="19" t="n"/>
-      <c r="E23" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="F23" s="19" t="inlineStr">
-        <is>
-          <t>EW</t>
-        </is>
-      </c>
-      <c r="G23" s="7" t="n"/>
-      <c r="H23" s="7" t="n"/>
-      <c r="I23" s="7" t="n"/>
-      <c r="J23" s="7" t="n"/>
-      <c r="K23" s="7" t="n"/>
-    </row>
-    <row r="24">
-      <c r="B24" s="15" t="n">
-        <v>4</v>
-      </c>
-      <c r="C24" s="15" t="n">
-        <v>4</v>
-      </c>
-      <c r="D24" s="15" t="n">
-        <v>3</v>
-      </c>
-      <c r="E24" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="F24" s="15" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="B25" s="15" t="n"/>
-      <c r="C25" s="15" t="n"/>
-      <c r="D25" s="15" t="n"/>
-      <c r="E25" s="15" t="n">
-        <v>2</v>
-      </c>
-      <c r="F25" s="15" t="inlineStr">
-        <is>
-          <t>NS</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="7" t="n"/>
-      <c r="B26" s="19" t="n"/>
-      <c r="C26" s="19" t="n"/>
-      <c r="D26" s="19" t="n"/>
-      <c r="E26" s="19" t="n">
-        <v>3</v>
-      </c>
-      <c r="F26" s="19" t="inlineStr">
-        <is>
-          <t>EW</t>
-        </is>
-      </c>
-      <c r="G26" s="7" t="n"/>
-      <c r="H26" s="7" t="n"/>
-      <c r="I26" s="7" t="n"/>
-      <c r="J26" s="7" t="n"/>
-      <c r="K26" s="7" t="n"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="15" t="n">
-        <v>3</v>
-      </c>
-      <c r="B27" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="C27" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="D27" s="15" t="n">
-        <v>4</v>
-      </c>
-      <c r="E27" s="15" t="n">
-        <v>7</v>
-      </c>
-      <c r="F27" s="15" t="inlineStr">
-        <is>
-          <t>Both</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="B28" s="15" t="n"/>
-      <c r="C28" s="15" t="n"/>
-      <c r="D28" s="15" t="n"/>
-      <c r="E28" s="15" t="n">
-        <v>8</v>
-      </c>
-      <c r="F28" s="15" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="B29" s="19" t="n"/>
-      <c r="C29" s="19" t="n"/>
-      <c r="D29" s="19" t="n"/>
-      <c r="E29" s="19" t="n">
-        <v>9</v>
-      </c>
-      <c r="F29" s="19" t="inlineStr">
-        <is>
-          <t>EW</t>
-        </is>
-      </c>
-      <c r="G29" s="7" t="n"/>
-      <c r="H29" s="7" t="n"/>
-      <c r="I29" s="7" t="n"/>
-      <c r="J29" s="7" t="n"/>
-      <c r="K29" s="7" t="n"/>
-    </row>
-    <row r="30">
-      <c r="B30" s="15" t="n">
-        <v>2</v>
-      </c>
-      <c r="C30" s="15" t="n">
-        <v>2</v>
-      </c>
-      <c r="D30" s="15" t="n">
-        <v>3</v>
-      </c>
-      <c r="E30" s="15" t="n">
-        <v>10</v>
-      </c>
-      <c r="F30" s="15" t="inlineStr">
-        <is>
-          <t>Both</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="B31" s="15" t="n"/>
-      <c r="C31" s="15" t="n"/>
-      <c r="D31" s="15" t="n"/>
-      <c r="E31" s="15" t="n">
-        <v>11</v>
-      </c>
-      <c r="F31" s="15" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="B32" s="19" t="n"/>
-      <c r="C32" s="19" t="n"/>
-      <c r="D32" s="19" t="n"/>
-      <c r="E32" s="19" t="n">
-        <v>12</v>
-      </c>
-      <c r="F32" s="19" t="inlineStr">
-        <is>
-          <t>NS</t>
-        </is>
-      </c>
-      <c r="G32" s="7" t="n"/>
-      <c r="H32" s="7" t="n"/>
-      <c r="I32" s="7" t="n"/>
-      <c r="J32" s="7" t="n"/>
-      <c r="K32" s="7" t="n"/>
-    </row>
-    <row r="33">
-      <c r="B33" s="15" t="n">
-        <v>3</v>
-      </c>
-      <c r="C33" s="15" t="n">
-        <v>3</v>
-      </c>
-      <c r="D33" s="15" t="n">
-        <v>2</v>
-      </c>
-      <c r="E33" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="F33" s="15" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="B34" s="15" t="n"/>
-      <c r="C34" s="15" t="n"/>
-      <c r="D34" s="15" t="n"/>
-      <c r="E34" s="15" t="n">
-        <v>2</v>
-      </c>
-      <c r="F34" s="15" t="inlineStr">
-        <is>
-          <t>NS</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="B35" s="19" t="n"/>
-      <c r="C35" s="19" t="n"/>
-      <c r="D35" s="19" t="n"/>
-      <c r="E35" s="19" t="n">
-        <v>3</v>
-      </c>
-      <c r="F35" s="19" t="inlineStr">
-        <is>
-          <t>EW</t>
-        </is>
-      </c>
-      <c r="G35" s="7" t="n"/>
-      <c r="H35" s="7" t="n"/>
-      <c r="I35" s="7" t="n"/>
-      <c r="J35" s="7" t="n"/>
-      <c r="K35" s="7" t="n"/>
-    </row>
-    <row r="36">
-      <c r="B36" s="15" t="n">
-        <v>4</v>
-      </c>
-      <c r="C36" s="15" t="n">
-        <v>4</v>
-      </c>
-      <c r="D36" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="E36" s="15" t="n">
-        <v>4</v>
-      </c>
-      <c r="F36" s="15" t="inlineStr">
-        <is>
-          <t>Both</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="B37" s="15" t="n"/>
-      <c r="C37" s="15" t="n"/>
-      <c r="D37" s="15" t="n"/>
-      <c r="E37" s="15" t="n">
-        <v>5</v>
-      </c>
-      <c r="F37" s="15" t="inlineStr">
-        <is>
-          <t>NS</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="7" t="n"/>
-      <c r="B38" s="19" t="n"/>
-      <c r="C38" s="19" t="n"/>
-      <c r="D38" s="19" t="n"/>
-      <c r="E38" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="F38" s="19" t="inlineStr">
-        <is>
-          <t>EW</t>
-        </is>
-      </c>
-      <c r="G38" s="7" t="n"/>
-      <c r="H38" s="7" t="n"/>
-      <c r="I38" s="7" t="n"/>
-      <c r="J38" s="7" t="n"/>
-      <c r="K38" s="7" t="n"/>
-    </row>
-    <row r="39">
-      <c r="A39" s="15" t="n">
-        <v>4</v>
-      </c>
-      <c r="B39" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="C39" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="D39" s="15" t="n">
-        <v>3</v>
-      </c>
-      <c r="E39" s="15" t="n">
-        <v>4</v>
-      </c>
-      <c r="F39" s="15" t="inlineStr">
-        <is>
-          <t>Both</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="B40" s="15" t="n"/>
-      <c r="C40" s="15" t="n"/>
-      <c r="D40" s="15" t="n"/>
-      <c r="E40" s="15" t="n">
-        <v>5</v>
-      </c>
-      <c r="F40" s="15" t="inlineStr">
-        <is>
-          <t>NS</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="B41" s="19" t="n"/>
-      <c r="C41" s="19" t="n"/>
-      <c r="D41" s="19" t="n"/>
-      <c r="E41" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="F41" s="19" t="inlineStr">
-        <is>
-          <t>EW</t>
-        </is>
-      </c>
-      <c r="G41" s="7" t="n"/>
-      <c r="H41" s="7" t="n"/>
-      <c r="I41" s="7" t="n"/>
-      <c r="J41" s="7" t="n"/>
-      <c r="K41" s="7" t="n"/>
-    </row>
-    <row r="42">
-      <c r="B42" s="15" t="n">
-        <v>2</v>
-      </c>
-      <c r="C42" s="15" t="n">
-        <v>2</v>
-      </c>
-      <c r="D42" s="15" t="n">
-        <v>4</v>
-      </c>
-      <c r="E42" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="F42" s="15" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="B43" s="15" t="n"/>
-      <c r="C43" s="15" t="n"/>
-      <c r="D43" s="15" t="n"/>
-      <c r="E43" s="15" t="n">
-        <v>2</v>
-      </c>
-      <c r="F43" s="15" t="inlineStr">
-        <is>
-          <t>NS</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="B44" s="19" t="n"/>
-      <c r="C44" s="19" t="n"/>
-      <c r="D44" s="19" t="n"/>
-      <c r="E44" s="19" t="n">
-        <v>3</v>
-      </c>
-      <c r="F44" s="19" t="inlineStr">
-        <is>
-          <t>EW</t>
-        </is>
-      </c>
-      <c r="G44" s="7" t="n"/>
-      <c r="H44" s="7" t="n"/>
-      <c r="I44" s="7" t="n"/>
-      <c r="J44" s="7" t="n"/>
-      <c r="K44" s="7" t="n"/>
-    </row>
-    <row r="45">
-      <c r="B45" s="15" t="n">
-        <v>3</v>
-      </c>
-      <c r="C45" s="15" t="n">
-        <v>3</v>
-      </c>
-      <c r="D45" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="E45" s="15" t="n">
-        <v>10</v>
-      </c>
-      <c r="F45" s="15" t="inlineStr">
-        <is>
-          <t>Both</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="B46" s="15" t="n"/>
-      <c r="C46" s="15" t="n"/>
-      <c r="D46" s="15" t="n"/>
-      <c r="E46" s="15" t="n">
-        <v>11</v>
-      </c>
-      <c r="F46" s="15" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="B47" s="19" t="n"/>
-      <c r="C47" s="19" t="n"/>
-      <c r="D47" s="19" t="n"/>
-      <c r="E47" s="19" t="n">
-        <v>12</v>
-      </c>
-      <c r="F47" s="19" t="inlineStr">
-        <is>
-          <t>NS</t>
-        </is>
-      </c>
-      <c r="G47" s="7" t="n"/>
-      <c r="H47" s="7" t="n"/>
-      <c r="I47" s="7" t="n"/>
-      <c r="J47" s="7" t="n"/>
-      <c r="K47" s="7" t="n"/>
-    </row>
-    <row r="48">
-      <c r="B48" s="15" t="n">
-        <v>4</v>
-      </c>
-      <c r="C48" s="15" t="n">
-        <v>4</v>
-      </c>
-      <c r="D48" s="15" t="n">
-        <v>2</v>
-      </c>
-      <c r="E48" s="15" t="n">
-        <v>7</v>
-      </c>
-      <c r="F48" s="15" t="inlineStr">
-        <is>
-          <t>Both</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="B49" s="15" t="n"/>
-      <c r="C49" s="15" t="n"/>
-      <c r="D49" s="15" t="n"/>
-      <c r="E49" s="15" t="n">
-        <v>8</v>
-      </c>
-      <c r="F49" s="15" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="7" t="n"/>
-      <c r="B50" s="19" t="n"/>
-      <c r="C50" s="19" t="n"/>
-      <c r="D50" s="19" t="n"/>
-      <c r="E50" s="19" t="n">
-        <v>9</v>
-      </c>
-      <c r="F50" s="19" t="inlineStr">
-        <is>
-          <t>EW</t>
-        </is>
-      </c>
-      <c r="G50" s="7" t="n"/>
-      <c r="H50" s="7" t="n"/>
-      <c r="I50" s="7" t="n"/>
-      <c r="J50" s="7" t="n"/>
-      <c r="K50" s="7" t="n"/>
+      <c r="G49" s="7" t="n"/>
+      <c r="H49" s="7" t="n"/>
+      <c r="I49" s="7" t="n"/>
+      <c r="J49" s="7" t="n"/>
+      <c r="K49" s="7" t="n"/>
+      <c r="L49" s="7" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="L1:M1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/mitchell8x3.xlsx
+++ b/mitchell8x3.xlsx
@@ -568,12 +568,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Name 25</t>
+          <t>Name 51</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Name 41</t>
+          <t>Name 48</t>
         </is>
       </c>
       <c r="D8" s="4">
@@ -591,12 +591,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Name 57</t>
+          <t>Name 25</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Name 43</t>
+          <t>Name 49</t>
         </is>
       </c>
       <c r="D9" s="4">
@@ -614,12 +614,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Name 84</t>
+          <t>Name 43</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Name 16</t>
+          <t>Name 49</t>
         </is>
       </c>
       <c r="D10" s="4">
@@ -637,12 +637,12 @@
       </c>
       <c r="B11" s="7" t="inlineStr">
         <is>
-          <t>Name 40</t>
+          <t>Name 85</t>
         </is>
       </c>
       <c r="C11" s="7" t="inlineStr">
         <is>
-          <t>Name 64</t>
+          <t>Name 15</t>
         </is>
       </c>
       <c r="D11" s="8">
@@ -693,12 +693,12 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Name 42</t>
+          <t>Name 46</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Name 35</t>
+          <t>Name 20</t>
         </is>
       </c>
       <c r="D15" s="4">
@@ -716,12 +716,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Name 65</t>
+          <t>Name 11</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Name 70</t>
+          <t>Name 42</t>
         </is>
       </c>
       <c r="D16" s="4">
@@ -739,12 +739,12 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Name 27</t>
+          <t>Name 76</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Name 71</t>
+          <t>Name 35</t>
         </is>
       </c>
       <c r="D17" s="4">
@@ -762,12 +762,12 @@
       </c>
       <c r="B18" s="7" t="inlineStr">
         <is>
-          <t>Name 48</t>
+          <t>Name 59</t>
         </is>
       </c>
       <c r="C18" s="7" t="inlineStr">
         <is>
-          <t>Name 52</t>
+          <t>Name 20</t>
         </is>
       </c>
       <c r="D18" s="8">
@@ -6907,7 +6907,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M49"/>
+  <dimension ref="A2:K50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6918,904 +6918,880 @@
     <col width="30" customWidth="1" min="7" max="7"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="2" t="inlineStr">
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
         <is>
           <t>Round</t>
         </is>
       </c>
-      <c r="B1" s="2" t="inlineStr">
+      <c r="B2" s="2" t="inlineStr">
         <is>
           <t>Table</t>
         </is>
       </c>
-      <c r="C1" s="2" t="inlineStr">
+      <c r="C2" s="2" t="inlineStr">
         <is>
           <t>NS</t>
         </is>
       </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="D2" s="2" t="inlineStr">
         <is>
           <t>EW</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="E2" s="2" t="inlineStr">
         <is>
           <t>Board</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="F2" s="2" t="inlineStr">
         <is>
           <t>Vul</t>
         </is>
       </c>
-      <c r="G1" s="2" t="inlineStr">
+      <c r="G2" s="2" t="inlineStr">
         <is>
           <t>Contract</t>
         </is>
       </c>
-      <c r="H1" s="2" t="inlineStr">
+      <c r="H2" s="2" t="inlineStr">
         <is>
           <t>By</t>
         </is>
       </c>
-      <c r="I1" s="2" t="inlineStr">
+      <c r="I2" s="2" t="inlineStr">
         <is>
           <t>Result</t>
         </is>
       </c>
-      <c r="J1" s="2" t="inlineStr">
+      <c r="J2" s="2" t="inlineStr">
         <is>
           <t>NS</t>
         </is>
       </c>
-      <c r="K1" s="2" t="inlineStr">
+      <c r="K2" s="2" t="inlineStr">
         <is>
           <t>EW</t>
         </is>
       </c>
-      <c r="L1" s="2" t="inlineStr">
-        <is>
-          <t>Scores</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="15" t="n">
+    </row>
+    <row r="3">
+      <c r="A3" s="15" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="15" t="n">
+      <c r="B3" s="15" t="n">
         <v>1</v>
       </c>
-      <c r="C2" s="15" t="n">
+      <c r="C3" s="15" t="n">
         <v>1</v>
       </c>
-      <c r="D2" s="15" t="n">
+      <c r="D3" s="15" t="n">
         <v>1</v>
       </c>
-      <c r="E2" s="15" t="n">
+      <c r="E3" s="15" t="n">
         <v>1</v>
       </c>
-      <c r="F2" s="15" t="inlineStr">
+      <c r="F3" s="15" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
     </row>
-    <row r="3">
-      <c r="B3" s="15" t="n"/>
-      <c r="C3" s="15" t="n"/>
-      <c r="D3" s="15" t="n"/>
-      <c r="E3" s="15" t="n">
+    <row r="4">
+      <c r="B4" s="15" t="n"/>
+      <c r="C4" s="15" t="n"/>
+      <c r="D4" s="15" t="n"/>
+      <c r="E4" s="15" t="n">
         <v>2</v>
       </c>
-      <c r="F3" s="15" t="inlineStr">
+      <c r="F4" s="15" t="inlineStr">
         <is>
           <t>NS</t>
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="B4" s="19" t="n"/>
-      <c r="C4" s="19" t="n"/>
-      <c r="D4" s="19" t="n"/>
-      <c r="E4" s="19" t="n">
+    <row r="5">
+      <c r="B5" s="19" t="n"/>
+      <c r="C5" s="19" t="n"/>
+      <c r="D5" s="19" t="n"/>
+      <c r="E5" s="19" t="n">
         <v>3</v>
       </c>
-      <c r="F4" s="19" t="inlineStr">
+      <c r="F5" s="19" t="inlineStr">
         <is>
           <t>EW</t>
         </is>
       </c>
-      <c r="G4" s="7" t="n"/>
-      <c r="H4" s="7" t="n"/>
-      <c r="I4" s="7" t="n"/>
-      <c r="J4" s="7" t="n"/>
-      <c r="K4" s="7" t="n"/>
-      <c r="L4" s="7" t="n"/>
-    </row>
-    <row r="5">
-      <c r="B5" s="15" t="n">
+      <c r="G5" s="7" t="n"/>
+      <c r="H5" s="7" t="n"/>
+      <c r="I5" s="7" t="n"/>
+      <c r="J5" s="7" t="n"/>
+      <c r="K5" s="7" t="n"/>
+    </row>
+    <row r="6">
+      <c r="B6" s="15" t="n">
         <v>2</v>
       </c>
-      <c r="C5" s="15" t="n">
+      <c r="C6" s="15" t="n">
         <v>2</v>
       </c>
-      <c r="D5" s="15" t="n">
+      <c r="D6" s="15" t="n">
         <v>2</v>
       </c>
-      <c r="E5" s="15" t="n">
+      <c r="E6" s="15" t="n">
         <v>4</v>
       </c>
-      <c r="F5" s="15" t="inlineStr">
+      <c r="F6" s="15" t="inlineStr">
         <is>
           <t>Both</t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="B6" s="15" t="n"/>
-      <c r="C6" s="15" t="n"/>
-      <c r="D6" s="15" t="n"/>
-      <c r="E6" s="15" t="n">
+    <row r="7">
+      <c r="B7" s="15" t="n"/>
+      <c r="C7" s="15" t="n"/>
+      <c r="D7" s="15" t="n"/>
+      <c r="E7" s="15" t="n">
         <v>5</v>
       </c>
-      <c r="F6" s="15" t="inlineStr">
+      <c r="F7" s="15" t="inlineStr">
         <is>
           <t>NS</t>
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="B7" s="19" t="n"/>
-      <c r="C7" s="19" t="n"/>
-      <c r="D7" s="19" t="n"/>
-      <c r="E7" s="19" t="n">
+    <row r="8">
+      <c r="B8" s="19" t="n"/>
+      <c r="C8" s="19" t="n"/>
+      <c r="D8" s="19" t="n"/>
+      <c r="E8" s="19" t="n">
         <v>6</v>
       </c>
-      <c r="F7" s="19" t="inlineStr">
+      <c r="F8" s="19" t="inlineStr">
         <is>
           <t>EW</t>
         </is>
       </c>
-      <c r="G7" s="7" t="n"/>
-      <c r="H7" s="7" t="n"/>
-      <c r="I7" s="7" t="n"/>
-      <c r="J7" s="7" t="n"/>
-      <c r="K7" s="7" t="n"/>
-      <c r="L7" s="7" t="n"/>
-    </row>
-    <row r="8">
-      <c r="B8" s="15" t="n">
+      <c r="G8" s="7" t="n"/>
+      <c r="H8" s="7" t="n"/>
+      <c r="I8" s="7" t="n"/>
+      <c r="J8" s="7" t="n"/>
+      <c r="K8" s="7" t="n"/>
+    </row>
+    <row r="9">
+      <c r="B9" s="15" t="n">
         <v>3</v>
       </c>
-      <c r="C8" s="15" t="n">
+      <c r="C9" s="15" t="n">
         <v>3</v>
       </c>
-      <c r="D8" s="15" t="n">
+      <c r="D9" s="15" t="n">
         <v>3</v>
       </c>
-      <c r="E8" s="15" t="n">
+      <c r="E9" s="15" t="n">
         <v>7</v>
       </c>
-      <c r="F8" s="15" t="inlineStr">
+      <c r="F9" s="15" t="inlineStr">
         <is>
           <t>Both</t>
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="B9" s="15" t="n"/>
-      <c r="C9" s="15" t="n"/>
-      <c r="D9" s="15" t="n"/>
-      <c r="E9" s="15" t="n">
+    <row r="10">
+      <c r="B10" s="15" t="n"/>
+      <c r="C10" s="15" t="n"/>
+      <c r="D10" s="15" t="n"/>
+      <c r="E10" s="15" t="n">
         <v>8</v>
       </c>
-      <c r="F9" s="15" t="inlineStr">
+      <c r="F10" s="15" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="B10" s="19" t="n"/>
-      <c r="C10" s="19" t="n"/>
-      <c r="D10" s="19" t="n"/>
-      <c r="E10" s="19" t="n">
+    <row r="11">
+      <c r="B11" s="19" t="n"/>
+      <c r="C11" s="19" t="n"/>
+      <c r="D11" s="19" t="n"/>
+      <c r="E11" s="19" t="n">
         <v>9</v>
       </c>
-      <c r="F10" s="19" t="inlineStr">
+      <c r="F11" s="19" t="inlineStr">
         <is>
           <t>EW</t>
         </is>
       </c>
-      <c r="G10" s="7" t="n"/>
-      <c r="H10" s="7" t="n"/>
-      <c r="I10" s="7" t="n"/>
-      <c r="J10" s="7" t="n"/>
-      <c r="K10" s="7" t="n"/>
-      <c r="L10" s="7" t="n"/>
-    </row>
-    <row r="11">
-      <c r="B11" s="15" t="n">
+      <c r="G11" s="7" t="n"/>
+      <c r="H11" s="7" t="n"/>
+      <c r="I11" s="7" t="n"/>
+      <c r="J11" s="7" t="n"/>
+      <c r="K11" s="7" t="n"/>
+    </row>
+    <row r="12">
+      <c r="B12" s="15" t="n">
         <v>4</v>
       </c>
-      <c r="C11" s="15" t="n">
+      <c r="C12" s="15" t="n">
         <v>4</v>
       </c>
-      <c r="D11" s="15" t="n">
+      <c r="D12" s="15" t="n">
         <v>4</v>
       </c>
-      <c r="E11" s="15" t="n">
+      <c r="E12" s="15" t="n">
         <v>10</v>
       </c>
-      <c r="F11" s="15" t="inlineStr">
+      <c r="F12" s="15" t="inlineStr">
         <is>
           <t>Both</t>
         </is>
       </c>
     </row>
-    <row r="12">
-      <c r="B12" s="15" t="n"/>
-      <c r="C12" s="15" t="n"/>
-      <c r="D12" s="15" t="n"/>
-      <c r="E12" s="15" t="n">
+    <row r="13">
+      <c r="B13" s="15" t="n"/>
+      <c r="C13" s="15" t="n"/>
+      <c r="D13" s="15" t="n"/>
+      <c r="E13" s="15" t="n">
         <v>11</v>
       </c>
-      <c r="F12" s="15" t="inlineStr">
+      <c r="F13" s="15" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="7" t="n"/>
-      <c r="B13" s="19" t="n"/>
-      <c r="C13" s="19" t="n"/>
-      <c r="D13" s="19" t="n"/>
-      <c r="E13" s="19" t="n">
+    <row r="14">
+      <c r="A14" s="7" t="n"/>
+      <c r="B14" s="19" t="n"/>
+      <c r="C14" s="19" t="n"/>
+      <c r="D14" s="19" t="n"/>
+      <c r="E14" s="19" t="n">
         <v>12</v>
       </c>
-      <c r="F13" s="19" t="inlineStr">
+      <c r="F14" s="19" t="inlineStr">
         <is>
           <t>NS</t>
         </is>
       </c>
-      <c r="G13" s="7" t="n"/>
-      <c r="H13" s="7" t="n"/>
-      <c r="I13" s="7" t="n"/>
-      <c r="J13" s="7" t="n"/>
-      <c r="K13" s="7" t="n"/>
-      <c r="L13" s="7" t="n"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="15" t="n">
+      <c r="G14" s="7" t="n"/>
+      <c r="H14" s="7" t="n"/>
+      <c r="I14" s="7" t="n"/>
+      <c r="J14" s="7" t="n"/>
+      <c r="K14" s="7" t="n"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="15" t="n">
         <v>2</v>
       </c>
-      <c r="B14" s="15" t="n">
+      <c r="B15" s="15" t="n">
         <v>1</v>
       </c>
-      <c r="C14" s="15" t="n">
+      <c r="C15" s="15" t="n">
         <v>1</v>
       </c>
-      <c r="D14" s="15" t="n">
+      <c r="D15" s="15" t="n">
         <v>2</v>
       </c>
-      <c r="E14" s="15" t="n">
+      <c r="E15" s="15" t="n">
         <v>10</v>
       </c>
-      <c r="F14" s="15" t="inlineStr">
+      <c r="F15" s="15" t="inlineStr">
         <is>
           <t>Both</t>
         </is>
       </c>
     </row>
-    <row r="15">
-      <c r="B15" s="15" t="n"/>
-      <c r="C15" s="15" t="n"/>
-      <c r="D15" s="15" t="n"/>
-      <c r="E15" s="15" t="n">
+    <row r="16">
+      <c r="B16" s="15" t="n"/>
+      <c r="C16" s="15" t="n"/>
+      <c r="D16" s="15" t="n"/>
+      <c r="E16" s="15" t="n">
         <v>11</v>
       </c>
-      <c r="F15" s="15" t="inlineStr">
+      <c r="F16" s="15" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
     </row>
-    <row r="16">
-      <c r="B16" s="19" t="n"/>
-      <c r="C16" s="19" t="n"/>
-      <c r="D16" s="19" t="n"/>
-      <c r="E16" s="19" t="n">
+    <row r="17">
+      <c r="B17" s="19" t="n"/>
+      <c r="C17" s="19" t="n"/>
+      <c r="D17" s="19" t="n"/>
+      <c r="E17" s="19" t="n">
         <v>12</v>
       </c>
-      <c r="F16" s="19" t="inlineStr">
+      <c r="F17" s="19" t="inlineStr">
         <is>
           <t>NS</t>
         </is>
       </c>
-      <c r="G16" s="7" t="n"/>
-      <c r="H16" s="7" t="n"/>
-      <c r="I16" s="7" t="n"/>
-      <c r="J16" s="7" t="n"/>
-      <c r="K16" s="7" t="n"/>
-      <c r="L16" s="7" t="n"/>
-    </row>
-    <row r="17">
-      <c r="B17" s="15" t="n">
+      <c r="G17" s="7" t="n"/>
+      <c r="H17" s="7" t="n"/>
+      <c r="I17" s="7" t="n"/>
+      <c r="J17" s="7" t="n"/>
+      <c r="K17" s="7" t="n"/>
+    </row>
+    <row r="18">
+      <c r="B18" s="15" t="n">
         <v>2</v>
       </c>
-      <c r="C17" s="15" t="n">
+      <c r="C18" s="15" t="n">
         <v>2</v>
       </c>
-      <c r="D17" s="15" t="n">
+      <c r="D18" s="15" t="n">
         <v>1</v>
       </c>
-      <c r="E17" s="15" t="n">
+      <c r="E18" s="15" t="n">
         <v>7</v>
       </c>
-      <c r="F17" s="15" t="inlineStr">
+      <c r="F18" s="15" t="inlineStr">
         <is>
           <t>Both</t>
         </is>
       </c>
     </row>
-    <row r="18">
-      <c r="B18" s="15" t="n"/>
-      <c r="C18" s="15" t="n"/>
-      <c r="D18" s="15" t="n"/>
-      <c r="E18" s="15" t="n">
+    <row r="19">
+      <c r="B19" s="15" t="n"/>
+      <c r="C19" s="15" t="n"/>
+      <c r="D19" s="15" t="n"/>
+      <c r="E19" s="15" t="n">
         <v>8</v>
       </c>
-      <c r="F18" s="15" t="inlineStr">
+      <c r="F19" s="15" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
     </row>
-    <row r="19">
-      <c r="B19" s="19" t="n"/>
-      <c r="C19" s="19" t="n"/>
-      <c r="D19" s="19" t="n"/>
-      <c r="E19" s="19" t="n">
+    <row r="20">
+      <c r="B20" s="19" t="n"/>
+      <c r="C20" s="19" t="n"/>
+      <c r="D20" s="19" t="n"/>
+      <c r="E20" s="19" t="n">
         <v>9</v>
       </c>
-      <c r="F19" s="19" t="inlineStr">
+      <c r="F20" s="19" t="inlineStr">
         <is>
           <t>EW</t>
         </is>
       </c>
-      <c r="G19" s="7" t="n"/>
-      <c r="H19" s="7" t="n"/>
-      <c r="I19" s="7" t="n"/>
-      <c r="J19" s="7" t="n"/>
-      <c r="K19" s="7" t="n"/>
-      <c r="L19" s="7" t="n"/>
-    </row>
-    <row r="20">
-      <c r="B20" s="15" t="n">
+      <c r="G20" s="7" t="n"/>
+      <c r="H20" s="7" t="n"/>
+      <c r="I20" s="7" t="n"/>
+      <c r="J20" s="7" t="n"/>
+      <c r="K20" s="7" t="n"/>
+    </row>
+    <row r="21">
+      <c r="B21" s="15" t="n">
         <v>3</v>
       </c>
-      <c r="C20" s="15" t="n">
+      <c r="C21" s="15" t="n">
         <v>3</v>
       </c>
-      <c r="D20" s="15" t="n">
+      <c r="D21" s="15" t="n">
         <v>4</v>
       </c>
-      <c r="E20" s="15" t="n">
+      <c r="E21" s="15" t="n">
         <v>4</v>
       </c>
-      <c r="F20" s="15" t="inlineStr">
+      <c r="F21" s="15" t="inlineStr">
         <is>
           <t>Both</t>
         </is>
       </c>
     </row>
-    <row r="21">
-      <c r="B21" s="15" t="n"/>
-      <c r="C21" s="15" t="n"/>
-      <c r="D21" s="15" t="n"/>
-      <c r="E21" s="15" t="n">
+    <row r="22">
+      <c r="B22" s="15" t="n"/>
+      <c r="C22" s="15" t="n"/>
+      <c r="D22" s="15" t="n"/>
+      <c r="E22" s="15" t="n">
         <v>5</v>
       </c>
-      <c r="F21" s="15" t="inlineStr">
+      <c r="F22" s="15" t="inlineStr">
         <is>
           <t>NS</t>
         </is>
       </c>
     </row>
-    <row r="22">
-      <c r="B22" s="19" t="n"/>
-      <c r="C22" s="19" t="n"/>
-      <c r="D22" s="19" t="n"/>
-      <c r="E22" s="19" t="n">
+    <row r="23">
+      <c r="B23" s="19" t="n"/>
+      <c r="C23" s="19" t="n"/>
+      <c r="D23" s="19" t="n"/>
+      <c r="E23" s="19" t="n">
         <v>6</v>
       </c>
-      <c r="F22" s="19" t="inlineStr">
+      <c r="F23" s="19" t="inlineStr">
         <is>
           <t>EW</t>
         </is>
       </c>
-      <c r="G22" s="7" t="n"/>
-      <c r="H22" s="7" t="n"/>
-      <c r="I22" s="7" t="n"/>
-      <c r="J22" s="7" t="n"/>
-      <c r="K22" s="7" t="n"/>
-      <c r="L22" s="7" t="n"/>
-    </row>
-    <row r="23">
-      <c r="B23" s="15" t="n">
+      <c r="G23" s="7" t="n"/>
+      <c r="H23" s="7" t="n"/>
+      <c r="I23" s="7" t="n"/>
+      <c r="J23" s="7" t="n"/>
+      <c r="K23" s="7" t="n"/>
+    </row>
+    <row r="24">
+      <c r="B24" s="15" t="n">
         <v>4</v>
       </c>
-      <c r="C23" s="15" t="n">
+      <c r="C24" s="15" t="n">
         <v>4</v>
       </c>
-      <c r="D23" s="15" t="n">
+      <c r="D24" s="15" t="n">
         <v>3</v>
       </c>
-      <c r="E23" s="15" t="n">
+      <c r="E24" s="15" t="n">
         <v>1</v>
       </c>
-      <c r="F23" s="15" t="inlineStr">
+      <c r="F24" s="15" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
     </row>
-    <row r="24">
-      <c r="B24" s="15" t="n"/>
-      <c r="C24" s="15" t="n"/>
-      <c r="D24" s="15" t="n"/>
-      <c r="E24" s="15" t="n">
+    <row r="25">
+      <c r="B25" s="15" t="n"/>
+      <c r="C25" s="15" t="n"/>
+      <c r="D25" s="15" t="n"/>
+      <c r="E25" s="15" t="n">
         <v>2</v>
       </c>
-      <c r="F24" s="15" t="inlineStr">
+      <c r="F25" s="15" t="inlineStr">
         <is>
           <t>NS</t>
         </is>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" s="7" t="n"/>
-      <c r="B25" s="19" t="n"/>
-      <c r="C25" s="19" t="n"/>
-      <c r="D25" s="19" t="n"/>
-      <c r="E25" s="19" t="n">
+    <row r="26">
+      <c r="A26" s="7" t="n"/>
+      <c r="B26" s="19" t="n"/>
+      <c r="C26" s="19" t="n"/>
+      <c r="D26" s="19" t="n"/>
+      <c r="E26" s="19" t="n">
         <v>3</v>
       </c>
-      <c r="F25" s="19" t="inlineStr">
+      <c r="F26" s="19" t="inlineStr">
         <is>
           <t>EW</t>
         </is>
       </c>
-      <c r="G25" s="7" t="n"/>
-      <c r="H25" s="7" t="n"/>
-      <c r="I25" s="7" t="n"/>
-      <c r="J25" s="7" t="n"/>
-      <c r="K25" s="7" t="n"/>
-      <c r="L25" s="7" t="n"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="15" t="n">
+      <c r="G26" s="7" t="n"/>
+      <c r="H26" s="7" t="n"/>
+      <c r="I26" s="7" t="n"/>
+      <c r="J26" s="7" t="n"/>
+      <c r="K26" s="7" t="n"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="15" t="n">
         <v>3</v>
       </c>
-      <c r="B26" s="15" t="n">
+      <c r="B27" s="15" t="n">
         <v>1</v>
       </c>
-      <c r="C26" s="15" t="n">
+      <c r="C27" s="15" t="n">
         <v>1</v>
       </c>
-      <c r="D26" s="15" t="n">
+      <c r="D27" s="15" t="n">
         <v>4</v>
       </c>
-      <c r="E26" s="15" t="n">
+      <c r="E27" s="15" t="n">
         <v>7</v>
       </c>
-      <c r="F26" s="15" t="inlineStr">
+      <c r="F27" s="15" t="inlineStr">
         <is>
           <t>Both</t>
         </is>
       </c>
     </row>
-    <row r="27">
-      <c r="B27" s="15" t="n"/>
-      <c r="C27" s="15" t="n"/>
-      <c r="D27" s="15" t="n"/>
-      <c r="E27" s="15" t="n">
+    <row r="28">
+      <c r="B28" s="15" t="n"/>
+      <c r="C28" s="15" t="n"/>
+      <c r="D28" s="15" t="n"/>
+      <c r="E28" s="15" t="n">
         <v>8</v>
       </c>
-      <c r="F27" s="15" t="inlineStr">
+      <c r="F28" s="15" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
     </row>
-    <row r="28">
-      <c r="B28" s="19" t="n"/>
-      <c r="C28" s="19" t="n"/>
-      <c r="D28" s="19" t="n"/>
-      <c r="E28" s="19" t="n">
+    <row r="29">
+      <c r="B29" s="19" t="n"/>
+      <c r="C29" s="19" t="n"/>
+      <c r="D29" s="19" t="n"/>
+      <c r="E29" s="19" t="n">
         <v>9</v>
       </c>
-      <c r="F28" s="19" t="inlineStr">
+      <c r="F29" s="19" t="inlineStr">
         <is>
           <t>EW</t>
         </is>
       </c>
-      <c r="G28" s="7" t="n"/>
-      <c r="H28" s="7" t="n"/>
-      <c r="I28" s="7" t="n"/>
-      <c r="J28" s="7" t="n"/>
-      <c r="K28" s="7" t="n"/>
-      <c r="L28" s="7" t="n"/>
-    </row>
-    <row r="29">
-      <c r="B29" s="15" t="n">
+      <c r="G29" s="7" t="n"/>
+      <c r="H29" s="7" t="n"/>
+      <c r="I29" s="7" t="n"/>
+      <c r="J29" s="7" t="n"/>
+      <c r="K29" s="7" t="n"/>
+    </row>
+    <row r="30">
+      <c r="B30" s="15" t="n">
         <v>2</v>
       </c>
-      <c r="C29" s="15" t="n">
+      <c r="C30" s="15" t="n">
         <v>2</v>
       </c>
-      <c r="D29" s="15" t="n">
+      <c r="D30" s="15" t="n">
         <v>3</v>
       </c>
-      <c r="E29" s="15" t="n">
+      <c r="E30" s="15" t="n">
         <v>10</v>
       </c>
-      <c r="F29" s="15" t="inlineStr">
+      <c r="F30" s="15" t="inlineStr">
         <is>
           <t>Both</t>
         </is>
       </c>
     </row>
-    <row r="30">
-      <c r="B30" s="15" t="n"/>
-      <c r="C30" s="15" t="n"/>
-      <c r="D30" s="15" t="n"/>
-      <c r="E30" s="15" t="n">
+    <row r="31">
+      <c r="B31" s="15" t="n"/>
+      <c r="C31" s="15" t="n"/>
+      <c r="D31" s="15" t="n"/>
+      <c r="E31" s="15" t="n">
         <v>11</v>
       </c>
-      <c r="F30" s="15" t="inlineStr">
+      <c r="F31" s="15" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
     </row>
-    <row r="31">
-      <c r="B31" s="19" t="n"/>
-      <c r="C31" s="19" t="n"/>
-      <c r="D31" s="19" t="n"/>
-      <c r="E31" s="19" t="n">
+    <row r="32">
+      <c r="B32" s="19" t="n"/>
+      <c r="C32" s="19" t="n"/>
+      <c r="D32" s="19" t="n"/>
+      <c r="E32" s="19" t="n">
         <v>12</v>
       </c>
-      <c r="F31" s="19" t="inlineStr">
+      <c r="F32" s="19" t="inlineStr">
         <is>
           <t>NS</t>
         </is>
       </c>
-      <c r="G31" s="7" t="n"/>
-      <c r="H31" s="7" t="n"/>
-      <c r="I31" s="7" t="n"/>
-      <c r="J31" s="7" t="n"/>
-      <c r="K31" s="7" t="n"/>
-      <c r="L31" s="7" t="n"/>
-    </row>
-    <row r="32">
-      <c r="B32" s="15" t="n">
+      <c r="G32" s="7" t="n"/>
+      <c r="H32" s="7" t="n"/>
+      <c r="I32" s="7" t="n"/>
+      <c r="J32" s="7" t="n"/>
+      <c r="K32" s="7" t="n"/>
+    </row>
+    <row r="33">
+      <c r="B33" s="15" t="n">
         <v>3</v>
       </c>
-      <c r="C32" s="15" t="n">
+      <c r="C33" s="15" t="n">
         <v>3</v>
       </c>
-      <c r="D32" s="15" t="n">
+      <c r="D33" s="15" t="n">
         <v>2</v>
       </c>
-      <c r="E32" s="15" t="n">
+      <c r="E33" s="15" t="n">
         <v>1</v>
       </c>
-      <c r="F32" s="15" t="inlineStr">
+      <c r="F33" s="15" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
     </row>
-    <row r="33">
-      <c r="B33" s="15" t="n"/>
-      <c r="C33" s="15" t="n"/>
-      <c r="D33" s="15" t="n"/>
-      <c r="E33" s="15" t="n">
+    <row r="34">
+      <c r="B34" s="15" t="n"/>
+      <c r="C34" s="15" t="n"/>
+      <c r="D34" s="15" t="n"/>
+      <c r="E34" s="15" t="n">
         <v>2</v>
       </c>
-      <c r="F33" s="15" t="inlineStr">
+      <c r="F34" s="15" t="inlineStr">
         <is>
           <t>NS</t>
         </is>
       </c>
     </row>
-    <row r="34">
-      <c r="B34" s="19" t="n"/>
-      <c r="C34" s="19" t="n"/>
-      <c r="D34" s="19" t="n"/>
-      <c r="E34" s="19" t="n">
+    <row r="35">
+      <c r="B35" s="19" t="n"/>
+      <c r="C35" s="19" t="n"/>
+      <c r="D35" s="19" t="n"/>
+      <c r="E35" s="19" t="n">
         <v>3</v>
       </c>
-      <c r="F34" s="19" t="inlineStr">
+      <c r="F35" s="19" t="inlineStr">
         <is>
           <t>EW</t>
         </is>
       </c>
-      <c r="G34" s="7" t="n"/>
-      <c r="H34" s="7" t="n"/>
-      <c r="I34" s="7" t="n"/>
-      <c r="J34" s="7" t="n"/>
-      <c r="K34" s="7" t="n"/>
-      <c r="L34" s="7" t="n"/>
-    </row>
-    <row r="35">
-      <c r="B35" s="15" t="n">
+      <c r="G35" s="7" t="n"/>
+      <c r="H35" s="7" t="n"/>
+      <c r="I35" s="7" t="n"/>
+      <c r="J35" s="7" t="n"/>
+      <c r="K35" s="7" t="n"/>
+    </row>
+    <row r="36">
+      <c r="B36" s="15" t="n">
         <v>4</v>
       </c>
-      <c r="C35" s="15" t="n">
+      <c r="C36" s="15" t="n">
         <v>4</v>
       </c>
-      <c r="D35" s="15" t="n">
+      <c r="D36" s="15" t="n">
         <v>1</v>
       </c>
-      <c r="E35" s="15" t="n">
+      <c r="E36" s="15" t="n">
         <v>4</v>
       </c>
-      <c r="F35" s="15" t="inlineStr">
+      <c r="F36" s="15" t="inlineStr">
         <is>
           <t>Both</t>
         </is>
       </c>
     </row>
-    <row r="36">
-      <c r="B36" s="15" t="n"/>
-      <c r="C36" s="15" t="n"/>
-      <c r="D36" s="15" t="n"/>
-      <c r="E36" s="15" t="n">
+    <row r="37">
+      <c r="B37" s="15" t="n"/>
+      <c r="C37" s="15" t="n"/>
+      <c r="D37" s="15" t="n"/>
+      <c r="E37" s="15" t="n">
         <v>5</v>
       </c>
-      <c r="F36" s="15" t="inlineStr">
+      <c r="F37" s="15" t="inlineStr">
         <is>
           <t>NS</t>
         </is>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" s="7" t="n"/>
-      <c r="B37" s="19" t="n"/>
-      <c r="C37" s="19" t="n"/>
-      <c r="D37" s="19" t="n"/>
-      <c r="E37" s="19" t="n">
+    <row r="38">
+      <c r="A38" s="7" t="n"/>
+      <c r="B38" s="19" t="n"/>
+      <c r="C38" s="19" t="n"/>
+      <c r="D38" s="19" t="n"/>
+      <c r="E38" s="19" t="n">
         <v>6</v>
       </c>
-      <c r="F37" s="19" t="inlineStr">
+      <c r="F38" s="19" t="inlineStr">
         <is>
           <t>EW</t>
         </is>
       </c>
-      <c r="G37" s="7" t="n"/>
-      <c r="H37" s="7" t="n"/>
-      <c r="I37" s="7" t="n"/>
-      <c r="J37" s="7" t="n"/>
-      <c r="K37" s="7" t="n"/>
-      <c r="L37" s="7" t="n"/>
-    </row>
-    <row r="38">
-      <c r="A38" s="15" t="n">
+      <c r="G38" s="7" t="n"/>
+      <c r="H38" s="7" t="n"/>
+      <c r="I38" s="7" t="n"/>
+      <c r="J38" s="7" t="n"/>
+      <c r="K38" s="7" t="n"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="15" t="n">
         <v>4</v>
       </c>
-      <c r="B38" s="15" t="n">
+      <c r="B39" s="15" t="n">
         <v>1</v>
       </c>
-      <c r="C38" s="15" t="n">
+      <c r="C39" s="15" t="n">
         <v>1</v>
       </c>
-      <c r="D38" s="15" t="n">
+      <c r="D39" s="15" t="n">
         <v>3</v>
       </c>
-      <c r="E38" s="15" t="n">
+      <c r="E39" s="15" t="n">
         <v>4</v>
       </c>
-      <c r="F38" s="15" t="inlineStr">
+      <c r="F39" s="15" t="inlineStr">
         <is>
           <t>Both</t>
         </is>
       </c>
     </row>
-    <row r="39">
-      <c r="B39" s="15" t="n"/>
-      <c r="C39" s="15" t="n"/>
-      <c r="D39" s="15" t="n"/>
-      <c r="E39" s="15" t="n">
+    <row r="40">
+      <c r="B40" s="15" t="n"/>
+      <c r="C40" s="15" t="n"/>
+      <c r="D40" s="15" t="n"/>
+      <c r="E40" s="15" t="n">
         <v>5</v>
       </c>
-      <c r="F39" s="15" t="inlineStr">
+      <c r="F40" s="15" t="inlineStr">
         <is>
           <t>NS</t>
         </is>
       </c>
     </row>
-    <row r="40">
-      <c r="B40" s="19" t="n"/>
-      <c r="C40" s="19" t="n"/>
-      <c r="D40" s="19" t="n"/>
-      <c r="E40" s="19" t="n">
+    <row r="41">
+      <c r="B41" s="19" t="n"/>
+      <c r="C41" s="19" t="n"/>
+      <c r="D41" s="19" t="n"/>
+      <c r="E41" s="19" t="n">
         <v>6</v>
       </c>
-      <c r="F40" s="19" t="inlineStr">
+      <c r="F41" s="19" t="inlineStr">
         <is>
           <t>EW</t>
         </is>
       </c>
-      <c r="G40" s="7" t="n"/>
-      <c r="H40" s="7" t="n"/>
-      <c r="I40" s="7" t="n"/>
-      <c r="J40" s="7" t="n"/>
-      <c r="K40" s="7" t="n"/>
-      <c r="L40" s="7" t="n"/>
-    </row>
-    <row r="41">
-      <c r="B41" s="15" t="n">
+      <c r="G41" s="7" t="n"/>
+      <c r="H41" s="7" t="n"/>
+      <c r="I41" s="7" t="n"/>
+      <c r="J41" s="7" t="n"/>
+      <c r="K41" s="7" t="n"/>
+    </row>
+    <row r="42">
+      <c r="B42" s="15" t="n">
         <v>2</v>
       </c>
-      <c r="C41" s="15" t="n">
+      <c r="C42" s="15" t="n">
         <v>2</v>
       </c>
-      <c r="D41" s="15" t="n">
+      <c r="D42" s="15" t="n">
         <v>4</v>
       </c>
-      <c r="E41" s="15" t="n">
+      <c r="E42" s="15" t="n">
         <v>1</v>
       </c>
-      <c r="F41" s="15" t="inlineStr">
+      <c r="F42" s="15" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
     </row>
-    <row r="42">
-      <c r="B42" s="15" t="n"/>
-      <c r="C42" s="15" t="n"/>
-      <c r="D42" s="15" t="n"/>
-      <c r="E42" s="15" t="n">
+    <row r="43">
+      <c r="B43" s="15" t="n"/>
+      <c r="C43" s="15" t="n"/>
+      <c r="D43" s="15" t="n"/>
+      <c r="E43" s="15" t="n">
         <v>2</v>
       </c>
-      <c r="F42" s="15" t="inlineStr">
+      <c r="F43" s="15" t="inlineStr">
         <is>
           <t>NS</t>
         </is>
       </c>
     </row>
-    <row r="43">
-      <c r="B43" s="19" t="n"/>
-      <c r="C43" s="19" t="n"/>
-      <c r="D43" s="19" t="n"/>
-      <c r="E43" s="19" t="n">
+    <row r="44">
+      <c r="B44" s="19" t="n"/>
+      <c r="C44" s="19" t="n"/>
+      <c r="D44" s="19" t="n"/>
+      <c r="E44" s="19" t="n">
         <v>3</v>
       </c>
-      <c r="F43" s="19" t="inlineStr">
+      <c r="F44" s="19" t="inlineStr">
         <is>
           <t>EW</t>
         </is>
       </c>
-      <c r="G43" s="7" t="n"/>
-      <c r="H43" s="7" t="n"/>
-      <c r="I43" s="7" t="n"/>
-      <c r="J43" s="7" t="n"/>
-      <c r="K43" s="7" t="n"/>
-      <c r="L43" s="7" t="n"/>
-    </row>
-    <row r="44">
-      <c r="B44" s="15" t="n">
+      <c r="G44" s="7" t="n"/>
+      <c r="H44" s="7" t="n"/>
+      <c r="I44" s="7" t="n"/>
+      <c r="J44" s="7" t="n"/>
+      <c r="K44" s="7" t="n"/>
+    </row>
+    <row r="45">
+      <c r="B45" s="15" t="n">
         <v>3</v>
       </c>
-      <c r="C44" s="15" t="n">
+      <c r="C45" s="15" t="n">
         <v>3</v>
       </c>
-      <c r="D44" s="15" t="n">
+      <c r="D45" s="15" t="n">
         <v>1</v>
       </c>
-      <c r="E44" s="15" t="n">
+      <c r="E45" s="15" t="n">
         <v>10</v>
       </c>
-      <c r="F44" s="15" t="inlineStr">
+      <c r="F45" s="15" t="inlineStr">
         <is>
           <t>Both</t>
         </is>
       </c>
     </row>
-    <row r="45">
-      <c r="B45" s="15" t="n"/>
-      <c r="C45" s="15" t="n"/>
-      <c r="D45" s="15" t="n"/>
-      <c r="E45" s="15" t="n">
+    <row r="46">
+      <c r="B46" s="15" t="n"/>
+      <c r="C46" s="15" t="n"/>
+      <c r="D46" s="15" t="n"/>
+      <c r="E46" s="15" t="n">
         <v>11</v>
       </c>
-      <c r="F45" s="15" t="inlineStr">
+      <c r="F46" s="15" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
     </row>
-    <row r="46">
-      <c r="B46" s="19" t="n"/>
-      <c r="C46" s="19" t="n"/>
-      <c r="D46" s="19" t="n"/>
-      <c r="E46" s="19" t="n">
+    <row r="47">
+      <c r="B47" s="19" t="n"/>
+      <c r="C47" s="19" t="n"/>
+      <c r="D47" s="19" t="n"/>
+      <c r="E47" s="19" t="n">
         <v>12</v>
       </c>
-      <c r="F46" s="19" t="inlineStr">
+      <c r="F47" s="19" t="inlineStr">
         <is>
           <t>NS</t>
         </is>
       </c>
-      <c r="G46" s="7" t="n"/>
-      <c r="H46" s="7" t="n"/>
-      <c r="I46" s="7" t="n"/>
-      <c r="J46" s="7" t="n"/>
-      <c r="K46" s="7" t="n"/>
-      <c r="L46" s="7" t="n"/>
-    </row>
-    <row r="47">
-      <c r="B47" s="15" t="n">
+      <c r="G47" s="7" t="n"/>
+      <c r="H47" s="7" t="n"/>
+      <c r="I47" s="7" t="n"/>
+      <c r="J47" s="7" t="n"/>
+      <c r="K47" s="7" t="n"/>
+    </row>
+    <row r="48">
+      <c r="B48" s="15" t="n">
         <v>4</v>
       </c>
-      <c r="C47" s="15" t="n">
+      <c r="C48" s="15" t="n">
         <v>4</v>
       </c>
-      <c r="D47" s="15" t="n">
+      <c r="D48" s="15" t="n">
         <v>2</v>
       </c>
-      <c r="E47" s="15" t="n">
+      <c r="E48" s="15" t="n">
         <v>7</v>
       </c>
-      <c r="F47" s="15" t="inlineStr">
+      <c r="F48" s="15" t="inlineStr">
         <is>
           <t>Both</t>
         </is>
       </c>
     </row>
-    <row r="48">
-      <c r="B48" s="15" t="n"/>
-      <c r="C48" s="15" t="n"/>
-      <c r="D48" s="15" t="n"/>
-      <c r="E48" s="15" t="n">
+    <row r="49">
+      <c r="B49" s="15" t="n"/>
+      <c r="C49" s="15" t="n"/>
+      <c r="D49" s="15" t="n"/>
+      <c r="E49" s="15" t="n">
         <v>8</v>
       </c>
-      <c r="F48" s="15" t="inlineStr">
+      <c r="F49" s="15" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" s="7" t="n"/>
-      <c r="B49" s="19" t="n"/>
-      <c r="C49" s="19" t="n"/>
-      <c r="D49" s="19" t="n"/>
-      <c r="E49" s="19" t="n">
+    <row r="50">
+      <c r="A50" s="7" t="n"/>
+      <c r="B50" s="19" t="n"/>
+      <c r="C50" s="19" t="n"/>
+      <c r="D50" s="19" t="n"/>
+      <c r="E50" s="19" t="n">
         <v>9</v>
       </c>
-      <c r="F49" s="19" t="inlineStr">
+      <c r="F50" s="19" t="inlineStr">
         <is>
           <t>EW</t>
         </is>
       </c>
-      <c r="G49" s="7" t="n"/>
-      <c r="H49" s="7" t="n"/>
-      <c r="I49" s="7" t="n"/>
-      <c r="J49" s="7" t="n"/>
-      <c r="K49" s="7" t="n"/>
-      <c r="L49" s="7" t="n"/>
+      <c r="G50" s="7" t="n"/>
+      <c r="H50" s="7" t="n"/>
+      <c r="I50" s="7" t="n"/>
+      <c r="J50" s="7" t="n"/>
+      <c r="K50" s="7" t="n"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="L1:M1"/>
-  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>

--- a/mitchell8x3.xlsx
+++ b/mitchell8x3.xlsx
@@ -87,7 +87,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -96,12 +96,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="10" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -121,6 +125,8 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -489,7 +495,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -504,14 +510,14 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>For public domain. No rights reserved. 2026.</t>
+          <t>For public domain. No rights reserved. Generated on Feb 08, 2026.</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>Mitchell Tournament Scoring</t>
+          <t>Mitchell Tournament</t>
         </is>
       </c>
     </row>
@@ -538,44 +544,36 @@
     <row r="5">
       <c r="A5" s="3" t="inlineStr">
         <is>
-          <t>Boards per Round</t>
-        </is>
-      </c>
-      <c r="C5" s="3" t="n">
+          <t xml:space="preserve">Relay between </t>
+        </is>
+      </c>
+      <c r="C5" s="3" t="inlineStr">
+        <is>
+          <t>2 and 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="inlineStr">
+        <is>
+          <t>Rounds</t>
+        </is>
+      </c>
+      <c r="C6" s="3" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="inlineStr">
-        <is>
-          <t>NS Pairs</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>MP</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>IMP</t>
-        </is>
+      <c r="A7" s="3" t="inlineStr">
+        <is>
+          <t>Boards per round</t>
+        </is>
+      </c>
+      <c r="C7" s="3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Name 51</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Name 48</t>
-        </is>
-      </c>
       <c r="D8" s="4">
         <f>SUMIF('By Board'!D3:D51,"="&amp;A8,'By Board'!N3:N51)/12</f>
         <v/>
@@ -586,40 +584,32 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Name 25</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Name 49</t>
-        </is>
-      </c>
-      <c r="D9" s="4">
+      <c r="A9" s="2" t="inlineStr">
+        <is>
+          <t>NS Pairs</t>
+        </is>
+      </c>
+      <c r="D9" s="6">
         <f>SUMIF('By Board'!D3:D51,"="&amp;A9,'By Board'!N3:N51)/12</f>
         <v/>
       </c>
-      <c r="E9" s="5">
+      <c r="E9" s="7">
         <f>SUMIF('By Board'!D3:D51,"="&amp;A9,'By Board'!L3:L51)</f>
         <v/>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Name 43</t>
+          <t>Name 12</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Name 49</t>
+          <t>Name 51</t>
         </is>
       </c>
       <c r="D10" s="4">
@@ -632,75 +622,77 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="6" t="n">
+      <c r="A11" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Name 86</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Name 63</t>
+        </is>
+      </c>
+      <c r="D11" s="4">
+        <f>SUMIF('By Board'!D3:D51,"="&amp;A11,'By Board'!N3:N51)/12</f>
+        <v/>
+      </c>
+      <c r="E11" s="5">
+        <f>SUMIF('By Board'!D3:D51,"="&amp;A11,'By Board'!L3:L51)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Name 86</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Name 31</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="8" t="n">
         <v>4</v>
       </c>
-      <c r="B11" s="7" t="inlineStr">
-        <is>
-          <t>Name 85</t>
-        </is>
-      </c>
-      <c r="C11" s="7" t="inlineStr">
-        <is>
-          <t>Name 15</t>
-        </is>
-      </c>
-      <c r="D11" s="8">
-        <f>SUMIF('By Board'!D3:D51,"="&amp;A11,'By Board'!N3:N51)/12</f>
-        <v/>
-      </c>
-      <c r="E11" s="9">
-        <f>SUMIF('By Board'!D3:D51,"="&amp;A11,'By Board'!L3:L51)</f>
-        <v/>
-      </c>
-      <c r="F11" s="7" t="n"/>
-    </row>
-    <row r="12">
-      <c r="C12" s="10" t="inlineStr">
+      <c r="B13" s="9" t="inlineStr">
+        <is>
+          <t>Name 78</t>
+        </is>
+      </c>
+      <c r="C13" s="9" t="inlineStr">
+        <is>
+          <t>Name 65</t>
+        </is>
+      </c>
+      <c r="D13" s="9" t="n"/>
+      <c r="E13" s="9" t="n"/>
+      <c r="F13" s="9" t="n"/>
+    </row>
+    <row r="14">
+      <c r="C14" s="10" t="inlineStr">
         <is>
           <t>Average</t>
         </is>
       </c>
-      <c r="D12" s="11">
-        <f>AVERAGE(D8:D11)</f>
-        <v/>
-      </c>
-      <c r="E12" s="12">
-        <f>SUM(F8:F11)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="inlineStr">
-        <is>
-          <t>EW Pairs</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>MP</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>IMP</t>
-        </is>
+      <c r="D14" s="11">
+        <f>AVERAGE(D10:D13)</f>
+        <v/>
+      </c>
+      <c r="E14" s="12">
+        <f>SUM(F10:F13)</f>
+        <v/>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Name 46</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>Name 20</t>
-        </is>
-      </c>
       <c r="D15" s="4">
         <f>SUMIF('By Board'!E3:E51,"="&amp;A15,'By Board'!O3:O51)/12</f>
         <v/>
@@ -711,40 +703,32 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>Name 11</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>Name 42</t>
-        </is>
-      </c>
-      <c r="D16" s="4">
+      <c r="A16" s="2" t="inlineStr">
+        <is>
+          <t>EW Pairs</t>
+        </is>
+      </c>
+      <c r="D16" s="6">
         <f>SUMIF('By Board'!E3:E51,"="&amp;A16,'By Board'!O3:O51)/12</f>
         <v/>
       </c>
-      <c r="E16" s="5">
+      <c r="E16" s="7">
         <f>SUMIF('By Board'!E3:E51,"="&amp;A16,'By Board'!M3:M51)</f>
         <v/>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Name 76</t>
+          <t>Name 72</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Name 35</t>
+          <t>Name 43</t>
         </is>
       </c>
       <c r="D17" s="4">
@@ -757,52 +741,86 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="6" t="n">
+      <c r="A18" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Name 40</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Name 20</t>
+        </is>
+      </c>
+      <c r="D18" s="4">
+        <f>SUMIF('By Board'!E3:E51,"="&amp;A18,'By Board'!O3:O51)/12</f>
+        <v/>
+      </c>
+      <c r="E18" s="5">
+        <f>SUMIF('By Board'!E3:E51,"="&amp;A18,'By Board'!M3:M51)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Name 47</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Name 11</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="8" t="n">
         <v>4</v>
       </c>
-      <c r="B18" s="7" t="inlineStr">
-        <is>
-          <t>Name 59</t>
-        </is>
-      </c>
-      <c r="C18" s="7" t="inlineStr">
-        <is>
-          <t>Name 20</t>
-        </is>
-      </c>
-      <c r="D18" s="8">
-        <f>SUMIF('By Board'!E3:E51,"="&amp;A18,'By Board'!O3:O51)/12</f>
-        <v/>
-      </c>
-      <c r="E18" s="9">
-        <f>SUMIF('By Board'!E3:E51,"="&amp;A18,'By Board'!M3:M51)</f>
-        <v/>
-      </c>
-      <c r="F18" s="7" t="n"/>
-    </row>
-    <row r="19">
-      <c r="C19" s="10" t="inlineStr">
+      <c r="B20" s="9" t="inlineStr">
+        <is>
+          <t>Name 46</t>
+        </is>
+      </c>
+      <c r="C20" s="9" t="inlineStr">
+        <is>
+          <t>Name 84</t>
+        </is>
+      </c>
+      <c r="D20" s="9" t="n"/>
+      <c r="E20" s="9" t="n"/>
+      <c r="F20" s="9" t="n"/>
+    </row>
+    <row r="21">
+      <c r="C21" s="10" t="inlineStr">
         <is>
           <t>Average</t>
         </is>
       </c>
-      <c r="D19" s="11">
-        <f>AVERAGE(D15:D18)</f>
-        <v/>
-      </c>
-      <c r="E19" s="12">
-        <f>SUM(F15:F18)</f>
+      <c r="D21" s="11">
+        <f>AVERAGE(D17:D20)</f>
+        <v/>
+      </c>
+      <c r="E21" s="12">
+        <f>SUM(F17:F20)</f>
         <v/>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="8">
     <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A7:B7"/>
     <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A14:C14"/>
     <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A9:C9"/>
     <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A16:C16"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -1349,7 +1367,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="7" t="n"/>
+      <c r="A6" s="9" t="n"/>
       <c r="B6" s="19">
         <f>'By Round'!A15</f>
         <v/>
@@ -1370,23 +1388,23 @@
         <f>IF(ISBLANK('By Round'!F24),"",'By Round'!F24)</f>
         <v/>
       </c>
-      <c r="G6" s="7">
+      <c r="G6" s="9">
         <f>IF(ISBLANK('By Round'!G24),"",'By Round'!G24)</f>
         <v/>
       </c>
-      <c r="H6" s="7">
+      <c r="H6" s="9">
         <f>IF(ISBLANK('By Round'!H24),"",'By Round'!H24)</f>
         <v/>
       </c>
-      <c r="I6" s="7">
+      <c r="I6" s="9">
         <f>IF(ISBLANK('By Round'!I24),"",'By Round'!I24)</f>
         <v/>
       </c>
-      <c r="J6" s="7">
+      <c r="J6" s="9">
         <f>IF(ISBLANK('By Round'!J24),"",'By Round'!J24)</f>
         <v/>
       </c>
-      <c r="K6" s="7">
+      <c r="K6" s="9">
         <f>IF(ISBLANK('By Round'!K24),"",'By Round'!K24)</f>
         <v/>
       </c>
@@ -1394,79 +1412,79 @@
         <f>SUM(Z6:AB6)</f>
         <v/>
       </c>
-      <c r="M6" s="9">
+      <c r="M6" s="21">
         <f>SUM(AC6:AE6)</f>
         <v/>
       </c>
-      <c r="N6" s="8">
+      <c r="N6" s="22">
         <f>IF(COUNT(T6:V6)&gt;0,P6/COUNT(T6:V6),0.5)</f>
         <v/>
       </c>
-      <c r="O6" s="8">
+      <c r="O6" s="22">
         <f>IF(COUNT(W6:Y6)&gt;0,Q6/COUNT(W6:Y6),0.5)</f>
         <v/>
       </c>
-      <c r="P6" s="21">
+      <c r="P6" s="23">
         <f>SUM(T6:V6)</f>
         <v/>
       </c>
-      <c r="Q6" s="21">
+      <c r="Q6" s="23">
         <f>SUM(W6:Y6)</f>
         <v/>
       </c>
-      <c r="R6" s="22">
+      <c r="R6" s="24">
         <f>IF(ISNUMBER(J6),J6,IF(ISNUMBER(K6),-K6,""))</f>
         <v/>
       </c>
-      <c r="S6" s="7">
+      <c r="S6" s="9">
         <f>IF(ISNUMBER(K6),K6,IF(ISNUMBER(J6),-J6,""))</f>
         <v/>
       </c>
-      <c r="T6" s="22">
+      <c r="T6" s="24">
         <f>IF(ISNUMBER(R6),IF(ISNUMBER(R3),IF(R6&gt;R3,1.0,IF(R6=R3,0.5,0.0)),""),"")</f>
         <v/>
       </c>
-      <c r="U6" s="7">
+      <c r="U6" s="9">
         <f>IF(ISNUMBER(R6),IF(ISNUMBER(R4),IF(R6&gt;R4,1.0,IF(R6=R4,0.5,0.0)),""),"")</f>
         <v/>
       </c>
-      <c r="V6" s="7">
+      <c r="V6" s="9">
         <f>IF(ISNUMBER(R6),IF(ISNUMBER(R5),IF(R6&gt;R5,1.0,IF(R6=R5,0.5,0.0)),""),"")</f>
         <v/>
       </c>
-      <c r="W6" s="7">
+      <c r="W6" s="9">
         <f>IF(ISNUMBER(S6),IF(ISNUMBER(S3),IF(S6&gt;S3,1.0,IF(S6=S3,0.5,0.0)),""),"")</f>
         <v/>
       </c>
-      <c r="X6" s="7">
+      <c r="X6" s="9">
         <f>IF(ISNUMBER(S6),IF(ISNUMBER(S4),IF(S6&gt;S4,1.0,IF(S6=S4,0.5,0.0)),""),"")</f>
         <v/>
       </c>
-      <c r="Y6" s="7">
+      <c r="Y6" s="9">
         <f>IF(ISNUMBER(S6),IF(ISNUMBER(S5),IF(S6&gt;S5,1.0,IF(S6=S5,0.5,0.0)),""),"")</f>
         <v/>
       </c>
-      <c r="Z6" s="22">
+      <c r="Z6" s="24">
         <f>IF(AND(ISNUMBER(R6),ISNUMBER(R3)),VLOOKUP(ABS(R6-R3),'IMP Table'!$A$2:$C$26,3)*SIGN(R6-R3),0)</f>
         <v/>
       </c>
-      <c r="AA6" s="7">
+      <c r="AA6" s="9">
         <f>IF(AND(ISNUMBER(R6),ISNUMBER(R4)),VLOOKUP(ABS(R6-R4),'IMP Table'!$A$2:$C$26,3)*SIGN(R6-R4),0)</f>
         <v/>
       </c>
-      <c r="AB6" s="7">
+      <c r="AB6" s="9">
         <f>IF(AND(ISNUMBER(R6),ISNUMBER(R5)),VLOOKUP(ABS(R6-R5),'IMP Table'!$A$2:$C$26,3)*SIGN(R6-R5),0)</f>
         <v/>
       </c>
-      <c r="AC6" s="7">
+      <c r="AC6" s="9">
         <f>IF(AND(ISNUMBER(S6),ISNUMBER(S3)),VLOOKUP(ABS(S6-S3),'IMP Table'!$A$2:$C$26,3)*SIGN(S6-S3),0)</f>
         <v/>
       </c>
-      <c r="AD6" s="7">
+      <c r="AD6" s="9">
         <f>IF(AND(ISNUMBER(S6),ISNUMBER(S4)),VLOOKUP(ABS(S6-S4),'IMP Table'!$A$2:$C$26,3)*SIGN(S6-S4),0)</f>
         <v/>
       </c>
-      <c r="AE6" s="7">
+      <c r="AE6" s="9">
         <f>IF(AND(ISNUMBER(S6),ISNUMBER(S5)),VLOOKUP(ABS(S6-S5),'IMP Table'!$A$2:$C$26,3)*SIGN(S6-S5),0)</f>
         <v/>
       </c>
@@ -1841,7 +1859,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="7" t="n"/>
+      <c r="A10" s="9" t="n"/>
       <c r="B10" s="19">
         <f>'By Round'!A15</f>
         <v/>
@@ -1862,23 +1880,23 @@
         <f>IF(ISBLANK('By Round'!F25),"",'By Round'!F25)</f>
         <v/>
       </c>
-      <c r="G10" s="7">
+      <c r="G10" s="9">
         <f>IF(ISBLANK('By Round'!G25),"",'By Round'!G25)</f>
         <v/>
       </c>
-      <c r="H10" s="7">
+      <c r="H10" s="9">
         <f>IF(ISBLANK('By Round'!H25),"",'By Round'!H25)</f>
         <v/>
       </c>
-      <c r="I10" s="7">
+      <c r="I10" s="9">
         <f>IF(ISBLANK('By Round'!I25),"",'By Round'!I25)</f>
         <v/>
       </c>
-      <c r="J10" s="7">
+      <c r="J10" s="9">
         <f>IF(ISBLANK('By Round'!J25),"",'By Round'!J25)</f>
         <v/>
       </c>
-      <c r="K10" s="7">
+      <c r="K10" s="9">
         <f>IF(ISBLANK('By Round'!K25),"",'By Round'!K25)</f>
         <v/>
       </c>
@@ -1886,79 +1904,79 @@
         <f>SUM(Z10:AB10)</f>
         <v/>
       </c>
-      <c r="M10" s="9">
+      <c r="M10" s="21">
         <f>SUM(AC10:AE10)</f>
         <v/>
       </c>
-      <c r="N10" s="8">
+      <c r="N10" s="22">
         <f>IF(COUNT(T10:V10)&gt;0,P10/COUNT(T10:V10),0.5)</f>
         <v/>
       </c>
-      <c r="O10" s="8">
+      <c r="O10" s="22">
         <f>IF(COUNT(W10:Y10)&gt;0,Q10/COUNT(W10:Y10),0.5)</f>
         <v/>
       </c>
-      <c r="P10" s="21">
+      <c r="P10" s="23">
         <f>SUM(T10:V10)</f>
         <v/>
       </c>
-      <c r="Q10" s="21">
+      <c r="Q10" s="23">
         <f>SUM(W10:Y10)</f>
         <v/>
       </c>
-      <c r="R10" s="22">
+      <c r="R10" s="24">
         <f>IF(ISNUMBER(J10),J10,IF(ISNUMBER(K10),-K10,""))</f>
         <v/>
       </c>
-      <c r="S10" s="7">
+      <c r="S10" s="9">
         <f>IF(ISNUMBER(K10),K10,IF(ISNUMBER(J10),-J10,""))</f>
         <v/>
       </c>
-      <c r="T10" s="22">
+      <c r="T10" s="24">
         <f>IF(ISNUMBER(R10),IF(ISNUMBER(R7),IF(R10&gt;R7,1.0,IF(R10=R7,0.5,0.0)),""),"")</f>
         <v/>
       </c>
-      <c r="U10" s="7">
+      <c r="U10" s="9">
         <f>IF(ISNUMBER(R10),IF(ISNUMBER(R8),IF(R10&gt;R8,1.0,IF(R10=R8,0.5,0.0)),""),"")</f>
         <v/>
       </c>
-      <c r="V10" s="7">
+      <c r="V10" s="9">
         <f>IF(ISNUMBER(R10),IF(ISNUMBER(R9),IF(R10&gt;R9,1.0,IF(R10=R9,0.5,0.0)),""),"")</f>
         <v/>
       </c>
-      <c r="W10" s="7">
+      <c r="W10" s="9">
         <f>IF(ISNUMBER(S10),IF(ISNUMBER(S7),IF(S10&gt;S7,1.0,IF(S10=S7,0.5,0.0)),""),"")</f>
         <v/>
       </c>
-      <c r="X10" s="7">
+      <c r="X10" s="9">
         <f>IF(ISNUMBER(S10),IF(ISNUMBER(S8),IF(S10&gt;S8,1.0,IF(S10=S8,0.5,0.0)),""),"")</f>
         <v/>
       </c>
-      <c r="Y10" s="7">
+      <c r="Y10" s="9">
         <f>IF(ISNUMBER(S10),IF(ISNUMBER(S9),IF(S10&gt;S9,1.0,IF(S10=S9,0.5,0.0)),""),"")</f>
         <v/>
       </c>
-      <c r="Z10" s="22">
+      <c r="Z10" s="24">
         <f>IF(AND(ISNUMBER(R10),ISNUMBER(R7)),VLOOKUP(ABS(R10-R7),'IMP Table'!$A$2:$C$26,3)*SIGN(R10-R7),0)</f>
         <v/>
       </c>
-      <c r="AA10" s="7">
+      <c r="AA10" s="9">
         <f>IF(AND(ISNUMBER(R10),ISNUMBER(R8)),VLOOKUP(ABS(R10-R8),'IMP Table'!$A$2:$C$26,3)*SIGN(R10-R8),0)</f>
         <v/>
       </c>
-      <c r="AB10" s="7">
+      <c r="AB10" s="9">
         <f>IF(AND(ISNUMBER(R10),ISNUMBER(R9)),VLOOKUP(ABS(R10-R9),'IMP Table'!$A$2:$C$26,3)*SIGN(R10-R9),0)</f>
         <v/>
       </c>
-      <c r="AC10" s="7">
+      <c r="AC10" s="9">
         <f>IF(AND(ISNUMBER(S10),ISNUMBER(S7)),VLOOKUP(ABS(S10-S7),'IMP Table'!$A$2:$C$26,3)*SIGN(S10-S7),0)</f>
         <v/>
       </c>
-      <c r="AD10" s="7">
+      <c r="AD10" s="9">
         <f>IF(AND(ISNUMBER(S10),ISNUMBER(S8)),VLOOKUP(ABS(S10-S8),'IMP Table'!$A$2:$C$26,3)*SIGN(S10-S8),0)</f>
         <v/>
       </c>
-      <c r="AE10" s="7">
+      <c r="AE10" s="9">
         <f>IF(AND(ISNUMBER(S10),ISNUMBER(S9)),VLOOKUP(ABS(S10-S9),'IMP Table'!$A$2:$C$26,3)*SIGN(S10-S9),0)</f>
         <v/>
       </c>
@@ -2333,7 +2351,7 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="7" t="n"/>
+      <c r="A14" s="9" t="n"/>
       <c r="B14" s="19">
         <f>'By Round'!A15</f>
         <v/>
@@ -2354,23 +2372,23 @@
         <f>IF(ISBLANK('By Round'!F26),"",'By Round'!F26)</f>
         <v/>
       </c>
-      <c r="G14" s="7">
+      <c r="G14" s="9">
         <f>IF(ISBLANK('By Round'!G26),"",'By Round'!G26)</f>
         <v/>
       </c>
-      <c r="H14" s="7">
+      <c r="H14" s="9">
         <f>IF(ISBLANK('By Round'!H26),"",'By Round'!H26)</f>
         <v/>
       </c>
-      <c r="I14" s="7">
+      <c r="I14" s="9">
         <f>IF(ISBLANK('By Round'!I26),"",'By Round'!I26)</f>
         <v/>
       </c>
-      <c r="J14" s="7">
+      <c r="J14" s="9">
         <f>IF(ISBLANK('By Round'!J26),"",'By Round'!J26)</f>
         <v/>
       </c>
-      <c r="K14" s="7">
+      <c r="K14" s="9">
         <f>IF(ISBLANK('By Round'!K26),"",'By Round'!K26)</f>
         <v/>
       </c>
@@ -2378,79 +2396,79 @@
         <f>SUM(Z14:AB14)</f>
         <v/>
       </c>
-      <c r="M14" s="9">
+      <c r="M14" s="21">
         <f>SUM(AC14:AE14)</f>
         <v/>
       </c>
-      <c r="N14" s="8">
+      <c r="N14" s="22">
         <f>IF(COUNT(T14:V14)&gt;0,P14/COUNT(T14:V14),0.5)</f>
         <v/>
       </c>
-      <c r="O14" s="8">
+      <c r="O14" s="22">
         <f>IF(COUNT(W14:Y14)&gt;0,Q14/COUNT(W14:Y14),0.5)</f>
         <v/>
       </c>
-      <c r="P14" s="21">
+      <c r="P14" s="23">
         <f>SUM(T14:V14)</f>
         <v/>
       </c>
-      <c r="Q14" s="21">
+      <c r="Q14" s="23">
         <f>SUM(W14:Y14)</f>
         <v/>
       </c>
-      <c r="R14" s="22">
+      <c r="R14" s="24">
         <f>IF(ISNUMBER(J14),J14,IF(ISNUMBER(K14),-K14,""))</f>
         <v/>
       </c>
-      <c r="S14" s="7">
+      <c r="S14" s="9">
         <f>IF(ISNUMBER(K14),K14,IF(ISNUMBER(J14),-J14,""))</f>
         <v/>
       </c>
-      <c r="T14" s="22">
+      <c r="T14" s="24">
         <f>IF(ISNUMBER(R14),IF(ISNUMBER(R11),IF(R14&gt;R11,1.0,IF(R14=R11,0.5,0.0)),""),"")</f>
         <v/>
       </c>
-      <c r="U14" s="7">
+      <c r="U14" s="9">
         <f>IF(ISNUMBER(R14),IF(ISNUMBER(R12),IF(R14&gt;R12,1.0,IF(R14=R12,0.5,0.0)),""),"")</f>
         <v/>
       </c>
-      <c r="V14" s="7">
+      <c r="V14" s="9">
         <f>IF(ISNUMBER(R14),IF(ISNUMBER(R13),IF(R14&gt;R13,1.0,IF(R14=R13,0.5,0.0)),""),"")</f>
         <v/>
       </c>
-      <c r="W14" s="7">
+      <c r="W14" s="9">
         <f>IF(ISNUMBER(S14),IF(ISNUMBER(S11),IF(S14&gt;S11,1.0,IF(S14=S11,0.5,0.0)),""),"")</f>
         <v/>
       </c>
-      <c r="X14" s="7">
+      <c r="X14" s="9">
         <f>IF(ISNUMBER(S14),IF(ISNUMBER(S12),IF(S14&gt;S12,1.0,IF(S14=S12,0.5,0.0)),""),"")</f>
         <v/>
       </c>
-      <c r="Y14" s="7">
+      <c r="Y14" s="9">
         <f>IF(ISNUMBER(S14),IF(ISNUMBER(S13),IF(S14&gt;S13,1.0,IF(S14=S13,0.5,0.0)),""),"")</f>
         <v/>
       </c>
-      <c r="Z14" s="22">
+      <c r="Z14" s="24">
         <f>IF(AND(ISNUMBER(R14),ISNUMBER(R11)),VLOOKUP(ABS(R14-R11),'IMP Table'!$A$2:$C$26,3)*SIGN(R14-R11),0)</f>
         <v/>
       </c>
-      <c r="AA14" s="7">
+      <c r="AA14" s="9">
         <f>IF(AND(ISNUMBER(R14),ISNUMBER(R12)),VLOOKUP(ABS(R14-R12),'IMP Table'!$A$2:$C$26,3)*SIGN(R14-R12),0)</f>
         <v/>
       </c>
-      <c r="AB14" s="7">
+      <c r="AB14" s="9">
         <f>IF(AND(ISNUMBER(R14),ISNUMBER(R13)),VLOOKUP(ABS(R14-R13),'IMP Table'!$A$2:$C$26,3)*SIGN(R14-R13),0)</f>
         <v/>
       </c>
-      <c r="AC14" s="7">
+      <c r="AC14" s="9">
         <f>IF(AND(ISNUMBER(S14),ISNUMBER(S11)),VLOOKUP(ABS(S14-S11),'IMP Table'!$A$2:$C$26,3)*SIGN(S14-S11),0)</f>
         <v/>
       </c>
-      <c r="AD14" s="7">
+      <c r="AD14" s="9">
         <f>IF(AND(ISNUMBER(S14),ISNUMBER(S12)),VLOOKUP(ABS(S14-S12),'IMP Table'!$A$2:$C$26,3)*SIGN(S14-S12),0)</f>
         <v/>
       </c>
-      <c r="AE14" s="7">
+      <c r="AE14" s="9">
         <f>IF(AND(ISNUMBER(S14),ISNUMBER(S13)),VLOOKUP(ABS(S14-S13),'IMP Table'!$A$2:$C$26,3)*SIGN(S14-S13),0)</f>
         <v/>
       </c>
@@ -2825,7 +2843,7 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="7" t="n"/>
+      <c r="A18" s="9" t="n"/>
       <c r="B18" s="19">
         <f>'By Round'!A27</f>
         <v/>
@@ -2846,23 +2864,23 @@
         <f>IF(ISBLANK('By Round'!F36),"",'By Round'!F36)</f>
         <v/>
       </c>
-      <c r="G18" s="7">
+      <c r="G18" s="9">
         <f>IF(ISBLANK('By Round'!G36),"",'By Round'!G36)</f>
         <v/>
       </c>
-      <c r="H18" s="7">
+      <c r="H18" s="9">
         <f>IF(ISBLANK('By Round'!H36),"",'By Round'!H36)</f>
         <v/>
       </c>
-      <c r="I18" s="7">
+      <c r="I18" s="9">
         <f>IF(ISBLANK('By Round'!I36),"",'By Round'!I36)</f>
         <v/>
       </c>
-      <c r="J18" s="7">
+      <c r="J18" s="9">
         <f>IF(ISBLANK('By Round'!J36),"",'By Round'!J36)</f>
         <v/>
       </c>
-      <c r="K18" s="7">
+      <c r="K18" s="9">
         <f>IF(ISBLANK('By Round'!K36),"",'By Round'!K36)</f>
         <v/>
       </c>
@@ -2870,79 +2888,79 @@
         <f>SUM(Z18:AB18)</f>
         <v/>
       </c>
-      <c r="M18" s="9">
+      <c r="M18" s="21">
         <f>SUM(AC18:AE18)</f>
         <v/>
       </c>
-      <c r="N18" s="8">
+      <c r="N18" s="22">
         <f>IF(COUNT(T18:V18)&gt;0,P18/COUNT(T18:V18),0.5)</f>
         <v/>
       </c>
-      <c r="O18" s="8">
+      <c r="O18" s="22">
         <f>IF(COUNT(W18:Y18)&gt;0,Q18/COUNT(W18:Y18),0.5)</f>
         <v/>
       </c>
-      <c r="P18" s="21">
+      <c r="P18" s="23">
         <f>SUM(T18:V18)</f>
         <v/>
       </c>
-      <c r="Q18" s="21">
+      <c r="Q18" s="23">
         <f>SUM(W18:Y18)</f>
         <v/>
       </c>
-      <c r="R18" s="22">
+      <c r="R18" s="24">
         <f>IF(ISNUMBER(J18),J18,IF(ISNUMBER(K18),-K18,""))</f>
         <v/>
       </c>
-      <c r="S18" s="7">
+      <c r="S18" s="9">
         <f>IF(ISNUMBER(K18),K18,IF(ISNUMBER(J18),-J18,""))</f>
         <v/>
       </c>
-      <c r="T18" s="22">
+      <c r="T18" s="24">
         <f>IF(ISNUMBER(R18),IF(ISNUMBER(R15),IF(R18&gt;R15,1.0,IF(R18=R15,0.5,0.0)),""),"")</f>
         <v/>
       </c>
-      <c r="U18" s="7">
+      <c r="U18" s="9">
         <f>IF(ISNUMBER(R18),IF(ISNUMBER(R16),IF(R18&gt;R16,1.0,IF(R18=R16,0.5,0.0)),""),"")</f>
         <v/>
       </c>
-      <c r="V18" s="7">
+      <c r="V18" s="9">
         <f>IF(ISNUMBER(R18),IF(ISNUMBER(R17),IF(R18&gt;R17,1.0,IF(R18=R17,0.5,0.0)),""),"")</f>
         <v/>
       </c>
-      <c r="W18" s="7">
+      <c r="W18" s="9">
         <f>IF(ISNUMBER(S18),IF(ISNUMBER(S15),IF(S18&gt;S15,1.0,IF(S18=S15,0.5,0.0)),""),"")</f>
         <v/>
       </c>
-      <c r="X18" s="7">
+      <c r="X18" s="9">
         <f>IF(ISNUMBER(S18),IF(ISNUMBER(S16),IF(S18&gt;S16,1.0,IF(S18=S16,0.5,0.0)),""),"")</f>
         <v/>
       </c>
-      <c r="Y18" s="7">
+      <c r="Y18" s="9">
         <f>IF(ISNUMBER(S18),IF(ISNUMBER(S17),IF(S18&gt;S17,1.0,IF(S18=S17,0.5,0.0)),""),"")</f>
         <v/>
       </c>
-      <c r="Z18" s="22">
+      <c r="Z18" s="24">
         <f>IF(AND(ISNUMBER(R18),ISNUMBER(R15)),VLOOKUP(ABS(R18-R15),'IMP Table'!$A$2:$C$26,3)*SIGN(R18-R15),0)</f>
         <v/>
       </c>
-      <c r="AA18" s="7">
+      <c r="AA18" s="9">
         <f>IF(AND(ISNUMBER(R18),ISNUMBER(R16)),VLOOKUP(ABS(R18-R16),'IMP Table'!$A$2:$C$26,3)*SIGN(R18-R16),0)</f>
         <v/>
       </c>
-      <c r="AB18" s="7">
+      <c r="AB18" s="9">
         <f>IF(AND(ISNUMBER(R18),ISNUMBER(R17)),VLOOKUP(ABS(R18-R17),'IMP Table'!$A$2:$C$26,3)*SIGN(R18-R17),0)</f>
         <v/>
       </c>
-      <c r="AC18" s="7">
+      <c r="AC18" s="9">
         <f>IF(AND(ISNUMBER(S18),ISNUMBER(S15)),VLOOKUP(ABS(S18-S15),'IMP Table'!$A$2:$C$26,3)*SIGN(S18-S15),0)</f>
         <v/>
       </c>
-      <c r="AD18" s="7">
+      <c r="AD18" s="9">
         <f>IF(AND(ISNUMBER(S18),ISNUMBER(S16)),VLOOKUP(ABS(S18-S16),'IMP Table'!$A$2:$C$26,3)*SIGN(S18-S16),0)</f>
         <v/>
       </c>
-      <c r="AE18" s="7">
+      <c r="AE18" s="9">
         <f>IF(AND(ISNUMBER(S18),ISNUMBER(S17)),VLOOKUP(ABS(S18-S17),'IMP Table'!$A$2:$C$26,3)*SIGN(S18-S17),0)</f>
         <v/>
       </c>
@@ -3317,7 +3335,7 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="7" t="n"/>
+      <c r="A22" s="9" t="n"/>
       <c r="B22" s="19">
         <f>'By Round'!A27</f>
         <v/>
@@ -3338,23 +3356,23 @@
         <f>IF(ISBLANK('By Round'!F37),"",'By Round'!F37)</f>
         <v/>
       </c>
-      <c r="G22" s="7">
+      <c r="G22" s="9">
         <f>IF(ISBLANK('By Round'!G37),"",'By Round'!G37)</f>
         <v/>
       </c>
-      <c r="H22" s="7">
+      <c r="H22" s="9">
         <f>IF(ISBLANK('By Round'!H37),"",'By Round'!H37)</f>
         <v/>
       </c>
-      <c r="I22" s="7">
+      <c r="I22" s="9">
         <f>IF(ISBLANK('By Round'!I37),"",'By Round'!I37)</f>
         <v/>
       </c>
-      <c r="J22" s="7">
+      <c r="J22" s="9">
         <f>IF(ISBLANK('By Round'!J37),"",'By Round'!J37)</f>
         <v/>
       </c>
-      <c r="K22" s="7">
+      <c r="K22" s="9">
         <f>IF(ISBLANK('By Round'!K37),"",'By Round'!K37)</f>
         <v/>
       </c>
@@ -3362,79 +3380,79 @@
         <f>SUM(Z22:AB22)</f>
         <v/>
       </c>
-      <c r="M22" s="9">
+      <c r="M22" s="21">
         <f>SUM(AC22:AE22)</f>
         <v/>
       </c>
-      <c r="N22" s="8">
+      <c r="N22" s="22">
         <f>IF(COUNT(T22:V22)&gt;0,P22/COUNT(T22:V22),0.5)</f>
         <v/>
       </c>
-      <c r="O22" s="8">
+      <c r="O22" s="22">
         <f>IF(COUNT(W22:Y22)&gt;0,Q22/COUNT(W22:Y22),0.5)</f>
         <v/>
       </c>
-      <c r="P22" s="21">
+      <c r="P22" s="23">
         <f>SUM(T22:V22)</f>
         <v/>
       </c>
-      <c r="Q22" s="21">
+      <c r="Q22" s="23">
         <f>SUM(W22:Y22)</f>
         <v/>
       </c>
-      <c r="R22" s="22">
+      <c r="R22" s="24">
         <f>IF(ISNUMBER(J22),J22,IF(ISNUMBER(K22),-K22,""))</f>
         <v/>
       </c>
-      <c r="S22" s="7">
+      <c r="S22" s="9">
         <f>IF(ISNUMBER(K22),K22,IF(ISNUMBER(J22),-J22,""))</f>
         <v/>
       </c>
-      <c r="T22" s="22">
+      <c r="T22" s="24">
         <f>IF(ISNUMBER(R22),IF(ISNUMBER(R19),IF(R22&gt;R19,1.0,IF(R22=R19,0.5,0.0)),""),"")</f>
         <v/>
       </c>
-      <c r="U22" s="7">
+      <c r="U22" s="9">
         <f>IF(ISNUMBER(R22),IF(ISNUMBER(R20),IF(R22&gt;R20,1.0,IF(R22=R20,0.5,0.0)),""),"")</f>
         <v/>
       </c>
-      <c r="V22" s="7">
+      <c r="V22" s="9">
         <f>IF(ISNUMBER(R22),IF(ISNUMBER(R21),IF(R22&gt;R21,1.0,IF(R22=R21,0.5,0.0)),""),"")</f>
         <v/>
       </c>
-      <c r="W22" s="7">
+      <c r="W22" s="9">
         <f>IF(ISNUMBER(S22),IF(ISNUMBER(S19),IF(S22&gt;S19,1.0,IF(S22=S19,0.5,0.0)),""),"")</f>
         <v/>
       </c>
-      <c r="X22" s="7">
+      <c r="X22" s="9">
         <f>IF(ISNUMBER(S22),IF(ISNUMBER(S20),IF(S22&gt;S20,1.0,IF(S22=S20,0.5,0.0)),""),"")</f>
         <v/>
       </c>
-      <c r="Y22" s="7">
+      <c r="Y22" s="9">
         <f>IF(ISNUMBER(S22),IF(ISNUMBER(S21),IF(S22&gt;S21,1.0,IF(S22=S21,0.5,0.0)),""),"")</f>
         <v/>
       </c>
-      <c r="Z22" s="22">
+      <c r="Z22" s="24">
         <f>IF(AND(ISNUMBER(R22),ISNUMBER(R19)),VLOOKUP(ABS(R22-R19),'IMP Table'!$A$2:$C$26,3)*SIGN(R22-R19),0)</f>
         <v/>
       </c>
-      <c r="AA22" s="7">
+      <c r="AA22" s="9">
         <f>IF(AND(ISNUMBER(R22),ISNUMBER(R20)),VLOOKUP(ABS(R22-R20),'IMP Table'!$A$2:$C$26,3)*SIGN(R22-R20),0)</f>
         <v/>
       </c>
-      <c r="AB22" s="7">
+      <c r="AB22" s="9">
         <f>IF(AND(ISNUMBER(R22),ISNUMBER(R21)),VLOOKUP(ABS(R22-R21),'IMP Table'!$A$2:$C$26,3)*SIGN(R22-R21),0)</f>
         <v/>
       </c>
-      <c r="AC22" s="7">
+      <c r="AC22" s="9">
         <f>IF(AND(ISNUMBER(S22),ISNUMBER(S19)),VLOOKUP(ABS(S22-S19),'IMP Table'!$A$2:$C$26,3)*SIGN(S22-S19),0)</f>
         <v/>
       </c>
-      <c r="AD22" s="7">
+      <c r="AD22" s="9">
         <f>IF(AND(ISNUMBER(S22),ISNUMBER(S20)),VLOOKUP(ABS(S22-S20),'IMP Table'!$A$2:$C$26,3)*SIGN(S22-S20),0)</f>
         <v/>
       </c>
-      <c r="AE22" s="7">
+      <c r="AE22" s="9">
         <f>IF(AND(ISNUMBER(S22),ISNUMBER(S21)),VLOOKUP(ABS(S22-S21),'IMP Table'!$A$2:$C$26,3)*SIGN(S22-S21),0)</f>
         <v/>
       </c>
@@ -3809,7 +3827,7 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="7" t="n"/>
+      <c r="A26" s="9" t="n"/>
       <c r="B26" s="19">
         <f>'By Round'!A27</f>
         <v/>
@@ -3830,23 +3848,23 @@
         <f>IF(ISBLANK('By Round'!F38),"",'By Round'!F38)</f>
         <v/>
       </c>
-      <c r="G26" s="7">
+      <c r="G26" s="9">
         <f>IF(ISBLANK('By Round'!G38),"",'By Round'!G38)</f>
         <v/>
       </c>
-      <c r="H26" s="7">
+      <c r="H26" s="9">
         <f>IF(ISBLANK('By Round'!H38),"",'By Round'!H38)</f>
         <v/>
       </c>
-      <c r="I26" s="7">
+      <c r="I26" s="9">
         <f>IF(ISBLANK('By Round'!I38),"",'By Round'!I38)</f>
         <v/>
       </c>
-      <c r="J26" s="7">
+      <c r="J26" s="9">
         <f>IF(ISBLANK('By Round'!J38),"",'By Round'!J38)</f>
         <v/>
       </c>
-      <c r="K26" s="7">
+      <c r="K26" s="9">
         <f>IF(ISBLANK('By Round'!K38),"",'By Round'!K38)</f>
         <v/>
       </c>
@@ -3854,79 +3872,79 @@
         <f>SUM(Z26:AB26)</f>
         <v/>
       </c>
-      <c r="M26" s="9">
+      <c r="M26" s="21">
         <f>SUM(AC26:AE26)</f>
         <v/>
       </c>
-      <c r="N26" s="8">
+      <c r="N26" s="22">
         <f>IF(COUNT(T26:V26)&gt;0,P26/COUNT(T26:V26),0.5)</f>
         <v/>
       </c>
-      <c r="O26" s="8">
+      <c r="O26" s="22">
         <f>IF(COUNT(W26:Y26)&gt;0,Q26/COUNT(W26:Y26),0.5)</f>
         <v/>
       </c>
-      <c r="P26" s="21">
+      <c r="P26" s="23">
         <f>SUM(T26:V26)</f>
         <v/>
       </c>
-      <c r="Q26" s="21">
+      <c r="Q26" s="23">
         <f>SUM(W26:Y26)</f>
         <v/>
       </c>
-      <c r="R26" s="22">
+      <c r="R26" s="24">
         <f>IF(ISNUMBER(J26),J26,IF(ISNUMBER(K26),-K26,""))</f>
         <v/>
       </c>
-      <c r="S26" s="7">
+      <c r="S26" s="9">
         <f>IF(ISNUMBER(K26),K26,IF(ISNUMBER(J26),-J26,""))</f>
         <v/>
       </c>
-      <c r="T26" s="22">
+      <c r="T26" s="24">
         <f>IF(ISNUMBER(R26),IF(ISNUMBER(R23),IF(R26&gt;R23,1.0,IF(R26=R23,0.5,0.0)),""),"")</f>
         <v/>
       </c>
-      <c r="U26" s="7">
+      <c r="U26" s="9">
         <f>IF(ISNUMBER(R26),IF(ISNUMBER(R24),IF(R26&gt;R24,1.0,IF(R26=R24,0.5,0.0)),""),"")</f>
         <v/>
       </c>
-      <c r="V26" s="7">
+      <c r="V26" s="9">
         <f>IF(ISNUMBER(R26),IF(ISNUMBER(R25),IF(R26&gt;R25,1.0,IF(R26=R25,0.5,0.0)),""),"")</f>
         <v/>
       </c>
-      <c r="W26" s="7">
+      <c r="W26" s="9">
         <f>IF(ISNUMBER(S26),IF(ISNUMBER(S23),IF(S26&gt;S23,1.0,IF(S26=S23,0.5,0.0)),""),"")</f>
         <v/>
       </c>
-      <c r="X26" s="7">
+      <c r="X26" s="9">
         <f>IF(ISNUMBER(S26),IF(ISNUMBER(S24),IF(S26&gt;S24,1.0,IF(S26=S24,0.5,0.0)),""),"")</f>
         <v/>
       </c>
-      <c r="Y26" s="7">
+      <c r="Y26" s="9">
         <f>IF(ISNUMBER(S26),IF(ISNUMBER(S25),IF(S26&gt;S25,1.0,IF(S26=S25,0.5,0.0)),""),"")</f>
         <v/>
       </c>
-      <c r="Z26" s="22">
+      <c r="Z26" s="24">
         <f>IF(AND(ISNUMBER(R26),ISNUMBER(R23)),VLOOKUP(ABS(R26-R23),'IMP Table'!$A$2:$C$26,3)*SIGN(R26-R23),0)</f>
         <v/>
       </c>
-      <c r="AA26" s="7">
+      <c r="AA26" s="9">
         <f>IF(AND(ISNUMBER(R26),ISNUMBER(R24)),VLOOKUP(ABS(R26-R24),'IMP Table'!$A$2:$C$26,3)*SIGN(R26-R24),0)</f>
         <v/>
       </c>
-      <c r="AB26" s="7">
+      <c r="AB26" s="9">
         <f>IF(AND(ISNUMBER(R26),ISNUMBER(R25)),VLOOKUP(ABS(R26-R25),'IMP Table'!$A$2:$C$26,3)*SIGN(R26-R25),0)</f>
         <v/>
       </c>
-      <c r="AC26" s="7">
+      <c r="AC26" s="9">
         <f>IF(AND(ISNUMBER(S26),ISNUMBER(S23)),VLOOKUP(ABS(S26-S23),'IMP Table'!$A$2:$C$26,3)*SIGN(S26-S23),0)</f>
         <v/>
       </c>
-      <c r="AD26" s="7">
+      <c r="AD26" s="9">
         <f>IF(AND(ISNUMBER(S26),ISNUMBER(S24)),VLOOKUP(ABS(S26-S24),'IMP Table'!$A$2:$C$26,3)*SIGN(S26-S24),0)</f>
         <v/>
       </c>
-      <c r="AE26" s="7">
+      <c r="AE26" s="9">
         <f>IF(AND(ISNUMBER(S26),ISNUMBER(S25)),VLOOKUP(ABS(S26-S25),'IMP Table'!$A$2:$C$26,3)*SIGN(S26-S25),0)</f>
         <v/>
       </c>
@@ -4301,7 +4319,7 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="7" t="n"/>
+      <c r="A30" s="9" t="n"/>
       <c r="B30" s="19">
         <f>'By Round'!A39</f>
         <v/>
@@ -4322,23 +4340,23 @@
         <f>IF(ISBLANK('By Round'!F48),"",'By Round'!F48)</f>
         <v/>
       </c>
-      <c r="G30" s="7">
+      <c r="G30" s="9">
         <f>IF(ISBLANK('By Round'!G48),"",'By Round'!G48)</f>
         <v/>
       </c>
-      <c r="H30" s="7">
+      <c r="H30" s="9">
         <f>IF(ISBLANK('By Round'!H48),"",'By Round'!H48)</f>
         <v/>
       </c>
-      <c r="I30" s="7">
+      <c r="I30" s="9">
         <f>IF(ISBLANK('By Round'!I48),"",'By Round'!I48)</f>
         <v/>
       </c>
-      <c r="J30" s="7">
+      <c r="J30" s="9">
         <f>IF(ISBLANK('By Round'!J48),"",'By Round'!J48)</f>
         <v/>
       </c>
-      <c r="K30" s="7">
+      <c r="K30" s="9">
         <f>IF(ISBLANK('By Round'!K48),"",'By Round'!K48)</f>
         <v/>
       </c>
@@ -4346,79 +4364,79 @@
         <f>SUM(Z30:AB30)</f>
         <v/>
       </c>
-      <c r="M30" s="9">
+      <c r="M30" s="21">
         <f>SUM(AC30:AE30)</f>
         <v/>
       </c>
-      <c r="N30" s="8">
+      <c r="N30" s="22">
         <f>IF(COUNT(T30:V30)&gt;0,P30/COUNT(T30:V30),0.5)</f>
         <v/>
       </c>
-      <c r="O30" s="8">
+      <c r="O30" s="22">
         <f>IF(COUNT(W30:Y30)&gt;0,Q30/COUNT(W30:Y30),0.5)</f>
         <v/>
       </c>
-      <c r="P30" s="21">
+      <c r="P30" s="23">
         <f>SUM(T30:V30)</f>
         <v/>
       </c>
-      <c r="Q30" s="21">
+      <c r="Q30" s="23">
         <f>SUM(W30:Y30)</f>
         <v/>
       </c>
-      <c r="R30" s="22">
+      <c r="R30" s="24">
         <f>IF(ISNUMBER(J30),J30,IF(ISNUMBER(K30),-K30,""))</f>
         <v/>
       </c>
-      <c r="S30" s="7">
+      <c r="S30" s="9">
         <f>IF(ISNUMBER(K30),K30,IF(ISNUMBER(J30),-J30,""))</f>
         <v/>
       </c>
-      <c r="T30" s="22">
+      <c r="T30" s="24">
         <f>IF(ISNUMBER(R30),IF(ISNUMBER(R27),IF(R30&gt;R27,1.0,IF(R30=R27,0.5,0.0)),""),"")</f>
         <v/>
       </c>
-      <c r="U30" s="7">
+      <c r="U30" s="9">
         <f>IF(ISNUMBER(R30),IF(ISNUMBER(R28),IF(R30&gt;R28,1.0,IF(R30=R28,0.5,0.0)),""),"")</f>
         <v/>
       </c>
-      <c r="V30" s="7">
+      <c r="V30" s="9">
         <f>IF(ISNUMBER(R30),IF(ISNUMBER(R29),IF(R30&gt;R29,1.0,IF(R30=R29,0.5,0.0)),""),"")</f>
         <v/>
       </c>
-      <c r="W30" s="7">
+      <c r="W30" s="9">
         <f>IF(ISNUMBER(S30),IF(ISNUMBER(S27),IF(S30&gt;S27,1.0,IF(S30=S27,0.5,0.0)),""),"")</f>
         <v/>
       </c>
-      <c r="X30" s="7">
+      <c r="X30" s="9">
         <f>IF(ISNUMBER(S30),IF(ISNUMBER(S28),IF(S30&gt;S28,1.0,IF(S30=S28,0.5,0.0)),""),"")</f>
         <v/>
       </c>
-      <c r="Y30" s="7">
+      <c r="Y30" s="9">
         <f>IF(ISNUMBER(S30),IF(ISNUMBER(S29),IF(S30&gt;S29,1.0,IF(S30=S29,0.5,0.0)),""),"")</f>
         <v/>
       </c>
-      <c r="Z30" s="22">
+      <c r="Z30" s="24">
         <f>IF(AND(ISNUMBER(R30),ISNUMBER(R27)),VLOOKUP(ABS(R30-R27),'IMP Table'!$A$2:$C$26,3)*SIGN(R30-R27),0)</f>
         <v/>
       </c>
-      <c r="AA30" s="7">
+      <c r="AA30" s="9">
         <f>IF(AND(ISNUMBER(R30),ISNUMBER(R28)),VLOOKUP(ABS(R30-R28),'IMP Table'!$A$2:$C$26,3)*SIGN(R30-R28),0)</f>
         <v/>
       </c>
-      <c r="AB30" s="7">
+      <c r="AB30" s="9">
         <f>IF(AND(ISNUMBER(R30),ISNUMBER(R29)),VLOOKUP(ABS(R30-R29),'IMP Table'!$A$2:$C$26,3)*SIGN(R30-R29),0)</f>
         <v/>
       </c>
-      <c r="AC30" s="7">
+      <c r="AC30" s="9">
         <f>IF(AND(ISNUMBER(S30),ISNUMBER(S27)),VLOOKUP(ABS(S30-S27),'IMP Table'!$A$2:$C$26,3)*SIGN(S30-S27),0)</f>
         <v/>
       </c>
-      <c r="AD30" s="7">
+      <c r="AD30" s="9">
         <f>IF(AND(ISNUMBER(S30),ISNUMBER(S28)),VLOOKUP(ABS(S30-S28),'IMP Table'!$A$2:$C$26,3)*SIGN(S30-S28),0)</f>
         <v/>
       </c>
-      <c r="AE30" s="7">
+      <c r="AE30" s="9">
         <f>IF(AND(ISNUMBER(S30),ISNUMBER(S29)),VLOOKUP(ABS(S30-S29),'IMP Table'!$A$2:$C$26,3)*SIGN(S30-S29),0)</f>
         <v/>
       </c>
@@ -4793,7 +4811,7 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="7" t="n"/>
+      <c r="A34" s="9" t="n"/>
       <c r="B34" s="19">
         <f>'By Round'!A39</f>
         <v/>
@@ -4814,23 +4832,23 @@
         <f>IF(ISBLANK('By Round'!F49),"",'By Round'!F49)</f>
         <v/>
       </c>
-      <c r="G34" s="7">
+      <c r="G34" s="9">
         <f>IF(ISBLANK('By Round'!G49),"",'By Round'!G49)</f>
         <v/>
       </c>
-      <c r="H34" s="7">
+      <c r="H34" s="9">
         <f>IF(ISBLANK('By Round'!H49),"",'By Round'!H49)</f>
         <v/>
       </c>
-      <c r="I34" s="7">
+      <c r="I34" s="9">
         <f>IF(ISBLANK('By Round'!I49),"",'By Round'!I49)</f>
         <v/>
       </c>
-      <c r="J34" s="7">
+      <c r="J34" s="9">
         <f>IF(ISBLANK('By Round'!J49),"",'By Round'!J49)</f>
         <v/>
       </c>
-      <c r="K34" s="7">
+      <c r="K34" s="9">
         <f>IF(ISBLANK('By Round'!K49),"",'By Round'!K49)</f>
         <v/>
       </c>
@@ -4838,79 +4856,79 @@
         <f>SUM(Z34:AB34)</f>
         <v/>
       </c>
-      <c r="M34" s="9">
+      <c r="M34" s="21">
         <f>SUM(AC34:AE34)</f>
         <v/>
       </c>
-      <c r="N34" s="8">
+      <c r="N34" s="22">
         <f>IF(COUNT(T34:V34)&gt;0,P34/COUNT(T34:V34),0.5)</f>
         <v/>
       </c>
-      <c r="O34" s="8">
+      <c r="O34" s="22">
         <f>IF(COUNT(W34:Y34)&gt;0,Q34/COUNT(W34:Y34),0.5)</f>
         <v/>
       </c>
-      <c r="P34" s="21">
+      <c r="P34" s="23">
         <f>SUM(T34:V34)</f>
         <v/>
       </c>
-      <c r="Q34" s="21">
+      <c r="Q34" s="23">
         <f>SUM(W34:Y34)</f>
         <v/>
       </c>
-      <c r="R34" s="22">
+      <c r="R34" s="24">
         <f>IF(ISNUMBER(J34),J34,IF(ISNUMBER(K34),-K34,""))</f>
         <v/>
       </c>
-      <c r="S34" s="7">
+      <c r="S34" s="9">
         <f>IF(ISNUMBER(K34),K34,IF(ISNUMBER(J34),-J34,""))</f>
         <v/>
       </c>
-      <c r="T34" s="22">
+      <c r="T34" s="24">
         <f>IF(ISNUMBER(R34),IF(ISNUMBER(R31),IF(R34&gt;R31,1.0,IF(R34=R31,0.5,0.0)),""),"")</f>
         <v/>
       </c>
-      <c r="U34" s="7">
+      <c r="U34" s="9">
         <f>IF(ISNUMBER(R34),IF(ISNUMBER(R32),IF(R34&gt;R32,1.0,IF(R34=R32,0.5,0.0)),""),"")</f>
         <v/>
       </c>
-      <c r="V34" s="7">
+      <c r="V34" s="9">
         <f>IF(ISNUMBER(R34),IF(ISNUMBER(R33),IF(R34&gt;R33,1.0,IF(R34=R33,0.5,0.0)),""),"")</f>
         <v/>
       </c>
-      <c r="W34" s="7">
+      <c r="W34" s="9">
         <f>IF(ISNUMBER(S34),IF(ISNUMBER(S31),IF(S34&gt;S31,1.0,IF(S34=S31,0.5,0.0)),""),"")</f>
         <v/>
       </c>
-      <c r="X34" s="7">
+      <c r="X34" s="9">
         <f>IF(ISNUMBER(S34),IF(ISNUMBER(S32),IF(S34&gt;S32,1.0,IF(S34=S32,0.5,0.0)),""),"")</f>
         <v/>
       </c>
-      <c r="Y34" s="7">
+      <c r="Y34" s="9">
         <f>IF(ISNUMBER(S34),IF(ISNUMBER(S33),IF(S34&gt;S33,1.0,IF(S34=S33,0.5,0.0)),""),"")</f>
         <v/>
       </c>
-      <c r="Z34" s="22">
+      <c r="Z34" s="24">
         <f>IF(AND(ISNUMBER(R34),ISNUMBER(R31)),VLOOKUP(ABS(R34-R31),'IMP Table'!$A$2:$C$26,3)*SIGN(R34-R31),0)</f>
         <v/>
       </c>
-      <c r="AA34" s="7">
+      <c r="AA34" s="9">
         <f>IF(AND(ISNUMBER(R34),ISNUMBER(R32)),VLOOKUP(ABS(R34-R32),'IMP Table'!$A$2:$C$26,3)*SIGN(R34-R32),0)</f>
         <v/>
       </c>
-      <c r="AB34" s="7">
+      <c r="AB34" s="9">
         <f>IF(AND(ISNUMBER(R34),ISNUMBER(R33)),VLOOKUP(ABS(R34-R33),'IMP Table'!$A$2:$C$26,3)*SIGN(R34-R33),0)</f>
         <v/>
       </c>
-      <c r="AC34" s="7">
+      <c r="AC34" s="9">
         <f>IF(AND(ISNUMBER(S34),ISNUMBER(S31)),VLOOKUP(ABS(S34-S31),'IMP Table'!$A$2:$C$26,3)*SIGN(S34-S31),0)</f>
         <v/>
       </c>
-      <c r="AD34" s="7">
+      <c r="AD34" s="9">
         <f>IF(AND(ISNUMBER(S34),ISNUMBER(S32)),VLOOKUP(ABS(S34-S32),'IMP Table'!$A$2:$C$26,3)*SIGN(S34-S32),0)</f>
         <v/>
       </c>
-      <c r="AE34" s="7">
+      <c r="AE34" s="9">
         <f>IF(AND(ISNUMBER(S34),ISNUMBER(S33)),VLOOKUP(ABS(S34-S33),'IMP Table'!$A$2:$C$26,3)*SIGN(S34-S33),0)</f>
         <v/>
       </c>
@@ -5285,7 +5303,7 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="7" t="n"/>
+      <c r="A38" s="9" t="n"/>
       <c r="B38" s="19">
         <f>'By Round'!A39</f>
         <v/>
@@ -5306,23 +5324,23 @@
         <f>IF(ISBLANK('By Round'!F50),"",'By Round'!F50)</f>
         <v/>
       </c>
-      <c r="G38" s="7">
+      <c r="G38" s="9">
         <f>IF(ISBLANK('By Round'!G50),"",'By Round'!G50)</f>
         <v/>
       </c>
-      <c r="H38" s="7">
+      <c r="H38" s="9">
         <f>IF(ISBLANK('By Round'!H50),"",'By Round'!H50)</f>
         <v/>
       </c>
-      <c r="I38" s="7">
+      <c r="I38" s="9">
         <f>IF(ISBLANK('By Round'!I50),"",'By Round'!I50)</f>
         <v/>
       </c>
-      <c r="J38" s="7">
+      <c r="J38" s="9">
         <f>IF(ISBLANK('By Round'!J50),"",'By Round'!J50)</f>
         <v/>
       </c>
-      <c r="K38" s="7">
+      <c r="K38" s="9">
         <f>IF(ISBLANK('By Round'!K50),"",'By Round'!K50)</f>
         <v/>
       </c>
@@ -5330,79 +5348,79 @@
         <f>SUM(Z38:AB38)</f>
         <v/>
       </c>
-      <c r="M38" s="9">
+      <c r="M38" s="21">
         <f>SUM(AC38:AE38)</f>
         <v/>
       </c>
-      <c r="N38" s="8">
+      <c r="N38" s="22">
         <f>IF(COUNT(T38:V38)&gt;0,P38/COUNT(T38:V38),0.5)</f>
         <v/>
       </c>
-      <c r="O38" s="8">
+      <c r="O38" s="22">
         <f>IF(COUNT(W38:Y38)&gt;0,Q38/COUNT(W38:Y38),0.5)</f>
         <v/>
       </c>
-      <c r="P38" s="21">
+      <c r="P38" s="23">
         <f>SUM(T38:V38)</f>
         <v/>
       </c>
-      <c r="Q38" s="21">
+      <c r="Q38" s="23">
         <f>SUM(W38:Y38)</f>
         <v/>
       </c>
-      <c r="R38" s="22">
+      <c r="R38" s="24">
         <f>IF(ISNUMBER(J38),J38,IF(ISNUMBER(K38),-K38,""))</f>
         <v/>
       </c>
-      <c r="S38" s="7">
+      <c r="S38" s="9">
         <f>IF(ISNUMBER(K38),K38,IF(ISNUMBER(J38),-J38,""))</f>
         <v/>
       </c>
-      <c r="T38" s="22">
+      <c r="T38" s="24">
         <f>IF(ISNUMBER(R38),IF(ISNUMBER(R35),IF(R38&gt;R35,1.0,IF(R38=R35,0.5,0.0)),""),"")</f>
         <v/>
       </c>
-      <c r="U38" s="7">
+      <c r="U38" s="9">
         <f>IF(ISNUMBER(R38),IF(ISNUMBER(R36),IF(R38&gt;R36,1.0,IF(R38=R36,0.5,0.0)),""),"")</f>
         <v/>
       </c>
-      <c r="V38" s="7">
+      <c r="V38" s="9">
         <f>IF(ISNUMBER(R38),IF(ISNUMBER(R37),IF(R38&gt;R37,1.0,IF(R38=R37,0.5,0.0)),""),"")</f>
         <v/>
       </c>
-      <c r="W38" s="7">
+      <c r="W38" s="9">
         <f>IF(ISNUMBER(S38),IF(ISNUMBER(S35),IF(S38&gt;S35,1.0,IF(S38=S35,0.5,0.0)),""),"")</f>
         <v/>
       </c>
-      <c r="X38" s="7">
+      <c r="X38" s="9">
         <f>IF(ISNUMBER(S38),IF(ISNUMBER(S36),IF(S38&gt;S36,1.0,IF(S38=S36,0.5,0.0)),""),"")</f>
         <v/>
       </c>
-      <c r="Y38" s="7">
+      <c r="Y38" s="9">
         <f>IF(ISNUMBER(S38),IF(ISNUMBER(S37),IF(S38&gt;S37,1.0,IF(S38=S37,0.5,0.0)),""),"")</f>
         <v/>
       </c>
-      <c r="Z38" s="22">
+      <c r="Z38" s="24">
         <f>IF(AND(ISNUMBER(R38),ISNUMBER(R35)),VLOOKUP(ABS(R38-R35),'IMP Table'!$A$2:$C$26,3)*SIGN(R38-R35),0)</f>
         <v/>
       </c>
-      <c r="AA38" s="7">
+      <c r="AA38" s="9">
         <f>IF(AND(ISNUMBER(R38),ISNUMBER(R36)),VLOOKUP(ABS(R38-R36),'IMP Table'!$A$2:$C$26,3)*SIGN(R38-R36),0)</f>
         <v/>
       </c>
-      <c r="AB38" s="7">
+      <c r="AB38" s="9">
         <f>IF(AND(ISNUMBER(R38),ISNUMBER(R37)),VLOOKUP(ABS(R38-R37),'IMP Table'!$A$2:$C$26,3)*SIGN(R38-R37),0)</f>
         <v/>
       </c>
-      <c r="AC38" s="7">
+      <c r="AC38" s="9">
         <f>IF(AND(ISNUMBER(S38),ISNUMBER(S35)),VLOOKUP(ABS(S38-S35),'IMP Table'!$A$2:$C$26,3)*SIGN(S38-S35),0)</f>
         <v/>
       </c>
-      <c r="AD38" s="7">
+      <c r="AD38" s="9">
         <f>IF(AND(ISNUMBER(S38),ISNUMBER(S36)),VLOOKUP(ABS(S38-S36),'IMP Table'!$A$2:$C$26,3)*SIGN(S38-S36),0)</f>
         <v/>
       </c>
-      <c r="AE38" s="7">
+      <c r="AE38" s="9">
         <f>IF(AND(ISNUMBER(S38),ISNUMBER(S37)),VLOOKUP(ABS(S38-S37),'IMP Table'!$A$2:$C$26,3)*SIGN(S38-S37),0)</f>
         <v/>
       </c>
@@ -5777,7 +5795,7 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="7" t="n"/>
+      <c r="A42" s="9" t="n"/>
       <c r="B42" s="19">
         <f>'By Round'!A3</f>
         <v/>
@@ -5798,23 +5816,23 @@
         <f>IF(ISBLANK('By Round'!F12),"",'By Round'!F12)</f>
         <v/>
       </c>
-      <c r="G42" s="7">
+      <c r="G42" s="9">
         <f>IF(ISBLANK('By Round'!G12),"",'By Round'!G12)</f>
         <v/>
       </c>
-      <c r="H42" s="7">
+      <c r="H42" s="9">
         <f>IF(ISBLANK('By Round'!H12),"",'By Round'!H12)</f>
         <v/>
       </c>
-      <c r="I42" s="7">
+      <c r="I42" s="9">
         <f>IF(ISBLANK('By Round'!I12),"",'By Round'!I12)</f>
         <v/>
       </c>
-      <c r="J42" s="7">
+      <c r="J42" s="9">
         <f>IF(ISBLANK('By Round'!J12),"",'By Round'!J12)</f>
         <v/>
       </c>
-      <c r="K42" s="7">
+      <c r="K42" s="9">
         <f>IF(ISBLANK('By Round'!K12),"",'By Round'!K12)</f>
         <v/>
       </c>
@@ -5822,79 +5840,79 @@
         <f>SUM(Z42:AB42)</f>
         <v/>
       </c>
-      <c r="M42" s="9">
+      <c r="M42" s="21">
         <f>SUM(AC42:AE42)</f>
         <v/>
       </c>
-      <c r="N42" s="8">
+      <c r="N42" s="22">
         <f>IF(COUNT(T42:V42)&gt;0,P42/COUNT(T42:V42),0.5)</f>
         <v/>
       </c>
-      <c r="O42" s="8">
+      <c r="O42" s="22">
         <f>IF(COUNT(W42:Y42)&gt;0,Q42/COUNT(W42:Y42),0.5)</f>
         <v/>
       </c>
-      <c r="P42" s="21">
+      <c r="P42" s="23">
         <f>SUM(T42:V42)</f>
         <v/>
       </c>
-      <c r="Q42" s="21">
+      <c r="Q42" s="23">
         <f>SUM(W42:Y42)</f>
         <v/>
       </c>
-      <c r="R42" s="22">
+      <c r="R42" s="24">
         <f>IF(ISNUMBER(J42),J42,IF(ISNUMBER(K42),-K42,""))</f>
         <v/>
       </c>
-      <c r="S42" s="7">
+      <c r="S42" s="9">
         <f>IF(ISNUMBER(K42),K42,IF(ISNUMBER(J42),-J42,""))</f>
         <v/>
       </c>
-      <c r="T42" s="22">
+      <c r="T42" s="24">
         <f>IF(ISNUMBER(R42),IF(ISNUMBER(R39),IF(R42&gt;R39,1.0,IF(R42=R39,0.5,0.0)),""),"")</f>
         <v/>
       </c>
-      <c r="U42" s="7">
+      <c r="U42" s="9">
         <f>IF(ISNUMBER(R42),IF(ISNUMBER(R40),IF(R42&gt;R40,1.0,IF(R42=R40,0.5,0.0)),""),"")</f>
         <v/>
       </c>
-      <c r="V42" s="7">
+      <c r="V42" s="9">
         <f>IF(ISNUMBER(R42),IF(ISNUMBER(R41),IF(R42&gt;R41,1.0,IF(R42=R41,0.5,0.0)),""),"")</f>
         <v/>
       </c>
-      <c r="W42" s="7">
+      <c r="W42" s="9">
         <f>IF(ISNUMBER(S42),IF(ISNUMBER(S39),IF(S42&gt;S39,1.0,IF(S42=S39,0.5,0.0)),""),"")</f>
         <v/>
       </c>
-      <c r="X42" s="7">
+      <c r="X42" s="9">
         <f>IF(ISNUMBER(S42),IF(ISNUMBER(S40),IF(S42&gt;S40,1.0,IF(S42=S40,0.5,0.0)),""),"")</f>
         <v/>
       </c>
-      <c r="Y42" s="7">
+      <c r="Y42" s="9">
         <f>IF(ISNUMBER(S42),IF(ISNUMBER(S41),IF(S42&gt;S41,1.0,IF(S42=S41,0.5,0.0)),""),"")</f>
         <v/>
       </c>
-      <c r="Z42" s="22">
+      <c r="Z42" s="24">
         <f>IF(AND(ISNUMBER(R42),ISNUMBER(R39)),VLOOKUP(ABS(R42-R39),'IMP Table'!$A$2:$C$26,3)*SIGN(R42-R39),0)</f>
         <v/>
       </c>
-      <c r="AA42" s="7">
+      <c r="AA42" s="9">
         <f>IF(AND(ISNUMBER(R42),ISNUMBER(R40)),VLOOKUP(ABS(R42-R40),'IMP Table'!$A$2:$C$26,3)*SIGN(R42-R40),0)</f>
         <v/>
       </c>
-      <c r="AB42" s="7">
+      <c r="AB42" s="9">
         <f>IF(AND(ISNUMBER(R42),ISNUMBER(R41)),VLOOKUP(ABS(R42-R41),'IMP Table'!$A$2:$C$26,3)*SIGN(R42-R41),0)</f>
         <v/>
       </c>
-      <c r="AC42" s="7">
+      <c r="AC42" s="9">
         <f>IF(AND(ISNUMBER(S42),ISNUMBER(S39)),VLOOKUP(ABS(S42-S39),'IMP Table'!$A$2:$C$26,3)*SIGN(S42-S39),0)</f>
         <v/>
       </c>
-      <c r="AD42" s="7">
+      <c r="AD42" s="9">
         <f>IF(AND(ISNUMBER(S42),ISNUMBER(S40)),VLOOKUP(ABS(S42-S40),'IMP Table'!$A$2:$C$26,3)*SIGN(S42-S40),0)</f>
         <v/>
       </c>
-      <c r="AE42" s="7">
+      <c r="AE42" s="9">
         <f>IF(AND(ISNUMBER(S42),ISNUMBER(S41)),VLOOKUP(ABS(S42-S41),'IMP Table'!$A$2:$C$26,3)*SIGN(S42-S41),0)</f>
         <v/>
       </c>
@@ -6269,7 +6287,7 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="7" t="n"/>
+      <c r="A46" s="9" t="n"/>
       <c r="B46" s="19">
         <f>'By Round'!A3</f>
         <v/>
@@ -6290,23 +6308,23 @@
         <f>IF(ISBLANK('By Round'!F13),"",'By Round'!F13)</f>
         <v/>
       </c>
-      <c r="G46" s="7">
+      <c r="G46" s="9">
         <f>IF(ISBLANK('By Round'!G13),"",'By Round'!G13)</f>
         <v/>
       </c>
-      <c r="H46" s="7">
+      <c r="H46" s="9">
         <f>IF(ISBLANK('By Round'!H13),"",'By Round'!H13)</f>
         <v/>
       </c>
-      <c r="I46" s="7">
+      <c r="I46" s="9">
         <f>IF(ISBLANK('By Round'!I13),"",'By Round'!I13)</f>
         <v/>
       </c>
-      <c r="J46" s="7">
+      <c r="J46" s="9">
         <f>IF(ISBLANK('By Round'!J13),"",'By Round'!J13)</f>
         <v/>
       </c>
-      <c r="K46" s="7">
+      <c r="K46" s="9">
         <f>IF(ISBLANK('By Round'!K13),"",'By Round'!K13)</f>
         <v/>
       </c>
@@ -6314,79 +6332,79 @@
         <f>SUM(Z46:AB46)</f>
         <v/>
       </c>
-      <c r="M46" s="9">
+      <c r="M46" s="21">
         <f>SUM(AC46:AE46)</f>
         <v/>
       </c>
-      <c r="N46" s="8">
+      <c r="N46" s="22">
         <f>IF(COUNT(T46:V46)&gt;0,P46/COUNT(T46:V46),0.5)</f>
         <v/>
       </c>
-      <c r="O46" s="8">
+      <c r="O46" s="22">
         <f>IF(COUNT(W46:Y46)&gt;0,Q46/COUNT(W46:Y46),0.5)</f>
         <v/>
       </c>
-      <c r="P46" s="21">
+      <c r="P46" s="23">
         <f>SUM(T46:V46)</f>
         <v/>
       </c>
-      <c r="Q46" s="21">
+      <c r="Q46" s="23">
         <f>SUM(W46:Y46)</f>
         <v/>
       </c>
-      <c r="R46" s="22">
+      <c r="R46" s="24">
         <f>IF(ISNUMBER(J46),J46,IF(ISNUMBER(K46),-K46,""))</f>
         <v/>
       </c>
-      <c r="S46" s="7">
+      <c r="S46" s="9">
         <f>IF(ISNUMBER(K46),K46,IF(ISNUMBER(J46),-J46,""))</f>
         <v/>
       </c>
-      <c r="T46" s="22">
+      <c r="T46" s="24">
         <f>IF(ISNUMBER(R46),IF(ISNUMBER(R43),IF(R46&gt;R43,1.0,IF(R46=R43,0.5,0.0)),""),"")</f>
         <v/>
       </c>
-      <c r="U46" s="7">
+      <c r="U46" s="9">
         <f>IF(ISNUMBER(R46),IF(ISNUMBER(R44),IF(R46&gt;R44,1.0,IF(R46=R44,0.5,0.0)),""),"")</f>
         <v/>
       </c>
-      <c r="V46" s="7">
+      <c r="V46" s="9">
         <f>IF(ISNUMBER(R46),IF(ISNUMBER(R45),IF(R46&gt;R45,1.0,IF(R46=R45,0.5,0.0)),""),"")</f>
         <v/>
       </c>
-      <c r="W46" s="7">
+      <c r="W46" s="9">
         <f>IF(ISNUMBER(S46),IF(ISNUMBER(S43),IF(S46&gt;S43,1.0,IF(S46=S43,0.5,0.0)),""),"")</f>
         <v/>
       </c>
-      <c r="X46" s="7">
+      <c r="X46" s="9">
         <f>IF(ISNUMBER(S46),IF(ISNUMBER(S44),IF(S46&gt;S44,1.0,IF(S46=S44,0.5,0.0)),""),"")</f>
         <v/>
       </c>
-      <c r="Y46" s="7">
+      <c r="Y46" s="9">
         <f>IF(ISNUMBER(S46),IF(ISNUMBER(S45),IF(S46&gt;S45,1.0,IF(S46=S45,0.5,0.0)),""),"")</f>
         <v/>
       </c>
-      <c r="Z46" s="22">
+      <c r="Z46" s="24">
         <f>IF(AND(ISNUMBER(R46),ISNUMBER(R43)),VLOOKUP(ABS(R46-R43),'IMP Table'!$A$2:$C$26,3)*SIGN(R46-R43),0)</f>
         <v/>
       </c>
-      <c r="AA46" s="7">
+      <c r="AA46" s="9">
         <f>IF(AND(ISNUMBER(R46),ISNUMBER(R44)),VLOOKUP(ABS(R46-R44),'IMP Table'!$A$2:$C$26,3)*SIGN(R46-R44),0)</f>
         <v/>
       </c>
-      <c r="AB46" s="7">
+      <c r="AB46" s="9">
         <f>IF(AND(ISNUMBER(R46),ISNUMBER(R45)),VLOOKUP(ABS(R46-R45),'IMP Table'!$A$2:$C$26,3)*SIGN(R46-R45),0)</f>
         <v/>
       </c>
-      <c r="AC46" s="7">
+      <c r="AC46" s="9">
         <f>IF(AND(ISNUMBER(S46),ISNUMBER(S43)),VLOOKUP(ABS(S46-S43),'IMP Table'!$A$2:$C$26,3)*SIGN(S46-S43),0)</f>
         <v/>
       </c>
-      <c r="AD46" s="7">
+      <c r="AD46" s="9">
         <f>IF(AND(ISNUMBER(S46),ISNUMBER(S44)),VLOOKUP(ABS(S46-S44),'IMP Table'!$A$2:$C$26,3)*SIGN(S46-S44),0)</f>
         <v/>
       </c>
-      <c r="AE46" s="7">
+      <c r="AE46" s="9">
         <f>IF(AND(ISNUMBER(S46),ISNUMBER(S45)),VLOOKUP(ABS(S46-S45),'IMP Table'!$A$2:$C$26,3)*SIGN(S46-S45),0)</f>
         <v/>
       </c>
@@ -6761,7 +6779,7 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="7" t="n"/>
+      <c r="A50" s="9" t="n"/>
       <c r="B50" s="19">
         <f>'By Round'!A3</f>
         <v/>
@@ -6782,23 +6800,23 @@
         <f>IF(ISBLANK('By Round'!F14),"",'By Round'!F14)</f>
         <v/>
       </c>
-      <c r="G50" s="7">
+      <c r="G50" s="9">
         <f>IF(ISBLANK('By Round'!G14),"",'By Round'!G14)</f>
         <v/>
       </c>
-      <c r="H50" s="7">
+      <c r="H50" s="9">
         <f>IF(ISBLANK('By Round'!H14),"",'By Round'!H14)</f>
         <v/>
       </c>
-      <c r="I50" s="7">
+      <c r="I50" s="9">
         <f>IF(ISBLANK('By Round'!I14),"",'By Round'!I14)</f>
         <v/>
       </c>
-      <c r="J50" s="7">
+      <c r="J50" s="9">
         <f>IF(ISBLANK('By Round'!J14),"",'By Round'!J14)</f>
         <v/>
       </c>
-      <c r="K50" s="7">
+      <c r="K50" s="9">
         <f>IF(ISBLANK('By Round'!K14),"",'By Round'!K14)</f>
         <v/>
       </c>
@@ -6806,79 +6824,79 @@
         <f>SUM(Z50:AB50)</f>
         <v/>
       </c>
-      <c r="M50" s="9">
+      <c r="M50" s="21">
         <f>SUM(AC50:AE50)</f>
         <v/>
       </c>
-      <c r="N50" s="8">
+      <c r="N50" s="22">
         <f>IF(COUNT(T50:V50)&gt;0,P50/COUNT(T50:V50),0.5)</f>
         <v/>
       </c>
-      <c r="O50" s="8">
+      <c r="O50" s="22">
         <f>IF(COUNT(W50:Y50)&gt;0,Q50/COUNT(W50:Y50),0.5)</f>
         <v/>
       </c>
-      <c r="P50" s="21">
+      <c r="P50" s="23">
         <f>SUM(T50:V50)</f>
         <v/>
       </c>
-      <c r="Q50" s="21">
+      <c r="Q50" s="23">
         <f>SUM(W50:Y50)</f>
         <v/>
       </c>
-      <c r="R50" s="22">
+      <c r="R50" s="24">
         <f>IF(ISNUMBER(J50),J50,IF(ISNUMBER(K50),-K50,""))</f>
         <v/>
       </c>
-      <c r="S50" s="7">
+      <c r="S50" s="9">
         <f>IF(ISNUMBER(K50),K50,IF(ISNUMBER(J50),-J50,""))</f>
         <v/>
       </c>
-      <c r="T50" s="22">
+      <c r="T50" s="24">
         <f>IF(ISNUMBER(R50),IF(ISNUMBER(R47),IF(R50&gt;R47,1.0,IF(R50=R47,0.5,0.0)),""),"")</f>
         <v/>
       </c>
-      <c r="U50" s="7">
+      <c r="U50" s="9">
         <f>IF(ISNUMBER(R50),IF(ISNUMBER(R48),IF(R50&gt;R48,1.0,IF(R50=R48,0.5,0.0)),""),"")</f>
         <v/>
       </c>
-      <c r="V50" s="7">
+      <c r="V50" s="9">
         <f>IF(ISNUMBER(R50),IF(ISNUMBER(R49),IF(R50&gt;R49,1.0,IF(R50=R49,0.5,0.0)),""),"")</f>
         <v/>
       </c>
-      <c r="W50" s="7">
+      <c r="W50" s="9">
         <f>IF(ISNUMBER(S50),IF(ISNUMBER(S47),IF(S50&gt;S47,1.0,IF(S50=S47,0.5,0.0)),""),"")</f>
         <v/>
       </c>
-      <c r="X50" s="7">
+      <c r="X50" s="9">
         <f>IF(ISNUMBER(S50),IF(ISNUMBER(S48),IF(S50&gt;S48,1.0,IF(S50=S48,0.5,0.0)),""),"")</f>
         <v/>
       </c>
-      <c r="Y50" s="7">
+      <c r="Y50" s="9">
         <f>IF(ISNUMBER(S50),IF(ISNUMBER(S49),IF(S50&gt;S49,1.0,IF(S50=S49,0.5,0.0)),""),"")</f>
         <v/>
       </c>
-      <c r="Z50" s="22">
+      <c r="Z50" s="24">
         <f>IF(AND(ISNUMBER(R50),ISNUMBER(R47)),VLOOKUP(ABS(R50-R47),'IMP Table'!$A$2:$C$26,3)*SIGN(R50-R47),0)</f>
         <v/>
       </c>
-      <c r="AA50" s="7">
+      <c r="AA50" s="9">
         <f>IF(AND(ISNUMBER(R50),ISNUMBER(R48)),VLOOKUP(ABS(R50-R48),'IMP Table'!$A$2:$C$26,3)*SIGN(R50-R48),0)</f>
         <v/>
       </c>
-      <c r="AB50" s="7">
+      <c r="AB50" s="9">
         <f>IF(AND(ISNUMBER(R50),ISNUMBER(R49)),VLOOKUP(ABS(R50-R49),'IMP Table'!$A$2:$C$26,3)*SIGN(R50-R49),0)</f>
         <v/>
       </c>
-      <c r="AC50" s="7">
+      <c r="AC50" s="9">
         <f>IF(AND(ISNUMBER(S50),ISNUMBER(S47)),VLOOKUP(ABS(S50-S47),'IMP Table'!$A$2:$C$26,3)*SIGN(S50-S47),0)</f>
         <v/>
       </c>
-      <c r="AD50" s="7">
+      <c r="AD50" s="9">
         <f>IF(AND(ISNUMBER(S50),ISNUMBER(S48)),VLOOKUP(ABS(S50-S48),'IMP Table'!$A$2:$C$26,3)*SIGN(S50-S48),0)</f>
         <v/>
       </c>
-      <c r="AE50" s="7">
+      <c r="AE50" s="9">
         <f>IF(AND(ISNUMBER(S50),ISNUMBER(S49)),VLOOKUP(ABS(S50-S49),'IMP Table'!$A$2:$C$26,3)*SIGN(S50-S49),0)</f>
         <v/>
       </c>
@@ -7022,11 +7040,11 @@
           <t>EW</t>
         </is>
       </c>
-      <c r="G5" s="7" t="n"/>
-      <c r="H5" s="7" t="n"/>
-      <c r="I5" s="7" t="n"/>
-      <c r="J5" s="7" t="n"/>
-      <c r="K5" s="7" t="n"/>
+      <c r="G5" s="9" t="n"/>
+      <c r="H5" s="9" t="n"/>
+      <c r="I5" s="9" t="n"/>
+      <c r="J5" s="9" t="n"/>
+      <c r="K5" s="9" t="n"/>
     </row>
     <row r="6">
       <c r="B6" s="15" t="n">
@@ -7072,11 +7090,11 @@
           <t>EW</t>
         </is>
       </c>
-      <c r="G8" s="7" t="n"/>
-      <c r="H8" s="7" t="n"/>
-      <c r="I8" s="7" t="n"/>
-      <c r="J8" s="7" t="n"/>
-      <c r="K8" s="7" t="n"/>
+      <c r="G8" s="9" t="n"/>
+      <c r="H8" s="9" t="n"/>
+      <c r="I8" s="9" t="n"/>
+      <c r="J8" s="9" t="n"/>
+      <c r="K8" s="9" t="n"/>
     </row>
     <row r="9">
       <c r="B9" s="15" t="n">
@@ -7122,11 +7140,11 @@
           <t>EW</t>
         </is>
       </c>
-      <c r="G11" s="7" t="n"/>
-      <c r="H11" s="7" t="n"/>
-      <c r="I11" s="7" t="n"/>
-      <c r="J11" s="7" t="n"/>
-      <c r="K11" s="7" t="n"/>
+      <c r="G11" s="9" t="n"/>
+      <c r="H11" s="9" t="n"/>
+      <c r="I11" s="9" t="n"/>
+      <c r="J11" s="9" t="n"/>
+      <c r="K11" s="9" t="n"/>
     </row>
     <row r="12">
       <c r="B12" s="15" t="n">
@@ -7161,7 +7179,7 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="7" t="n"/>
+      <c r="A14" s="9" t="n"/>
       <c r="B14" s="19" t="n"/>
       <c r="C14" s="19" t="n"/>
       <c r="D14" s="19" t="n"/>
@@ -7173,11 +7191,11 @@
           <t>NS</t>
         </is>
       </c>
-      <c r="G14" s="7" t="n"/>
-      <c r="H14" s="7" t="n"/>
-      <c r="I14" s="7" t="n"/>
-      <c r="J14" s="7" t="n"/>
-      <c r="K14" s="7" t="n"/>
+      <c r="G14" s="9" t="n"/>
+      <c r="H14" s="9" t="n"/>
+      <c r="I14" s="9" t="n"/>
+      <c r="J14" s="9" t="n"/>
+      <c r="K14" s="9" t="n"/>
     </row>
     <row r="15">
       <c r="A15" s="15" t="n">
@@ -7226,11 +7244,11 @@
           <t>NS</t>
         </is>
       </c>
-      <c r="G17" s="7" t="n"/>
-      <c r="H17" s="7" t="n"/>
-      <c r="I17" s="7" t="n"/>
-      <c r="J17" s="7" t="n"/>
-      <c r="K17" s="7" t="n"/>
+      <c r="G17" s="9" t="n"/>
+      <c r="H17" s="9" t="n"/>
+      <c r="I17" s="9" t="n"/>
+      <c r="J17" s="9" t="n"/>
+      <c r="K17" s="9" t="n"/>
     </row>
     <row r="18">
       <c r="B18" s="15" t="n">
@@ -7276,11 +7294,11 @@
           <t>EW</t>
         </is>
       </c>
-      <c r="G20" s="7" t="n"/>
-      <c r="H20" s="7" t="n"/>
-      <c r="I20" s="7" t="n"/>
-      <c r="J20" s="7" t="n"/>
-      <c r="K20" s="7" t="n"/>
+      <c r="G20" s="9" t="n"/>
+      <c r="H20" s="9" t="n"/>
+      <c r="I20" s="9" t="n"/>
+      <c r="J20" s="9" t="n"/>
+      <c r="K20" s="9" t="n"/>
     </row>
     <row r="21">
       <c r="B21" s="15" t="n">
@@ -7326,11 +7344,11 @@
           <t>EW</t>
         </is>
       </c>
-      <c r="G23" s="7" t="n"/>
-      <c r="H23" s="7" t="n"/>
-      <c r="I23" s="7" t="n"/>
-      <c r="J23" s="7" t="n"/>
-      <c r="K23" s="7" t="n"/>
+      <c r="G23" s="9" t="n"/>
+      <c r="H23" s="9" t="n"/>
+      <c r="I23" s="9" t="n"/>
+      <c r="J23" s="9" t="n"/>
+      <c r="K23" s="9" t="n"/>
     </row>
     <row r="24">
       <c r="B24" s="15" t="n">
@@ -7365,7 +7383,7 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="7" t="n"/>
+      <c r="A26" s="9" t="n"/>
       <c r="B26" s="19" t="n"/>
       <c r="C26" s="19" t="n"/>
       <c r="D26" s="19" t="n"/>
@@ -7377,11 +7395,11 @@
           <t>EW</t>
         </is>
       </c>
-      <c r="G26" s="7" t="n"/>
-      <c r="H26" s="7" t="n"/>
-      <c r="I26" s="7" t="n"/>
-      <c r="J26" s="7" t="n"/>
-      <c r="K26" s="7" t="n"/>
+      <c r="G26" s="9" t="n"/>
+      <c r="H26" s="9" t="n"/>
+      <c r="I26" s="9" t="n"/>
+      <c r="J26" s="9" t="n"/>
+      <c r="K26" s="9" t="n"/>
     </row>
     <row r="27">
       <c r="A27" s="15" t="n">
@@ -7430,11 +7448,11 @@
           <t>EW</t>
         </is>
       </c>
-      <c r="G29" s="7" t="n"/>
-      <c r="H29" s="7" t="n"/>
-      <c r="I29" s="7" t="n"/>
-      <c r="J29" s="7" t="n"/>
-      <c r="K29" s="7" t="n"/>
+      <c r="G29" s="9" t="n"/>
+      <c r="H29" s="9" t="n"/>
+      <c r="I29" s="9" t="n"/>
+      <c r="J29" s="9" t="n"/>
+      <c r="K29" s="9" t="n"/>
     </row>
     <row r="30">
       <c r="B30" s="15" t="n">
@@ -7480,11 +7498,11 @@
           <t>NS</t>
         </is>
       </c>
-      <c r="G32" s="7" t="n"/>
-      <c r="H32" s="7" t="n"/>
-      <c r="I32" s="7" t="n"/>
-      <c r="J32" s="7" t="n"/>
-      <c r="K32" s="7" t="n"/>
+      <c r="G32" s="9" t="n"/>
+      <c r="H32" s="9" t="n"/>
+      <c r="I32" s="9" t="n"/>
+      <c r="J32" s="9" t="n"/>
+      <c r="K32" s="9" t="n"/>
     </row>
     <row r="33">
       <c r="B33" s="15" t="n">
@@ -7530,11 +7548,11 @@
           <t>EW</t>
         </is>
       </c>
-      <c r="G35" s="7" t="n"/>
-      <c r="H35" s="7" t="n"/>
-      <c r="I35" s="7" t="n"/>
-      <c r="J35" s="7" t="n"/>
-      <c r="K35" s="7" t="n"/>
+      <c r="G35" s="9" t="n"/>
+      <c r="H35" s="9" t="n"/>
+      <c r="I35" s="9" t="n"/>
+      <c r="J35" s="9" t="n"/>
+      <c r="K35" s="9" t="n"/>
     </row>
     <row r="36">
       <c r="B36" s="15" t="n">
@@ -7569,7 +7587,7 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="7" t="n"/>
+      <c r="A38" s="9" t="n"/>
       <c r="B38" s="19" t="n"/>
       <c r="C38" s="19" t="n"/>
       <c r="D38" s="19" t="n"/>
@@ -7581,11 +7599,11 @@
           <t>EW</t>
         </is>
       </c>
-      <c r="G38" s="7" t="n"/>
-      <c r="H38" s="7" t="n"/>
-      <c r="I38" s="7" t="n"/>
-      <c r="J38" s="7" t="n"/>
-      <c r="K38" s="7" t="n"/>
+      <c r="G38" s="9" t="n"/>
+      <c r="H38" s="9" t="n"/>
+      <c r="I38" s="9" t="n"/>
+      <c r="J38" s="9" t="n"/>
+      <c r="K38" s="9" t="n"/>
     </row>
     <row r="39">
       <c r="A39" s="15" t="n">
@@ -7634,11 +7652,11 @@
           <t>EW</t>
         </is>
       </c>
-      <c r="G41" s="7" t="n"/>
-      <c r="H41" s="7" t="n"/>
-      <c r="I41" s="7" t="n"/>
-      <c r="J41" s="7" t="n"/>
-      <c r="K41" s="7" t="n"/>
+      <c r="G41" s="9" t="n"/>
+      <c r="H41" s="9" t="n"/>
+      <c r="I41" s="9" t="n"/>
+      <c r="J41" s="9" t="n"/>
+      <c r="K41" s="9" t="n"/>
     </row>
     <row r="42">
       <c r="B42" s="15" t="n">
@@ -7684,11 +7702,11 @@
           <t>EW</t>
         </is>
       </c>
-      <c r="G44" s="7" t="n"/>
-      <c r="H44" s="7" t="n"/>
-      <c r="I44" s="7" t="n"/>
-      <c r="J44" s="7" t="n"/>
-      <c r="K44" s="7" t="n"/>
+      <c r="G44" s="9" t="n"/>
+      <c r="H44" s="9" t="n"/>
+      <c r="I44" s="9" t="n"/>
+      <c r="J44" s="9" t="n"/>
+      <c r="K44" s="9" t="n"/>
     </row>
     <row r="45">
       <c r="B45" s="15" t="n">
@@ -7734,11 +7752,11 @@
           <t>NS</t>
         </is>
       </c>
-      <c r="G47" s="7" t="n"/>
-      <c r="H47" s="7" t="n"/>
-      <c r="I47" s="7" t="n"/>
-      <c r="J47" s="7" t="n"/>
-      <c r="K47" s="7" t="n"/>
+      <c r="G47" s="9" t="n"/>
+      <c r="H47" s="9" t="n"/>
+      <c r="I47" s="9" t="n"/>
+      <c r="J47" s="9" t="n"/>
+      <c r="K47" s="9" t="n"/>
     </row>
     <row r="48">
       <c r="B48" s="15" t="n">
@@ -7773,7 +7791,7 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="7" t="n"/>
+      <c r="A50" s="9" t="n"/>
       <c r="B50" s="19" t="n"/>
       <c r="C50" s="19" t="n"/>
       <c r="D50" s="19" t="n"/>
@@ -7785,11 +7803,11 @@
           <t>EW</t>
         </is>
       </c>
-      <c r="G50" s="7" t="n"/>
-      <c r="H50" s="7" t="n"/>
-      <c r="I50" s="7" t="n"/>
-      <c r="J50" s="7" t="n"/>
-      <c r="K50" s="7" t="n"/>
+      <c r="G50" s="9" t="n"/>
+      <c r="H50" s="9" t="n"/>
+      <c r="I50" s="9" t="n"/>
+      <c r="J50" s="9" t="n"/>
+      <c r="K50" s="9" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -8216,22 +8234,22 @@
       <c r="B3" t="n">
         <v>1</v>
       </c>
-      <c r="C3" s="23" t="n">
+      <c r="C3" s="25" t="n">
         <v>70</v>
       </c>
-      <c r="D3" s="23" t="n">
+      <c r="D3" s="25" t="n">
         <v>140</v>
       </c>
-      <c r="E3" s="23" t="n">
+      <c r="E3" s="25" t="n">
         <v>230</v>
       </c>
-      <c r="F3" s="23" t="n">
+      <c r="F3" s="25" t="n">
         <v>70</v>
       </c>
-      <c r="G3" s="23" t="n">
+      <c r="G3" s="25" t="n">
         <v>140</v>
       </c>
-      <c r="H3" s="23" t="n">
+      <c r="H3" s="25" t="n">
         <v>230</v>
       </c>
       <c r="J3" t="n">
@@ -8262,22 +8280,22 @@
       <c r="B4" t="n">
         <v>2</v>
       </c>
-      <c r="C4" s="23" t="n">
+      <c r="C4" s="25" t="n">
         <v>90</v>
       </c>
-      <c r="D4" s="23" t="n">
+      <c r="D4" s="25" t="n">
         <v>240</v>
       </c>
-      <c r="E4" s="23" t="n">
+      <c r="E4" s="25" t="n">
         <v>430</v>
       </c>
-      <c r="F4" s="23" t="n">
+      <c r="F4" s="25" t="n">
         <v>90</v>
       </c>
-      <c r="G4" s="23" t="n">
+      <c r="G4" s="25" t="n">
         <v>340</v>
       </c>
-      <c r="H4" s="23" t="n">
+      <c r="H4" s="25" t="n">
         <v>630</v>
       </c>
       <c r="J4" t="n">
@@ -8312,22 +8330,22 @@
       <c r="B5" t="n">
         <v>3</v>
       </c>
-      <c r="C5" s="23" t="n">
+      <c r="C5" s="25" t="n">
         <v>110</v>
       </c>
-      <c r="D5" s="23" t="n">
+      <c r="D5" s="25" t="n">
         <v>340</v>
       </c>
-      <c r="E5" s="23" t="n">
+      <c r="E5" s="25" t="n">
         <v>630</v>
       </c>
-      <c r="F5" s="23" t="n">
+      <c r="F5" s="25" t="n">
         <v>110</v>
       </c>
-      <c r="G5" s="23" t="n">
+      <c r="G5" s="25" t="n">
         <v>540</v>
       </c>
-      <c r="H5" s="23" t="n">
+      <c r="H5" s="25" t="n">
         <v>1030</v>
       </c>
       <c r="J5" t="n">
@@ -8362,22 +8380,22 @@
       <c r="B6" t="n">
         <v>4</v>
       </c>
-      <c r="C6" s="23" t="n">
+      <c r="C6" s="25" t="n">
         <v>130</v>
       </c>
-      <c r="D6" s="23" t="n">
+      <c r="D6" s="25" t="n">
         <v>440</v>
       </c>
-      <c r="E6" s="23" t="n">
+      <c r="E6" s="25" t="n">
         <v>830</v>
       </c>
-      <c r="F6" s="23" t="n">
+      <c r="F6" s="25" t="n">
         <v>130</v>
       </c>
-      <c r="G6" s="23" t="n">
+      <c r="G6" s="25" t="n">
         <v>740</v>
       </c>
-      <c r="H6" s="23" t="n">
+      <c r="H6" s="25" t="n">
         <v>1430</v>
       </c>
       <c r="J6" t="n">
@@ -8412,22 +8430,22 @@
       <c r="B7" t="n">
         <v>5</v>
       </c>
-      <c r="C7" s="23" t="n">
+      <c r="C7" s="25" t="n">
         <v>150</v>
       </c>
-      <c r="D7" s="23" t="n">
+      <c r="D7" s="25" t="n">
         <v>540</v>
       </c>
-      <c r="E7" s="23" t="n">
+      <c r="E7" s="25" t="n">
         <v>1030</v>
       </c>
-      <c r="F7" s="23" t="n">
+      <c r="F7" s="25" t="n">
         <v>150</v>
       </c>
-      <c r="G7" s="23" t="n">
+      <c r="G7" s="25" t="n">
         <v>940</v>
       </c>
-      <c r="H7" s="23" t="n">
+      <c r="H7" s="25" t="n">
         <v>1830</v>
       </c>
       <c r="J7" t="n">
@@ -8462,22 +8480,22 @@
       <c r="B8" t="n">
         <v>6</v>
       </c>
-      <c r="C8" s="23" t="n">
+      <c r="C8" s="25" t="n">
         <v>170</v>
       </c>
-      <c r="D8" s="23" t="n">
+      <c r="D8" s="25" t="n">
         <v>640</v>
       </c>
-      <c r="E8" s="23" t="n">
+      <c r="E8" s="25" t="n">
         <v>1230</v>
       </c>
-      <c r="F8" s="23" t="n">
+      <c r="F8" s="25" t="n">
         <v>170</v>
       </c>
-      <c r="G8" s="23" t="n">
+      <c r="G8" s="25" t="n">
         <v>1140</v>
       </c>
-      <c r="H8" s="23" t="n">
+      <c r="H8" s="25" t="n">
         <v>2230</v>
       </c>
       <c r="J8" t="n">
@@ -8512,22 +8530,22 @@
       <c r="B9" t="n">
         <v>7</v>
       </c>
-      <c r="C9" s="23" t="n">
+      <c r="C9" s="25" t="n">
         <v>190</v>
       </c>
-      <c r="D9" s="23" t="n">
+      <c r="D9" s="25" t="n">
         <v>740</v>
       </c>
-      <c r="E9" s="23" t="n">
+      <c r="E9" s="25" t="n">
         <v>1430</v>
       </c>
-      <c r="F9" s="23" t="n">
+      <c r="F9" s="25" t="n">
         <v>190</v>
       </c>
-      <c r="G9" s="23" t="n">
+      <c r="G9" s="25" t="n">
         <v>1340</v>
       </c>
-      <c r="H9" s="23" t="n">
+      <c r="H9" s="25" t="n">
         <v>2630</v>
       </c>
       <c r="J9" t="n">
@@ -8567,22 +8585,22 @@
       <c r="B10" t="n">
         <v>1</v>
       </c>
-      <c r="C10" s="23" t="n">
+      <c r="C10" s="25" t="n">
         <v>80</v>
       </c>
-      <c r="D10" s="23" t="n">
+      <c r="D10" s="25" t="n">
         <v>160</v>
       </c>
-      <c r="E10" s="23" t="n">
+      <c r="E10" s="25" t="n">
         <v>520</v>
       </c>
-      <c r="F10" s="23" t="n">
+      <c r="F10" s="25" t="n">
         <v>80</v>
       </c>
-      <c r="G10" s="23" t="n">
+      <c r="G10" s="25" t="n">
         <v>160</v>
       </c>
-      <c r="H10" s="23" t="n">
+      <c r="H10" s="25" t="n">
         <v>720</v>
       </c>
       <c r="J10" t="n">
@@ -8617,22 +8635,22 @@
       <c r="B11" t="n">
         <v>2</v>
       </c>
-      <c r="C11" s="23" t="n">
+      <c r="C11" s="25" t="n">
         <v>110</v>
       </c>
-      <c r="D11" s="23" t="n">
+      <c r="D11" s="25" t="n">
         <v>260</v>
       </c>
-      <c r="E11" s="23" t="n">
+      <c r="E11" s="25" t="n">
         <v>720</v>
       </c>
-      <c r="F11" s="23" t="n">
+      <c r="F11" s="25" t="n">
         <v>110</v>
       </c>
-      <c r="G11" s="23" t="n">
+      <c r="G11" s="25" t="n">
         <v>360</v>
       </c>
-      <c r="H11" s="23" t="n">
+      <c r="H11" s="25" t="n">
         <v>1120</v>
       </c>
       <c r="J11" t="n">
@@ -8667,22 +8685,22 @@
       <c r="B12" t="n">
         <v>3</v>
       </c>
-      <c r="C12" s="23" t="n">
+      <c r="C12" s="25" t="n">
         <v>140</v>
       </c>
-      <c r="D12" s="23" t="n">
+      <c r="D12" s="25" t="n">
         <v>360</v>
       </c>
-      <c r="E12" s="23" t="n">
+      <c r="E12" s="25" t="n">
         <v>920</v>
       </c>
-      <c r="F12" s="23" t="n">
+      <c r="F12" s="25" t="n">
         <v>140</v>
       </c>
-      <c r="G12" s="23" t="n">
+      <c r="G12" s="25" t="n">
         <v>560</v>
       </c>
-      <c r="H12" s="23" t="n">
+      <c r="H12" s="25" t="n">
         <v>1520</v>
       </c>
       <c r="J12" t="n">
@@ -8717,22 +8735,22 @@
       <c r="B13" t="n">
         <v>4</v>
       </c>
-      <c r="C13" s="23" t="n">
+      <c r="C13" s="25" t="n">
         <v>170</v>
       </c>
-      <c r="D13" s="23" t="n">
+      <c r="D13" s="25" t="n">
         <v>460</v>
       </c>
-      <c r="E13" s="23" t="n">
+      <c r="E13" s="25" t="n">
         <v>1120</v>
       </c>
-      <c r="F13" s="23" t="n">
+      <c r="F13" s="25" t="n">
         <v>170</v>
       </c>
-      <c r="G13" s="23" t="n">
+      <c r="G13" s="25" t="n">
         <v>760</v>
       </c>
-      <c r="H13" s="23" t="n">
+      <c r="H13" s="25" t="n">
         <v>1920</v>
       </c>
       <c r="J13" t="n">
@@ -8767,22 +8785,22 @@
       <c r="B14" t="n">
         <v>5</v>
       </c>
-      <c r="C14" s="23" t="n">
+      <c r="C14" s="25" t="n">
         <v>200</v>
       </c>
-      <c r="D14" s="23" t="n">
+      <c r="D14" s="25" t="n">
         <v>560</v>
       </c>
-      <c r="E14" s="23" t="n">
+      <c r="E14" s="25" t="n">
         <v>1320</v>
       </c>
-      <c r="F14" s="23" t="n">
+      <c r="F14" s="25" t="n">
         <v>200</v>
       </c>
-      <c r="G14" s="23" t="n">
+      <c r="G14" s="25" t="n">
         <v>960</v>
       </c>
-      <c r="H14" s="23" t="n">
+      <c r="H14" s="25" t="n">
         <v>2320</v>
       </c>
       <c r="J14" t="n">
@@ -8817,22 +8835,22 @@
       <c r="B15" t="n">
         <v>6</v>
       </c>
-      <c r="C15" s="23" t="n">
+      <c r="C15" s="25" t="n">
         <v>230</v>
       </c>
-      <c r="D15" s="23" t="n">
+      <c r="D15" s="25" t="n">
         <v>660</v>
       </c>
-      <c r="E15" s="23" t="n">
+      <c r="E15" s="25" t="n">
         <v>1520</v>
       </c>
-      <c r="F15" s="23" t="n">
+      <c r="F15" s="25" t="n">
         <v>230</v>
       </c>
-      <c r="G15" s="23" t="n">
+      <c r="G15" s="25" t="n">
         <v>1160</v>
       </c>
-      <c r="H15" s="23" t="n">
+      <c r="H15" s="25" t="n">
         <v>2720</v>
       </c>
       <c r="J15" t="n">
@@ -8867,22 +8885,22 @@
       <c r="B16" t="n">
         <v>7</v>
       </c>
-      <c r="C16" s="23" t="n">
+      <c r="C16" s="25" t="n">
         <v>260</v>
       </c>
-      <c r="D16" s="23" t="n">
+      <c r="D16" s="25" t="n">
         <v>760</v>
       </c>
-      <c r="E16" s="23" t="n">
+      <c r="E16" s="25" t="n">
         <v>1720</v>
       </c>
-      <c r="F16" s="23" t="n">
+      <c r="F16" s="25" t="n">
         <v>260</v>
       </c>
-      <c r="G16" s="23" t="n">
+      <c r="G16" s="25" t="n">
         <v>1360</v>
       </c>
-      <c r="H16" s="23" t="n">
+      <c r="H16" s="25" t="n">
         <v>3120</v>
       </c>
     </row>
@@ -8895,22 +8913,22 @@
       <c r="B17" t="n">
         <v>1</v>
       </c>
-      <c r="C17" s="23" t="n">
+      <c r="C17" s="25" t="n">
         <v>90</v>
       </c>
-      <c r="D17" s="23" t="n">
+      <c r="D17" s="25" t="n">
         <v>180</v>
       </c>
-      <c r="E17" s="23" t="n">
+      <c r="E17" s="25" t="n">
         <v>560</v>
       </c>
-      <c r="F17" s="23" t="n">
+      <c r="F17" s="25" t="n">
         <v>90</v>
       </c>
-      <c r="G17" s="23" t="n">
+      <c r="G17" s="25" t="n">
         <v>180</v>
       </c>
-      <c r="H17" s="23" t="n">
+      <c r="H17" s="25" t="n">
         <v>760</v>
       </c>
     </row>
@@ -8918,22 +8936,22 @@
       <c r="B18" t="n">
         <v>2</v>
       </c>
-      <c r="C18" s="23" t="n">
+      <c r="C18" s="25" t="n">
         <v>120</v>
       </c>
-      <c r="D18" s="23" t="n">
+      <c r="D18" s="25" t="n">
         <v>280</v>
       </c>
-      <c r="E18" s="23" t="n">
+      <c r="E18" s="25" t="n">
         <v>760</v>
       </c>
-      <c r="F18" s="23" t="n">
+      <c r="F18" s="25" t="n">
         <v>120</v>
       </c>
-      <c r="G18" s="23" t="n">
+      <c r="G18" s="25" t="n">
         <v>380</v>
       </c>
-      <c r="H18" s="23" t="n">
+      <c r="H18" s="25" t="n">
         <v>1160</v>
       </c>
     </row>
@@ -8941,22 +8959,22 @@
       <c r="B19" t="n">
         <v>3</v>
       </c>
-      <c r="C19" s="23" t="n">
+      <c r="C19" s="25" t="n">
         <v>150</v>
       </c>
-      <c r="D19" s="23" t="n">
+      <c r="D19" s="25" t="n">
         <v>380</v>
       </c>
-      <c r="E19" s="23" t="n">
+      <c r="E19" s="25" t="n">
         <v>960</v>
       </c>
-      <c r="F19" s="23" t="n">
+      <c r="F19" s="25" t="n">
         <v>150</v>
       </c>
-      <c r="G19" s="23" t="n">
+      <c r="G19" s="25" t="n">
         <v>580</v>
       </c>
-      <c r="H19" s="23" t="n">
+      <c r="H19" s="25" t="n">
         <v>1560</v>
       </c>
     </row>
@@ -8964,22 +8982,22 @@
       <c r="B20" t="n">
         <v>4</v>
       </c>
-      <c r="C20" s="23" t="n">
+      <c r="C20" s="25" t="n">
         <v>180</v>
       </c>
-      <c r="D20" s="23" t="n">
+      <c r="D20" s="25" t="n">
         <v>480</v>
       </c>
-      <c r="E20" s="23" t="n">
+      <c r="E20" s="25" t="n">
         <v>1160</v>
       </c>
-      <c r="F20" s="23" t="n">
+      <c r="F20" s="25" t="n">
         <v>180</v>
       </c>
-      <c r="G20" s="23" t="n">
+      <c r="G20" s="25" t="n">
         <v>780</v>
       </c>
-      <c r="H20" s="23" t="n">
+      <c r="H20" s="25" t="n">
         <v>1960</v>
       </c>
     </row>
@@ -8987,22 +9005,22 @@
       <c r="B21" t="n">
         <v>5</v>
       </c>
-      <c r="C21" s="23" t="n">
+      <c r="C21" s="25" t="n">
         <v>210</v>
       </c>
-      <c r="D21" s="23" t="n">
+      <c r="D21" s="25" t="n">
         <v>580</v>
       </c>
-      <c r="E21" s="23" t="n">
+      <c r="E21" s="25" t="n">
         <v>1360</v>
       </c>
-      <c r="F21" s="23" t="n">
+      <c r="F21" s="25" t="n">
         <v>210</v>
       </c>
-      <c r="G21" s="23" t="n">
+      <c r="G21" s="25" t="n">
         <v>980</v>
       </c>
-      <c r="H21" s="23" t="n">
+      <c r="H21" s="25" t="n">
         <v>2360</v>
       </c>
     </row>
@@ -9010,22 +9028,22 @@
       <c r="B22" t="n">
         <v>6</v>
       </c>
-      <c r="C22" s="23" t="n">
+      <c r="C22" s="25" t="n">
         <v>240</v>
       </c>
-      <c r="D22" s="23" t="n">
+      <c r="D22" s="25" t="n">
         <v>680</v>
       </c>
-      <c r="E22" s="23" t="n">
+      <c r="E22" s="25" t="n">
         <v>1560</v>
       </c>
-      <c r="F22" s="23" t="n">
+      <c r="F22" s="25" t="n">
         <v>240</v>
       </c>
-      <c r="G22" s="23" t="n">
+      <c r="G22" s="25" t="n">
         <v>1180</v>
       </c>
-      <c r="H22" s="23" t="n">
+      <c r="H22" s="25" t="n">
         <v>2760</v>
       </c>
     </row>
@@ -9033,22 +9051,22 @@
       <c r="B23" t="n">
         <v>7</v>
       </c>
-      <c r="C23" s="23" t="n">
+      <c r="C23" s="25" t="n">
         <v>270</v>
       </c>
-      <c r="D23" s="23" t="n">
+      <c r="D23" s="25" t="n">
         <v>780</v>
       </c>
-      <c r="E23" s="23" t="n">
+      <c r="E23" s="25" t="n">
         <v>1760</v>
       </c>
-      <c r="F23" s="23" t="n">
+      <c r="F23" s="25" t="n">
         <v>270</v>
       </c>
-      <c r="G23" s="23" t="n">
+      <c r="G23" s="25" t="n">
         <v>1380</v>
       </c>
-      <c r="H23" s="23" t="n">
+      <c r="H23" s="25" t="n">
         <v>3160</v>
       </c>
     </row>
@@ -9061,22 +9079,22 @@
       <c r="B24" t="n">
         <v>1</v>
       </c>
-      <c r="C24" s="23" t="n">
+      <c r="C24" s="25" t="n">
         <v>90</v>
       </c>
-      <c r="D24" s="23" t="n">
+      <c r="D24" s="25" t="n">
         <v>180</v>
       </c>
-      <c r="E24" s="23" t="n">
+      <c r="E24" s="25" t="n">
         <v>560</v>
       </c>
-      <c r="F24" s="23" t="n">
+      <c r="F24" s="25" t="n">
         <v>90</v>
       </c>
-      <c r="G24" s="23" t="n">
+      <c r="G24" s="25" t="n">
         <v>180</v>
       </c>
-      <c r="H24" s="23" t="n">
+      <c r="H24" s="25" t="n">
         <v>760</v>
       </c>
     </row>
@@ -9084,22 +9102,22 @@
       <c r="B25" t="n">
         <v>2</v>
       </c>
-      <c r="C25" s="23" t="n">
+      <c r="C25" s="25" t="n">
         <v>110</v>
       </c>
-      <c r="D25" s="23" t="n">
+      <c r="D25" s="25" t="n">
         <v>280</v>
       </c>
-      <c r="E25" s="23" t="n">
+      <c r="E25" s="25" t="n">
         <v>760</v>
       </c>
-      <c r="F25" s="23" t="n">
+      <c r="F25" s="25" t="n">
         <v>110</v>
       </c>
-      <c r="G25" s="23" t="n">
+      <c r="G25" s="25" t="n">
         <v>380</v>
       </c>
-      <c r="H25" s="23" t="n">
+      <c r="H25" s="25" t="n">
         <v>1160</v>
       </c>
     </row>
@@ -9107,22 +9125,22 @@
       <c r="B26" t="n">
         <v>3</v>
       </c>
-      <c r="C26" s="23" t="n">
+      <c r="C26" s="25" t="n">
         <v>130</v>
       </c>
-      <c r="D26" s="23" t="n">
+      <c r="D26" s="25" t="n">
         <v>380</v>
       </c>
-      <c r="E26" s="23" t="n">
+      <c r="E26" s="25" t="n">
         <v>960</v>
       </c>
-      <c r="F26" s="23" t="n">
+      <c r="F26" s="25" t="n">
         <v>130</v>
       </c>
-      <c r="G26" s="23" t="n">
+      <c r="G26" s="25" t="n">
         <v>580</v>
       </c>
-      <c r="H26" s="23" t="n">
+      <c r="H26" s="25" t="n">
         <v>1560</v>
       </c>
     </row>
@@ -9130,22 +9148,22 @@
       <c r="B27" t="n">
         <v>4</v>
       </c>
-      <c r="C27" s="23" t="n">
+      <c r="C27" s="25" t="n">
         <v>150</v>
       </c>
-      <c r="D27" s="23" t="n">
+      <c r="D27" s="25" t="n">
         <v>480</v>
       </c>
-      <c r="E27" s="23" t="n">
+      <c r="E27" s="25" t="n">
         <v>1160</v>
       </c>
-      <c r="F27" s="23" t="n">
+      <c r="F27" s="25" t="n">
         <v>150</v>
       </c>
-      <c r="G27" s="23" t="n">
+      <c r="G27" s="25" t="n">
         <v>780</v>
       </c>
-      <c r="H27" s="23" t="n">
+      <c r="H27" s="25" t="n">
         <v>1960</v>
       </c>
     </row>
@@ -9153,22 +9171,22 @@
       <c r="B28" t="n">
         <v>5</v>
       </c>
-      <c r="C28" s="23" t="n">
+      <c r="C28" s="25" t="n">
         <v>170</v>
       </c>
-      <c r="D28" s="23" t="n">
+      <c r="D28" s="25" t="n">
         <v>580</v>
       </c>
-      <c r="E28" s="23" t="n">
+      <c r="E28" s="25" t="n">
         <v>1360</v>
       </c>
-      <c r="F28" s="23" t="n">
+      <c r="F28" s="25" t="n">
         <v>170</v>
       </c>
-      <c r="G28" s="23" t="n">
+      <c r="G28" s="25" t="n">
         <v>980</v>
       </c>
-      <c r="H28" s="23" t="n">
+      <c r="H28" s="25" t="n">
         <v>2360</v>
       </c>
     </row>
@@ -9176,22 +9194,22 @@
       <c r="B29" t="n">
         <v>6</v>
       </c>
-      <c r="C29" s="23" t="n">
+      <c r="C29" s="25" t="n">
         <v>190</v>
       </c>
-      <c r="D29" s="23" t="n">
+      <c r="D29" s="25" t="n">
         <v>680</v>
       </c>
-      <c r="E29" s="23" t="n">
+      <c r="E29" s="25" t="n">
         <v>1560</v>
       </c>
-      <c r="F29" s="23" t="n">
+      <c r="F29" s="25" t="n">
         <v>190</v>
       </c>
-      <c r="G29" s="23" t="n">
+      <c r="G29" s="25" t="n">
         <v>1180</v>
       </c>
-      <c r="H29" s="23" t="n">
+      <c r="H29" s="25" t="n">
         <v>2760</v>
       </c>
     </row>
@@ -9204,22 +9222,22 @@
       <c r="B30" t="n">
         <v>1</v>
       </c>
-      <c r="C30" s="23" t="n">
+      <c r="C30" s="25" t="n">
         <v>110</v>
       </c>
-      <c r="D30" s="23" t="n">
+      <c r="D30" s="25" t="n">
         <v>470</v>
       </c>
-      <c r="E30" s="23" t="n">
+      <c r="E30" s="25" t="n">
         <v>640</v>
       </c>
-      <c r="F30" s="23" t="n">
+      <c r="F30" s="25" t="n">
         <v>110</v>
       </c>
-      <c r="G30" s="23" t="n">
+      <c r="G30" s="25" t="n">
         <v>670</v>
       </c>
-      <c r="H30" s="23" t="n">
+      <c r="H30" s="25" t="n">
         <v>840</v>
       </c>
     </row>
@@ -9227,22 +9245,22 @@
       <c r="B31" t="n">
         <v>2</v>
       </c>
-      <c r="C31" s="23" t="n">
+      <c r="C31" s="25" t="n">
         <v>140</v>
       </c>
-      <c r="D31" s="23" t="n">
+      <c r="D31" s="25" t="n">
         <v>570</v>
       </c>
-      <c r="E31" s="23" t="n">
+      <c r="E31" s="25" t="n">
         <v>840</v>
       </c>
-      <c r="F31" s="23" t="n">
+      <c r="F31" s="25" t="n">
         <v>140</v>
       </c>
-      <c r="G31" s="23" t="n">
+      <c r="G31" s="25" t="n">
         <v>870</v>
       </c>
-      <c r="H31" s="23" t="n">
+      <c r="H31" s="25" t="n">
         <v>1240</v>
       </c>
     </row>
@@ -9250,22 +9268,22 @@
       <c r="B32" t="n">
         <v>3</v>
       </c>
-      <c r="C32" s="23" t="n">
+      <c r="C32" s="25" t="n">
         <v>170</v>
       </c>
-      <c r="D32" s="23" t="n">
+      <c r="D32" s="25" t="n">
         <v>670</v>
       </c>
-      <c r="E32" s="23" t="n">
+      <c r="E32" s="25" t="n">
         <v>1040</v>
       </c>
-      <c r="F32" s="23" t="n">
+      <c r="F32" s="25" t="n">
         <v>170</v>
       </c>
-      <c r="G32" s="23" t="n">
+      <c r="G32" s="25" t="n">
         <v>1070</v>
       </c>
-      <c r="H32" s="23" t="n">
+      <c r="H32" s="25" t="n">
         <v>1640</v>
       </c>
     </row>
@@ -9273,22 +9291,22 @@
       <c r="B33" t="n">
         <v>4</v>
       </c>
-      <c r="C33" s="23" t="n">
+      <c r="C33" s="25" t="n">
         <v>200</v>
       </c>
-      <c r="D33" s="23" t="n">
+      <c r="D33" s="25" t="n">
         <v>770</v>
       </c>
-      <c r="E33" s="23" t="n">
+      <c r="E33" s="25" t="n">
         <v>1240</v>
       </c>
-      <c r="F33" s="23" t="n">
+      <c r="F33" s="25" t="n">
         <v>200</v>
       </c>
-      <c r="G33" s="23" t="n">
+      <c r="G33" s="25" t="n">
         <v>1270</v>
       </c>
-      <c r="H33" s="23" t="n">
+      <c r="H33" s="25" t="n">
         <v>2040</v>
       </c>
     </row>
@@ -9296,22 +9314,22 @@
       <c r="B34" t="n">
         <v>5</v>
       </c>
-      <c r="C34" s="23" t="n">
+      <c r="C34" s="25" t="n">
         <v>230</v>
       </c>
-      <c r="D34" s="23" t="n">
+      <c r="D34" s="25" t="n">
         <v>870</v>
       </c>
-      <c r="E34" s="23" t="n">
+      <c r="E34" s="25" t="n">
         <v>1440</v>
       </c>
-      <c r="F34" s="23" t="n">
+      <c r="F34" s="25" t="n">
         <v>230</v>
       </c>
-      <c r="G34" s="23" t="n">
+      <c r="G34" s="25" t="n">
         <v>1470</v>
       </c>
-      <c r="H34" s="23" t="n">
+      <c r="H34" s="25" t="n">
         <v>2440</v>
       </c>
     </row>
@@ -9319,22 +9337,22 @@
       <c r="B35" t="n">
         <v>6</v>
       </c>
-      <c r="C35" s="23" t="n">
+      <c r="C35" s="25" t="n">
         <v>260</v>
       </c>
-      <c r="D35" s="23" t="n">
+      <c r="D35" s="25" t="n">
         <v>970</v>
       </c>
-      <c r="E35" s="23" t="n">
+      <c r="E35" s="25" t="n">
         <v>1640</v>
       </c>
-      <c r="F35" s="23" t="n">
+      <c r="F35" s="25" t="n">
         <v>260</v>
       </c>
-      <c r="G35" s="23" t="n">
+      <c r="G35" s="25" t="n">
         <v>1670</v>
       </c>
-      <c r="H35" s="23" t="n">
+      <c r="H35" s="25" t="n">
         <v>2840</v>
       </c>
     </row>
@@ -9347,22 +9365,22 @@
       <c r="B36" t="n">
         <v>1</v>
       </c>
-      <c r="C36" s="23" t="n">
+      <c r="C36" s="25" t="n">
         <v>120</v>
       </c>
-      <c r="D36" s="23" t="n">
+      <c r="D36" s="25" t="n">
         <v>490</v>
       </c>
-      <c r="E36" s="23" t="n">
+      <c r="E36" s="25" t="n">
         <v>680</v>
       </c>
-      <c r="F36" s="23" t="n">
+      <c r="F36" s="25" t="n">
         <v>120</v>
       </c>
-      <c r="G36" s="23" t="n">
+      <c r="G36" s="25" t="n">
         <v>690</v>
       </c>
-      <c r="H36" s="23" t="n">
+      <c r="H36" s="25" t="n">
         <v>880</v>
       </c>
     </row>
@@ -9370,22 +9388,22 @@
       <c r="B37" t="n">
         <v>2</v>
       </c>
-      <c r="C37" s="23" t="n">
+      <c r="C37" s="25" t="n">
         <v>150</v>
       </c>
-      <c r="D37" s="23" t="n">
+      <c r="D37" s="25" t="n">
         <v>590</v>
       </c>
-      <c r="E37" s="23" t="n">
+      <c r="E37" s="25" t="n">
         <v>880</v>
       </c>
-      <c r="F37" s="23" t="n">
+      <c r="F37" s="25" t="n">
         <v>150</v>
       </c>
-      <c r="G37" s="23" t="n">
+      <c r="G37" s="25" t="n">
         <v>890</v>
       </c>
-      <c r="H37" s="23" t="n">
+      <c r="H37" s="25" t="n">
         <v>1280</v>
       </c>
     </row>
@@ -9393,22 +9411,22 @@
       <c r="B38" t="n">
         <v>3</v>
       </c>
-      <c r="C38" s="23" t="n">
+      <c r="C38" s="25" t="n">
         <v>180</v>
       </c>
-      <c r="D38" s="23" t="n">
+      <c r="D38" s="25" t="n">
         <v>690</v>
       </c>
-      <c r="E38" s="23" t="n">
+      <c r="E38" s="25" t="n">
         <v>1080</v>
       </c>
-      <c r="F38" s="23" t="n">
+      <c r="F38" s="25" t="n">
         <v>180</v>
       </c>
-      <c r="G38" s="23" t="n">
+      <c r="G38" s="25" t="n">
         <v>1090</v>
       </c>
-      <c r="H38" s="23" t="n">
+      <c r="H38" s="25" t="n">
         <v>1680</v>
       </c>
     </row>
@@ -9416,22 +9434,22 @@
       <c r="B39" t="n">
         <v>4</v>
       </c>
-      <c r="C39" s="23" t="n">
+      <c r="C39" s="25" t="n">
         <v>210</v>
       </c>
-      <c r="D39" s="23" t="n">
+      <c r="D39" s="25" t="n">
         <v>790</v>
       </c>
-      <c r="E39" s="23" t="n">
+      <c r="E39" s="25" t="n">
         <v>1280</v>
       </c>
-      <c r="F39" s="23" t="n">
+      <c r="F39" s="25" t="n">
         <v>210</v>
       </c>
-      <c r="G39" s="23" t="n">
+      <c r="G39" s="25" t="n">
         <v>1290</v>
       </c>
-      <c r="H39" s="23" t="n">
+      <c r="H39" s="25" t="n">
         <v>2080</v>
       </c>
     </row>
@@ -9439,22 +9457,22 @@
       <c r="B40" t="n">
         <v>5</v>
       </c>
-      <c r="C40" s="23" t="n">
+      <c r="C40" s="25" t="n">
         <v>240</v>
       </c>
-      <c r="D40" s="23" t="n">
+      <c r="D40" s="25" t="n">
         <v>890</v>
       </c>
-      <c r="E40" s="23" t="n">
+      <c r="E40" s="25" t="n">
         <v>1480</v>
       </c>
-      <c r="F40" s="23" t="n">
+      <c r="F40" s="25" t="n">
         <v>240</v>
       </c>
-      <c r="G40" s="23" t="n">
+      <c r="G40" s="25" t="n">
         <v>1490</v>
       </c>
-      <c r="H40" s="23" t="n">
+      <c r="H40" s="25" t="n">
         <v>2480</v>
       </c>
     </row>
@@ -9462,22 +9480,22 @@
       <c r="B41" t="n">
         <v>6</v>
       </c>
-      <c r="C41" s="23" t="n">
+      <c r="C41" s="25" t="n">
         <v>270</v>
       </c>
-      <c r="D41" s="23" t="n">
+      <c r="D41" s="25" t="n">
         <v>990</v>
       </c>
-      <c r="E41" s="23" t="n">
+      <c r="E41" s="25" t="n">
         <v>1680</v>
       </c>
-      <c r="F41" s="23" t="n">
+      <c r="F41" s="25" t="n">
         <v>270</v>
       </c>
-      <c r="G41" s="23" t="n">
+      <c r="G41" s="25" t="n">
         <v>1690</v>
       </c>
-      <c r="H41" s="23" t="n">
+      <c r="H41" s="25" t="n">
         <v>2880</v>
       </c>
     </row>
@@ -9490,22 +9508,22 @@
       <c r="B42" t="n">
         <v>1</v>
       </c>
-      <c r="C42" s="23" t="n">
+      <c r="C42" s="25" t="n">
         <v>110</v>
       </c>
-      <c r="D42" s="23" t="n">
+      <c r="D42" s="25" t="n">
         <v>470</v>
       </c>
-      <c r="E42" s="23" t="n">
+      <c r="E42" s="25" t="n">
         <v>640</v>
       </c>
-      <c r="F42" s="23" t="n">
+      <c r="F42" s="25" t="n">
         <v>110</v>
       </c>
-      <c r="G42" s="23" t="n">
+      <c r="G42" s="25" t="n">
         <v>670</v>
       </c>
-      <c r="H42" s="23" t="n">
+      <c r="H42" s="25" t="n">
         <v>840</v>
       </c>
     </row>
@@ -9513,22 +9531,22 @@
       <c r="B43" t="n">
         <v>2</v>
       </c>
-      <c r="C43" s="23" t="n">
+      <c r="C43" s="25" t="n">
         <v>130</v>
       </c>
-      <c r="D43" s="23" t="n">
+      <c r="D43" s="25" t="n">
         <v>570</v>
       </c>
-      <c r="E43" s="23" t="n">
+      <c r="E43" s="25" t="n">
         <v>840</v>
       </c>
-      <c r="F43" s="23" t="n">
+      <c r="F43" s="25" t="n">
         <v>130</v>
       </c>
-      <c r="G43" s="23" t="n">
+      <c r="G43" s="25" t="n">
         <v>870</v>
       </c>
-      <c r="H43" s="23" t="n">
+      <c r="H43" s="25" t="n">
         <v>1240</v>
       </c>
     </row>
@@ -9536,22 +9554,22 @@
       <c r="B44" t="n">
         <v>3</v>
       </c>
-      <c r="C44" s="23" t="n">
+      <c r="C44" s="25" t="n">
         <v>150</v>
       </c>
-      <c r="D44" s="23" t="n">
+      <c r="D44" s="25" t="n">
         <v>670</v>
       </c>
-      <c r="E44" s="23" t="n">
+      <c r="E44" s="25" t="n">
         <v>1040</v>
       </c>
-      <c r="F44" s="23" t="n">
+      <c r="F44" s="25" t="n">
         <v>150</v>
       </c>
-      <c r="G44" s="23" t="n">
+      <c r="G44" s="25" t="n">
         <v>1070</v>
       </c>
-      <c r="H44" s="23" t="n">
+      <c r="H44" s="25" t="n">
         <v>1640</v>
       </c>
     </row>
@@ -9559,22 +9577,22 @@
       <c r="B45" t="n">
         <v>4</v>
       </c>
-      <c r="C45" s="23" t="n">
+      <c r="C45" s="25" t="n">
         <v>170</v>
       </c>
-      <c r="D45" s="23" t="n">
+      <c r="D45" s="25" t="n">
         <v>770</v>
       </c>
-      <c r="E45" s="23" t="n">
+      <c r="E45" s="25" t="n">
         <v>1240</v>
       </c>
-      <c r="F45" s="23" t="n">
+      <c r="F45" s="25" t="n">
         <v>170</v>
       </c>
-      <c r="G45" s="23" t="n">
+      <c r="G45" s="25" t="n">
         <v>1270</v>
       </c>
-      <c r="H45" s="23" t="n">
+      <c r="H45" s="25" t="n">
         <v>2040</v>
       </c>
     </row>
@@ -9582,22 +9600,22 @@
       <c r="B46" t="n">
         <v>5</v>
       </c>
-      <c r="C46" s="23" t="n">
+      <c r="C46" s="25" t="n">
         <v>190</v>
       </c>
-      <c r="D46" s="23" t="n">
+      <c r="D46" s="25" t="n">
         <v>870</v>
       </c>
-      <c r="E46" s="23" t="n">
+      <c r="E46" s="25" t="n">
         <v>1440</v>
       </c>
-      <c r="F46" s="23" t="n">
+      <c r="F46" s="25" t="n">
         <v>190</v>
       </c>
-      <c r="G46" s="23" t="n">
+      <c r="G46" s="25" t="n">
         <v>1470</v>
       </c>
-      <c r="H46" s="23" t="n">
+      <c r="H46" s="25" t="n">
         <v>2440</v>
       </c>
     </row>
@@ -9610,22 +9628,22 @@
       <c r="B47" t="n">
         <v>1</v>
       </c>
-      <c r="C47" s="23" t="n">
+      <c r="C47" s="25" t="n">
         <v>140</v>
       </c>
-      <c r="D47" s="23" t="n">
+      <c r="D47" s="25" t="n">
         <v>530</v>
       </c>
-      <c r="E47" s="23" t="n">
+      <c r="E47" s="25" t="n">
         <v>760</v>
       </c>
-      <c r="F47" s="23" t="n">
+      <c r="F47" s="25" t="n">
         <v>140</v>
       </c>
-      <c r="G47" s="23" t="n">
+      <c r="G47" s="25" t="n">
         <v>730</v>
       </c>
-      <c r="H47" s="23" t="n">
+      <c r="H47" s="25" t="n">
         <v>960</v>
       </c>
     </row>
@@ -9633,22 +9651,22 @@
       <c r="B48" t="n">
         <v>2</v>
       </c>
-      <c r="C48" s="23" t="n">
+      <c r="C48" s="25" t="n">
         <v>170</v>
       </c>
-      <c r="D48" s="23" t="n">
+      <c r="D48" s="25" t="n">
         <v>630</v>
       </c>
-      <c r="E48" s="23" t="n">
+      <c r="E48" s="25" t="n">
         <v>960</v>
       </c>
-      <c r="F48" s="23" t="n">
+      <c r="F48" s="25" t="n">
         <v>170</v>
       </c>
-      <c r="G48" s="23" t="n">
+      <c r="G48" s="25" t="n">
         <v>930</v>
       </c>
-      <c r="H48" s="23" t="n">
+      <c r="H48" s="25" t="n">
         <v>1360</v>
       </c>
     </row>
@@ -9656,22 +9674,22 @@
       <c r="B49" t="n">
         <v>3</v>
       </c>
-      <c r="C49" s="23" t="n">
+      <c r="C49" s="25" t="n">
         <v>200</v>
       </c>
-      <c r="D49" s="23" t="n">
+      <c r="D49" s="25" t="n">
         <v>730</v>
       </c>
-      <c r="E49" s="23" t="n">
+      <c r="E49" s="25" t="n">
         <v>1160</v>
       </c>
-      <c r="F49" s="23" t="n">
+      <c r="F49" s="25" t="n">
         <v>200</v>
       </c>
-      <c r="G49" s="23" t="n">
+      <c r="G49" s="25" t="n">
         <v>1130</v>
       </c>
-      <c r="H49" s="23" t="n">
+      <c r="H49" s="25" t="n">
         <v>1760</v>
       </c>
     </row>
@@ -9679,22 +9697,22 @@
       <c r="B50" t="n">
         <v>4</v>
       </c>
-      <c r="C50" s="23" t="n">
+      <c r="C50" s="25" t="n">
         <v>230</v>
       </c>
-      <c r="D50" s="23" t="n">
+      <c r="D50" s="25" t="n">
         <v>830</v>
       </c>
-      <c r="E50" s="23" t="n">
+      <c r="E50" s="25" t="n">
         <v>1360</v>
       </c>
-      <c r="F50" s="23" t="n">
+      <c r="F50" s="25" t="n">
         <v>230</v>
       </c>
-      <c r="G50" s="23" t="n">
+      <c r="G50" s="25" t="n">
         <v>1330</v>
       </c>
-      <c r="H50" s="23" t="n">
+      <c r="H50" s="25" t="n">
         <v>2160</v>
       </c>
     </row>
@@ -9702,22 +9720,22 @@
       <c r="B51" t="n">
         <v>5</v>
       </c>
-      <c r="C51" s="23" t="n">
+      <c r="C51" s="25" t="n">
         <v>260</v>
       </c>
-      <c r="D51" s="23" t="n">
+      <c r="D51" s="25" t="n">
         <v>930</v>
       </c>
-      <c r="E51" s="23" t="n">
+      <c r="E51" s="25" t="n">
         <v>1560</v>
       </c>
-      <c r="F51" s="23" t="n">
+      <c r="F51" s="25" t="n">
         <v>260</v>
       </c>
-      <c r="G51" s="23" t="n">
+      <c r="G51" s="25" t="n">
         <v>1530</v>
       </c>
-      <c r="H51" s="23" t="n">
+      <c r="H51" s="25" t="n">
         <v>2560</v>
       </c>
     </row>
@@ -9730,22 +9748,22 @@
       <c r="B52" t="n">
         <v>1</v>
       </c>
-      <c r="C52" s="23" t="n">
+      <c r="C52" s="25" t="n">
         <v>400</v>
       </c>
-      <c r="D52" s="23" t="n">
+      <c r="D52" s="25" t="n">
         <v>550</v>
       </c>
-      <c r="E52" s="23" t="n">
+      <c r="E52" s="25" t="n">
         <v>800</v>
       </c>
-      <c r="F52" s="23" t="n">
+      <c r="F52" s="25" t="n">
         <v>600</v>
       </c>
-      <c r="G52" s="23" t="n">
+      <c r="G52" s="25" t="n">
         <v>750</v>
       </c>
-      <c r="H52" s="23" t="n">
+      <c r="H52" s="25" t="n">
         <v>1000</v>
       </c>
     </row>
@@ -9753,22 +9771,22 @@
       <c r="B53" t="n">
         <v>2</v>
       </c>
-      <c r="C53" s="23" t="n">
+      <c r="C53" s="25" t="n">
         <v>430</v>
       </c>
-      <c r="D53" s="23" t="n">
+      <c r="D53" s="25" t="n">
         <v>650</v>
       </c>
-      <c r="E53" s="23" t="n">
+      <c r="E53" s="25" t="n">
         <v>1000</v>
       </c>
-      <c r="F53" s="23" t="n">
+      <c r="F53" s="25" t="n">
         <v>630</v>
       </c>
-      <c r="G53" s="23" t="n">
+      <c r="G53" s="25" t="n">
         <v>950</v>
       </c>
-      <c r="H53" s="23" t="n">
+      <c r="H53" s="25" t="n">
         <v>1400</v>
       </c>
     </row>
@@ -9776,22 +9794,22 @@
       <c r="B54" t="n">
         <v>3</v>
       </c>
-      <c r="C54" s="23" t="n">
+      <c r="C54" s="25" t="n">
         <v>460</v>
       </c>
-      <c r="D54" s="23" t="n">
+      <c r="D54" s="25" t="n">
         <v>750</v>
       </c>
-      <c r="E54" s="23" t="n">
+      <c r="E54" s="25" t="n">
         <v>1200</v>
       </c>
-      <c r="F54" s="23" t="n">
+      <c r="F54" s="25" t="n">
         <v>660</v>
       </c>
-      <c r="G54" s="23" t="n">
+      <c r="G54" s="25" t="n">
         <v>1150</v>
       </c>
-      <c r="H54" s="23" t="n">
+      <c r="H54" s="25" t="n">
         <v>1800</v>
       </c>
     </row>
@@ -9799,22 +9817,22 @@
       <c r="B55" t="n">
         <v>4</v>
       </c>
-      <c r="C55" s="23" t="n">
+      <c r="C55" s="25" t="n">
         <v>490</v>
       </c>
-      <c r="D55" s="23" t="n">
+      <c r="D55" s="25" t="n">
         <v>850</v>
       </c>
-      <c r="E55" s="23" t="n">
+      <c r="E55" s="25" t="n">
         <v>1400</v>
       </c>
-      <c r="F55" s="23" t="n">
+      <c r="F55" s="25" t="n">
         <v>690</v>
       </c>
-      <c r="G55" s="23" t="n">
+      <c r="G55" s="25" t="n">
         <v>1350</v>
       </c>
-      <c r="H55" s="23" t="n">
+      <c r="H55" s="25" t="n">
         <v>2200</v>
       </c>
     </row>
@@ -9822,22 +9840,22 @@
       <c r="B56" t="n">
         <v>5</v>
       </c>
-      <c r="C56" s="23" t="n">
+      <c r="C56" s="25" t="n">
         <v>520</v>
       </c>
-      <c r="D56" s="23" t="n">
+      <c r="D56" s="25" t="n">
         <v>950</v>
       </c>
-      <c r="E56" s="23" t="n">
+      <c r="E56" s="25" t="n">
         <v>1600</v>
       </c>
-      <c r="F56" s="23" t="n">
+      <c r="F56" s="25" t="n">
         <v>720</v>
       </c>
-      <c r="G56" s="23" t="n">
+      <c r="G56" s="25" t="n">
         <v>1550</v>
       </c>
-      <c r="H56" s="23" t="n">
+      <c r="H56" s="25" t="n">
         <v>2600</v>
       </c>
     </row>
@@ -9850,22 +9868,22 @@
       <c r="B57" t="n">
         <v>1</v>
       </c>
-      <c r="C57" s="23" t="n">
+      <c r="C57" s="25" t="n">
         <v>130</v>
       </c>
-      <c r="D57" s="23" t="n">
+      <c r="D57" s="25" t="n">
         <v>510</v>
       </c>
-      <c r="E57" s="23" t="n">
+      <c r="E57" s="25" t="n">
         <v>720</v>
       </c>
-      <c r="F57" s="23" t="n">
+      <c r="F57" s="25" t="n">
         <v>130</v>
       </c>
-      <c r="G57" s="23" t="n">
+      <c r="G57" s="25" t="n">
         <v>710</v>
       </c>
-      <c r="H57" s="23" t="n">
+      <c r="H57" s="25" t="n">
         <v>920</v>
       </c>
     </row>
@@ -9873,22 +9891,22 @@
       <c r="B58" t="n">
         <v>2</v>
       </c>
-      <c r="C58" s="23" t="n">
+      <c r="C58" s="25" t="n">
         <v>150</v>
       </c>
-      <c r="D58" s="23" t="n">
+      <c r="D58" s="25" t="n">
         <v>610</v>
       </c>
-      <c r="E58" s="23" t="n">
+      <c r="E58" s="25" t="n">
         <v>920</v>
       </c>
-      <c r="F58" s="23" t="n">
+      <c r="F58" s="25" t="n">
         <v>150</v>
       </c>
-      <c r="G58" s="23" t="n">
+      <c r="G58" s="25" t="n">
         <v>910</v>
       </c>
-      <c r="H58" s="23" t="n">
+      <c r="H58" s="25" t="n">
         <v>1320</v>
       </c>
     </row>
@@ -9896,22 +9914,22 @@
       <c r="B59" t="n">
         <v>3</v>
       </c>
-      <c r="C59" s="23" t="n">
+      <c r="C59" s="25" t="n">
         <v>170</v>
       </c>
-      <c r="D59" s="23" t="n">
+      <c r="D59" s="25" t="n">
         <v>710</v>
       </c>
-      <c r="E59" s="23" t="n">
+      <c r="E59" s="25" t="n">
         <v>1120</v>
       </c>
-      <c r="F59" s="23" t="n">
+      <c r="F59" s="25" t="n">
         <v>170</v>
       </c>
-      <c r="G59" s="23" t="n">
+      <c r="G59" s="25" t="n">
         <v>1110</v>
       </c>
-      <c r="H59" s="23" t="n">
+      <c r="H59" s="25" t="n">
         <v>1720</v>
       </c>
     </row>
@@ -9919,22 +9937,22 @@
       <c r="B60" t="n">
         <v>4</v>
       </c>
-      <c r="C60" s="23" t="n">
+      <c r="C60" s="25" t="n">
         <v>190</v>
       </c>
-      <c r="D60" s="23" t="n">
+      <c r="D60" s="25" t="n">
         <v>810</v>
       </c>
-      <c r="E60" s="23" t="n">
+      <c r="E60" s="25" t="n">
         <v>1320</v>
       </c>
-      <c r="F60" s="23" t="n">
+      <c r="F60" s="25" t="n">
         <v>190</v>
       </c>
-      <c r="G60" s="23" t="n">
+      <c r="G60" s="25" t="n">
         <v>1310</v>
       </c>
-      <c r="H60" s="23" t="n">
+      <c r="H60" s="25" t="n">
         <v>2120</v>
       </c>
     </row>
@@ -9947,22 +9965,22 @@
       <c r="B61" t="n">
         <v>1</v>
       </c>
-      <c r="C61" s="23" t="n">
+      <c r="C61" s="25" t="n">
         <v>420</v>
       </c>
-      <c r="D61" s="23" t="n">
+      <c r="D61" s="25" t="n">
         <v>590</v>
       </c>
-      <c r="E61" s="23" t="n">
+      <c r="E61" s="25" t="n">
         <v>880</v>
       </c>
-      <c r="F61" s="23" t="n">
+      <c r="F61" s="25" t="n">
         <v>620</v>
       </c>
-      <c r="G61" s="23" t="n">
+      <c r="G61" s="25" t="n">
         <v>790</v>
       </c>
-      <c r="H61" s="23" t="n">
+      <c r="H61" s="25" t="n">
         <v>1080</v>
       </c>
     </row>
@@ -9970,22 +9988,22 @@
       <c r="B62" t="n">
         <v>2</v>
       </c>
-      <c r="C62" s="23" t="n">
+      <c r="C62" s="25" t="n">
         <v>450</v>
       </c>
-      <c r="D62" s="23" t="n">
+      <c r="D62" s="25" t="n">
         <v>690</v>
       </c>
-      <c r="E62" s="23" t="n">
+      <c r="E62" s="25" t="n">
         <v>1080</v>
       </c>
-      <c r="F62" s="23" t="n">
+      <c r="F62" s="25" t="n">
         <v>650</v>
       </c>
-      <c r="G62" s="23" t="n">
+      <c r="G62" s="25" t="n">
         <v>990</v>
       </c>
-      <c r="H62" s="23" t="n">
+      <c r="H62" s="25" t="n">
         <v>1480</v>
       </c>
     </row>
@@ -9993,22 +10011,22 @@
       <c r="B63" t="n">
         <v>3</v>
       </c>
-      <c r="C63" s="23" t="n">
+      <c r="C63" s="25" t="n">
         <v>480</v>
       </c>
-      <c r="D63" s="23" t="n">
+      <c r="D63" s="25" t="n">
         <v>790</v>
       </c>
-      <c r="E63" s="23" t="n">
+      <c r="E63" s="25" t="n">
         <v>1280</v>
       </c>
-      <c r="F63" s="23" t="n">
+      <c r="F63" s="25" t="n">
         <v>680</v>
       </c>
-      <c r="G63" s="23" t="n">
+      <c r="G63" s="25" t="n">
         <v>1190</v>
       </c>
-      <c r="H63" s="23" t="n">
+      <c r="H63" s="25" t="n">
         <v>1880</v>
       </c>
     </row>
@@ -10016,22 +10034,22 @@
       <c r="B64" t="n">
         <v>4</v>
       </c>
-      <c r="C64" s="23" t="n">
+      <c r="C64" s="25" t="n">
         <v>510</v>
       </c>
-      <c r="D64" s="23" t="n">
+      <c r="D64" s="25" t="n">
         <v>890</v>
       </c>
-      <c r="E64" s="23" t="n">
+      <c r="E64" s="25" t="n">
         <v>1480</v>
       </c>
-      <c r="F64" s="23" t="n">
+      <c r="F64" s="25" t="n">
         <v>710</v>
       </c>
-      <c r="G64" s="23" t="n">
+      <c r="G64" s="25" t="n">
         <v>1390</v>
       </c>
-      <c r="H64" s="23" t="n">
+      <c r="H64" s="25" t="n">
         <v>2280</v>
       </c>
     </row>
@@ -10044,22 +10062,22 @@
       <c r="B65" t="n">
         <v>1</v>
       </c>
-      <c r="C65" s="23" t="n">
+      <c r="C65" s="25" t="n">
         <v>430</v>
       </c>
-      <c r="D65" s="23" t="n">
+      <c r="D65" s="25" t="n">
         <v>610</v>
       </c>
-      <c r="E65" s="23" t="n">
+      <c r="E65" s="25" t="n">
         <v>920</v>
       </c>
-      <c r="F65" s="23" t="n">
+      <c r="F65" s="25" t="n">
         <v>630</v>
       </c>
-      <c r="G65" s="23" t="n">
+      <c r="G65" s="25" t="n">
         <v>810</v>
       </c>
-      <c r="H65" s="23" t="n">
+      <c r="H65" s="25" t="n">
         <v>1120</v>
       </c>
     </row>
@@ -10067,22 +10085,22 @@
       <c r="B66" t="n">
         <v>2</v>
       </c>
-      <c r="C66" s="23" t="n">
+      <c r="C66" s="25" t="n">
         <v>460</v>
       </c>
-      <c r="D66" s="23" t="n">
+      <c r="D66" s="25" t="n">
         <v>710</v>
       </c>
-      <c r="E66" s="23" t="n">
+      <c r="E66" s="25" t="n">
         <v>1120</v>
       </c>
-      <c r="F66" s="23" t="n">
+      <c r="F66" s="25" t="n">
         <v>660</v>
       </c>
-      <c r="G66" s="23" t="n">
+      <c r="G66" s="25" t="n">
         <v>1010</v>
       </c>
-      <c r="H66" s="23" t="n">
+      <c r="H66" s="25" t="n">
         <v>1520</v>
       </c>
     </row>
@@ -10090,22 +10108,22 @@
       <c r="B67" t="n">
         <v>3</v>
       </c>
-      <c r="C67" s="23" t="n">
+      <c r="C67" s="25" t="n">
         <v>490</v>
       </c>
-      <c r="D67" s="23" t="n">
+      <c r="D67" s="25" t="n">
         <v>810</v>
       </c>
-      <c r="E67" s="23" t="n">
+      <c r="E67" s="25" t="n">
         <v>1320</v>
       </c>
-      <c r="F67" s="23" t="n">
+      <c r="F67" s="25" t="n">
         <v>690</v>
       </c>
-      <c r="G67" s="23" t="n">
+      <c r="G67" s="25" t="n">
         <v>1210</v>
       </c>
-      <c r="H67" s="23" t="n">
+      <c r="H67" s="25" t="n">
         <v>1920</v>
       </c>
     </row>
@@ -10113,22 +10131,22 @@
       <c r="B68" t="n">
         <v>4</v>
       </c>
-      <c r="C68" s="23" t="n">
+      <c r="C68" s="25" t="n">
         <v>520</v>
       </c>
-      <c r="D68" s="23" t="n">
+      <c r="D68" s="25" t="n">
         <v>910</v>
       </c>
-      <c r="E68" s="23" t="n">
+      <c r="E68" s="25" t="n">
         <v>1520</v>
       </c>
-      <c r="F68" s="23" t="n">
+      <c r="F68" s="25" t="n">
         <v>720</v>
       </c>
-      <c r="G68" s="23" t="n">
+      <c r="G68" s="25" t="n">
         <v>1410</v>
       </c>
-      <c r="H68" s="23" t="n">
+      <c r="H68" s="25" t="n">
         <v>2320</v>
       </c>
     </row>
@@ -10141,22 +10159,22 @@
       <c r="B69" t="n">
         <v>1</v>
       </c>
-      <c r="C69" s="23" t="n">
+      <c r="C69" s="25" t="n">
         <v>400</v>
       </c>
-      <c r="D69" s="23" t="n">
+      <c r="D69" s="25" t="n">
         <v>550</v>
       </c>
-      <c r="E69" s="23" t="n">
+      <c r="E69" s="25" t="n">
         <v>800</v>
       </c>
-      <c r="F69" s="23" t="n">
+      <c r="F69" s="25" t="n">
         <v>600</v>
       </c>
-      <c r="G69" s="23" t="n">
+      <c r="G69" s="25" t="n">
         <v>750</v>
       </c>
-      <c r="H69" s="23" t="n">
+      <c r="H69" s="25" t="n">
         <v>1000</v>
       </c>
     </row>
@@ -10164,22 +10182,22 @@
       <c r="B70" t="n">
         <v>2</v>
       </c>
-      <c r="C70" s="23" t="n">
+      <c r="C70" s="25" t="n">
         <v>420</v>
       </c>
-      <c r="D70" s="23" t="n">
+      <c r="D70" s="25" t="n">
         <v>650</v>
       </c>
-      <c r="E70" s="23" t="n">
+      <c r="E70" s="25" t="n">
         <v>1000</v>
       </c>
-      <c r="F70" s="23" t="n">
+      <c r="F70" s="25" t="n">
         <v>620</v>
       </c>
-      <c r="G70" s="23" t="n">
+      <c r="G70" s="25" t="n">
         <v>950</v>
       </c>
-      <c r="H70" s="23" t="n">
+      <c r="H70" s="25" t="n">
         <v>1400</v>
       </c>
     </row>
@@ -10187,22 +10205,22 @@
       <c r="B71" t="n">
         <v>3</v>
       </c>
-      <c r="C71" s="23" t="n">
+      <c r="C71" s="25" t="n">
         <v>440</v>
       </c>
-      <c r="D71" s="23" t="n">
+      <c r="D71" s="25" t="n">
         <v>750</v>
       </c>
-      <c r="E71" s="23" t="n">
+      <c r="E71" s="25" t="n">
         <v>1200</v>
       </c>
-      <c r="F71" s="23" t="n">
+      <c r="F71" s="25" t="n">
         <v>640</v>
       </c>
-      <c r="G71" s="23" t="n">
+      <c r="G71" s="25" t="n">
         <v>1150</v>
       </c>
-      <c r="H71" s="23" t="n">
+      <c r="H71" s="25" t="n">
         <v>1800</v>
       </c>
     </row>
@@ -10215,22 +10233,22 @@
       <c r="B72" t="n">
         <v>1</v>
       </c>
-      <c r="C72" s="23" t="n">
+      <c r="C72" s="25" t="n">
         <v>450</v>
       </c>
-      <c r="D72" s="23" t="n">
+      <c r="D72" s="25" t="n">
         <v>650</v>
       </c>
-      <c r="E72" s="23" t="n">
+      <c r="E72" s="25" t="n">
         <v>1000</v>
       </c>
-      <c r="F72" s="23" t="n">
+      <c r="F72" s="25" t="n">
         <v>650</v>
       </c>
-      <c r="G72" s="23" t="n">
+      <c r="G72" s="25" t="n">
         <v>850</v>
       </c>
-      <c r="H72" s="23" t="n">
+      <c r="H72" s="25" t="n">
         <v>1200</v>
       </c>
     </row>
@@ -10238,22 +10256,22 @@
       <c r="B73" t="n">
         <v>2</v>
       </c>
-      <c r="C73" s="23" t="n">
+      <c r="C73" s="25" t="n">
         <v>480</v>
       </c>
-      <c r="D73" s="23" t="n">
+      <c r="D73" s="25" t="n">
         <v>750</v>
       </c>
-      <c r="E73" s="23" t="n">
+      <c r="E73" s="25" t="n">
         <v>1200</v>
       </c>
-      <c r="F73" s="23" t="n">
+      <c r="F73" s="25" t="n">
         <v>680</v>
       </c>
-      <c r="G73" s="23" t="n">
+      <c r="G73" s="25" t="n">
         <v>1050</v>
       </c>
-      <c r="H73" s="23" t="n">
+      <c r="H73" s="25" t="n">
         <v>1600</v>
       </c>
     </row>
@@ -10261,22 +10279,22 @@
       <c r="B74" t="n">
         <v>3</v>
       </c>
-      <c r="C74" s="23" t="n">
+      <c r="C74" s="25" t="n">
         <v>510</v>
       </c>
-      <c r="D74" s="23" t="n">
+      <c r="D74" s="25" t="n">
         <v>850</v>
       </c>
-      <c r="E74" s="23" t="n">
+      <c r="E74" s="25" t="n">
         <v>1400</v>
       </c>
-      <c r="F74" s="23" t="n">
+      <c r="F74" s="25" t="n">
         <v>710</v>
       </c>
-      <c r="G74" s="23" t="n">
+      <c r="G74" s="25" t="n">
         <v>1250</v>
       </c>
-      <c r="H74" s="23" t="n">
+      <c r="H74" s="25" t="n">
         <v>2000</v>
       </c>
     </row>
@@ -10289,22 +10307,22 @@
       <c r="B75" t="n">
         <v>1</v>
       </c>
-      <c r="C75" s="23" t="n">
+      <c r="C75" s="25" t="n">
         <v>460</v>
       </c>
-      <c r="D75" s="23" t="n">
+      <c r="D75" s="25" t="n">
         <v>670</v>
       </c>
-      <c r="E75" s="23" t="n">
+      <c r="E75" s="25" t="n">
         <v>1040</v>
       </c>
-      <c r="F75" s="23" t="n">
+      <c r="F75" s="25" t="n">
         <v>660</v>
       </c>
-      <c r="G75" s="23" t="n">
+      <c r="G75" s="25" t="n">
         <v>870</v>
       </c>
-      <c r="H75" s="23" t="n">
+      <c r="H75" s="25" t="n">
         <v>1240</v>
       </c>
     </row>
@@ -10312,22 +10330,22 @@
       <c r="B76" t="n">
         <v>2</v>
       </c>
-      <c r="C76" s="23" t="n">
+      <c r="C76" s="25" t="n">
         <v>490</v>
       </c>
-      <c r="D76" s="23" t="n">
+      <c r="D76" s="25" t="n">
         <v>770</v>
       </c>
-      <c r="E76" s="23" t="n">
+      <c r="E76" s="25" t="n">
         <v>1240</v>
       </c>
-      <c r="F76" s="23" t="n">
+      <c r="F76" s="25" t="n">
         <v>690</v>
       </c>
-      <c r="G76" s="23" t="n">
+      <c r="G76" s="25" t="n">
         <v>1070</v>
       </c>
-      <c r="H76" s="23" t="n">
+      <c r="H76" s="25" t="n">
         <v>1640</v>
       </c>
     </row>
@@ -10335,22 +10353,22 @@
       <c r="B77" t="n">
         <v>3</v>
       </c>
-      <c r="C77" s="23" t="n">
+      <c r="C77" s="25" t="n">
         <v>520</v>
       </c>
-      <c r="D77" s="23" t="n">
+      <c r="D77" s="25" t="n">
         <v>870</v>
       </c>
-      <c r="E77" s="23" t="n">
+      <c r="E77" s="25" t="n">
         <v>1440</v>
       </c>
-      <c r="F77" s="23" t="n">
+      <c r="F77" s="25" t="n">
         <v>720</v>
       </c>
-      <c r="G77" s="23" t="n">
+      <c r="G77" s="25" t="n">
         <v>1270</v>
       </c>
-      <c r="H77" s="23" t="n">
+      <c r="H77" s="25" t="n">
         <v>2040</v>
       </c>
     </row>
@@ -10363,22 +10381,22 @@
       <c r="B78" t="n">
         <v>1</v>
       </c>
-      <c r="C78" s="23" t="n">
+      <c r="C78" s="25" t="n">
         <v>920</v>
       </c>
-      <c r="D78" s="23" t="n">
+      <c r="D78" s="25" t="n">
         <v>1090</v>
       </c>
-      <c r="E78" s="23" t="n">
+      <c r="E78" s="25" t="n">
         <v>1380</v>
       </c>
-      <c r="F78" s="23" t="n">
+      <c r="F78" s="25" t="n">
         <v>1370</v>
       </c>
-      <c r="G78" s="23" t="n">
+      <c r="G78" s="25" t="n">
         <v>1540</v>
       </c>
-      <c r="H78" s="23" t="n">
+      <c r="H78" s="25" t="n">
         <v>1830</v>
       </c>
     </row>
@@ -10386,22 +10404,22 @@
       <c r="B79" t="n">
         <v>2</v>
       </c>
-      <c r="C79" s="23" t="n">
+      <c r="C79" s="25" t="n">
         <v>940</v>
       </c>
-      <c r="D79" s="23" t="n">
+      <c r="D79" s="25" t="n">
         <v>1190</v>
       </c>
-      <c r="E79" s="23" t="n">
+      <c r="E79" s="25" t="n">
         <v>1580</v>
       </c>
-      <c r="F79" s="23" t="n">
+      <c r="F79" s="25" t="n">
         <v>1390</v>
       </c>
-      <c r="G79" s="23" t="n">
+      <c r="G79" s="25" t="n">
         <v>1740</v>
       </c>
-      <c r="H79" s="23" t="n">
+      <c r="H79" s="25" t="n">
         <v>2230</v>
       </c>
     </row>
@@ -10414,22 +10432,22 @@
       <c r="B80" t="n">
         <v>1</v>
       </c>
-      <c r="C80" s="23" t="n">
+      <c r="C80" s="25" t="n">
         <v>980</v>
       </c>
-      <c r="D80" s="23" t="n">
+      <c r="D80" s="25" t="n">
         <v>1210</v>
       </c>
-      <c r="E80" s="23" t="n">
+      <c r="E80" s="25" t="n">
         <v>1620</v>
       </c>
-      <c r="F80" s="23" t="n">
+      <c r="F80" s="25" t="n">
         <v>1430</v>
       </c>
-      <c r="G80" s="23" t="n">
+      <c r="G80" s="25" t="n">
         <v>1660</v>
       </c>
-      <c r="H80" s="23" t="n">
+      <c r="H80" s="25" t="n">
         <v>2070</v>
       </c>
     </row>
@@ -10437,22 +10455,22 @@
       <c r="B81" t="n">
         <v>2</v>
       </c>
-      <c r="C81" s="23" t="n">
+      <c r="C81" s="25" t="n">
         <v>1010</v>
       </c>
-      <c r="D81" s="23" t="n">
+      <c r="D81" s="25" t="n">
         <v>1310</v>
       </c>
-      <c r="E81" s="23" t="n">
+      <c r="E81" s="25" t="n">
         <v>1820</v>
       </c>
-      <c r="F81" s="23" t="n">
+      <c r="F81" s="25" t="n">
         <v>1460</v>
       </c>
-      <c r="G81" s="23" t="n">
+      <c r="G81" s="25" t="n">
         <v>1860</v>
       </c>
-      <c r="H81" s="23" t="n">
+      <c r="H81" s="25" t="n">
         <v>2470</v>
       </c>
     </row>
@@ -10465,22 +10483,22 @@
       <c r="B82" t="n">
         <v>1</v>
       </c>
-      <c r="C82" s="23" t="n">
+      <c r="C82" s="25" t="n">
         <v>990</v>
       </c>
-      <c r="D82" s="23" t="n">
+      <c r="D82" s="25" t="n">
         <v>1230</v>
       </c>
-      <c r="E82" s="23" t="n">
+      <c r="E82" s="25" t="n">
         <v>1660</v>
       </c>
-      <c r="F82" s="23" t="n">
+      <c r="F82" s="25" t="n">
         <v>1440</v>
       </c>
-      <c r="G82" s="23" t="n">
+      <c r="G82" s="25" t="n">
         <v>1680</v>
       </c>
-      <c r="H82" s="23" t="n">
+      <c r="H82" s="25" t="n">
         <v>2110</v>
       </c>
     </row>
@@ -10488,22 +10506,22 @@
       <c r="B83" t="n">
         <v>2</v>
       </c>
-      <c r="C83" s="23" t="n">
+      <c r="C83" s="25" t="n">
         <v>1020</v>
       </c>
-      <c r="D83" s="23" t="n">
+      <c r="D83" s="25" t="n">
         <v>1330</v>
       </c>
-      <c r="E83" s="23" t="n">
+      <c r="E83" s="25" t="n">
         <v>1860</v>
       </c>
-      <c r="F83" s="23" t="n">
+      <c r="F83" s="25" t="n">
         <v>1470</v>
       </c>
-      <c r="G83" s="23" t="n">
+      <c r="G83" s="25" t="n">
         <v>1880</v>
       </c>
-      <c r="H83" s="23" t="n">
+      <c r="H83" s="25" t="n">
         <v>2510</v>
       </c>
     </row>
@@ -10516,22 +10534,22 @@
       <c r="B84" t="n">
         <v>1</v>
       </c>
-      <c r="C84" s="23" t="n">
+      <c r="C84" s="25" t="n">
         <v>1440</v>
       </c>
-      <c r="D84" s="23" t="n">
+      <c r="D84" s="25" t="n">
         <v>1630</v>
       </c>
-      <c r="E84" s="23" t="n">
+      <c r="E84" s="25" t="n">
         <v>1960</v>
       </c>
-      <c r="F84" s="23" t="n">
+      <c r="F84" s="25" t="n">
         <v>2140</v>
       </c>
-      <c r="G84" s="23" t="n">
+      <c r="G84" s="25" t="n">
         <v>2330</v>
       </c>
-      <c r="H84" s="23" t="n">
+      <c r="H84" s="25" t="n">
         <v>2660</v>
       </c>
     </row>
@@ -10544,22 +10562,22 @@
       <c r="B85" t="n">
         <v>1</v>
       </c>
-      <c r="C85" s="23" t="n">
+      <c r="C85" s="25" t="n">
         <v>1510</v>
       </c>
-      <c r="D85" s="23" t="n">
+      <c r="D85" s="25" t="n">
         <v>1770</v>
       </c>
-      <c r="E85" s="23" t="n">
+      <c r="E85" s="25" t="n">
         <v>2240</v>
       </c>
-      <c r="F85" s="23" t="n">
+      <c r="F85" s="25" t="n">
         <v>2210</v>
       </c>
-      <c r="G85" s="23" t="n">
+      <c r="G85" s="25" t="n">
         <v>2470</v>
       </c>
-      <c r="H85" s="23" t="n">
+      <c r="H85" s="25" t="n">
         <v>2940</v>
       </c>
     </row>
@@ -10572,22 +10590,22 @@
       <c r="B86" t="n">
         <v>1</v>
       </c>
-      <c r="C86" s="23" t="n">
+      <c r="C86" s="25" t="n">
         <v>1520</v>
       </c>
-      <c r="D86" s="23" t="n">
+      <c r="D86" s="25" t="n">
         <v>1790</v>
       </c>
-      <c r="E86" s="23" t="n">
+      <c r="E86" s="25" t="n">
         <v>2280</v>
       </c>
-      <c r="F86" s="23" t="n">
+      <c r="F86" s="25" t="n">
         <v>2220</v>
       </c>
-      <c r="G86" s="23" t="n">
+      <c r="G86" s="25" t="n">
         <v>2490</v>
       </c>
-      <c r="H86" s="23" t="n">
+      <c r="H86" s="25" t="n">
         <v>2980</v>
       </c>
     </row>

--- a/mitchell8x3.xlsx
+++ b/mitchell8x3.xlsx
@@ -510,7 +510,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>For public domain. No rights reserved. Generated on Feb 08, 2026.</t>
+          <t>For public domain. No rights reserved. Generated on Feb 10, 2026.</t>
         </is>
       </c>
     </row>
@@ -604,12 +604,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Name 12</t>
+          <t>Name 14</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Name 51</t>
+          <t>Name 57</t>
         </is>
       </c>
       <c r="D10" s="4">
@@ -627,12 +627,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Name 86</t>
+          <t>Name 21</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Name 63</t>
+          <t>Name 16</t>
         </is>
       </c>
       <c r="D11" s="4">
@@ -650,12 +650,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Name 86</t>
+          <t>Name 32</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Name 31</t>
+          <t>Name 37</t>
         </is>
       </c>
     </row>
@@ -665,12 +665,12 @@
       </c>
       <c r="B13" s="9" t="inlineStr">
         <is>
-          <t>Name 78</t>
+          <t>Name 51</t>
         </is>
       </c>
       <c r="C13" s="9" t="inlineStr">
         <is>
-          <t>Name 65</t>
+          <t>Name 74</t>
         </is>
       </c>
       <c r="D13" s="9" t="n"/>
@@ -723,12 +723,12 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Name 72</t>
+          <t>Name 29</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Name 43</t>
+          <t>Name 76</t>
         </is>
       </c>
       <c r="D17" s="4">
@@ -746,12 +746,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Name 40</t>
+          <t>Name 33</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Name 20</t>
+          <t>Name 57</t>
         </is>
       </c>
       <c r="D18" s="4">
@@ -769,12 +769,12 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Name 47</t>
+          <t>Name 63</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Name 11</t>
+          <t>Name 71</t>
         </is>
       </c>
     </row>
@@ -784,12 +784,12 @@
       </c>
       <c r="B20" s="9" t="inlineStr">
         <is>
-          <t>Name 46</t>
+          <t>Name 35</t>
         </is>
       </c>
       <c r="C20" s="9" t="inlineStr">
         <is>
-          <t>Name 84</t>
+          <t>Name 11</t>
         </is>
       </c>
       <c r="D20" s="9" t="n"/>

--- a/mitchell8x3.xlsx
+++ b/mitchell8x3.xlsx
@@ -94,14 +94,14 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
@@ -510,7 +510,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>For public domain. No rights reserved. Generated on Feb 10, 2026.</t>
+          <t>For public domain. No rights reserved. Generated on Feb 11, 2026.</t>
         </is>
       </c>
     </row>
@@ -573,28 +573,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8">
-      <c r="D8" s="4">
-        <f>SUMIF('By Board'!D3:D51,"="&amp;A8,'By Board'!N3:N51)/12</f>
-        <v/>
-      </c>
-      <c r="E8" s="5">
-        <f>SUMIF('By Board'!D3:D51,"="&amp;A8,'By Board'!L3:L51)</f>
-        <v/>
-      </c>
-    </row>
     <row r="9">
       <c r="A9" s="2" t="inlineStr">
         <is>
           <t>NS Pairs</t>
         </is>
       </c>
-      <c r="D9" s="6">
-        <f>SUMIF('By Board'!D3:D51,"="&amp;A9,'By Board'!N3:N51)/12</f>
-        <v/>
-      </c>
-      <c r="E9" s="7">
-        <f>SUMIF('By Board'!D3:D51,"="&amp;A9,'By Board'!L3:L51)</f>
+      <c r="D9" s="4">
+        <f>SUMIF('By Board'!D3:D50,"="&amp;A9,'By Board'!N3:N50)/12</f>
+        <v/>
+      </c>
+      <c r="E9" s="5">
+        <f>SUMIF('By Board'!D3:D50,"="&amp;A9,'By Board'!L3:L50)</f>
         <v/>
       </c>
     </row>
@@ -604,20 +594,20 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Name 14</t>
+          <t>Name 85</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Name 57</t>
-        </is>
-      </c>
-      <c r="D10" s="4">
-        <f>SUMIF('By Board'!D3:D51,"="&amp;A10,'By Board'!N3:N51)/12</f>
-        <v/>
-      </c>
-      <c r="E10" s="5">
-        <f>SUMIF('By Board'!D3:D51,"="&amp;A10,'By Board'!L3:L51)</f>
+          <t>Name 40</t>
+        </is>
+      </c>
+      <c r="D10" s="6">
+        <f>SUMIF('By Board'!D3:D50,"="&amp;A10,'By Board'!N3:N50)/12</f>
+        <v/>
+      </c>
+      <c r="E10" s="7">
+        <f>SUMIF('By Board'!D3:D50,"="&amp;A10,'By Board'!L3:L50)</f>
         <v/>
       </c>
     </row>
@@ -627,20 +617,20 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Name 21</t>
+          <t>Name 23</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Name 16</t>
-        </is>
-      </c>
-      <c r="D11" s="4">
-        <f>SUMIF('By Board'!D3:D51,"="&amp;A11,'By Board'!N3:N51)/12</f>
-        <v/>
-      </c>
-      <c r="E11" s="5">
-        <f>SUMIF('By Board'!D3:D51,"="&amp;A11,'By Board'!L3:L51)</f>
+          <t>Name 87</t>
+        </is>
+      </c>
+      <c r="D11" s="6">
+        <f>SUMIF('By Board'!D3:D50,"="&amp;A11,'By Board'!N3:N50)/12</f>
+        <v/>
+      </c>
+      <c r="E11" s="7">
+        <f>SUMIF('By Board'!D3:D50,"="&amp;A11,'By Board'!L3:L50)</f>
         <v/>
       </c>
     </row>
@@ -650,13 +640,21 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Name 32</t>
+          <t>Name 33</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Name 37</t>
-        </is>
+          <t>Name 12</t>
+        </is>
+      </c>
+      <c r="D12" s="6">
+        <f>SUMIF('By Board'!D3:D50,"="&amp;A12,'By Board'!N3:N50)/12</f>
+        <v/>
+      </c>
+      <c r="E12" s="7">
+        <f>SUMIF('By Board'!D3:D50,"="&amp;A12,'By Board'!L3:L50)</f>
+        <v/>
       </c>
     </row>
     <row r="13">
@@ -665,12 +663,12 @@
       </c>
       <c r="B13" s="9" t="inlineStr">
         <is>
-          <t>Name 51</t>
+          <t>Name 11</t>
         </is>
       </c>
       <c r="C13" s="9" t="inlineStr">
         <is>
-          <t>Name 74</t>
+          <t>Name 37</t>
         </is>
       </c>
       <c r="D13" s="9" t="n"/>
@@ -692,28 +690,18 @@
         <v/>
       </c>
     </row>
-    <row r="15">
-      <c r="D15" s="4">
-        <f>SUMIF('By Board'!E3:E51,"="&amp;A15,'By Board'!O3:O51)/12</f>
-        <v/>
-      </c>
-      <c r="E15" s="5">
-        <f>SUMIF('By Board'!E3:E51,"="&amp;A15,'By Board'!M3:M51)</f>
-        <v/>
-      </c>
-    </row>
     <row r="16">
       <c r="A16" s="2" t="inlineStr">
         <is>
           <t>EW Pairs</t>
         </is>
       </c>
-      <c r="D16" s="6">
-        <f>SUMIF('By Board'!E3:E51,"="&amp;A16,'By Board'!O3:O51)/12</f>
-        <v/>
-      </c>
-      <c r="E16" s="7">
-        <f>SUMIF('By Board'!E3:E51,"="&amp;A16,'By Board'!M3:M51)</f>
+      <c r="D16" s="4">
+        <f>SUMIF('By Board'!E3:E50,"="&amp;A16,'By Board'!O3:O50)/12</f>
+        <v/>
+      </c>
+      <c r="E16" s="5">
+        <f>SUMIF('By Board'!E3:E50,"="&amp;A16,'By Board'!M3:M50)</f>
         <v/>
       </c>
     </row>
@@ -723,20 +711,20 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Name 29</t>
+          <t>Name 49</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Name 76</t>
-        </is>
-      </c>
-      <c r="D17" s="4">
-        <f>SUMIF('By Board'!E3:E51,"="&amp;A17,'By Board'!O3:O51)/12</f>
-        <v/>
-      </c>
-      <c r="E17" s="5">
-        <f>SUMIF('By Board'!E3:E51,"="&amp;A17,'By Board'!M3:M51)</f>
+          <t>Name 90</t>
+        </is>
+      </c>
+      <c r="D17" s="6">
+        <f>SUMIF('By Board'!E3:E50,"="&amp;A17,'By Board'!O3:O50)/12</f>
+        <v/>
+      </c>
+      <c r="E17" s="7">
+        <f>SUMIF('By Board'!E3:E50,"="&amp;A17,'By Board'!M3:M50)</f>
         <v/>
       </c>
     </row>
@@ -746,20 +734,20 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Name 33</t>
+          <t>Name 20</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Name 57</t>
-        </is>
-      </c>
-      <c r="D18" s="4">
-        <f>SUMIF('By Board'!E3:E51,"="&amp;A18,'By Board'!O3:O51)/12</f>
-        <v/>
-      </c>
-      <c r="E18" s="5">
-        <f>SUMIF('By Board'!E3:E51,"="&amp;A18,'By Board'!M3:M51)</f>
+          <t>Name 77</t>
+        </is>
+      </c>
+      <c r="D18" s="6">
+        <f>SUMIF('By Board'!E3:E50,"="&amp;A18,'By Board'!O3:O50)/12</f>
+        <v/>
+      </c>
+      <c r="E18" s="7">
+        <f>SUMIF('By Board'!E3:E50,"="&amp;A18,'By Board'!M3:M50)</f>
         <v/>
       </c>
     </row>
@@ -769,13 +757,21 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Name 63</t>
+          <t>Name 66</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Name 71</t>
-        </is>
+          <t>Name 81</t>
+        </is>
+      </c>
+      <c r="D19" s="6">
+        <f>SUMIF('By Board'!E3:E50,"="&amp;A19,'By Board'!O3:O50)/12</f>
+        <v/>
+      </c>
+      <c r="E19" s="7">
+        <f>SUMIF('By Board'!E3:E50,"="&amp;A19,'By Board'!M3:M50)</f>
+        <v/>
       </c>
     </row>
     <row r="20">
@@ -784,12 +780,12 @@
       </c>
       <c r="B20" s="9" t="inlineStr">
         <is>
-          <t>Name 35</t>
+          <t>Name 82</t>
         </is>
       </c>
       <c r="C20" s="9" t="inlineStr">
         <is>
-          <t>Name 11</t>
+          <t>Name 73</t>
         </is>
       </c>
       <c r="D20" s="9" t="n"/>
@@ -1042,18 +1038,18 @@
         <v/>
       </c>
       <c r="L3" s="16">
-        <f>SUM(Z3:AB3)</f>
-        <v/>
-      </c>
-      <c r="M3" s="5">
-        <f>SUM(AC3:AE3)</f>
-        <v/>
-      </c>
-      <c r="N3" s="4">
+        <f>AVERAGE(Z3:AB3)</f>
+        <v/>
+      </c>
+      <c r="M3" s="7">
+        <f>AVERAGE(AC3:AE3)</f>
+        <v/>
+      </c>
+      <c r="N3" s="6">
         <f>IF(COUNT(T3:V3)&gt;0,P3/COUNT(T3:V3),0.5)</f>
         <v/>
       </c>
-      <c r="O3" s="4">
+      <c r="O3" s="6">
         <f>IF(COUNT(W3:Y3)&gt;0,Q3/COUNT(W3:Y3),0.5)</f>
         <v/>
       </c>
@@ -1164,18 +1160,18 @@
         <v/>
       </c>
       <c r="L4" s="16">
-        <f>SUM(Z4:AB4)</f>
-        <v/>
-      </c>
-      <c r="M4" s="5">
-        <f>SUM(AC4:AE4)</f>
-        <v/>
-      </c>
-      <c r="N4" s="4">
+        <f>AVERAGE(Z4:AB4)</f>
+        <v/>
+      </c>
+      <c r="M4" s="7">
+        <f>AVERAGE(AC4:AE4)</f>
+        <v/>
+      </c>
+      <c r="N4" s="6">
         <f>IF(COUNT(T4:V4)&gt;0,P4/COUNT(T4:V4),0.5)</f>
         <v/>
       </c>
-      <c r="O4" s="4">
+      <c r="O4" s="6">
         <f>IF(COUNT(W4:Y4)&gt;0,Q4/COUNT(W4:Y4),0.5)</f>
         <v/>
       </c>
@@ -1286,18 +1282,18 @@
         <v/>
       </c>
       <c r="L5" s="16">
-        <f>SUM(Z5:AB5)</f>
-        <v/>
-      </c>
-      <c r="M5" s="5">
-        <f>SUM(AC5:AE5)</f>
-        <v/>
-      </c>
-      <c r="N5" s="4">
+        <f>AVERAGE(Z5:AB5)</f>
+        <v/>
+      </c>
+      <c r="M5" s="7">
+        <f>AVERAGE(AC5:AE5)</f>
+        <v/>
+      </c>
+      <c r="N5" s="6">
         <f>IF(COUNT(T5:V5)&gt;0,P5/COUNT(T5:V5),0.5)</f>
         <v/>
       </c>
-      <c r="O5" s="4">
+      <c r="O5" s="6">
         <f>IF(COUNT(W5:Y5)&gt;0,Q5/COUNT(W5:Y5),0.5)</f>
         <v/>
       </c>
@@ -1409,11 +1405,11 @@
         <v/>
       </c>
       <c r="L6" s="20">
-        <f>SUM(Z6:AB6)</f>
+        <f>AVERAGE(Z6:AB6)</f>
         <v/>
       </c>
       <c r="M6" s="21">
-        <f>SUM(AC6:AE6)</f>
+        <f>AVERAGE(AC6:AE6)</f>
         <v/>
       </c>
       <c r="N6" s="22">
@@ -1534,18 +1530,18 @@
         <v/>
       </c>
       <c r="L7" s="16">
-        <f>SUM(Z7:AB7)</f>
-        <v/>
-      </c>
-      <c r="M7" s="5">
-        <f>SUM(AC7:AE7)</f>
-        <v/>
-      </c>
-      <c r="N7" s="4">
+        <f>AVERAGE(Z7:AB7)</f>
+        <v/>
+      </c>
+      <c r="M7" s="7">
+        <f>AVERAGE(AC7:AE7)</f>
+        <v/>
+      </c>
+      <c r="N7" s="6">
         <f>IF(COUNT(T7:V7)&gt;0,P7/COUNT(T7:V7),0.5)</f>
         <v/>
       </c>
-      <c r="O7" s="4">
+      <c r="O7" s="6">
         <f>IF(COUNT(W7:Y7)&gt;0,Q7/COUNT(W7:Y7),0.5)</f>
         <v/>
       </c>
@@ -1656,18 +1652,18 @@
         <v/>
       </c>
       <c r="L8" s="16">
-        <f>SUM(Z8:AB8)</f>
-        <v/>
-      </c>
-      <c r="M8" s="5">
-        <f>SUM(AC8:AE8)</f>
-        <v/>
-      </c>
-      <c r="N8" s="4">
+        <f>AVERAGE(Z8:AB8)</f>
+        <v/>
+      </c>
+      <c r="M8" s="7">
+        <f>AVERAGE(AC8:AE8)</f>
+        <v/>
+      </c>
+      <c r="N8" s="6">
         <f>IF(COUNT(T8:V8)&gt;0,P8/COUNT(T8:V8),0.5)</f>
         <v/>
       </c>
-      <c r="O8" s="4">
+      <c r="O8" s="6">
         <f>IF(COUNT(W8:Y8)&gt;0,Q8/COUNT(W8:Y8),0.5)</f>
         <v/>
       </c>
@@ -1778,18 +1774,18 @@
         <v/>
       </c>
       <c r="L9" s="16">
-        <f>SUM(Z9:AB9)</f>
-        <v/>
-      </c>
-      <c r="M9" s="5">
-        <f>SUM(AC9:AE9)</f>
-        <v/>
-      </c>
-      <c r="N9" s="4">
+        <f>AVERAGE(Z9:AB9)</f>
+        <v/>
+      </c>
+      <c r="M9" s="7">
+        <f>AVERAGE(AC9:AE9)</f>
+        <v/>
+      </c>
+      <c r="N9" s="6">
         <f>IF(COUNT(T9:V9)&gt;0,P9/COUNT(T9:V9),0.5)</f>
         <v/>
       </c>
-      <c r="O9" s="4">
+      <c r="O9" s="6">
         <f>IF(COUNT(W9:Y9)&gt;0,Q9/COUNT(W9:Y9),0.5)</f>
         <v/>
       </c>
@@ -1901,11 +1897,11 @@
         <v/>
       </c>
       <c r="L10" s="20">
-        <f>SUM(Z10:AB10)</f>
+        <f>AVERAGE(Z10:AB10)</f>
         <v/>
       </c>
       <c r="M10" s="21">
-        <f>SUM(AC10:AE10)</f>
+        <f>AVERAGE(AC10:AE10)</f>
         <v/>
       </c>
       <c r="N10" s="22">
@@ -2026,18 +2022,18 @@
         <v/>
       </c>
       <c r="L11" s="16">
-        <f>SUM(Z11:AB11)</f>
-        <v/>
-      </c>
-      <c r="M11" s="5">
-        <f>SUM(AC11:AE11)</f>
-        <v/>
-      </c>
-      <c r="N11" s="4">
+        <f>AVERAGE(Z11:AB11)</f>
+        <v/>
+      </c>
+      <c r="M11" s="7">
+        <f>AVERAGE(AC11:AE11)</f>
+        <v/>
+      </c>
+      <c r="N11" s="6">
         <f>IF(COUNT(T11:V11)&gt;0,P11/COUNT(T11:V11),0.5)</f>
         <v/>
       </c>
-      <c r="O11" s="4">
+      <c r="O11" s="6">
         <f>IF(COUNT(W11:Y11)&gt;0,Q11/COUNT(W11:Y11),0.5)</f>
         <v/>
       </c>
@@ -2148,18 +2144,18 @@
         <v/>
       </c>
       <c r="L12" s="16">
-        <f>SUM(Z12:AB12)</f>
-        <v/>
-      </c>
-      <c r="M12" s="5">
-        <f>SUM(AC12:AE12)</f>
-        <v/>
-      </c>
-      <c r="N12" s="4">
+        <f>AVERAGE(Z12:AB12)</f>
+        <v/>
+      </c>
+      <c r="M12" s="7">
+        <f>AVERAGE(AC12:AE12)</f>
+        <v/>
+      </c>
+      <c r="N12" s="6">
         <f>IF(COUNT(T12:V12)&gt;0,P12/COUNT(T12:V12),0.5)</f>
         <v/>
       </c>
-      <c r="O12" s="4">
+      <c r="O12" s="6">
         <f>IF(COUNT(W12:Y12)&gt;0,Q12/COUNT(W12:Y12),0.5)</f>
         <v/>
       </c>
@@ -2270,18 +2266,18 @@
         <v/>
       </c>
       <c r="L13" s="16">
-        <f>SUM(Z13:AB13)</f>
-        <v/>
-      </c>
-      <c r="M13" s="5">
-        <f>SUM(AC13:AE13)</f>
-        <v/>
-      </c>
-      <c r="N13" s="4">
+        <f>AVERAGE(Z13:AB13)</f>
+        <v/>
+      </c>
+      <c r="M13" s="7">
+        <f>AVERAGE(AC13:AE13)</f>
+        <v/>
+      </c>
+      <c r="N13" s="6">
         <f>IF(COUNT(T13:V13)&gt;0,P13/COUNT(T13:V13),0.5)</f>
         <v/>
       </c>
-      <c r="O13" s="4">
+      <c r="O13" s="6">
         <f>IF(COUNT(W13:Y13)&gt;0,Q13/COUNT(W13:Y13),0.5)</f>
         <v/>
       </c>
@@ -2393,11 +2389,11 @@
         <v/>
       </c>
       <c r="L14" s="20">
-        <f>SUM(Z14:AB14)</f>
+        <f>AVERAGE(Z14:AB14)</f>
         <v/>
       </c>
       <c r="M14" s="21">
-        <f>SUM(AC14:AE14)</f>
+        <f>AVERAGE(AC14:AE14)</f>
         <v/>
       </c>
       <c r="N14" s="22">
@@ -2518,18 +2514,18 @@
         <v/>
       </c>
       <c r="L15" s="16">
-        <f>SUM(Z15:AB15)</f>
-        <v/>
-      </c>
-      <c r="M15" s="5">
-        <f>SUM(AC15:AE15)</f>
-        <v/>
-      </c>
-      <c r="N15" s="4">
+        <f>AVERAGE(Z15:AB15)</f>
+        <v/>
+      </c>
+      <c r="M15" s="7">
+        <f>AVERAGE(AC15:AE15)</f>
+        <v/>
+      </c>
+      <c r="N15" s="6">
         <f>IF(COUNT(T15:V15)&gt;0,P15/COUNT(T15:V15),0.5)</f>
         <v/>
       </c>
-      <c r="O15" s="4">
+      <c r="O15" s="6">
         <f>IF(COUNT(W15:Y15)&gt;0,Q15/COUNT(W15:Y15),0.5)</f>
         <v/>
       </c>
@@ -2640,18 +2636,18 @@
         <v/>
       </c>
       <c r="L16" s="16">
-        <f>SUM(Z16:AB16)</f>
-        <v/>
-      </c>
-      <c r="M16" s="5">
-        <f>SUM(AC16:AE16)</f>
-        <v/>
-      </c>
-      <c r="N16" s="4">
+        <f>AVERAGE(Z16:AB16)</f>
+        <v/>
+      </c>
+      <c r="M16" s="7">
+        <f>AVERAGE(AC16:AE16)</f>
+        <v/>
+      </c>
+      <c r="N16" s="6">
         <f>IF(COUNT(T16:V16)&gt;0,P16/COUNT(T16:V16),0.5)</f>
         <v/>
       </c>
-      <c r="O16" s="4">
+      <c r="O16" s="6">
         <f>IF(COUNT(W16:Y16)&gt;0,Q16/COUNT(W16:Y16),0.5)</f>
         <v/>
       </c>
@@ -2762,18 +2758,18 @@
         <v/>
       </c>
       <c r="L17" s="16">
-        <f>SUM(Z17:AB17)</f>
-        <v/>
-      </c>
-      <c r="M17" s="5">
-        <f>SUM(AC17:AE17)</f>
-        <v/>
-      </c>
-      <c r="N17" s="4">
+        <f>AVERAGE(Z17:AB17)</f>
+        <v/>
+      </c>
+      <c r="M17" s="7">
+        <f>AVERAGE(AC17:AE17)</f>
+        <v/>
+      </c>
+      <c r="N17" s="6">
         <f>IF(COUNT(T17:V17)&gt;0,P17/COUNT(T17:V17),0.5)</f>
         <v/>
       </c>
-      <c r="O17" s="4">
+      <c r="O17" s="6">
         <f>IF(COUNT(W17:Y17)&gt;0,Q17/COUNT(W17:Y17),0.5)</f>
         <v/>
       </c>
@@ -2885,11 +2881,11 @@
         <v/>
       </c>
       <c r="L18" s="20">
-        <f>SUM(Z18:AB18)</f>
+        <f>AVERAGE(Z18:AB18)</f>
         <v/>
       </c>
       <c r="M18" s="21">
-        <f>SUM(AC18:AE18)</f>
+        <f>AVERAGE(AC18:AE18)</f>
         <v/>
       </c>
       <c r="N18" s="22">
@@ -3010,18 +3006,18 @@
         <v/>
       </c>
       <c r="L19" s="16">
-        <f>SUM(Z19:AB19)</f>
-        <v/>
-      </c>
-      <c r="M19" s="5">
-        <f>SUM(AC19:AE19)</f>
-        <v/>
-      </c>
-      <c r="N19" s="4">
+        <f>AVERAGE(Z19:AB19)</f>
+        <v/>
+      </c>
+      <c r="M19" s="7">
+        <f>AVERAGE(AC19:AE19)</f>
+        <v/>
+      </c>
+      <c r="N19" s="6">
         <f>IF(COUNT(T19:V19)&gt;0,P19/COUNT(T19:V19),0.5)</f>
         <v/>
       </c>
-      <c r="O19" s="4">
+      <c r="O19" s="6">
         <f>IF(COUNT(W19:Y19)&gt;0,Q19/COUNT(W19:Y19),0.5)</f>
         <v/>
       </c>
@@ -3132,18 +3128,18 @@
         <v/>
       </c>
       <c r="L20" s="16">
-        <f>SUM(Z20:AB20)</f>
-        <v/>
-      </c>
-      <c r="M20" s="5">
-        <f>SUM(AC20:AE20)</f>
-        <v/>
-      </c>
-      <c r="N20" s="4">
+        <f>AVERAGE(Z20:AB20)</f>
+        <v/>
+      </c>
+      <c r="M20" s="7">
+        <f>AVERAGE(AC20:AE20)</f>
+        <v/>
+      </c>
+      <c r="N20" s="6">
         <f>IF(COUNT(T20:V20)&gt;0,P20/COUNT(T20:V20),0.5)</f>
         <v/>
       </c>
-      <c r="O20" s="4">
+      <c r="O20" s="6">
         <f>IF(COUNT(W20:Y20)&gt;0,Q20/COUNT(W20:Y20),0.5)</f>
         <v/>
       </c>
@@ -3254,18 +3250,18 @@
         <v/>
       </c>
       <c r="L21" s="16">
-        <f>SUM(Z21:AB21)</f>
-        <v/>
-      </c>
-      <c r="M21" s="5">
-        <f>SUM(AC21:AE21)</f>
-        <v/>
-      </c>
-      <c r="N21" s="4">
+        <f>AVERAGE(Z21:AB21)</f>
+        <v/>
+      </c>
+      <c r="M21" s="7">
+        <f>AVERAGE(AC21:AE21)</f>
+        <v/>
+      </c>
+      <c r="N21" s="6">
         <f>IF(COUNT(T21:V21)&gt;0,P21/COUNT(T21:V21),0.5)</f>
         <v/>
       </c>
-      <c r="O21" s="4">
+      <c r="O21" s="6">
         <f>IF(COUNT(W21:Y21)&gt;0,Q21/COUNT(W21:Y21),0.5)</f>
         <v/>
       </c>
@@ -3377,11 +3373,11 @@
         <v/>
       </c>
       <c r="L22" s="20">
-        <f>SUM(Z22:AB22)</f>
+        <f>AVERAGE(Z22:AB22)</f>
         <v/>
       </c>
       <c r="M22" s="21">
-        <f>SUM(AC22:AE22)</f>
+        <f>AVERAGE(AC22:AE22)</f>
         <v/>
       </c>
       <c r="N22" s="22">
@@ -3502,18 +3498,18 @@
         <v/>
       </c>
       <c r="L23" s="16">
-        <f>SUM(Z23:AB23)</f>
-        <v/>
-      </c>
-      <c r="M23" s="5">
-        <f>SUM(AC23:AE23)</f>
-        <v/>
-      </c>
-      <c r="N23" s="4">
+        <f>AVERAGE(Z23:AB23)</f>
+        <v/>
+      </c>
+      <c r="M23" s="7">
+        <f>AVERAGE(AC23:AE23)</f>
+        <v/>
+      </c>
+      <c r="N23" s="6">
         <f>IF(COUNT(T23:V23)&gt;0,P23/COUNT(T23:V23),0.5)</f>
         <v/>
       </c>
-      <c r="O23" s="4">
+      <c r="O23" s="6">
         <f>IF(COUNT(W23:Y23)&gt;0,Q23/COUNT(W23:Y23),0.5)</f>
         <v/>
       </c>
@@ -3624,18 +3620,18 @@
         <v/>
       </c>
       <c r="L24" s="16">
-        <f>SUM(Z24:AB24)</f>
-        <v/>
-      </c>
-      <c r="M24" s="5">
-        <f>SUM(AC24:AE24)</f>
-        <v/>
-      </c>
-      <c r="N24" s="4">
+        <f>AVERAGE(Z24:AB24)</f>
+        <v/>
+      </c>
+      <c r="M24" s="7">
+        <f>AVERAGE(AC24:AE24)</f>
+        <v/>
+      </c>
+      <c r="N24" s="6">
         <f>IF(COUNT(T24:V24)&gt;0,P24/COUNT(T24:V24),0.5)</f>
         <v/>
       </c>
-      <c r="O24" s="4">
+      <c r="O24" s="6">
         <f>IF(COUNT(W24:Y24)&gt;0,Q24/COUNT(W24:Y24),0.5)</f>
         <v/>
       </c>
@@ -3746,18 +3742,18 @@
         <v/>
       </c>
       <c r="L25" s="16">
-        <f>SUM(Z25:AB25)</f>
-        <v/>
-      </c>
-      <c r="M25" s="5">
-        <f>SUM(AC25:AE25)</f>
-        <v/>
-      </c>
-      <c r="N25" s="4">
+        <f>AVERAGE(Z25:AB25)</f>
+        <v/>
+      </c>
+      <c r="M25" s="7">
+        <f>AVERAGE(AC25:AE25)</f>
+        <v/>
+      </c>
+      <c r="N25" s="6">
         <f>IF(COUNT(T25:V25)&gt;0,P25/COUNT(T25:V25),0.5)</f>
         <v/>
       </c>
-      <c r="O25" s="4">
+      <c r="O25" s="6">
         <f>IF(COUNT(W25:Y25)&gt;0,Q25/COUNT(W25:Y25),0.5)</f>
         <v/>
       </c>
@@ -3869,11 +3865,11 @@
         <v/>
       </c>
       <c r="L26" s="20">
-        <f>SUM(Z26:AB26)</f>
+        <f>AVERAGE(Z26:AB26)</f>
         <v/>
       </c>
       <c r="M26" s="21">
-        <f>SUM(AC26:AE26)</f>
+        <f>AVERAGE(AC26:AE26)</f>
         <v/>
       </c>
       <c r="N26" s="22">
@@ -3994,18 +3990,18 @@
         <v/>
       </c>
       <c r="L27" s="16">
-        <f>SUM(Z27:AB27)</f>
-        <v/>
-      </c>
-      <c r="M27" s="5">
-        <f>SUM(AC27:AE27)</f>
-        <v/>
-      </c>
-      <c r="N27" s="4">
+        <f>AVERAGE(Z27:AB27)</f>
+        <v/>
+      </c>
+      <c r="M27" s="7">
+        <f>AVERAGE(AC27:AE27)</f>
+        <v/>
+      </c>
+      <c r="N27" s="6">
         <f>IF(COUNT(T27:V27)&gt;0,P27/COUNT(T27:V27),0.5)</f>
         <v/>
       </c>
-      <c r="O27" s="4">
+      <c r="O27" s="6">
         <f>IF(COUNT(W27:Y27)&gt;0,Q27/COUNT(W27:Y27),0.5)</f>
         <v/>
       </c>
@@ -4116,18 +4112,18 @@
         <v/>
       </c>
       <c r="L28" s="16">
-        <f>SUM(Z28:AB28)</f>
-        <v/>
-      </c>
-      <c r="M28" s="5">
-        <f>SUM(AC28:AE28)</f>
-        <v/>
-      </c>
-      <c r="N28" s="4">
+        <f>AVERAGE(Z28:AB28)</f>
+        <v/>
+      </c>
+      <c r="M28" s="7">
+        <f>AVERAGE(AC28:AE28)</f>
+        <v/>
+      </c>
+      <c r="N28" s="6">
         <f>IF(COUNT(T28:V28)&gt;0,P28/COUNT(T28:V28),0.5)</f>
         <v/>
       </c>
-      <c r="O28" s="4">
+      <c r="O28" s="6">
         <f>IF(COUNT(W28:Y28)&gt;0,Q28/COUNT(W28:Y28),0.5)</f>
         <v/>
       </c>
@@ -4238,18 +4234,18 @@
         <v/>
       </c>
       <c r="L29" s="16">
-        <f>SUM(Z29:AB29)</f>
-        <v/>
-      </c>
-      <c r="M29" s="5">
-        <f>SUM(AC29:AE29)</f>
-        <v/>
-      </c>
-      <c r="N29" s="4">
+        <f>AVERAGE(Z29:AB29)</f>
+        <v/>
+      </c>
+      <c r="M29" s="7">
+        <f>AVERAGE(AC29:AE29)</f>
+        <v/>
+      </c>
+      <c r="N29" s="6">
         <f>IF(COUNT(T29:V29)&gt;0,P29/COUNT(T29:V29),0.5)</f>
         <v/>
       </c>
-      <c r="O29" s="4">
+      <c r="O29" s="6">
         <f>IF(COUNT(W29:Y29)&gt;0,Q29/COUNT(W29:Y29),0.5)</f>
         <v/>
       </c>
@@ -4361,11 +4357,11 @@
         <v/>
       </c>
       <c r="L30" s="20">
-        <f>SUM(Z30:AB30)</f>
+        <f>AVERAGE(Z30:AB30)</f>
         <v/>
       </c>
       <c r="M30" s="21">
-        <f>SUM(AC30:AE30)</f>
+        <f>AVERAGE(AC30:AE30)</f>
         <v/>
       </c>
       <c r="N30" s="22">
@@ -4486,18 +4482,18 @@
         <v/>
       </c>
       <c r="L31" s="16">
-        <f>SUM(Z31:AB31)</f>
-        <v/>
-      </c>
-      <c r="M31" s="5">
-        <f>SUM(AC31:AE31)</f>
-        <v/>
-      </c>
-      <c r="N31" s="4">
+        <f>AVERAGE(Z31:AB31)</f>
+        <v/>
+      </c>
+      <c r="M31" s="7">
+        <f>AVERAGE(AC31:AE31)</f>
+        <v/>
+      </c>
+      <c r="N31" s="6">
         <f>IF(COUNT(T31:V31)&gt;0,P31/COUNT(T31:V31),0.5)</f>
         <v/>
       </c>
-      <c r="O31" s="4">
+      <c r="O31" s="6">
         <f>IF(COUNT(W31:Y31)&gt;0,Q31/COUNT(W31:Y31),0.5)</f>
         <v/>
       </c>
@@ -4608,18 +4604,18 @@
         <v/>
       </c>
       <c r="L32" s="16">
-        <f>SUM(Z32:AB32)</f>
-        <v/>
-      </c>
-      <c r="M32" s="5">
-        <f>SUM(AC32:AE32)</f>
-        <v/>
-      </c>
-      <c r="N32" s="4">
+        <f>AVERAGE(Z32:AB32)</f>
+        <v/>
+      </c>
+      <c r="M32" s="7">
+        <f>AVERAGE(AC32:AE32)</f>
+        <v/>
+      </c>
+      <c r="N32" s="6">
         <f>IF(COUNT(T32:V32)&gt;0,P32/COUNT(T32:V32),0.5)</f>
         <v/>
       </c>
-      <c r="O32" s="4">
+      <c r="O32" s="6">
         <f>IF(COUNT(W32:Y32)&gt;0,Q32/COUNT(W32:Y32),0.5)</f>
         <v/>
       </c>
@@ -4730,18 +4726,18 @@
         <v/>
       </c>
       <c r="L33" s="16">
-        <f>SUM(Z33:AB33)</f>
-        <v/>
-      </c>
-      <c r="M33" s="5">
-        <f>SUM(AC33:AE33)</f>
-        <v/>
-      </c>
-      <c r="N33" s="4">
+        <f>AVERAGE(Z33:AB33)</f>
+        <v/>
+      </c>
+      <c r="M33" s="7">
+        <f>AVERAGE(AC33:AE33)</f>
+        <v/>
+      </c>
+      <c r="N33" s="6">
         <f>IF(COUNT(T33:V33)&gt;0,P33/COUNT(T33:V33),0.5)</f>
         <v/>
       </c>
-      <c r="O33" s="4">
+      <c r="O33" s="6">
         <f>IF(COUNT(W33:Y33)&gt;0,Q33/COUNT(W33:Y33),0.5)</f>
         <v/>
       </c>
@@ -4853,11 +4849,11 @@
         <v/>
       </c>
       <c r="L34" s="20">
-        <f>SUM(Z34:AB34)</f>
+        <f>AVERAGE(Z34:AB34)</f>
         <v/>
       </c>
       <c r="M34" s="21">
-        <f>SUM(AC34:AE34)</f>
+        <f>AVERAGE(AC34:AE34)</f>
         <v/>
       </c>
       <c r="N34" s="22">
@@ -4978,18 +4974,18 @@
         <v/>
       </c>
       <c r="L35" s="16">
-        <f>SUM(Z35:AB35)</f>
-        <v/>
-      </c>
-      <c r="M35" s="5">
-        <f>SUM(AC35:AE35)</f>
-        <v/>
-      </c>
-      <c r="N35" s="4">
+        <f>AVERAGE(Z35:AB35)</f>
+        <v/>
+      </c>
+      <c r="M35" s="7">
+        <f>AVERAGE(AC35:AE35)</f>
+        <v/>
+      </c>
+      <c r="N35" s="6">
         <f>IF(COUNT(T35:V35)&gt;0,P35/COUNT(T35:V35),0.5)</f>
         <v/>
       </c>
-      <c r="O35" s="4">
+      <c r="O35" s="6">
         <f>IF(COUNT(W35:Y35)&gt;0,Q35/COUNT(W35:Y35),0.5)</f>
         <v/>
       </c>
@@ -5100,18 +5096,18 @@
         <v/>
       </c>
       <c r="L36" s="16">
-        <f>SUM(Z36:AB36)</f>
-        <v/>
-      </c>
-      <c r="M36" s="5">
-        <f>SUM(AC36:AE36)</f>
-        <v/>
-      </c>
-      <c r="N36" s="4">
+        <f>AVERAGE(Z36:AB36)</f>
+        <v/>
+      </c>
+      <c r="M36" s="7">
+        <f>AVERAGE(AC36:AE36)</f>
+        <v/>
+      </c>
+      <c r="N36" s="6">
         <f>IF(COUNT(T36:V36)&gt;0,P36/COUNT(T36:V36),0.5)</f>
         <v/>
       </c>
-      <c r="O36" s="4">
+      <c r="O36" s="6">
         <f>IF(COUNT(W36:Y36)&gt;0,Q36/COUNT(W36:Y36),0.5)</f>
         <v/>
       </c>
@@ -5222,18 +5218,18 @@
         <v/>
       </c>
       <c r="L37" s="16">
-        <f>SUM(Z37:AB37)</f>
-        <v/>
-      </c>
-      <c r="M37" s="5">
-        <f>SUM(AC37:AE37)</f>
-        <v/>
-      </c>
-      <c r="N37" s="4">
+        <f>AVERAGE(Z37:AB37)</f>
+        <v/>
+      </c>
+      <c r="M37" s="7">
+        <f>AVERAGE(AC37:AE37)</f>
+        <v/>
+      </c>
+      <c r="N37" s="6">
         <f>IF(COUNT(T37:V37)&gt;0,P37/COUNT(T37:V37),0.5)</f>
         <v/>
       </c>
-      <c r="O37" s="4">
+      <c r="O37" s="6">
         <f>IF(COUNT(W37:Y37)&gt;0,Q37/COUNT(W37:Y37),0.5)</f>
         <v/>
       </c>
@@ -5345,11 +5341,11 @@
         <v/>
       </c>
       <c r="L38" s="20">
-        <f>SUM(Z38:AB38)</f>
+        <f>AVERAGE(Z38:AB38)</f>
         <v/>
       </c>
       <c r="M38" s="21">
-        <f>SUM(AC38:AE38)</f>
+        <f>AVERAGE(AC38:AE38)</f>
         <v/>
       </c>
       <c r="N38" s="22">
@@ -5470,18 +5466,18 @@
         <v/>
       </c>
       <c r="L39" s="16">
-        <f>SUM(Z39:AB39)</f>
-        <v/>
-      </c>
-      <c r="M39" s="5">
-        <f>SUM(AC39:AE39)</f>
-        <v/>
-      </c>
-      <c r="N39" s="4">
+        <f>AVERAGE(Z39:AB39)</f>
+        <v/>
+      </c>
+      <c r="M39" s="7">
+        <f>AVERAGE(AC39:AE39)</f>
+        <v/>
+      </c>
+      <c r="N39" s="6">
         <f>IF(COUNT(T39:V39)&gt;0,P39/COUNT(T39:V39),0.5)</f>
         <v/>
       </c>
-      <c r="O39" s="4">
+      <c r="O39" s="6">
         <f>IF(COUNT(W39:Y39)&gt;0,Q39/COUNT(W39:Y39),0.5)</f>
         <v/>
       </c>
@@ -5592,18 +5588,18 @@
         <v/>
       </c>
       <c r="L40" s="16">
-        <f>SUM(Z40:AB40)</f>
-        <v/>
-      </c>
-      <c r="M40" s="5">
-        <f>SUM(AC40:AE40)</f>
-        <v/>
-      </c>
-      <c r="N40" s="4">
+        <f>AVERAGE(Z40:AB40)</f>
+        <v/>
+      </c>
+      <c r="M40" s="7">
+        <f>AVERAGE(AC40:AE40)</f>
+        <v/>
+      </c>
+      <c r="N40" s="6">
         <f>IF(COUNT(T40:V40)&gt;0,P40/COUNT(T40:V40),0.5)</f>
         <v/>
       </c>
-      <c r="O40" s="4">
+      <c r="O40" s="6">
         <f>IF(COUNT(W40:Y40)&gt;0,Q40/COUNT(W40:Y40),0.5)</f>
         <v/>
       </c>
@@ -5714,18 +5710,18 @@
         <v/>
       </c>
       <c r="L41" s="16">
-        <f>SUM(Z41:AB41)</f>
-        <v/>
-      </c>
-      <c r="M41" s="5">
-        <f>SUM(AC41:AE41)</f>
-        <v/>
-      </c>
-      <c r="N41" s="4">
+        <f>AVERAGE(Z41:AB41)</f>
+        <v/>
+      </c>
+      <c r="M41" s="7">
+        <f>AVERAGE(AC41:AE41)</f>
+        <v/>
+      </c>
+      <c r="N41" s="6">
         <f>IF(COUNT(T41:V41)&gt;0,P41/COUNT(T41:V41),0.5)</f>
         <v/>
       </c>
-      <c r="O41" s="4">
+      <c r="O41" s="6">
         <f>IF(COUNT(W41:Y41)&gt;0,Q41/COUNT(W41:Y41),0.5)</f>
         <v/>
       </c>
@@ -5837,11 +5833,11 @@
         <v/>
       </c>
       <c r="L42" s="20">
-        <f>SUM(Z42:AB42)</f>
+        <f>AVERAGE(Z42:AB42)</f>
         <v/>
       </c>
       <c r="M42" s="21">
-        <f>SUM(AC42:AE42)</f>
+        <f>AVERAGE(AC42:AE42)</f>
         <v/>
       </c>
       <c r="N42" s="22">
@@ -5962,18 +5958,18 @@
         <v/>
       </c>
       <c r="L43" s="16">
-        <f>SUM(Z43:AB43)</f>
-        <v/>
-      </c>
-      <c r="M43" s="5">
-        <f>SUM(AC43:AE43)</f>
-        <v/>
-      </c>
-      <c r="N43" s="4">
+        <f>AVERAGE(Z43:AB43)</f>
+        <v/>
+      </c>
+      <c r="M43" s="7">
+        <f>AVERAGE(AC43:AE43)</f>
+        <v/>
+      </c>
+      <c r="N43" s="6">
         <f>IF(COUNT(T43:V43)&gt;0,P43/COUNT(T43:V43),0.5)</f>
         <v/>
       </c>
-      <c r="O43" s="4">
+      <c r="O43" s="6">
         <f>IF(COUNT(W43:Y43)&gt;0,Q43/COUNT(W43:Y43),0.5)</f>
         <v/>
       </c>
@@ -6084,18 +6080,18 @@
         <v/>
       </c>
       <c r="L44" s="16">
-        <f>SUM(Z44:AB44)</f>
-        <v/>
-      </c>
-      <c r="M44" s="5">
-        <f>SUM(AC44:AE44)</f>
-        <v/>
-      </c>
-      <c r="N44" s="4">
+        <f>AVERAGE(Z44:AB44)</f>
+        <v/>
+      </c>
+      <c r="M44" s="7">
+        <f>AVERAGE(AC44:AE44)</f>
+        <v/>
+      </c>
+      <c r="N44" s="6">
         <f>IF(COUNT(T44:V44)&gt;0,P44/COUNT(T44:V44),0.5)</f>
         <v/>
       </c>
-      <c r="O44" s="4">
+      <c r="O44" s="6">
         <f>IF(COUNT(W44:Y44)&gt;0,Q44/COUNT(W44:Y44),0.5)</f>
         <v/>
       </c>
@@ -6206,18 +6202,18 @@
         <v/>
       </c>
       <c r="L45" s="16">
-        <f>SUM(Z45:AB45)</f>
-        <v/>
-      </c>
-      <c r="M45" s="5">
-        <f>SUM(AC45:AE45)</f>
-        <v/>
-      </c>
-      <c r="N45" s="4">
+        <f>AVERAGE(Z45:AB45)</f>
+        <v/>
+      </c>
+      <c r="M45" s="7">
+        <f>AVERAGE(AC45:AE45)</f>
+        <v/>
+      </c>
+      <c r="N45" s="6">
         <f>IF(COUNT(T45:V45)&gt;0,P45/COUNT(T45:V45),0.5)</f>
         <v/>
       </c>
-      <c r="O45" s="4">
+      <c r="O45" s="6">
         <f>IF(COUNT(W45:Y45)&gt;0,Q45/COUNT(W45:Y45),0.5)</f>
         <v/>
       </c>
@@ -6329,11 +6325,11 @@
         <v/>
       </c>
       <c r="L46" s="20">
-        <f>SUM(Z46:AB46)</f>
+        <f>AVERAGE(Z46:AB46)</f>
         <v/>
       </c>
       <c r="M46" s="21">
-        <f>SUM(AC46:AE46)</f>
+        <f>AVERAGE(AC46:AE46)</f>
         <v/>
       </c>
       <c r="N46" s="22">
@@ -6454,18 +6450,18 @@
         <v/>
       </c>
       <c r="L47" s="16">
-        <f>SUM(Z47:AB47)</f>
-        <v/>
-      </c>
-      <c r="M47" s="5">
-        <f>SUM(AC47:AE47)</f>
-        <v/>
-      </c>
-      <c r="N47" s="4">
+        <f>AVERAGE(Z47:AB47)</f>
+        <v/>
+      </c>
+      <c r="M47" s="7">
+        <f>AVERAGE(AC47:AE47)</f>
+        <v/>
+      </c>
+      <c r="N47" s="6">
         <f>IF(COUNT(T47:V47)&gt;0,P47/COUNT(T47:V47),0.5)</f>
         <v/>
       </c>
-      <c r="O47" s="4">
+      <c r="O47" s="6">
         <f>IF(COUNT(W47:Y47)&gt;0,Q47/COUNT(W47:Y47),0.5)</f>
         <v/>
       </c>
@@ -6576,18 +6572,18 @@
         <v/>
       </c>
       <c r="L48" s="16">
-        <f>SUM(Z48:AB48)</f>
-        <v/>
-      </c>
-      <c r="M48" s="5">
-        <f>SUM(AC48:AE48)</f>
-        <v/>
-      </c>
-      <c r="N48" s="4">
+        <f>AVERAGE(Z48:AB48)</f>
+        <v/>
+      </c>
+      <c r="M48" s="7">
+        <f>AVERAGE(AC48:AE48)</f>
+        <v/>
+      </c>
+      <c r="N48" s="6">
         <f>IF(COUNT(T48:V48)&gt;0,P48/COUNT(T48:V48),0.5)</f>
         <v/>
       </c>
-      <c r="O48" s="4">
+      <c r="O48" s="6">
         <f>IF(COUNT(W48:Y48)&gt;0,Q48/COUNT(W48:Y48),0.5)</f>
         <v/>
       </c>
@@ -6698,18 +6694,18 @@
         <v/>
       </c>
       <c r="L49" s="16">
-        <f>SUM(Z49:AB49)</f>
-        <v/>
-      </c>
-      <c r="M49" s="5">
-        <f>SUM(AC49:AE49)</f>
-        <v/>
-      </c>
-      <c r="N49" s="4">
+        <f>AVERAGE(Z49:AB49)</f>
+        <v/>
+      </c>
+      <c r="M49" s="7">
+        <f>AVERAGE(AC49:AE49)</f>
+        <v/>
+      </c>
+      <c r="N49" s="6">
         <f>IF(COUNT(T49:V49)&gt;0,P49/COUNT(T49:V49),0.5)</f>
         <v/>
       </c>
-      <c r="O49" s="4">
+      <c r="O49" s="6">
         <f>IF(COUNT(W49:Y49)&gt;0,Q49/COUNT(W49:Y49),0.5)</f>
         <v/>
       </c>
@@ -6821,11 +6817,11 @@
         <v/>
       </c>
       <c r="L50" s="20">
-        <f>SUM(Z50:AB50)</f>
+        <f>AVERAGE(Z50:AB50)</f>
         <v/>
       </c>
       <c r="M50" s="21">
-        <f>SUM(AC50:AE50)</f>
+        <f>AVERAGE(AC50:AE50)</f>
         <v/>
       </c>
       <c r="N50" s="22">
@@ -9077,7 +9073,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C24" s="25" t="n">
         <v>90</v>
@@ -9100,7 +9096,7 @@
     </row>
     <row r="25">
       <c r="B25" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C25" s="25" t="n">
         <v>110</v>
@@ -9123,7 +9119,7 @@
     </row>
     <row r="26">
       <c r="B26" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C26" s="25" t="n">
         <v>130</v>
@@ -9146,7 +9142,7 @@
     </row>
     <row r="27">
       <c r="B27" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C27" s="25" t="n">
         <v>150</v>
@@ -9169,7 +9165,7 @@
     </row>
     <row r="28">
       <c r="B28" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C28" s="25" t="n">
         <v>170</v>
@@ -9192,7 +9188,7 @@
     </row>
     <row r="29">
       <c r="B29" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C29" s="25" t="n">
         <v>190</v>
@@ -9220,7 +9216,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C30" s="25" t="n">
         <v>110</v>
@@ -9243,7 +9239,7 @@
     </row>
     <row r="31">
       <c r="B31" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C31" s="25" t="n">
         <v>140</v>
@@ -9266,7 +9262,7 @@
     </row>
     <row r="32">
       <c r="B32" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C32" s="25" t="n">
         <v>170</v>
@@ -9289,7 +9285,7 @@
     </row>
     <row r="33">
       <c r="B33" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C33" s="25" t="n">
         <v>200</v>
@@ -9312,7 +9308,7 @@
     </row>
     <row r="34">
       <c r="B34" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C34" s="25" t="n">
         <v>230</v>
@@ -9335,7 +9331,7 @@
     </row>
     <row r="35">
       <c r="B35" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C35" s="25" t="n">
         <v>260</v>
@@ -9363,7 +9359,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C36" s="25" t="n">
         <v>120</v>
@@ -9386,7 +9382,7 @@
     </row>
     <row r="37">
       <c r="B37" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C37" s="25" t="n">
         <v>150</v>
@@ -9409,7 +9405,7 @@
     </row>
     <row r="38">
       <c r="B38" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C38" s="25" t="n">
         <v>180</v>
@@ -9432,7 +9428,7 @@
     </row>
     <row r="39">
       <c r="B39" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C39" s="25" t="n">
         <v>210</v>
@@ -9455,7 +9451,7 @@
     </row>
     <row r="40">
       <c r="B40" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C40" s="25" t="n">
         <v>240</v>
@@ -9478,7 +9474,7 @@
     </row>
     <row r="41">
       <c r="B41" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C41" s="25" t="n">
         <v>270</v>
@@ -9506,7 +9502,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C42" s="25" t="n">
         <v>110</v>
@@ -9529,7 +9525,7 @@
     </row>
     <row r="43">
       <c r="B43" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C43" s="25" t="n">
         <v>130</v>
@@ -9552,7 +9548,7 @@
     </row>
     <row r="44">
       <c r="B44" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C44" s="25" t="n">
         <v>150</v>
@@ -9575,7 +9571,7 @@
     </row>
     <row r="45">
       <c r="B45" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C45" s="25" t="n">
         <v>170</v>
@@ -9598,7 +9594,7 @@
     </row>
     <row r="46">
       <c r="B46" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C46" s="25" t="n">
         <v>190</v>
@@ -9626,7 +9622,7 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C47" s="25" t="n">
         <v>140</v>
@@ -9649,7 +9645,7 @@
     </row>
     <row r="48">
       <c r="B48" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C48" s="25" t="n">
         <v>170</v>
@@ -9672,7 +9668,7 @@
     </row>
     <row r="49">
       <c r="B49" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C49" s="25" t="n">
         <v>200</v>
@@ -9695,7 +9691,7 @@
     </row>
     <row r="50">
       <c r="B50" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C50" s="25" t="n">
         <v>230</v>
@@ -9718,7 +9714,7 @@
     </row>
     <row r="51">
       <c r="B51" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C51" s="25" t="n">
         <v>260</v>
@@ -9746,7 +9742,7 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C52" s="25" t="n">
         <v>400</v>
@@ -9769,7 +9765,7 @@
     </row>
     <row r="53">
       <c r="B53" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C53" s="25" t="n">
         <v>430</v>
@@ -9792,7 +9788,7 @@
     </row>
     <row r="54">
       <c r="B54" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C54" s="25" t="n">
         <v>460</v>
@@ -9815,7 +9811,7 @@
     </row>
     <row r="55">
       <c r="B55" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C55" s="25" t="n">
         <v>490</v>
@@ -9838,7 +9834,7 @@
     </row>
     <row r="56">
       <c r="B56" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C56" s="25" t="n">
         <v>520</v>
@@ -9866,7 +9862,7 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C57" s="25" t="n">
         <v>130</v>
@@ -9889,7 +9885,7 @@
     </row>
     <row r="58">
       <c r="B58" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C58" s="25" t="n">
         <v>150</v>
@@ -9912,7 +9908,7 @@
     </row>
     <row r="59">
       <c r="B59" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C59" s="25" t="n">
         <v>170</v>
@@ -9935,7 +9931,7 @@
     </row>
     <row r="60">
       <c r="B60" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C60" s="25" t="n">
         <v>190</v>
@@ -9963,7 +9959,7 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C61" s="25" t="n">
         <v>420</v>
@@ -9986,7 +9982,7 @@
     </row>
     <row r="62">
       <c r="B62" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C62" s="25" t="n">
         <v>450</v>
@@ -10009,7 +10005,7 @@
     </row>
     <row r="63">
       <c r="B63" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C63" s="25" t="n">
         <v>480</v>
@@ -10032,7 +10028,7 @@
     </row>
     <row r="64">
       <c r="B64" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C64" s="25" t="n">
         <v>510</v>
@@ -10060,7 +10056,7 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C65" s="25" t="n">
         <v>430</v>
@@ -10083,7 +10079,7 @@
     </row>
     <row r="66">
       <c r="B66" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C66" s="25" t="n">
         <v>460</v>
@@ -10106,7 +10102,7 @@
     </row>
     <row r="67">
       <c r="B67" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C67" s="25" t="n">
         <v>490</v>
@@ -10129,7 +10125,7 @@
     </row>
     <row r="68">
       <c r="B68" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C68" s="25" t="n">
         <v>520</v>
@@ -10157,7 +10153,7 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C69" s="25" t="n">
         <v>400</v>
@@ -10180,7 +10176,7 @@
     </row>
     <row r="70">
       <c r="B70" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C70" s="25" t="n">
         <v>420</v>
@@ -10203,7 +10199,7 @@
     </row>
     <row r="71">
       <c r="B71" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C71" s="25" t="n">
         <v>440</v>
@@ -10231,7 +10227,7 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C72" s="25" t="n">
         <v>450</v>
@@ -10254,7 +10250,7 @@
     </row>
     <row r="73">
       <c r="B73" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C73" s="25" t="n">
         <v>480</v>
@@ -10277,7 +10273,7 @@
     </row>
     <row r="74">
       <c r="B74" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C74" s="25" t="n">
         <v>510</v>
@@ -10305,7 +10301,7 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C75" s="25" t="n">
         <v>460</v>
@@ -10328,7 +10324,7 @@
     </row>
     <row r="76">
       <c r="B76" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C76" s="25" t="n">
         <v>490</v>
@@ -10351,7 +10347,7 @@
     </row>
     <row r="77">
       <c r="B77" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C77" s="25" t="n">
         <v>520</v>
@@ -10379,7 +10375,7 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C78" s="25" t="n">
         <v>920</v>
@@ -10402,7 +10398,7 @@
     </row>
     <row r="79">
       <c r="B79" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C79" s="25" t="n">
         <v>940</v>
@@ -10430,7 +10426,7 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C80" s="25" t="n">
         <v>980</v>
@@ -10453,7 +10449,7 @@
     </row>
     <row r="81">
       <c r="B81" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C81" s="25" t="n">
         <v>1010</v>
@@ -10481,7 +10477,7 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C82" s="25" t="n">
         <v>990</v>
@@ -10504,7 +10500,7 @@
     </row>
     <row r="83">
       <c r="B83" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C83" s="25" t="n">
         <v>1020</v>
@@ -10532,7 +10528,7 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C84" s="25" t="n">
         <v>1440</v>
@@ -10560,7 +10556,7 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C85" s="25" t="n">
         <v>1510</v>
@@ -10588,7 +10584,7 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C86" s="25" t="n">
         <v>1520</v>

--- a/mitchell8x3.xlsx
+++ b/mitchell8x3.xlsx
@@ -510,7 +510,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>For public domain. No rights reserved. Generated on Feb 11, 2026.</t>
+          <t>For public domain. No rights reserved. Generated on Feb 12, 2026.</t>
         </is>
       </c>
     </row>
@@ -594,12 +594,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Name 85</t>
+          <t>Name 63</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Name 40</t>
+          <t>Name 59</t>
         </is>
       </c>
       <c r="D10" s="6">
@@ -617,12 +617,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Name 23</t>
+          <t>Name 39</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Name 87</t>
+          <t>Name 12</t>
         </is>
       </c>
       <c r="D11" s="6">
@@ -640,12 +640,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Name 33</t>
+          <t>Name 70</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Name 12</t>
+          <t>Name 54</t>
         </is>
       </c>
       <c r="D12" s="6">
@@ -663,12 +663,12 @@
       </c>
       <c r="B13" s="9" t="inlineStr">
         <is>
-          <t>Name 11</t>
+          <t>Name 87</t>
         </is>
       </c>
       <c r="C13" s="9" t="inlineStr">
         <is>
-          <t>Name 37</t>
+          <t>Name 58</t>
         </is>
       </c>
       <c r="D13" s="9" t="n"/>
@@ -711,12 +711,12 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Name 49</t>
+          <t>Name 34</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Name 90</t>
+          <t>Name 34</t>
         </is>
       </c>
       <c r="D17" s="6">
@@ -734,12 +734,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Name 20</t>
+          <t>Name 66</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Name 77</t>
+          <t>Name 23</t>
         </is>
       </c>
       <c r="D18" s="6">
@@ -757,12 +757,12 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Name 66</t>
+          <t>Name 86</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Name 81</t>
+          <t>Name 36</t>
         </is>
       </c>
       <c r="D19" s="6">
@@ -780,12 +780,12 @@
       </c>
       <c r="B20" s="9" t="inlineStr">
         <is>
-          <t>Name 82</t>
+          <t>Name 56</t>
         </is>
       </c>
       <c r="C20" s="9" t="inlineStr">
         <is>
-          <t>Name 73</t>
+          <t>Name 63</t>
         </is>
       </c>
       <c r="D20" s="9" t="n"/>

--- a/mitchell8x3.xlsx
+++ b/mitchell8x3.xlsx
@@ -510,7 +510,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>For public domain. No rights reserved. Generated on Feb 12, 2026.</t>
+          <t>For public domain. No rights reserved. Generated on Feb 13, 2026.</t>
         </is>
       </c>
     </row>
@@ -580,11 +580,11 @@
         </is>
       </c>
       <c r="D9" s="4">
-        <f>SUMIF('By Board'!D3:D50,"="&amp;A9,'By Board'!N3:N50)/12</f>
+        <f>SUMIF('By Board'!D3:D50,"="&amp;A9,'By Board'!O3:O50)/12</f>
         <v/>
       </c>
       <c r="E9" s="5">
-        <f>SUMIF('By Board'!D3:D50,"="&amp;A9,'By Board'!L3:L50)</f>
+        <f>SUMIF('By Board'!D3:D50,"="&amp;A9,'By Board'!M3:M50)</f>
         <v/>
       </c>
     </row>
@@ -594,20 +594,20 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Name 63</t>
+          <t>Name 81</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Name 59</t>
+          <t>Name 67</t>
         </is>
       </c>
       <c r="D10" s="6">
-        <f>SUMIF('By Board'!D3:D50,"="&amp;A10,'By Board'!N3:N50)/12</f>
+        <f>SUMIF('By Board'!D3:D50,"="&amp;A10,'By Board'!O3:O50)/12</f>
         <v/>
       </c>
       <c r="E10" s="7">
-        <f>SUMIF('By Board'!D3:D50,"="&amp;A10,'By Board'!L3:L50)</f>
+        <f>SUMIF('By Board'!D3:D50,"="&amp;A10,'By Board'!M3:M50)</f>
         <v/>
       </c>
     </row>
@@ -617,20 +617,20 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Name 39</t>
+          <t>Name 89</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Name 12</t>
+          <t>Name 23</t>
         </is>
       </c>
       <c r="D11" s="6">
-        <f>SUMIF('By Board'!D3:D50,"="&amp;A11,'By Board'!N3:N50)/12</f>
+        <f>SUMIF('By Board'!D3:D50,"="&amp;A11,'By Board'!O3:O50)/12</f>
         <v/>
       </c>
       <c r="E11" s="7">
-        <f>SUMIF('By Board'!D3:D50,"="&amp;A11,'By Board'!L3:L50)</f>
+        <f>SUMIF('By Board'!D3:D50,"="&amp;A11,'By Board'!M3:M50)</f>
         <v/>
       </c>
     </row>
@@ -640,20 +640,20 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Name 70</t>
+          <t>Name 13</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Name 54</t>
+          <t>Name 30</t>
         </is>
       </c>
       <c r="D12" s="6">
-        <f>SUMIF('By Board'!D3:D50,"="&amp;A12,'By Board'!N3:N50)/12</f>
+        <f>SUMIF('By Board'!D3:D50,"="&amp;A12,'By Board'!O3:O50)/12</f>
         <v/>
       </c>
       <c r="E12" s="7">
-        <f>SUMIF('By Board'!D3:D50,"="&amp;A12,'By Board'!L3:L50)</f>
+        <f>SUMIF('By Board'!D3:D50,"="&amp;A12,'By Board'!M3:M50)</f>
         <v/>
       </c>
     </row>
@@ -663,12 +663,12 @@
       </c>
       <c r="B13" s="9" t="inlineStr">
         <is>
-          <t>Name 87</t>
+          <t>Name 27</t>
         </is>
       </c>
       <c r="C13" s="9" t="inlineStr">
         <is>
-          <t>Name 58</t>
+          <t>Name 73</t>
         </is>
       </c>
       <c r="D13" s="9" t="n"/>
@@ -697,11 +697,11 @@
         </is>
       </c>
       <c r="D16" s="4">
-        <f>SUMIF('By Board'!E3:E50,"="&amp;A16,'By Board'!O3:O50)/12</f>
+        <f>SUMIF('By Board'!E3:E50,"="&amp;A16,'By Board'!P3:P50)/12</f>
         <v/>
       </c>
       <c r="E16" s="5">
-        <f>SUMIF('By Board'!E3:E50,"="&amp;A16,'By Board'!M3:M50)</f>
+        <f>SUMIF('By Board'!E3:E50,"="&amp;A16,'By Board'!N3:N50)</f>
         <v/>
       </c>
     </row>
@@ -711,20 +711,20 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Name 34</t>
+          <t>Name 74</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Name 34</t>
+          <t>Name 68</t>
         </is>
       </c>
       <c r="D17" s="6">
-        <f>SUMIF('By Board'!E3:E50,"="&amp;A17,'By Board'!O3:O50)/12</f>
+        <f>SUMIF('By Board'!E3:E50,"="&amp;A17,'By Board'!P3:P50)/12</f>
         <v/>
       </c>
       <c r="E17" s="7">
-        <f>SUMIF('By Board'!E3:E50,"="&amp;A17,'By Board'!M3:M50)</f>
+        <f>SUMIF('By Board'!E3:E50,"="&amp;A17,'By Board'!N3:N50)</f>
         <v/>
       </c>
     </row>
@@ -734,20 +734,20 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Name 66</t>
+          <t>Name 55</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Name 23</t>
+          <t>Name 72</t>
         </is>
       </c>
       <c r="D18" s="6">
-        <f>SUMIF('By Board'!E3:E50,"="&amp;A18,'By Board'!O3:O50)/12</f>
+        <f>SUMIF('By Board'!E3:E50,"="&amp;A18,'By Board'!P3:P50)/12</f>
         <v/>
       </c>
       <c r="E18" s="7">
-        <f>SUMIF('By Board'!E3:E50,"="&amp;A18,'By Board'!M3:M50)</f>
+        <f>SUMIF('By Board'!E3:E50,"="&amp;A18,'By Board'!N3:N50)</f>
         <v/>
       </c>
     </row>
@@ -757,20 +757,20 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Name 86</t>
+          <t>Name 27</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Name 36</t>
+          <t>Name 33</t>
         </is>
       </c>
       <c r="D19" s="6">
-        <f>SUMIF('By Board'!E3:E50,"="&amp;A19,'By Board'!O3:O50)/12</f>
+        <f>SUMIF('By Board'!E3:E50,"="&amp;A19,'By Board'!P3:P50)/12</f>
         <v/>
       </c>
       <c r="E19" s="7">
-        <f>SUMIF('By Board'!E3:E50,"="&amp;A19,'By Board'!M3:M50)</f>
+        <f>SUMIF('By Board'!E3:E50,"="&amp;A19,'By Board'!N3:N50)</f>
         <v/>
       </c>
     </row>
@@ -780,12 +780,12 @@
       </c>
       <c r="B20" s="9" t="inlineStr">
         <is>
-          <t>Name 56</t>
+          <t>Name 35</t>
         </is>
       </c>
       <c r="C20" s="9" t="inlineStr">
         <is>
-          <t>Name 63</t>
+          <t>Name 87</t>
         </is>
       </c>
       <c r="D20" s="9" t="n"/>
@@ -828,7 +828,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AE50"/>
+  <dimension ref="A1:AF50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -840,37 +840,42 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="J1" s="13" t="inlineStr">
+      <c r="I1" s="13" t="inlineStr">
+        <is>
+          <t>Result</t>
+        </is>
+      </c>
+      <c r="K1" s="13" t="inlineStr">
         <is>
           <t>Score</t>
         </is>
       </c>
-      <c r="L1" s="13" t="inlineStr">
+      <c r="M1" s="13" t="inlineStr">
         <is>
           <t>IMP</t>
         </is>
       </c>
-      <c r="N1" s="13" t="inlineStr">
+      <c r="O1" s="13" t="inlineStr">
         <is>
           <t>MP %</t>
         </is>
       </c>
-      <c r="P1" s="13" t="inlineStr">
+      <c r="Q1" s="13" t="inlineStr">
         <is>
           <t>MP Pts</t>
         </is>
       </c>
-      <c r="R1" s="13" t="inlineStr">
+      <c r="S1" s="13" t="inlineStr">
         <is>
           <t>Net</t>
         </is>
       </c>
-      <c r="T1" s="13" t="inlineStr">
+      <c r="U1" s="13" t="inlineStr">
         <is>
           <t>MP Calculation</t>
         </is>
       </c>
-      <c r="Z1" s="13" t="inlineStr">
+      <c r="AA1" s="13" t="inlineStr">
         <is>
           <t>IMP Calculation</t>
         </is>
@@ -919,75 +924,80 @@
       </c>
       <c r="I2" s="2" t="inlineStr">
         <is>
-          <t>Result</t>
+          <t>Made</t>
         </is>
       </c>
       <c r="J2" s="2" t="inlineStr">
         <is>
+          <t>Down</t>
+        </is>
+      </c>
+      <c r="K2" s="2" t="inlineStr">
+        <is>
           <t>NS</t>
         </is>
       </c>
-      <c r="K2" s="2" t="inlineStr">
+      <c r="L2" s="2" t="inlineStr">
         <is>
           <t>EW</t>
         </is>
       </c>
-      <c r="L2" s="14" t="inlineStr">
+      <c r="M2" s="14" t="inlineStr">
         <is>
           <t>NS</t>
         </is>
       </c>
-      <c r="M2" s="2" t="inlineStr">
+      <c r="N2" s="2" t="inlineStr">
         <is>
           <t>EW</t>
         </is>
       </c>
-      <c r="N2" s="2" t="inlineStr">
+      <c r="O2" s="2" t="inlineStr">
         <is>
           <t>NS</t>
         </is>
       </c>
-      <c r="O2" s="2" t="inlineStr">
+      <c r="P2" s="2" t="inlineStr">
         <is>
           <t>EW</t>
         </is>
       </c>
-      <c r="P2" s="2" t="inlineStr">
+      <c r="Q2" s="2" t="inlineStr">
         <is>
           <t>NS</t>
         </is>
       </c>
-      <c r="Q2" s="2" t="inlineStr">
+      <c r="R2" s="2" t="inlineStr">
         <is>
           <t>EW</t>
         </is>
       </c>
-      <c r="R2" s="14" t="inlineStr">
+      <c r="S2" s="14" t="inlineStr">
         <is>
           <t>NS</t>
         </is>
       </c>
-      <c r="S2" s="2" t="inlineStr">
+      <c r="T2" s="2" t="inlineStr">
         <is>
           <t>EW</t>
         </is>
       </c>
-      <c r="T2" s="14" t="inlineStr">
+      <c r="U2" s="14" t="inlineStr">
         <is>
           <t>NS MP Scores</t>
         </is>
       </c>
-      <c r="W2" s="2" t="inlineStr">
+      <c r="X2" s="2" t="inlineStr">
         <is>
           <t>EW MP Scores</t>
         </is>
       </c>
-      <c r="Z2" s="14" t="inlineStr">
+      <c r="AA2" s="14" t="inlineStr">
         <is>
           <t>NS IMP Pair-wise</t>
         </is>
       </c>
-      <c r="AC2" s="2" t="inlineStr">
+      <c r="AD2" s="2" t="inlineStr">
         <is>
           <t>EW IMP Pair-wise</t>
         </is>
@@ -1037,84 +1047,88 @@
         <f>IF(ISBLANK('By Round'!K3),"",'By Round'!K3)</f>
         <v/>
       </c>
-      <c r="L3" s="16">
-        <f>AVERAGE(Z3:AB3)</f>
-        <v/>
-      </c>
-      <c r="M3" s="7">
-        <f>AVERAGE(AC3:AE3)</f>
-        <v/>
-      </c>
-      <c r="N3" s="6">
-        <f>IF(COUNT(T3:V3)&gt;0,P3/COUNT(T3:V3),0.5)</f>
+      <c r="L3">
+        <f>IF(ISBLANK('By Round'!L3),"",'By Round'!L3)</f>
+        <v/>
+      </c>
+      <c r="M3" s="16">
+        <f>AVERAGE(AA3:AC3)</f>
+        <v/>
+      </c>
+      <c r="N3" s="7">
+        <f>AVERAGE(AD3:AF3)</f>
         <v/>
       </c>
       <c r="O3" s="6">
-        <f>IF(COUNT(W3:Y3)&gt;0,Q3/COUNT(W3:Y3),0.5)</f>
-        <v/>
-      </c>
-      <c r="P3" s="17">
-        <f>SUM(T3:V3)</f>
+        <f>IF(COUNT(U3:W3)&gt;0,Q3/COUNT(U3:W3),0.5)</f>
+        <v/>
+      </c>
+      <c r="P3" s="6">
+        <f>IF(COUNT(X3:Z3)&gt;0,R3/COUNT(X3:Z3),0.5)</f>
         <v/>
       </c>
       <c r="Q3" s="17">
-        <f>SUM(W3:Y3)</f>
-        <v/>
-      </c>
-      <c r="R3" s="18">
-        <f>IF(ISNUMBER(J3),J3,IF(ISNUMBER(K3),-K3,""))</f>
-        <v/>
-      </c>
-      <c r="S3">
-        <f>IF(ISNUMBER(K3),K3,IF(ISNUMBER(J3),-J3,""))</f>
-        <v/>
-      </c>
-      <c r="T3" s="18">
-        <f>IF(ISNUMBER(R3),IF(ISNUMBER(R4),IF(R3&gt;R4,1.0,IF(R3=R4,0.5,0.0)),""),"")</f>
-        <v/>
-      </c>
-      <c r="U3">
-        <f>IF(ISNUMBER(R3),IF(ISNUMBER(R5),IF(R3&gt;R5,1.0,IF(R3=R5,0.5,0.0)),""),"")</f>
+        <f>SUM(U3:W3)</f>
+        <v/>
+      </c>
+      <c r="R3" s="17">
+        <f>SUM(X3:Z3)</f>
+        <v/>
+      </c>
+      <c r="S3" s="18">
+        <f>IF(ISNUMBER(K3),K3,IF(ISNUMBER(L3),-L3,""))</f>
+        <v/>
+      </c>
+      <c r="T3">
+        <f>IF(ISNUMBER(L3),L3,IF(ISNUMBER(K3),-K3,""))</f>
+        <v/>
+      </c>
+      <c r="U3" s="18">
+        <f>IF(ISNUMBER(S3),IF(ISNUMBER(S4),IF(S3&gt;S4,1.0,IF(S3=S4,0.5,0.0)),""),"")</f>
         <v/>
       </c>
       <c r="V3">
-        <f>IF(ISNUMBER(R3),IF(ISNUMBER(R6),IF(R3&gt;R6,1.0,IF(R3=R6,0.5,0.0)),""),"")</f>
+        <f>IF(ISNUMBER(S3),IF(ISNUMBER(S5),IF(S3&gt;S5,1.0,IF(S3=S5,0.5,0.0)),""),"")</f>
         <v/>
       </c>
       <c r="W3">
-        <f>IF(ISNUMBER(S3),IF(ISNUMBER(S4),IF(S3&gt;S4,1.0,IF(S3=S4,0.5,0.0)),""),"")</f>
+        <f>IF(ISNUMBER(S3),IF(ISNUMBER(S6),IF(S3&gt;S6,1.0,IF(S3=S6,0.5,0.0)),""),"")</f>
         <v/>
       </c>
       <c r="X3">
-        <f>IF(ISNUMBER(S3),IF(ISNUMBER(S5),IF(S3&gt;S5,1.0,IF(S3=S5,0.5,0.0)),""),"")</f>
+        <f>IF(ISNUMBER(T3),IF(ISNUMBER(T4),IF(T3&gt;T4,1.0,IF(T3=T4,0.5,0.0)),""),"")</f>
         <v/>
       </c>
       <c r="Y3">
-        <f>IF(ISNUMBER(S3),IF(ISNUMBER(S6),IF(S3&gt;S6,1.0,IF(S3=S6,0.5,0.0)),""),"")</f>
-        <v/>
-      </c>
-      <c r="Z3" s="18">
-        <f>IF(AND(ISNUMBER(R3),ISNUMBER(R4)),VLOOKUP(ABS(R3-R4),'IMP Table'!$A$2:$C$26,3)*SIGN(R3-R4),0)</f>
-        <v/>
-      </c>
-      <c r="AA3">
-        <f>IF(AND(ISNUMBER(R3),ISNUMBER(R5)),VLOOKUP(ABS(R3-R5),'IMP Table'!$A$2:$C$26,3)*SIGN(R3-R5),0)</f>
+        <f>IF(ISNUMBER(T3),IF(ISNUMBER(T5),IF(T3&gt;T5,1.0,IF(T3=T5,0.5,0.0)),""),"")</f>
+        <v/>
+      </c>
+      <c r="Z3">
+        <f>IF(ISNUMBER(T3),IF(ISNUMBER(T6),IF(T3&gt;T6,1.0,IF(T3=T6,0.5,0.0)),""),"")</f>
+        <v/>
+      </c>
+      <c r="AA3" s="18">
+        <f>IF(AND(ISNUMBER(S3),ISNUMBER(S4)),VLOOKUP(ABS(S3-S4),'IMP Table'!$A$2:$C$26,3)*SIGN(S3-S4),0)</f>
         <v/>
       </c>
       <c r="AB3">
-        <f>IF(AND(ISNUMBER(R3),ISNUMBER(R6)),VLOOKUP(ABS(R3-R6),'IMP Table'!$A$2:$C$26,3)*SIGN(R3-R6),0)</f>
+        <f>IF(AND(ISNUMBER(S3),ISNUMBER(S5)),VLOOKUP(ABS(S3-S5),'IMP Table'!$A$2:$C$26,3)*SIGN(S3-S5),0)</f>
         <v/>
       </c>
       <c r="AC3">
-        <f>IF(AND(ISNUMBER(S3),ISNUMBER(S4)),VLOOKUP(ABS(S3-S4),'IMP Table'!$A$2:$C$26,3)*SIGN(S3-S4),0)</f>
+        <f>IF(AND(ISNUMBER(S3),ISNUMBER(S6)),VLOOKUP(ABS(S3-S6),'IMP Table'!$A$2:$C$26,3)*SIGN(S3-S6),0)</f>
         <v/>
       </c>
       <c r="AD3">
-        <f>IF(AND(ISNUMBER(S3),ISNUMBER(S5)),VLOOKUP(ABS(S3-S5),'IMP Table'!$A$2:$C$26,3)*SIGN(S3-S5),0)</f>
+        <f>IF(AND(ISNUMBER(T3),ISNUMBER(T4)),VLOOKUP(ABS(T3-T4),'IMP Table'!$A$2:$C$26,3)*SIGN(T3-T4),0)</f>
         <v/>
       </c>
       <c r="AE3">
-        <f>IF(AND(ISNUMBER(S3),ISNUMBER(S6)),VLOOKUP(ABS(S3-S6),'IMP Table'!$A$2:$C$26,3)*SIGN(S3-S6),0)</f>
+        <f>IF(AND(ISNUMBER(T3),ISNUMBER(T5)),VLOOKUP(ABS(T3-T5),'IMP Table'!$A$2:$C$26,3)*SIGN(T3-T5),0)</f>
+        <v/>
+      </c>
+      <c r="AF3">
+        <f>IF(AND(ISNUMBER(T3),ISNUMBER(T6)),VLOOKUP(ABS(T3-T6),'IMP Table'!$A$2:$C$26,3)*SIGN(T3-T6),0)</f>
         <v/>
       </c>
     </row>
@@ -1159,84 +1173,88 @@
         <f>IF(ISBLANK('By Round'!K42),"",'By Round'!K42)</f>
         <v/>
       </c>
-      <c r="L4" s="16">
-        <f>AVERAGE(Z4:AB4)</f>
-        <v/>
-      </c>
-      <c r="M4" s="7">
-        <f>AVERAGE(AC4:AE4)</f>
-        <v/>
-      </c>
-      <c r="N4" s="6">
-        <f>IF(COUNT(T4:V4)&gt;0,P4/COUNT(T4:V4),0.5)</f>
+      <c r="L4">
+        <f>IF(ISBLANK('By Round'!L42),"",'By Round'!L42)</f>
+        <v/>
+      </c>
+      <c r="M4" s="16">
+        <f>AVERAGE(AA4:AC4)</f>
+        <v/>
+      </c>
+      <c r="N4" s="7">
+        <f>AVERAGE(AD4:AF4)</f>
         <v/>
       </c>
       <c r="O4" s="6">
-        <f>IF(COUNT(W4:Y4)&gt;0,Q4/COUNT(W4:Y4),0.5)</f>
-        <v/>
-      </c>
-      <c r="P4" s="17">
-        <f>SUM(T4:V4)</f>
+        <f>IF(COUNT(U4:W4)&gt;0,Q4/COUNT(U4:W4),0.5)</f>
+        <v/>
+      </c>
+      <c r="P4" s="6">
+        <f>IF(COUNT(X4:Z4)&gt;0,R4/COUNT(X4:Z4),0.5)</f>
         <v/>
       </c>
       <c r="Q4" s="17">
-        <f>SUM(W4:Y4)</f>
-        <v/>
-      </c>
-      <c r="R4" s="18">
-        <f>IF(ISNUMBER(J4),J4,IF(ISNUMBER(K4),-K4,""))</f>
-        <v/>
-      </c>
-      <c r="S4">
-        <f>IF(ISNUMBER(K4),K4,IF(ISNUMBER(J4),-J4,""))</f>
-        <v/>
-      </c>
-      <c r="T4" s="18">
-        <f>IF(ISNUMBER(R4),IF(ISNUMBER(R3),IF(R4&gt;R3,1.0,IF(R4=R3,0.5,0.0)),""),"")</f>
-        <v/>
-      </c>
-      <c r="U4">
-        <f>IF(ISNUMBER(R4),IF(ISNUMBER(R5),IF(R4&gt;R5,1.0,IF(R4=R5,0.5,0.0)),""),"")</f>
+        <f>SUM(U4:W4)</f>
+        <v/>
+      </c>
+      <c r="R4" s="17">
+        <f>SUM(X4:Z4)</f>
+        <v/>
+      </c>
+      <c r="S4" s="18">
+        <f>IF(ISNUMBER(K4),K4,IF(ISNUMBER(L4),-L4,""))</f>
+        <v/>
+      </c>
+      <c r="T4">
+        <f>IF(ISNUMBER(L4),L4,IF(ISNUMBER(K4),-K4,""))</f>
+        <v/>
+      </c>
+      <c r="U4" s="18">
+        <f>IF(ISNUMBER(S4),IF(ISNUMBER(S3),IF(S4&gt;S3,1.0,IF(S4=S3,0.5,0.0)),""),"")</f>
         <v/>
       </c>
       <c r="V4">
-        <f>IF(ISNUMBER(R4),IF(ISNUMBER(R6),IF(R4&gt;R6,1.0,IF(R4=R6,0.5,0.0)),""),"")</f>
+        <f>IF(ISNUMBER(S4),IF(ISNUMBER(S5),IF(S4&gt;S5,1.0,IF(S4=S5,0.5,0.0)),""),"")</f>
         <v/>
       </c>
       <c r="W4">
-        <f>IF(ISNUMBER(S4),IF(ISNUMBER(S3),IF(S4&gt;S3,1.0,IF(S4=S3,0.5,0.0)),""),"")</f>
+        <f>IF(ISNUMBER(S4),IF(ISNUMBER(S6),IF(S4&gt;S6,1.0,IF(S4=S6,0.5,0.0)),""),"")</f>
         <v/>
       </c>
       <c r="X4">
-        <f>IF(ISNUMBER(S4),IF(ISNUMBER(S5),IF(S4&gt;S5,1.0,IF(S4=S5,0.5,0.0)),""),"")</f>
+        <f>IF(ISNUMBER(T4),IF(ISNUMBER(T3),IF(T4&gt;T3,1.0,IF(T4=T3,0.5,0.0)),""),"")</f>
         <v/>
       </c>
       <c r="Y4">
-        <f>IF(ISNUMBER(S4),IF(ISNUMBER(S6),IF(S4&gt;S6,1.0,IF(S4=S6,0.5,0.0)),""),"")</f>
-        <v/>
-      </c>
-      <c r="Z4" s="18">
-        <f>IF(AND(ISNUMBER(R4),ISNUMBER(R3)),VLOOKUP(ABS(R4-R3),'IMP Table'!$A$2:$C$26,3)*SIGN(R4-R3),0)</f>
-        <v/>
-      </c>
-      <c r="AA4">
-        <f>IF(AND(ISNUMBER(R4),ISNUMBER(R5)),VLOOKUP(ABS(R4-R5),'IMP Table'!$A$2:$C$26,3)*SIGN(R4-R5),0)</f>
+        <f>IF(ISNUMBER(T4),IF(ISNUMBER(T5),IF(T4&gt;T5,1.0,IF(T4=T5,0.5,0.0)),""),"")</f>
+        <v/>
+      </c>
+      <c r="Z4">
+        <f>IF(ISNUMBER(T4),IF(ISNUMBER(T6),IF(T4&gt;T6,1.0,IF(T4=T6,0.5,0.0)),""),"")</f>
+        <v/>
+      </c>
+      <c r="AA4" s="18">
+        <f>IF(AND(ISNUMBER(S4),ISNUMBER(S3)),VLOOKUP(ABS(S4-S3),'IMP Table'!$A$2:$C$26,3)*SIGN(S4-S3),0)</f>
         <v/>
       </c>
       <c r="AB4">
-        <f>IF(AND(ISNUMBER(R4),ISNUMBER(R6)),VLOOKUP(ABS(R4-R6),'IMP Table'!$A$2:$C$26,3)*SIGN(R4-R6),0)</f>
+        <f>IF(AND(ISNUMBER(S4),ISNUMBER(S5)),VLOOKUP(ABS(S4-S5),'IMP Table'!$A$2:$C$26,3)*SIGN(S4-S5),0)</f>
         <v/>
       </c>
       <c r="AC4">
-        <f>IF(AND(ISNUMBER(S4),ISNUMBER(S3)),VLOOKUP(ABS(S4-S3),'IMP Table'!$A$2:$C$26,3)*SIGN(S4-S3),0)</f>
+        <f>IF(AND(ISNUMBER(S4),ISNUMBER(S6)),VLOOKUP(ABS(S4-S6),'IMP Table'!$A$2:$C$26,3)*SIGN(S4-S6),0)</f>
         <v/>
       </c>
       <c r="AD4">
-        <f>IF(AND(ISNUMBER(S4),ISNUMBER(S5)),VLOOKUP(ABS(S4-S5),'IMP Table'!$A$2:$C$26,3)*SIGN(S4-S5),0)</f>
+        <f>IF(AND(ISNUMBER(T4),ISNUMBER(T3)),VLOOKUP(ABS(T4-T3),'IMP Table'!$A$2:$C$26,3)*SIGN(T4-T3),0)</f>
         <v/>
       </c>
       <c r="AE4">
-        <f>IF(AND(ISNUMBER(S4),ISNUMBER(S6)),VLOOKUP(ABS(S4-S6),'IMP Table'!$A$2:$C$26,3)*SIGN(S4-S6),0)</f>
+        <f>IF(AND(ISNUMBER(T4),ISNUMBER(T5)),VLOOKUP(ABS(T4-T5),'IMP Table'!$A$2:$C$26,3)*SIGN(T4-T5),0)</f>
+        <v/>
+      </c>
+      <c r="AF4">
+        <f>IF(AND(ISNUMBER(T4),ISNUMBER(T6)),VLOOKUP(ABS(T4-T6),'IMP Table'!$A$2:$C$26,3)*SIGN(T4-T6),0)</f>
         <v/>
       </c>
     </row>
@@ -1281,84 +1299,88 @@
         <f>IF(ISBLANK('By Round'!K33),"",'By Round'!K33)</f>
         <v/>
       </c>
-      <c r="L5" s="16">
-        <f>AVERAGE(Z5:AB5)</f>
-        <v/>
-      </c>
-      <c r="M5" s="7">
-        <f>AVERAGE(AC5:AE5)</f>
-        <v/>
-      </c>
-      <c r="N5" s="6">
-        <f>IF(COUNT(T5:V5)&gt;0,P5/COUNT(T5:V5),0.5)</f>
+      <c r="L5">
+        <f>IF(ISBLANK('By Round'!L33),"",'By Round'!L33)</f>
+        <v/>
+      </c>
+      <c r="M5" s="16">
+        <f>AVERAGE(AA5:AC5)</f>
+        <v/>
+      </c>
+      <c r="N5" s="7">
+        <f>AVERAGE(AD5:AF5)</f>
         <v/>
       </c>
       <c r="O5" s="6">
-        <f>IF(COUNT(W5:Y5)&gt;0,Q5/COUNT(W5:Y5),0.5)</f>
-        <v/>
-      </c>
-      <c r="P5" s="17">
-        <f>SUM(T5:V5)</f>
+        <f>IF(COUNT(U5:W5)&gt;0,Q5/COUNT(U5:W5),0.5)</f>
+        <v/>
+      </c>
+      <c r="P5" s="6">
+        <f>IF(COUNT(X5:Z5)&gt;0,R5/COUNT(X5:Z5),0.5)</f>
         <v/>
       </c>
       <c r="Q5" s="17">
-        <f>SUM(W5:Y5)</f>
-        <v/>
-      </c>
-      <c r="R5" s="18">
-        <f>IF(ISNUMBER(J5),J5,IF(ISNUMBER(K5),-K5,""))</f>
-        <v/>
-      </c>
-      <c r="S5">
-        <f>IF(ISNUMBER(K5),K5,IF(ISNUMBER(J5),-J5,""))</f>
-        <v/>
-      </c>
-      <c r="T5" s="18">
-        <f>IF(ISNUMBER(R5),IF(ISNUMBER(R3),IF(R5&gt;R3,1.0,IF(R5=R3,0.5,0.0)),""),"")</f>
-        <v/>
-      </c>
-      <c r="U5">
-        <f>IF(ISNUMBER(R5),IF(ISNUMBER(R4),IF(R5&gt;R4,1.0,IF(R5=R4,0.5,0.0)),""),"")</f>
+        <f>SUM(U5:W5)</f>
+        <v/>
+      </c>
+      <c r="R5" s="17">
+        <f>SUM(X5:Z5)</f>
+        <v/>
+      </c>
+      <c r="S5" s="18">
+        <f>IF(ISNUMBER(K5),K5,IF(ISNUMBER(L5),-L5,""))</f>
+        <v/>
+      </c>
+      <c r="T5">
+        <f>IF(ISNUMBER(L5),L5,IF(ISNUMBER(K5),-K5,""))</f>
+        <v/>
+      </c>
+      <c r="U5" s="18">
+        <f>IF(ISNUMBER(S5),IF(ISNUMBER(S3),IF(S5&gt;S3,1.0,IF(S5=S3,0.5,0.0)),""),"")</f>
         <v/>
       </c>
       <c r="V5">
-        <f>IF(ISNUMBER(R5),IF(ISNUMBER(R6),IF(R5&gt;R6,1.0,IF(R5=R6,0.5,0.0)),""),"")</f>
+        <f>IF(ISNUMBER(S5),IF(ISNUMBER(S4),IF(S5&gt;S4,1.0,IF(S5=S4,0.5,0.0)),""),"")</f>
         <v/>
       </c>
       <c r="W5">
-        <f>IF(ISNUMBER(S5),IF(ISNUMBER(S3),IF(S5&gt;S3,1.0,IF(S5=S3,0.5,0.0)),""),"")</f>
+        <f>IF(ISNUMBER(S5),IF(ISNUMBER(S6),IF(S5&gt;S6,1.0,IF(S5=S6,0.5,0.0)),""),"")</f>
         <v/>
       </c>
       <c r="X5">
-        <f>IF(ISNUMBER(S5),IF(ISNUMBER(S4),IF(S5&gt;S4,1.0,IF(S5=S4,0.5,0.0)),""),"")</f>
+        <f>IF(ISNUMBER(T5),IF(ISNUMBER(T3),IF(T5&gt;T3,1.0,IF(T5=T3,0.5,0.0)),""),"")</f>
         <v/>
       </c>
       <c r="Y5">
-        <f>IF(ISNUMBER(S5),IF(ISNUMBER(S6),IF(S5&gt;S6,1.0,IF(S5=S6,0.5,0.0)),""),"")</f>
-        <v/>
-      </c>
-      <c r="Z5" s="18">
-        <f>IF(AND(ISNUMBER(R5),ISNUMBER(R3)),VLOOKUP(ABS(R5-R3),'IMP Table'!$A$2:$C$26,3)*SIGN(R5-R3),0)</f>
-        <v/>
-      </c>
-      <c r="AA5">
-        <f>IF(AND(ISNUMBER(R5),ISNUMBER(R4)),VLOOKUP(ABS(R5-R4),'IMP Table'!$A$2:$C$26,3)*SIGN(R5-R4),0)</f>
+        <f>IF(ISNUMBER(T5),IF(ISNUMBER(T4),IF(T5&gt;T4,1.0,IF(T5=T4,0.5,0.0)),""),"")</f>
+        <v/>
+      </c>
+      <c r="Z5">
+        <f>IF(ISNUMBER(T5),IF(ISNUMBER(T6),IF(T5&gt;T6,1.0,IF(T5=T6,0.5,0.0)),""),"")</f>
+        <v/>
+      </c>
+      <c r="AA5" s="18">
+        <f>IF(AND(ISNUMBER(S5),ISNUMBER(S3)),VLOOKUP(ABS(S5-S3),'IMP Table'!$A$2:$C$26,3)*SIGN(S5-S3),0)</f>
         <v/>
       </c>
       <c r="AB5">
-        <f>IF(AND(ISNUMBER(R5),ISNUMBER(R6)),VLOOKUP(ABS(R5-R6),'IMP Table'!$A$2:$C$26,3)*SIGN(R5-R6),0)</f>
+        <f>IF(AND(ISNUMBER(S5),ISNUMBER(S4)),VLOOKUP(ABS(S5-S4),'IMP Table'!$A$2:$C$26,3)*SIGN(S5-S4),0)</f>
         <v/>
       </c>
       <c r="AC5">
-        <f>IF(AND(ISNUMBER(S5),ISNUMBER(S3)),VLOOKUP(ABS(S5-S3),'IMP Table'!$A$2:$C$26,3)*SIGN(S5-S3),0)</f>
+        <f>IF(AND(ISNUMBER(S5),ISNUMBER(S6)),VLOOKUP(ABS(S5-S6),'IMP Table'!$A$2:$C$26,3)*SIGN(S5-S6),0)</f>
         <v/>
       </c>
       <c r="AD5">
-        <f>IF(AND(ISNUMBER(S5),ISNUMBER(S4)),VLOOKUP(ABS(S5-S4),'IMP Table'!$A$2:$C$26,3)*SIGN(S5-S4),0)</f>
+        <f>IF(AND(ISNUMBER(T5),ISNUMBER(T3)),VLOOKUP(ABS(T5-T3),'IMP Table'!$A$2:$C$26,3)*SIGN(T5-T3),0)</f>
         <v/>
       </c>
       <c r="AE5">
-        <f>IF(AND(ISNUMBER(S5),ISNUMBER(S6)),VLOOKUP(ABS(S5-S6),'IMP Table'!$A$2:$C$26,3)*SIGN(S5-S6),0)</f>
+        <f>IF(AND(ISNUMBER(T5),ISNUMBER(T4)),VLOOKUP(ABS(T5-T4),'IMP Table'!$A$2:$C$26,3)*SIGN(T5-T4),0)</f>
+        <v/>
+      </c>
+      <c r="AF5">
+        <f>IF(AND(ISNUMBER(T5),ISNUMBER(T6)),VLOOKUP(ABS(T5-T6),'IMP Table'!$A$2:$C$26,3)*SIGN(T5-T6),0)</f>
         <v/>
       </c>
     </row>
@@ -1404,84 +1426,88 @@
         <f>IF(ISBLANK('By Round'!K24),"",'By Round'!K24)</f>
         <v/>
       </c>
-      <c r="L6" s="20">
-        <f>AVERAGE(Z6:AB6)</f>
-        <v/>
-      </c>
-      <c r="M6" s="21">
-        <f>AVERAGE(AC6:AE6)</f>
-        <v/>
-      </c>
-      <c r="N6" s="22">
-        <f>IF(COUNT(T6:V6)&gt;0,P6/COUNT(T6:V6),0.5)</f>
+      <c r="L6" s="9">
+        <f>IF(ISBLANK('By Round'!L24),"",'By Round'!L24)</f>
+        <v/>
+      </c>
+      <c r="M6" s="20">
+        <f>AVERAGE(AA6:AC6)</f>
+        <v/>
+      </c>
+      <c r="N6" s="21">
+        <f>AVERAGE(AD6:AF6)</f>
         <v/>
       </c>
       <c r="O6" s="22">
-        <f>IF(COUNT(W6:Y6)&gt;0,Q6/COUNT(W6:Y6),0.5)</f>
-        <v/>
-      </c>
-      <c r="P6" s="23">
-        <f>SUM(T6:V6)</f>
+        <f>IF(COUNT(U6:W6)&gt;0,Q6/COUNT(U6:W6),0.5)</f>
+        <v/>
+      </c>
+      <c r="P6" s="22">
+        <f>IF(COUNT(X6:Z6)&gt;0,R6/COUNT(X6:Z6),0.5)</f>
         <v/>
       </c>
       <c r="Q6" s="23">
-        <f>SUM(W6:Y6)</f>
-        <v/>
-      </c>
-      <c r="R6" s="24">
-        <f>IF(ISNUMBER(J6),J6,IF(ISNUMBER(K6),-K6,""))</f>
-        <v/>
-      </c>
-      <c r="S6" s="9">
-        <f>IF(ISNUMBER(K6),K6,IF(ISNUMBER(J6),-J6,""))</f>
-        <v/>
-      </c>
-      <c r="T6" s="24">
-        <f>IF(ISNUMBER(R6),IF(ISNUMBER(R3),IF(R6&gt;R3,1.0,IF(R6=R3,0.5,0.0)),""),"")</f>
-        <v/>
-      </c>
-      <c r="U6" s="9">
-        <f>IF(ISNUMBER(R6),IF(ISNUMBER(R4),IF(R6&gt;R4,1.0,IF(R6=R4,0.5,0.0)),""),"")</f>
+        <f>SUM(U6:W6)</f>
+        <v/>
+      </c>
+      <c r="R6" s="23">
+        <f>SUM(X6:Z6)</f>
+        <v/>
+      </c>
+      <c r="S6" s="24">
+        <f>IF(ISNUMBER(K6),K6,IF(ISNUMBER(L6),-L6,""))</f>
+        <v/>
+      </c>
+      <c r="T6" s="9">
+        <f>IF(ISNUMBER(L6),L6,IF(ISNUMBER(K6),-K6,""))</f>
+        <v/>
+      </c>
+      <c r="U6" s="24">
+        <f>IF(ISNUMBER(S6),IF(ISNUMBER(S3),IF(S6&gt;S3,1.0,IF(S6=S3,0.5,0.0)),""),"")</f>
         <v/>
       </c>
       <c r="V6" s="9">
-        <f>IF(ISNUMBER(R6),IF(ISNUMBER(R5),IF(R6&gt;R5,1.0,IF(R6=R5,0.5,0.0)),""),"")</f>
+        <f>IF(ISNUMBER(S6),IF(ISNUMBER(S4),IF(S6&gt;S4,1.0,IF(S6=S4,0.5,0.0)),""),"")</f>
         <v/>
       </c>
       <c r="W6" s="9">
-        <f>IF(ISNUMBER(S6),IF(ISNUMBER(S3),IF(S6&gt;S3,1.0,IF(S6=S3,0.5,0.0)),""),"")</f>
+        <f>IF(ISNUMBER(S6),IF(ISNUMBER(S5),IF(S6&gt;S5,1.0,IF(S6=S5,0.5,0.0)),""),"")</f>
         <v/>
       </c>
       <c r="X6" s="9">
-        <f>IF(ISNUMBER(S6),IF(ISNUMBER(S4),IF(S6&gt;S4,1.0,IF(S6=S4,0.5,0.0)),""),"")</f>
+        <f>IF(ISNUMBER(T6),IF(ISNUMBER(T3),IF(T6&gt;T3,1.0,IF(T6=T3,0.5,0.0)),""),"")</f>
         <v/>
       </c>
       <c r="Y6" s="9">
-        <f>IF(ISNUMBER(S6),IF(ISNUMBER(S5),IF(S6&gt;S5,1.0,IF(S6=S5,0.5,0.0)),""),"")</f>
-        <v/>
-      </c>
-      <c r="Z6" s="24">
-        <f>IF(AND(ISNUMBER(R6),ISNUMBER(R3)),VLOOKUP(ABS(R6-R3),'IMP Table'!$A$2:$C$26,3)*SIGN(R6-R3),0)</f>
-        <v/>
-      </c>
-      <c r="AA6" s="9">
-        <f>IF(AND(ISNUMBER(R6),ISNUMBER(R4)),VLOOKUP(ABS(R6-R4),'IMP Table'!$A$2:$C$26,3)*SIGN(R6-R4),0)</f>
+        <f>IF(ISNUMBER(T6),IF(ISNUMBER(T4),IF(T6&gt;T4,1.0,IF(T6=T4,0.5,0.0)),""),"")</f>
+        <v/>
+      </c>
+      <c r="Z6" s="9">
+        <f>IF(ISNUMBER(T6),IF(ISNUMBER(T5),IF(T6&gt;T5,1.0,IF(T6=T5,0.5,0.0)),""),"")</f>
+        <v/>
+      </c>
+      <c r="AA6" s="24">
+        <f>IF(AND(ISNUMBER(S6),ISNUMBER(S3)),VLOOKUP(ABS(S6-S3),'IMP Table'!$A$2:$C$26,3)*SIGN(S6-S3),0)</f>
         <v/>
       </c>
       <c r="AB6" s="9">
-        <f>IF(AND(ISNUMBER(R6),ISNUMBER(R5)),VLOOKUP(ABS(R6-R5),'IMP Table'!$A$2:$C$26,3)*SIGN(R6-R5),0)</f>
+        <f>IF(AND(ISNUMBER(S6),ISNUMBER(S4)),VLOOKUP(ABS(S6-S4),'IMP Table'!$A$2:$C$26,3)*SIGN(S6-S4),0)</f>
         <v/>
       </c>
       <c r="AC6" s="9">
-        <f>IF(AND(ISNUMBER(S6),ISNUMBER(S3)),VLOOKUP(ABS(S6-S3),'IMP Table'!$A$2:$C$26,3)*SIGN(S6-S3),0)</f>
+        <f>IF(AND(ISNUMBER(S6),ISNUMBER(S5)),VLOOKUP(ABS(S6-S5),'IMP Table'!$A$2:$C$26,3)*SIGN(S6-S5),0)</f>
         <v/>
       </c>
       <c r="AD6" s="9">
-        <f>IF(AND(ISNUMBER(S6),ISNUMBER(S4)),VLOOKUP(ABS(S6-S4),'IMP Table'!$A$2:$C$26,3)*SIGN(S6-S4),0)</f>
+        <f>IF(AND(ISNUMBER(T6),ISNUMBER(T3)),VLOOKUP(ABS(T6-T3),'IMP Table'!$A$2:$C$26,3)*SIGN(T6-T3),0)</f>
         <v/>
       </c>
       <c r="AE6" s="9">
-        <f>IF(AND(ISNUMBER(S6),ISNUMBER(S5)),VLOOKUP(ABS(S6-S5),'IMP Table'!$A$2:$C$26,3)*SIGN(S6-S5),0)</f>
+        <f>IF(AND(ISNUMBER(T6),ISNUMBER(T4)),VLOOKUP(ABS(T6-T4),'IMP Table'!$A$2:$C$26,3)*SIGN(T6-T4),0)</f>
+        <v/>
+      </c>
+      <c r="AF6" s="9">
+        <f>IF(AND(ISNUMBER(T6),ISNUMBER(T5)),VLOOKUP(ABS(T6-T5),'IMP Table'!$A$2:$C$26,3)*SIGN(T6-T5),0)</f>
         <v/>
       </c>
     </row>
@@ -1529,84 +1555,88 @@
         <f>IF(ISBLANK('By Round'!K4),"",'By Round'!K4)</f>
         <v/>
       </c>
-      <c r="L7" s="16">
-        <f>AVERAGE(Z7:AB7)</f>
-        <v/>
-      </c>
-      <c r="M7" s="7">
-        <f>AVERAGE(AC7:AE7)</f>
-        <v/>
-      </c>
-      <c r="N7" s="6">
-        <f>IF(COUNT(T7:V7)&gt;0,P7/COUNT(T7:V7),0.5)</f>
+      <c r="L7">
+        <f>IF(ISBLANK('By Round'!L4),"",'By Round'!L4)</f>
+        <v/>
+      </c>
+      <c r="M7" s="16">
+        <f>AVERAGE(AA7:AC7)</f>
+        <v/>
+      </c>
+      <c r="N7" s="7">
+        <f>AVERAGE(AD7:AF7)</f>
         <v/>
       </c>
       <c r="O7" s="6">
-        <f>IF(COUNT(W7:Y7)&gt;0,Q7/COUNT(W7:Y7),0.5)</f>
-        <v/>
-      </c>
-      <c r="P7" s="17">
-        <f>SUM(T7:V7)</f>
+        <f>IF(COUNT(U7:W7)&gt;0,Q7/COUNT(U7:W7),0.5)</f>
+        <v/>
+      </c>
+      <c r="P7" s="6">
+        <f>IF(COUNT(X7:Z7)&gt;0,R7/COUNT(X7:Z7),0.5)</f>
         <v/>
       </c>
       <c r="Q7" s="17">
-        <f>SUM(W7:Y7)</f>
-        <v/>
-      </c>
-      <c r="R7" s="18">
-        <f>IF(ISNUMBER(J7),J7,IF(ISNUMBER(K7),-K7,""))</f>
-        <v/>
-      </c>
-      <c r="S7">
-        <f>IF(ISNUMBER(K7),K7,IF(ISNUMBER(J7),-J7,""))</f>
-        <v/>
-      </c>
-      <c r="T7" s="18">
-        <f>IF(ISNUMBER(R7),IF(ISNUMBER(R8),IF(R7&gt;R8,1.0,IF(R7=R8,0.5,0.0)),""),"")</f>
-        <v/>
-      </c>
-      <c r="U7">
-        <f>IF(ISNUMBER(R7),IF(ISNUMBER(R9),IF(R7&gt;R9,1.0,IF(R7=R9,0.5,0.0)),""),"")</f>
+        <f>SUM(U7:W7)</f>
+        <v/>
+      </c>
+      <c r="R7" s="17">
+        <f>SUM(X7:Z7)</f>
+        <v/>
+      </c>
+      <c r="S7" s="18">
+        <f>IF(ISNUMBER(K7),K7,IF(ISNUMBER(L7),-L7,""))</f>
+        <v/>
+      </c>
+      <c r="T7">
+        <f>IF(ISNUMBER(L7),L7,IF(ISNUMBER(K7),-K7,""))</f>
+        <v/>
+      </c>
+      <c r="U7" s="18">
+        <f>IF(ISNUMBER(S7),IF(ISNUMBER(S8),IF(S7&gt;S8,1.0,IF(S7=S8,0.5,0.0)),""),"")</f>
         <v/>
       </c>
       <c r="V7">
-        <f>IF(ISNUMBER(R7),IF(ISNUMBER(R10),IF(R7&gt;R10,1.0,IF(R7=R10,0.5,0.0)),""),"")</f>
+        <f>IF(ISNUMBER(S7),IF(ISNUMBER(S9),IF(S7&gt;S9,1.0,IF(S7=S9,0.5,0.0)),""),"")</f>
         <v/>
       </c>
       <c r="W7">
-        <f>IF(ISNUMBER(S7),IF(ISNUMBER(S8),IF(S7&gt;S8,1.0,IF(S7=S8,0.5,0.0)),""),"")</f>
+        <f>IF(ISNUMBER(S7),IF(ISNUMBER(S10),IF(S7&gt;S10,1.0,IF(S7=S10,0.5,0.0)),""),"")</f>
         <v/>
       </c>
       <c r="X7">
-        <f>IF(ISNUMBER(S7),IF(ISNUMBER(S9),IF(S7&gt;S9,1.0,IF(S7=S9,0.5,0.0)),""),"")</f>
+        <f>IF(ISNUMBER(T7),IF(ISNUMBER(T8),IF(T7&gt;T8,1.0,IF(T7=T8,0.5,0.0)),""),"")</f>
         <v/>
       </c>
       <c r="Y7">
-        <f>IF(ISNUMBER(S7),IF(ISNUMBER(S10),IF(S7&gt;S10,1.0,IF(S7=S10,0.5,0.0)),""),"")</f>
-        <v/>
-      </c>
-      <c r="Z7" s="18">
-        <f>IF(AND(ISNUMBER(R7),ISNUMBER(R8)),VLOOKUP(ABS(R7-R8),'IMP Table'!$A$2:$C$26,3)*SIGN(R7-R8),0)</f>
-        <v/>
-      </c>
-      <c r="AA7">
-        <f>IF(AND(ISNUMBER(R7),ISNUMBER(R9)),VLOOKUP(ABS(R7-R9),'IMP Table'!$A$2:$C$26,3)*SIGN(R7-R9),0)</f>
+        <f>IF(ISNUMBER(T7),IF(ISNUMBER(T9),IF(T7&gt;T9,1.0,IF(T7=T9,0.5,0.0)),""),"")</f>
+        <v/>
+      </c>
+      <c r="Z7">
+        <f>IF(ISNUMBER(T7),IF(ISNUMBER(T10),IF(T7&gt;T10,1.0,IF(T7=T10,0.5,0.0)),""),"")</f>
+        <v/>
+      </c>
+      <c r="AA7" s="18">
+        <f>IF(AND(ISNUMBER(S7),ISNUMBER(S8)),VLOOKUP(ABS(S7-S8),'IMP Table'!$A$2:$C$26,3)*SIGN(S7-S8),0)</f>
         <v/>
       </c>
       <c r="AB7">
-        <f>IF(AND(ISNUMBER(R7),ISNUMBER(R10)),VLOOKUP(ABS(R7-R10),'IMP Table'!$A$2:$C$26,3)*SIGN(R7-R10),0)</f>
+        <f>IF(AND(ISNUMBER(S7),ISNUMBER(S9)),VLOOKUP(ABS(S7-S9),'IMP Table'!$A$2:$C$26,3)*SIGN(S7-S9),0)</f>
         <v/>
       </c>
       <c r="AC7">
-        <f>IF(AND(ISNUMBER(S7),ISNUMBER(S8)),VLOOKUP(ABS(S7-S8),'IMP Table'!$A$2:$C$26,3)*SIGN(S7-S8),0)</f>
+        <f>IF(AND(ISNUMBER(S7),ISNUMBER(S10)),VLOOKUP(ABS(S7-S10),'IMP Table'!$A$2:$C$26,3)*SIGN(S7-S10),0)</f>
         <v/>
       </c>
       <c r="AD7">
-        <f>IF(AND(ISNUMBER(S7),ISNUMBER(S9)),VLOOKUP(ABS(S7-S9),'IMP Table'!$A$2:$C$26,3)*SIGN(S7-S9),0)</f>
+        <f>IF(AND(ISNUMBER(T7),ISNUMBER(T8)),VLOOKUP(ABS(T7-T8),'IMP Table'!$A$2:$C$26,3)*SIGN(T7-T8),0)</f>
         <v/>
       </c>
       <c r="AE7">
-        <f>IF(AND(ISNUMBER(S7),ISNUMBER(S10)),VLOOKUP(ABS(S7-S10),'IMP Table'!$A$2:$C$26,3)*SIGN(S7-S10),0)</f>
+        <f>IF(AND(ISNUMBER(T7),ISNUMBER(T9)),VLOOKUP(ABS(T7-T9),'IMP Table'!$A$2:$C$26,3)*SIGN(T7-T9),0)</f>
+        <v/>
+      </c>
+      <c r="AF7">
+        <f>IF(AND(ISNUMBER(T7),ISNUMBER(T10)),VLOOKUP(ABS(T7-T10),'IMP Table'!$A$2:$C$26,3)*SIGN(T7-T10),0)</f>
         <v/>
       </c>
     </row>
@@ -1651,84 +1681,88 @@
         <f>IF(ISBLANK('By Round'!K43),"",'By Round'!K43)</f>
         <v/>
       </c>
-      <c r="L8" s="16">
-        <f>AVERAGE(Z8:AB8)</f>
-        <v/>
-      </c>
-      <c r="M8" s="7">
-        <f>AVERAGE(AC8:AE8)</f>
-        <v/>
-      </c>
-      <c r="N8" s="6">
-        <f>IF(COUNT(T8:V8)&gt;0,P8/COUNT(T8:V8),0.5)</f>
+      <c r="L8">
+        <f>IF(ISBLANK('By Round'!L43),"",'By Round'!L43)</f>
+        <v/>
+      </c>
+      <c r="M8" s="16">
+        <f>AVERAGE(AA8:AC8)</f>
+        <v/>
+      </c>
+      <c r="N8" s="7">
+        <f>AVERAGE(AD8:AF8)</f>
         <v/>
       </c>
       <c r="O8" s="6">
-        <f>IF(COUNT(W8:Y8)&gt;0,Q8/COUNT(W8:Y8),0.5)</f>
-        <v/>
-      </c>
-      <c r="P8" s="17">
-        <f>SUM(T8:V8)</f>
+        <f>IF(COUNT(U8:W8)&gt;0,Q8/COUNT(U8:W8),0.5)</f>
+        <v/>
+      </c>
+      <c r="P8" s="6">
+        <f>IF(COUNT(X8:Z8)&gt;0,R8/COUNT(X8:Z8),0.5)</f>
         <v/>
       </c>
       <c r="Q8" s="17">
-        <f>SUM(W8:Y8)</f>
-        <v/>
-      </c>
-      <c r="R8" s="18">
-        <f>IF(ISNUMBER(J8),J8,IF(ISNUMBER(K8),-K8,""))</f>
-        <v/>
-      </c>
-      <c r="S8">
-        <f>IF(ISNUMBER(K8),K8,IF(ISNUMBER(J8),-J8,""))</f>
-        <v/>
-      </c>
-      <c r="T8" s="18">
-        <f>IF(ISNUMBER(R8),IF(ISNUMBER(R7),IF(R8&gt;R7,1.0,IF(R8=R7,0.5,0.0)),""),"")</f>
-        <v/>
-      </c>
-      <c r="U8">
-        <f>IF(ISNUMBER(R8),IF(ISNUMBER(R9),IF(R8&gt;R9,1.0,IF(R8=R9,0.5,0.0)),""),"")</f>
+        <f>SUM(U8:W8)</f>
+        <v/>
+      </c>
+      <c r="R8" s="17">
+        <f>SUM(X8:Z8)</f>
+        <v/>
+      </c>
+      <c r="S8" s="18">
+        <f>IF(ISNUMBER(K8),K8,IF(ISNUMBER(L8),-L8,""))</f>
+        <v/>
+      </c>
+      <c r="T8">
+        <f>IF(ISNUMBER(L8),L8,IF(ISNUMBER(K8),-K8,""))</f>
+        <v/>
+      </c>
+      <c r="U8" s="18">
+        <f>IF(ISNUMBER(S8),IF(ISNUMBER(S7),IF(S8&gt;S7,1.0,IF(S8=S7,0.5,0.0)),""),"")</f>
         <v/>
       </c>
       <c r="V8">
-        <f>IF(ISNUMBER(R8),IF(ISNUMBER(R10),IF(R8&gt;R10,1.0,IF(R8=R10,0.5,0.0)),""),"")</f>
+        <f>IF(ISNUMBER(S8),IF(ISNUMBER(S9),IF(S8&gt;S9,1.0,IF(S8=S9,0.5,0.0)),""),"")</f>
         <v/>
       </c>
       <c r="W8">
-        <f>IF(ISNUMBER(S8),IF(ISNUMBER(S7),IF(S8&gt;S7,1.0,IF(S8=S7,0.5,0.0)),""),"")</f>
+        <f>IF(ISNUMBER(S8),IF(ISNUMBER(S10),IF(S8&gt;S10,1.0,IF(S8=S10,0.5,0.0)),""),"")</f>
         <v/>
       </c>
       <c r="X8">
-        <f>IF(ISNUMBER(S8),IF(ISNUMBER(S9),IF(S8&gt;S9,1.0,IF(S8=S9,0.5,0.0)),""),"")</f>
+        <f>IF(ISNUMBER(T8),IF(ISNUMBER(T7),IF(T8&gt;T7,1.0,IF(T8=T7,0.5,0.0)),""),"")</f>
         <v/>
       </c>
       <c r="Y8">
-        <f>IF(ISNUMBER(S8),IF(ISNUMBER(S10),IF(S8&gt;S10,1.0,IF(S8=S10,0.5,0.0)),""),"")</f>
-        <v/>
-      </c>
-      <c r="Z8" s="18">
-        <f>IF(AND(ISNUMBER(R8),ISNUMBER(R7)),VLOOKUP(ABS(R8-R7),'IMP Table'!$A$2:$C$26,3)*SIGN(R8-R7),0)</f>
-        <v/>
-      </c>
-      <c r="AA8">
-        <f>IF(AND(ISNUMBER(R8),ISNUMBER(R9)),VLOOKUP(ABS(R8-R9),'IMP Table'!$A$2:$C$26,3)*SIGN(R8-R9),0)</f>
+        <f>IF(ISNUMBER(T8),IF(ISNUMBER(T9),IF(T8&gt;T9,1.0,IF(T8=T9,0.5,0.0)),""),"")</f>
+        <v/>
+      </c>
+      <c r="Z8">
+        <f>IF(ISNUMBER(T8),IF(ISNUMBER(T10),IF(T8&gt;T10,1.0,IF(T8=T10,0.5,0.0)),""),"")</f>
+        <v/>
+      </c>
+      <c r="AA8" s="18">
+        <f>IF(AND(ISNUMBER(S8),ISNUMBER(S7)),VLOOKUP(ABS(S8-S7),'IMP Table'!$A$2:$C$26,3)*SIGN(S8-S7),0)</f>
         <v/>
       </c>
       <c r="AB8">
-        <f>IF(AND(ISNUMBER(R8),ISNUMBER(R10)),VLOOKUP(ABS(R8-R10),'IMP Table'!$A$2:$C$26,3)*SIGN(R8-R10),0)</f>
+        <f>IF(AND(ISNUMBER(S8),ISNUMBER(S9)),VLOOKUP(ABS(S8-S9),'IMP Table'!$A$2:$C$26,3)*SIGN(S8-S9),0)</f>
         <v/>
       </c>
       <c r="AC8">
-        <f>IF(AND(ISNUMBER(S8),ISNUMBER(S7)),VLOOKUP(ABS(S8-S7),'IMP Table'!$A$2:$C$26,3)*SIGN(S8-S7),0)</f>
+        <f>IF(AND(ISNUMBER(S8),ISNUMBER(S10)),VLOOKUP(ABS(S8-S10),'IMP Table'!$A$2:$C$26,3)*SIGN(S8-S10),0)</f>
         <v/>
       </c>
       <c r="AD8">
-        <f>IF(AND(ISNUMBER(S8),ISNUMBER(S9)),VLOOKUP(ABS(S8-S9),'IMP Table'!$A$2:$C$26,3)*SIGN(S8-S9),0)</f>
+        <f>IF(AND(ISNUMBER(T8),ISNUMBER(T7)),VLOOKUP(ABS(T8-T7),'IMP Table'!$A$2:$C$26,3)*SIGN(T8-T7),0)</f>
         <v/>
       </c>
       <c r="AE8">
-        <f>IF(AND(ISNUMBER(S8),ISNUMBER(S10)),VLOOKUP(ABS(S8-S10),'IMP Table'!$A$2:$C$26,3)*SIGN(S8-S10),0)</f>
+        <f>IF(AND(ISNUMBER(T8),ISNUMBER(T9)),VLOOKUP(ABS(T8-T9),'IMP Table'!$A$2:$C$26,3)*SIGN(T8-T9),0)</f>
+        <v/>
+      </c>
+      <c r="AF8">
+        <f>IF(AND(ISNUMBER(T8),ISNUMBER(T10)),VLOOKUP(ABS(T8-T10),'IMP Table'!$A$2:$C$26,3)*SIGN(T8-T10),0)</f>
         <v/>
       </c>
     </row>
@@ -1773,84 +1807,88 @@
         <f>IF(ISBLANK('By Round'!K34),"",'By Round'!K34)</f>
         <v/>
       </c>
-      <c r="L9" s="16">
-        <f>AVERAGE(Z9:AB9)</f>
-        <v/>
-      </c>
-      <c r="M9" s="7">
-        <f>AVERAGE(AC9:AE9)</f>
-        <v/>
-      </c>
-      <c r="N9" s="6">
-        <f>IF(COUNT(T9:V9)&gt;0,P9/COUNT(T9:V9),0.5)</f>
+      <c r="L9">
+        <f>IF(ISBLANK('By Round'!L34),"",'By Round'!L34)</f>
+        <v/>
+      </c>
+      <c r="M9" s="16">
+        <f>AVERAGE(AA9:AC9)</f>
+        <v/>
+      </c>
+      <c r="N9" s="7">
+        <f>AVERAGE(AD9:AF9)</f>
         <v/>
       </c>
       <c r="O9" s="6">
-        <f>IF(COUNT(W9:Y9)&gt;0,Q9/COUNT(W9:Y9),0.5)</f>
-        <v/>
-      </c>
-      <c r="P9" s="17">
-        <f>SUM(T9:V9)</f>
+        <f>IF(COUNT(U9:W9)&gt;0,Q9/COUNT(U9:W9),0.5)</f>
+        <v/>
+      </c>
+      <c r="P9" s="6">
+        <f>IF(COUNT(X9:Z9)&gt;0,R9/COUNT(X9:Z9),0.5)</f>
         <v/>
       </c>
       <c r="Q9" s="17">
-        <f>SUM(W9:Y9)</f>
-        <v/>
-      </c>
-      <c r="R9" s="18">
-        <f>IF(ISNUMBER(J9),J9,IF(ISNUMBER(K9),-K9,""))</f>
-        <v/>
-      </c>
-      <c r="S9">
-        <f>IF(ISNUMBER(K9),K9,IF(ISNUMBER(J9),-J9,""))</f>
-        <v/>
-      </c>
-      <c r="T9" s="18">
-        <f>IF(ISNUMBER(R9),IF(ISNUMBER(R7),IF(R9&gt;R7,1.0,IF(R9=R7,0.5,0.0)),""),"")</f>
-        <v/>
-      </c>
-      <c r="U9">
-        <f>IF(ISNUMBER(R9),IF(ISNUMBER(R8),IF(R9&gt;R8,1.0,IF(R9=R8,0.5,0.0)),""),"")</f>
+        <f>SUM(U9:W9)</f>
+        <v/>
+      </c>
+      <c r="R9" s="17">
+        <f>SUM(X9:Z9)</f>
+        <v/>
+      </c>
+      <c r="S9" s="18">
+        <f>IF(ISNUMBER(K9),K9,IF(ISNUMBER(L9),-L9,""))</f>
+        <v/>
+      </c>
+      <c r="T9">
+        <f>IF(ISNUMBER(L9),L9,IF(ISNUMBER(K9),-K9,""))</f>
+        <v/>
+      </c>
+      <c r="U9" s="18">
+        <f>IF(ISNUMBER(S9),IF(ISNUMBER(S7),IF(S9&gt;S7,1.0,IF(S9=S7,0.5,0.0)),""),"")</f>
         <v/>
       </c>
       <c r="V9">
-        <f>IF(ISNUMBER(R9),IF(ISNUMBER(R10),IF(R9&gt;R10,1.0,IF(R9=R10,0.5,0.0)),""),"")</f>
+        <f>IF(ISNUMBER(S9),IF(ISNUMBER(S8),IF(S9&gt;S8,1.0,IF(S9=S8,0.5,0.0)),""),"")</f>
         <v/>
       </c>
       <c r="W9">
-        <f>IF(ISNUMBER(S9),IF(ISNUMBER(S7),IF(S9&gt;S7,1.0,IF(S9=S7,0.5,0.0)),""),"")</f>
+        <f>IF(ISNUMBER(S9),IF(ISNUMBER(S10),IF(S9&gt;S10,1.0,IF(S9=S10,0.5,0.0)),""),"")</f>
         <v/>
       </c>
       <c r="X9">
-        <f>IF(ISNUMBER(S9),IF(ISNUMBER(S8),IF(S9&gt;S8,1.0,IF(S9=S8,0.5,0.0)),""),"")</f>
+        <f>IF(ISNUMBER(T9),IF(ISNUMBER(T7),IF(T9&gt;T7,1.0,IF(T9=T7,0.5,0.0)),""),"")</f>
         <v/>
       </c>
       <c r="Y9">
-        <f>IF(ISNUMBER(S9),IF(ISNUMBER(S10),IF(S9&gt;S10,1.0,IF(S9=S10,0.5,0.0)),""),"")</f>
-        <v/>
-      </c>
-      <c r="Z9" s="18">
-        <f>IF(AND(ISNUMBER(R9),ISNUMBER(R7)),VLOOKUP(ABS(R9-R7),'IMP Table'!$A$2:$C$26,3)*SIGN(R9-R7),0)</f>
-        <v/>
-      </c>
-      <c r="AA9">
-        <f>IF(AND(ISNUMBER(R9),ISNUMBER(R8)),VLOOKUP(ABS(R9-R8),'IMP Table'!$A$2:$C$26,3)*SIGN(R9-R8),0)</f>
+        <f>IF(ISNUMBER(T9),IF(ISNUMBER(T8),IF(T9&gt;T8,1.0,IF(T9=T8,0.5,0.0)),""),"")</f>
+        <v/>
+      </c>
+      <c r="Z9">
+        <f>IF(ISNUMBER(T9),IF(ISNUMBER(T10),IF(T9&gt;T10,1.0,IF(T9=T10,0.5,0.0)),""),"")</f>
+        <v/>
+      </c>
+      <c r="AA9" s="18">
+        <f>IF(AND(ISNUMBER(S9),ISNUMBER(S7)),VLOOKUP(ABS(S9-S7),'IMP Table'!$A$2:$C$26,3)*SIGN(S9-S7),0)</f>
         <v/>
       </c>
       <c r="AB9">
-        <f>IF(AND(ISNUMBER(R9),ISNUMBER(R10)),VLOOKUP(ABS(R9-R10),'IMP Table'!$A$2:$C$26,3)*SIGN(R9-R10),0)</f>
+        <f>IF(AND(ISNUMBER(S9),ISNUMBER(S8)),VLOOKUP(ABS(S9-S8),'IMP Table'!$A$2:$C$26,3)*SIGN(S9-S8),0)</f>
         <v/>
       </c>
       <c r="AC9">
-        <f>IF(AND(ISNUMBER(S9),ISNUMBER(S7)),VLOOKUP(ABS(S9-S7),'IMP Table'!$A$2:$C$26,3)*SIGN(S9-S7),0)</f>
+        <f>IF(AND(ISNUMBER(S9),ISNUMBER(S10)),VLOOKUP(ABS(S9-S10),'IMP Table'!$A$2:$C$26,3)*SIGN(S9-S10),0)</f>
         <v/>
       </c>
       <c r="AD9">
-        <f>IF(AND(ISNUMBER(S9),ISNUMBER(S8)),VLOOKUP(ABS(S9-S8),'IMP Table'!$A$2:$C$26,3)*SIGN(S9-S8),0)</f>
+        <f>IF(AND(ISNUMBER(T9),ISNUMBER(T7)),VLOOKUP(ABS(T9-T7),'IMP Table'!$A$2:$C$26,3)*SIGN(T9-T7),0)</f>
         <v/>
       </c>
       <c r="AE9">
-        <f>IF(AND(ISNUMBER(S9),ISNUMBER(S10)),VLOOKUP(ABS(S9-S10),'IMP Table'!$A$2:$C$26,3)*SIGN(S9-S10),0)</f>
+        <f>IF(AND(ISNUMBER(T9),ISNUMBER(T8)),VLOOKUP(ABS(T9-T8),'IMP Table'!$A$2:$C$26,3)*SIGN(T9-T8),0)</f>
+        <v/>
+      </c>
+      <c r="AF9">
+        <f>IF(AND(ISNUMBER(T9),ISNUMBER(T10)),VLOOKUP(ABS(T9-T10),'IMP Table'!$A$2:$C$26,3)*SIGN(T9-T10),0)</f>
         <v/>
       </c>
     </row>
@@ -1896,84 +1934,88 @@
         <f>IF(ISBLANK('By Round'!K25),"",'By Round'!K25)</f>
         <v/>
       </c>
-      <c r="L10" s="20">
-        <f>AVERAGE(Z10:AB10)</f>
-        <v/>
-      </c>
-      <c r="M10" s="21">
-        <f>AVERAGE(AC10:AE10)</f>
-        <v/>
-      </c>
-      <c r="N10" s="22">
-        <f>IF(COUNT(T10:V10)&gt;0,P10/COUNT(T10:V10),0.5)</f>
+      <c r="L10" s="9">
+        <f>IF(ISBLANK('By Round'!L25),"",'By Round'!L25)</f>
+        <v/>
+      </c>
+      <c r="M10" s="20">
+        <f>AVERAGE(AA10:AC10)</f>
+        <v/>
+      </c>
+      <c r="N10" s="21">
+        <f>AVERAGE(AD10:AF10)</f>
         <v/>
       </c>
       <c r="O10" s="22">
-        <f>IF(COUNT(W10:Y10)&gt;0,Q10/COUNT(W10:Y10),0.5)</f>
-        <v/>
-      </c>
-      <c r="P10" s="23">
-        <f>SUM(T10:V10)</f>
+        <f>IF(COUNT(U10:W10)&gt;0,Q10/COUNT(U10:W10),0.5)</f>
+        <v/>
+      </c>
+      <c r="P10" s="22">
+        <f>IF(COUNT(X10:Z10)&gt;0,R10/COUNT(X10:Z10),0.5)</f>
         <v/>
       </c>
       <c r="Q10" s="23">
-        <f>SUM(W10:Y10)</f>
-        <v/>
-      </c>
-      <c r="R10" s="24">
-        <f>IF(ISNUMBER(J10),J10,IF(ISNUMBER(K10),-K10,""))</f>
-        <v/>
-      </c>
-      <c r="S10" s="9">
-        <f>IF(ISNUMBER(K10),K10,IF(ISNUMBER(J10),-J10,""))</f>
-        <v/>
-      </c>
-      <c r="T10" s="24">
-        <f>IF(ISNUMBER(R10),IF(ISNUMBER(R7),IF(R10&gt;R7,1.0,IF(R10=R7,0.5,0.0)),""),"")</f>
-        <v/>
-      </c>
-      <c r="U10" s="9">
-        <f>IF(ISNUMBER(R10),IF(ISNUMBER(R8),IF(R10&gt;R8,1.0,IF(R10=R8,0.5,0.0)),""),"")</f>
+        <f>SUM(U10:W10)</f>
+        <v/>
+      </c>
+      <c r="R10" s="23">
+        <f>SUM(X10:Z10)</f>
+        <v/>
+      </c>
+      <c r="S10" s="24">
+        <f>IF(ISNUMBER(K10),K10,IF(ISNUMBER(L10),-L10,""))</f>
+        <v/>
+      </c>
+      <c r="T10" s="9">
+        <f>IF(ISNUMBER(L10),L10,IF(ISNUMBER(K10),-K10,""))</f>
+        <v/>
+      </c>
+      <c r="U10" s="24">
+        <f>IF(ISNUMBER(S10),IF(ISNUMBER(S7),IF(S10&gt;S7,1.0,IF(S10=S7,0.5,0.0)),""),"")</f>
         <v/>
       </c>
       <c r="V10" s="9">
-        <f>IF(ISNUMBER(R10),IF(ISNUMBER(R9),IF(R10&gt;R9,1.0,IF(R10=R9,0.5,0.0)),""),"")</f>
+        <f>IF(ISNUMBER(S10),IF(ISNUMBER(S8),IF(S10&gt;S8,1.0,IF(S10=S8,0.5,0.0)),""),"")</f>
         <v/>
       </c>
       <c r="W10" s="9">
-        <f>IF(ISNUMBER(S10),IF(ISNUMBER(S7),IF(S10&gt;S7,1.0,IF(S10=S7,0.5,0.0)),""),"")</f>
+        <f>IF(ISNUMBER(S10),IF(ISNUMBER(S9),IF(S10&gt;S9,1.0,IF(S10=S9,0.5,0.0)),""),"")</f>
         <v/>
       </c>
       <c r="X10" s="9">
-        <f>IF(ISNUMBER(S10),IF(ISNUMBER(S8),IF(S10&gt;S8,1.0,IF(S10=S8,0.5,0.0)),""),"")</f>
+        <f>IF(ISNUMBER(T10),IF(ISNUMBER(T7),IF(T10&gt;T7,1.0,IF(T10=T7,0.5,0.0)),""),"")</f>
         <v/>
       </c>
       <c r="Y10" s="9">
-        <f>IF(ISNUMBER(S10),IF(ISNUMBER(S9),IF(S10&gt;S9,1.0,IF(S10=S9,0.5,0.0)),""),"")</f>
-        <v/>
-      </c>
-      <c r="Z10" s="24">
-        <f>IF(AND(ISNUMBER(R10),ISNUMBER(R7)),VLOOKUP(ABS(R10-R7),'IMP Table'!$A$2:$C$26,3)*SIGN(R10-R7),0)</f>
-        <v/>
-      </c>
-      <c r="AA10" s="9">
-        <f>IF(AND(ISNUMBER(R10),ISNUMBER(R8)),VLOOKUP(ABS(R10-R8),'IMP Table'!$A$2:$C$26,3)*SIGN(R10-R8),0)</f>
+        <f>IF(ISNUMBER(T10),IF(ISNUMBER(T8),IF(T10&gt;T8,1.0,IF(T10=T8,0.5,0.0)),""),"")</f>
+        <v/>
+      </c>
+      <c r="Z10" s="9">
+        <f>IF(ISNUMBER(T10),IF(ISNUMBER(T9),IF(T10&gt;T9,1.0,IF(T10=T9,0.5,0.0)),""),"")</f>
+        <v/>
+      </c>
+      <c r="AA10" s="24">
+        <f>IF(AND(ISNUMBER(S10),ISNUMBER(S7)),VLOOKUP(ABS(S10-S7),'IMP Table'!$A$2:$C$26,3)*SIGN(S10-S7),0)</f>
         <v/>
       </c>
       <c r="AB10" s="9">
-        <f>IF(AND(ISNUMBER(R10),ISNUMBER(R9)),VLOOKUP(ABS(R10-R9),'IMP Table'!$A$2:$C$26,3)*SIGN(R10-R9),0)</f>
+        <f>IF(AND(ISNUMBER(S10),ISNUMBER(S8)),VLOOKUP(ABS(S10-S8),'IMP Table'!$A$2:$C$26,3)*SIGN(S10-S8),0)</f>
         <v/>
       </c>
       <c r="AC10" s="9">
-        <f>IF(AND(ISNUMBER(S10),ISNUMBER(S7)),VLOOKUP(ABS(S10-S7),'IMP Table'!$A$2:$C$26,3)*SIGN(S10-S7),0)</f>
+        <f>IF(AND(ISNUMBER(S10),ISNUMBER(S9)),VLOOKUP(ABS(S10-S9),'IMP Table'!$A$2:$C$26,3)*SIGN(S10-S9),0)</f>
         <v/>
       </c>
       <c r="AD10" s="9">
-        <f>IF(AND(ISNUMBER(S10),ISNUMBER(S8)),VLOOKUP(ABS(S10-S8),'IMP Table'!$A$2:$C$26,3)*SIGN(S10-S8),0)</f>
+        <f>IF(AND(ISNUMBER(T10),ISNUMBER(T7)),VLOOKUP(ABS(T10-T7),'IMP Table'!$A$2:$C$26,3)*SIGN(T10-T7),0)</f>
         <v/>
       </c>
       <c r="AE10" s="9">
-        <f>IF(AND(ISNUMBER(S10),ISNUMBER(S9)),VLOOKUP(ABS(S10-S9),'IMP Table'!$A$2:$C$26,3)*SIGN(S10-S9),0)</f>
+        <f>IF(AND(ISNUMBER(T10),ISNUMBER(T8)),VLOOKUP(ABS(T10-T8),'IMP Table'!$A$2:$C$26,3)*SIGN(T10-T8),0)</f>
+        <v/>
+      </c>
+      <c r="AF10" s="9">
+        <f>IF(AND(ISNUMBER(T10),ISNUMBER(T9)),VLOOKUP(ABS(T10-T9),'IMP Table'!$A$2:$C$26,3)*SIGN(T10-T9),0)</f>
         <v/>
       </c>
     </row>
@@ -2021,84 +2063,88 @@
         <f>IF(ISBLANK('By Round'!K5),"",'By Round'!K5)</f>
         <v/>
       </c>
-      <c r="L11" s="16">
-        <f>AVERAGE(Z11:AB11)</f>
-        <v/>
-      </c>
-      <c r="M11" s="7">
-        <f>AVERAGE(AC11:AE11)</f>
-        <v/>
-      </c>
-      <c r="N11" s="6">
-        <f>IF(COUNT(T11:V11)&gt;0,P11/COUNT(T11:V11),0.5)</f>
+      <c r="L11">
+        <f>IF(ISBLANK('By Round'!L5),"",'By Round'!L5)</f>
+        <v/>
+      </c>
+      <c r="M11" s="16">
+        <f>AVERAGE(AA11:AC11)</f>
+        <v/>
+      </c>
+      <c r="N11" s="7">
+        <f>AVERAGE(AD11:AF11)</f>
         <v/>
       </c>
       <c r="O11" s="6">
-        <f>IF(COUNT(W11:Y11)&gt;0,Q11/COUNT(W11:Y11),0.5)</f>
-        <v/>
-      </c>
-      <c r="P11" s="17">
-        <f>SUM(T11:V11)</f>
+        <f>IF(COUNT(U11:W11)&gt;0,Q11/COUNT(U11:W11),0.5)</f>
+        <v/>
+      </c>
+      <c r="P11" s="6">
+        <f>IF(COUNT(X11:Z11)&gt;0,R11/COUNT(X11:Z11),0.5)</f>
         <v/>
       </c>
       <c r="Q11" s="17">
-        <f>SUM(W11:Y11)</f>
-        <v/>
-      </c>
-      <c r="R11" s="18">
-        <f>IF(ISNUMBER(J11),J11,IF(ISNUMBER(K11),-K11,""))</f>
-        <v/>
-      </c>
-      <c r="S11">
-        <f>IF(ISNUMBER(K11),K11,IF(ISNUMBER(J11),-J11,""))</f>
-        <v/>
-      </c>
-      <c r="T11" s="18">
-        <f>IF(ISNUMBER(R11),IF(ISNUMBER(R12),IF(R11&gt;R12,1.0,IF(R11=R12,0.5,0.0)),""),"")</f>
-        <v/>
-      </c>
-      <c r="U11">
-        <f>IF(ISNUMBER(R11),IF(ISNUMBER(R13),IF(R11&gt;R13,1.0,IF(R11=R13,0.5,0.0)),""),"")</f>
+        <f>SUM(U11:W11)</f>
+        <v/>
+      </c>
+      <c r="R11" s="17">
+        <f>SUM(X11:Z11)</f>
+        <v/>
+      </c>
+      <c r="S11" s="18">
+        <f>IF(ISNUMBER(K11),K11,IF(ISNUMBER(L11),-L11,""))</f>
+        <v/>
+      </c>
+      <c r="T11">
+        <f>IF(ISNUMBER(L11),L11,IF(ISNUMBER(K11),-K11,""))</f>
+        <v/>
+      </c>
+      <c r="U11" s="18">
+        <f>IF(ISNUMBER(S11),IF(ISNUMBER(S12),IF(S11&gt;S12,1.0,IF(S11=S12,0.5,0.0)),""),"")</f>
         <v/>
       </c>
       <c r="V11">
-        <f>IF(ISNUMBER(R11),IF(ISNUMBER(R14),IF(R11&gt;R14,1.0,IF(R11=R14,0.5,0.0)),""),"")</f>
+        <f>IF(ISNUMBER(S11),IF(ISNUMBER(S13),IF(S11&gt;S13,1.0,IF(S11=S13,0.5,0.0)),""),"")</f>
         <v/>
       </c>
       <c r="W11">
-        <f>IF(ISNUMBER(S11),IF(ISNUMBER(S12),IF(S11&gt;S12,1.0,IF(S11=S12,0.5,0.0)),""),"")</f>
+        <f>IF(ISNUMBER(S11),IF(ISNUMBER(S14),IF(S11&gt;S14,1.0,IF(S11=S14,0.5,0.0)),""),"")</f>
         <v/>
       </c>
       <c r="X11">
-        <f>IF(ISNUMBER(S11),IF(ISNUMBER(S13),IF(S11&gt;S13,1.0,IF(S11=S13,0.5,0.0)),""),"")</f>
+        <f>IF(ISNUMBER(T11),IF(ISNUMBER(T12),IF(T11&gt;T12,1.0,IF(T11=T12,0.5,0.0)),""),"")</f>
         <v/>
       </c>
       <c r="Y11">
-        <f>IF(ISNUMBER(S11),IF(ISNUMBER(S14),IF(S11&gt;S14,1.0,IF(S11=S14,0.5,0.0)),""),"")</f>
-        <v/>
-      </c>
-      <c r="Z11" s="18">
-        <f>IF(AND(ISNUMBER(R11),ISNUMBER(R12)),VLOOKUP(ABS(R11-R12),'IMP Table'!$A$2:$C$26,3)*SIGN(R11-R12),0)</f>
-        <v/>
-      </c>
-      <c r="AA11">
-        <f>IF(AND(ISNUMBER(R11),ISNUMBER(R13)),VLOOKUP(ABS(R11-R13),'IMP Table'!$A$2:$C$26,3)*SIGN(R11-R13),0)</f>
+        <f>IF(ISNUMBER(T11),IF(ISNUMBER(T13),IF(T11&gt;T13,1.0,IF(T11=T13,0.5,0.0)),""),"")</f>
+        <v/>
+      </c>
+      <c r="Z11">
+        <f>IF(ISNUMBER(T11),IF(ISNUMBER(T14),IF(T11&gt;T14,1.0,IF(T11=T14,0.5,0.0)),""),"")</f>
+        <v/>
+      </c>
+      <c r="AA11" s="18">
+        <f>IF(AND(ISNUMBER(S11),ISNUMBER(S12)),VLOOKUP(ABS(S11-S12),'IMP Table'!$A$2:$C$26,3)*SIGN(S11-S12),0)</f>
         <v/>
       </c>
       <c r="AB11">
-        <f>IF(AND(ISNUMBER(R11),ISNUMBER(R14)),VLOOKUP(ABS(R11-R14),'IMP Table'!$A$2:$C$26,3)*SIGN(R11-R14),0)</f>
+        <f>IF(AND(ISNUMBER(S11),ISNUMBER(S13)),VLOOKUP(ABS(S11-S13),'IMP Table'!$A$2:$C$26,3)*SIGN(S11-S13),0)</f>
         <v/>
       </c>
       <c r="AC11">
-        <f>IF(AND(ISNUMBER(S11),ISNUMBER(S12)),VLOOKUP(ABS(S11-S12),'IMP Table'!$A$2:$C$26,3)*SIGN(S11-S12),0)</f>
+        <f>IF(AND(ISNUMBER(S11),ISNUMBER(S14)),VLOOKUP(ABS(S11-S14),'IMP Table'!$A$2:$C$26,3)*SIGN(S11-S14),0)</f>
         <v/>
       </c>
       <c r="AD11">
-        <f>IF(AND(ISNUMBER(S11),ISNUMBER(S13)),VLOOKUP(ABS(S11-S13),'IMP Table'!$A$2:$C$26,3)*SIGN(S11-S13),0)</f>
+        <f>IF(AND(ISNUMBER(T11),ISNUMBER(T12)),VLOOKUP(ABS(T11-T12),'IMP Table'!$A$2:$C$26,3)*SIGN(T11-T12),0)</f>
         <v/>
       </c>
       <c r="AE11">
-        <f>IF(AND(ISNUMBER(S11),ISNUMBER(S14)),VLOOKUP(ABS(S11-S14),'IMP Table'!$A$2:$C$26,3)*SIGN(S11-S14),0)</f>
+        <f>IF(AND(ISNUMBER(T11),ISNUMBER(T13)),VLOOKUP(ABS(T11-T13),'IMP Table'!$A$2:$C$26,3)*SIGN(T11-T13),0)</f>
+        <v/>
+      </c>
+      <c r="AF11">
+        <f>IF(AND(ISNUMBER(T11),ISNUMBER(T14)),VLOOKUP(ABS(T11-T14),'IMP Table'!$A$2:$C$26,3)*SIGN(T11-T14),0)</f>
         <v/>
       </c>
     </row>
@@ -2143,84 +2189,88 @@
         <f>IF(ISBLANK('By Round'!K44),"",'By Round'!K44)</f>
         <v/>
       </c>
-      <c r="L12" s="16">
-        <f>AVERAGE(Z12:AB12)</f>
-        <v/>
-      </c>
-      <c r="M12" s="7">
-        <f>AVERAGE(AC12:AE12)</f>
-        <v/>
-      </c>
-      <c r="N12" s="6">
-        <f>IF(COUNT(T12:V12)&gt;0,P12/COUNT(T12:V12),0.5)</f>
+      <c r="L12">
+        <f>IF(ISBLANK('By Round'!L44),"",'By Round'!L44)</f>
+        <v/>
+      </c>
+      <c r="M12" s="16">
+        <f>AVERAGE(AA12:AC12)</f>
+        <v/>
+      </c>
+      <c r="N12" s="7">
+        <f>AVERAGE(AD12:AF12)</f>
         <v/>
       </c>
       <c r="O12" s="6">
-        <f>IF(COUNT(W12:Y12)&gt;0,Q12/COUNT(W12:Y12),0.5)</f>
-        <v/>
-      </c>
-      <c r="P12" s="17">
-        <f>SUM(T12:V12)</f>
+        <f>IF(COUNT(U12:W12)&gt;0,Q12/COUNT(U12:W12),0.5)</f>
+        <v/>
+      </c>
+      <c r="P12" s="6">
+        <f>IF(COUNT(X12:Z12)&gt;0,R12/COUNT(X12:Z12),0.5)</f>
         <v/>
       </c>
       <c r="Q12" s="17">
-        <f>SUM(W12:Y12)</f>
-        <v/>
-      </c>
-      <c r="R12" s="18">
-        <f>IF(ISNUMBER(J12),J12,IF(ISNUMBER(K12),-K12,""))</f>
-        <v/>
-      </c>
-      <c r="S12">
-        <f>IF(ISNUMBER(K12),K12,IF(ISNUMBER(J12),-J12,""))</f>
-        <v/>
-      </c>
-      <c r="T12" s="18">
-        <f>IF(ISNUMBER(R12),IF(ISNUMBER(R11),IF(R12&gt;R11,1.0,IF(R12=R11,0.5,0.0)),""),"")</f>
-        <v/>
-      </c>
-      <c r="U12">
-        <f>IF(ISNUMBER(R12),IF(ISNUMBER(R13),IF(R12&gt;R13,1.0,IF(R12=R13,0.5,0.0)),""),"")</f>
+        <f>SUM(U12:W12)</f>
+        <v/>
+      </c>
+      <c r="R12" s="17">
+        <f>SUM(X12:Z12)</f>
+        <v/>
+      </c>
+      <c r="S12" s="18">
+        <f>IF(ISNUMBER(K12),K12,IF(ISNUMBER(L12),-L12,""))</f>
+        <v/>
+      </c>
+      <c r="T12">
+        <f>IF(ISNUMBER(L12),L12,IF(ISNUMBER(K12),-K12,""))</f>
+        <v/>
+      </c>
+      <c r="U12" s="18">
+        <f>IF(ISNUMBER(S12),IF(ISNUMBER(S11),IF(S12&gt;S11,1.0,IF(S12=S11,0.5,0.0)),""),"")</f>
         <v/>
       </c>
       <c r="V12">
-        <f>IF(ISNUMBER(R12),IF(ISNUMBER(R14),IF(R12&gt;R14,1.0,IF(R12=R14,0.5,0.0)),""),"")</f>
+        <f>IF(ISNUMBER(S12),IF(ISNUMBER(S13),IF(S12&gt;S13,1.0,IF(S12=S13,0.5,0.0)),""),"")</f>
         <v/>
       </c>
       <c r="W12">
-        <f>IF(ISNUMBER(S12),IF(ISNUMBER(S11),IF(S12&gt;S11,1.0,IF(S12=S11,0.5,0.0)),""),"")</f>
+        <f>IF(ISNUMBER(S12),IF(ISNUMBER(S14),IF(S12&gt;S14,1.0,IF(S12=S14,0.5,0.0)),""),"")</f>
         <v/>
       </c>
       <c r="X12">
-        <f>IF(ISNUMBER(S12),IF(ISNUMBER(S13),IF(S12&gt;S13,1.0,IF(S12=S13,0.5,0.0)),""),"")</f>
+        <f>IF(ISNUMBER(T12),IF(ISNUMBER(T11),IF(T12&gt;T11,1.0,IF(T12=T11,0.5,0.0)),""),"")</f>
         <v/>
       </c>
       <c r="Y12">
-        <f>IF(ISNUMBER(S12),IF(ISNUMBER(S14),IF(S12&gt;S14,1.0,IF(S12=S14,0.5,0.0)),""),"")</f>
-        <v/>
-      </c>
-      <c r="Z12" s="18">
-        <f>IF(AND(ISNUMBER(R12),ISNUMBER(R11)),VLOOKUP(ABS(R12-R11),'IMP Table'!$A$2:$C$26,3)*SIGN(R12-R11),0)</f>
-        <v/>
-      </c>
-      <c r="AA12">
-        <f>IF(AND(ISNUMBER(R12),ISNUMBER(R13)),VLOOKUP(ABS(R12-R13),'IMP Table'!$A$2:$C$26,3)*SIGN(R12-R13),0)</f>
+        <f>IF(ISNUMBER(T12),IF(ISNUMBER(T13),IF(T12&gt;T13,1.0,IF(T12=T13,0.5,0.0)),""),"")</f>
+        <v/>
+      </c>
+      <c r="Z12">
+        <f>IF(ISNUMBER(T12),IF(ISNUMBER(T14),IF(T12&gt;T14,1.0,IF(T12=T14,0.5,0.0)),""),"")</f>
+        <v/>
+      </c>
+      <c r="AA12" s="18">
+        <f>IF(AND(ISNUMBER(S12),ISNUMBER(S11)),VLOOKUP(ABS(S12-S11),'IMP Table'!$A$2:$C$26,3)*SIGN(S12-S11),0)</f>
         <v/>
       </c>
       <c r="AB12">
-        <f>IF(AND(ISNUMBER(R12),ISNUMBER(R14)),VLOOKUP(ABS(R12-R14),'IMP Table'!$A$2:$C$26,3)*SIGN(R12-R14),0)</f>
+        <f>IF(AND(ISNUMBER(S12),ISNUMBER(S13)),VLOOKUP(ABS(S12-S13),'IMP Table'!$A$2:$C$26,3)*SIGN(S12-S13),0)</f>
         <v/>
       </c>
       <c r="AC12">
-        <f>IF(AND(ISNUMBER(S12),ISNUMBER(S11)),VLOOKUP(ABS(S12-S11),'IMP Table'!$A$2:$C$26,3)*SIGN(S12-S11),0)</f>
+        <f>IF(AND(ISNUMBER(S12),ISNUMBER(S14)),VLOOKUP(ABS(S12-S14),'IMP Table'!$A$2:$C$26,3)*SIGN(S12-S14),0)</f>
         <v/>
       </c>
       <c r="AD12">
-        <f>IF(AND(ISNUMBER(S12),ISNUMBER(S13)),VLOOKUP(ABS(S12-S13),'IMP Table'!$A$2:$C$26,3)*SIGN(S12-S13),0)</f>
+        <f>IF(AND(ISNUMBER(T12),ISNUMBER(T11)),VLOOKUP(ABS(T12-T11),'IMP Table'!$A$2:$C$26,3)*SIGN(T12-T11),0)</f>
         <v/>
       </c>
       <c r="AE12">
-        <f>IF(AND(ISNUMBER(S12),ISNUMBER(S14)),VLOOKUP(ABS(S12-S14),'IMP Table'!$A$2:$C$26,3)*SIGN(S12-S14),0)</f>
+        <f>IF(AND(ISNUMBER(T12),ISNUMBER(T13)),VLOOKUP(ABS(T12-T13),'IMP Table'!$A$2:$C$26,3)*SIGN(T12-T13),0)</f>
+        <v/>
+      </c>
+      <c r="AF12">
+        <f>IF(AND(ISNUMBER(T12),ISNUMBER(T14)),VLOOKUP(ABS(T12-T14),'IMP Table'!$A$2:$C$26,3)*SIGN(T12-T14),0)</f>
         <v/>
       </c>
     </row>
@@ -2265,84 +2315,88 @@
         <f>IF(ISBLANK('By Round'!K35),"",'By Round'!K35)</f>
         <v/>
       </c>
-      <c r="L13" s="16">
-        <f>AVERAGE(Z13:AB13)</f>
-        <v/>
-      </c>
-      <c r="M13" s="7">
-        <f>AVERAGE(AC13:AE13)</f>
-        <v/>
-      </c>
-      <c r="N13" s="6">
-        <f>IF(COUNT(T13:V13)&gt;0,P13/COUNT(T13:V13),0.5)</f>
+      <c r="L13">
+        <f>IF(ISBLANK('By Round'!L35),"",'By Round'!L35)</f>
+        <v/>
+      </c>
+      <c r="M13" s="16">
+        <f>AVERAGE(AA13:AC13)</f>
+        <v/>
+      </c>
+      <c r="N13" s="7">
+        <f>AVERAGE(AD13:AF13)</f>
         <v/>
       </c>
       <c r="O13" s="6">
-        <f>IF(COUNT(W13:Y13)&gt;0,Q13/COUNT(W13:Y13),0.5)</f>
-        <v/>
-      </c>
-      <c r="P13" s="17">
-        <f>SUM(T13:V13)</f>
+        <f>IF(COUNT(U13:W13)&gt;0,Q13/COUNT(U13:W13),0.5)</f>
+        <v/>
+      </c>
+      <c r="P13" s="6">
+        <f>IF(COUNT(X13:Z13)&gt;0,R13/COUNT(X13:Z13),0.5)</f>
         <v/>
       </c>
       <c r="Q13" s="17">
-        <f>SUM(W13:Y13)</f>
-        <v/>
-      </c>
-      <c r="R13" s="18">
-        <f>IF(ISNUMBER(J13),J13,IF(ISNUMBER(K13),-K13,""))</f>
-        <v/>
-      </c>
-      <c r="S13">
-        <f>IF(ISNUMBER(K13),K13,IF(ISNUMBER(J13),-J13,""))</f>
-        <v/>
-      </c>
-      <c r="T13" s="18">
-        <f>IF(ISNUMBER(R13),IF(ISNUMBER(R11),IF(R13&gt;R11,1.0,IF(R13=R11,0.5,0.0)),""),"")</f>
-        <v/>
-      </c>
-      <c r="U13">
-        <f>IF(ISNUMBER(R13),IF(ISNUMBER(R12),IF(R13&gt;R12,1.0,IF(R13=R12,0.5,0.0)),""),"")</f>
+        <f>SUM(U13:W13)</f>
+        <v/>
+      </c>
+      <c r="R13" s="17">
+        <f>SUM(X13:Z13)</f>
+        <v/>
+      </c>
+      <c r="S13" s="18">
+        <f>IF(ISNUMBER(K13),K13,IF(ISNUMBER(L13),-L13,""))</f>
+        <v/>
+      </c>
+      <c r="T13">
+        <f>IF(ISNUMBER(L13),L13,IF(ISNUMBER(K13),-K13,""))</f>
+        <v/>
+      </c>
+      <c r="U13" s="18">
+        <f>IF(ISNUMBER(S13),IF(ISNUMBER(S11),IF(S13&gt;S11,1.0,IF(S13=S11,0.5,0.0)),""),"")</f>
         <v/>
       </c>
       <c r="V13">
-        <f>IF(ISNUMBER(R13),IF(ISNUMBER(R14),IF(R13&gt;R14,1.0,IF(R13=R14,0.5,0.0)),""),"")</f>
+        <f>IF(ISNUMBER(S13),IF(ISNUMBER(S12),IF(S13&gt;S12,1.0,IF(S13=S12,0.5,0.0)),""),"")</f>
         <v/>
       </c>
       <c r="W13">
-        <f>IF(ISNUMBER(S13),IF(ISNUMBER(S11),IF(S13&gt;S11,1.0,IF(S13=S11,0.5,0.0)),""),"")</f>
+        <f>IF(ISNUMBER(S13),IF(ISNUMBER(S14),IF(S13&gt;S14,1.0,IF(S13=S14,0.5,0.0)),""),"")</f>
         <v/>
       </c>
       <c r="X13">
-        <f>IF(ISNUMBER(S13),IF(ISNUMBER(S12),IF(S13&gt;S12,1.0,IF(S13=S12,0.5,0.0)),""),"")</f>
+        <f>IF(ISNUMBER(T13),IF(ISNUMBER(T11),IF(T13&gt;T11,1.0,IF(T13=T11,0.5,0.0)),""),"")</f>
         <v/>
       </c>
       <c r="Y13">
-        <f>IF(ISNUMBER(S13),IF(ISNUMBER(S14),IF(S13&gt;S14,1.0,IF(S13=S14,0.5,0.0)),""),"")</f>
-        <v/>
-      </c>
-      <c r="Z13" s="18">
-        <f>IF(AND(ISNUMBER(R13),ISNUMBER(R11)),VLOOKUP(ABS(R13-R11),'IMP Table'!$A$2:$C$26,3)*SIGN(R13-R11),0)</f>
-        <v/>
-      </c>
-      <c r="AA13">
-        <f>IF(AND(ISNUMBER(R13),ISNUMBER(R12)),VLOOKUP(ABS(R13-R12),'IMP Table'!$A$2:$C$26,3)*SIGN(R13-R12),0)</f>
+        <f>IF(ISNUMBER(T13),IF(ISNUMBER(T12),IF(T13&gt;T12,1.0,IF(T13=T12,0.5,0.0)),""),"")</f>
+        <v/>
+      </c>
+      <c r="Z13">
+        <f>IF(ISNUMBER(T13),IF(ISNUMBER(T14),IF(T13&gt;T14,1.0,IF(T13=T14,0.5,0.0)),""),"")</f>
+        <v/>
+      </c>
+      <c r="AA13" s="18">
+        <f>IF(AND(ISNUMBER(S13),ISNUMBER(S11)),VLOOKUP(ABS(S13-S11),'IMP Table'!$A$2:$C$26,3)*SIGN(S13-S11),0)</f>
         <v/>
       </c>
       <c r="AB13">
-        <f>IF(AND(ISNUMBER(R13),ISNUMBER(R14)),VLOOKUP(ABS(R13-R14),'IMP Table'!$A$2:$C$26,3)*SIGN(R13-R14),0)</f>
+        <f>IF(AND(ISNUMBER(S13),ISNUMBER(S12)),VLOOKUP(ABS(S13-S12),'IMP Table'!$A$2:$C$26,3)*SIGN(S13-S12),0)</f>
         <v/>
       </c>
       <c r="AC13">
-        <f>IF(AND(ISNUMBER(S13),ISNUMBER(S11)),VLOOKUP(ABS(S13-S11),'IMP Table'!$A$2:$C$26,3)*SIGN(S13-S11),0)</f>
+        <f>IF(AND(ISNUMBER(S13),ISNUMBER(S14)),VLOOKUP(ABS(S13-S14),'IMP Table'!$A$2:$C$26,3)*SIGN(S13-S14),0)</f>
         <v/>
       </c>
       <c r="AD13">
-        <f>IF(AND(ISNUMBER(S13),ISNUMBER(S12)),VLOOKUP(ABS(S13-S12),'IMP Table'!$A$2:$C$26,3)*SIGN(S13-S12),0)</f>
+        <f>IF(AND(ISNUMBER(T13),ISNUMBER(T11)),VLOOKUP(ABS(T13-T11),'IMP Table'!$A$2:$C$26,3)*SIGN(T13-T11),0)</f>
         <v/>
       </c>
       <c r="AE13">
-        <f>IF(AND(ISNUMBER(S13),ISNUMBER(S14)),VLOOKUP(ABS(S13-S14),'IMP Table'!$A$2:$C$26,3)*SIGN(S13-S14),0)</f>
+        <f>IF(AND(ISNUMBER(T13),ISNUMBER(T12)),VLOOKUP(ABS(T13-T12),'IMP Table'!$A$2:$C$26,3)*SIGN(T13-T12),0)</f>
+        <v/>
+      </c>
+      <c r="AF13">
+        <f>IF(AND(ISNUMBER(T13),ISNUMBER(T14)),VLOOKUP(ABS(T13-T14),'IMP Table'!$A$2:$C$26,3)*SIGN(T13-T14),0)</f>
         <v/>
       </c>
     </row>
@@ -2388,84 +2442,88 @@
         <f>IF(ISBLANK('By Round'!K26),"",'By Round'!K26)</f>
         <v/>
       </c>
-      <c r="L14" s="20">
-        <f>AVERAGE(Z14:AB14)</f>
-        <v/>
-      </c>
-      <c r="M14" s="21">
-        <f>AVERAGE(AC14:AE14)</f>
-        <v/>
-      </c>
-      <c r="N14" s="22">
-        <f>IF(COUNT(T14:V14)&gt;0,P14/COUNT(T14:V14),0.5)</f>
+      <c r="L14" s="9">
+        <f>IF(ISBLANK('By Round'!L26),"",'By Round'!L26)</f>
+        <v/>
+      </c>
+      <c r="M14" s="20">
+        <f>AVERAGE(AA14:AC14)</f>
+        <v/>
+      </c>
+      <c r="N14" s="21">
+        <f>AVERAGE(AD14:AF14)</f>
         <v/>
       </c>
       <c r="O14" s="22">
-        <f>IF(COUNT(W14:Y14)&gt;0,Q14/COUNT(W14:Y14),0.5)</f>
-        <v/>
-      </c>
-      <c r="P14" s="23">
-        <f>SUM(T14:V14)</f>
+        <f>IF(COUNT(U14:W14)&gt;0,Q14/COUNT(U14:W14),0.5)</f>
+        <v/>
+      </c>
+      <c r="P14" s="22">
+        <f>IF(COUNT(X14:Z14)&gt;0,R14/COUNT(X14:Z14),0.5)</f>
         <v/>
       </c>
       <c r="Q14" s="23">
-        <f>SUM(W14:Y14)</f>
-        <v/>
-      </c>
-      <c r="R14" s="24">
-        <f>IF(ISNUMBER(J14),J14,IF(ISNUMBER(K14),-K14,""))</f>
-        <v/>
-      </c>
-      <c r="S14" s="9">
-        <f>IF(ISNUMBER(K14),K14,IF(ISNUMBER(J14),-J14,""))</f>
-        <v/>
-      </c>
-      <c r="T14" s="24">
-        <f>IF(ISNUMBER(R14),IF(ISNUMBER(R11),IF(R14&gt;R11,1.0,IF(R14=R11,0.5,0.0)),""),"")</f>
-        <v/>
-      </c>
-      <c r="U14" s="9">
-        <f>IF(ISNUMBER(R14),IF(ISNUMBER(R12),IF(R14&gt;R12,1.0,IF(R14=R12,0.5,0.0)),""),"")</f>
+        <f>SUM(U14:W14)</f>
+        <v/>
+      </c>
+      <c r="R14" s="23">
+        <f>SUM(X14:Z14)</f>
+        <v/>
+      </c>
+      <c r="S14" s="24">
+        <f>IF(ISNUMBER(K14),K14,IF(ISNUMBER(L14),-L14,""))</f>
+        <v/>
+      </c>
+      <c r="T14" s="9">
+        <f>IF(ISNUMBER(L14),L14,IF(ISNUMBER(K14),-K14,""))</f>
+        <v/>
+      </c>
+      <c r="U14" s="24">
+        <f>IF(ISNUMBER(S14),IF(ISNUMBER(S11),IF(S14&gt;S11,1.0,IF(S14=S11,0.5,0.0)),""),"")</f>
         <v/>
       </c>
       <c r="V14" s="9">
-        <f>IF(ISNUMBER(R14),IF(ISNUMBER(R13),IF(R14&gt;R13,1.0,IF(R14=R13,0.5,0.0)),""),"")</f>
+        <f>IF(ISNUMBER(S14),IF(ISNUMBER(S12),IF(S14&gt;S12,1.0,IF(S14=S12,0.5,0.0)),""),"")</f>
         <v/>
       </c>
       <c r="W14" s="9">
-        <f>IF(ISNUMBER(S14),IF(ISNUMBER(S11),IF(S14&gt;S11,1.0,IF(S14=S11,0.5,0.0)),""),"")</f>
+        <f>IF(ISNUMBER(S14),IF(ISNUMBER(S13),IF(S14&gt;S13,1.0,IF(S14=S13,0.5,0.0)),""),"")</f>
         <v/>
       </c>
       <c r="X14" s="9">
-        <f>IF(ISNUMBER(S14),IF(ISNUMBER(S12),IF(S14&gt;S12,1.0,IF(S14=S12,0.5,0.0)),""),"")</f>
+        <f>IF(ISNUMBER(T14),IF(ISNUMBER(T11),IF(T14&gt;T11,1.0,IF(T14=T11,0.5,0.0)),""),"")</f>
         <v/>
       </c>
       <c r="Y14" s="9">
-        <f>IF(ISNUMBER(S14),IF(ISNUMBER(S13),IF(S14&gt;S13,1.0,IF(S14=S13,0.5,0.0)),""),"")</f>
-        <v/>
-      </c>
-      <c r="Z14" s="24">
-        <f>IF(AND(ISNUMBER(R14),ISNUMBER(R11)),VLOOKUP(ABS(R14-R11),'IMP Table'!$A$2:$C$26,3)*SIGN(R14-R11),0)</f>
-        <v/>
-      </c>
-      <c r="AA14" s="9">
-        <f>IF(AND(ISNUMBER(R14),ISNUMBER(R12)),VLOOKUP(ABS(R14-R12),'IMP Table'!$A$2:$C$26,3)*SIGN(R14-R12),0)</f>
+        <f>IF(ISNUMBER(T14),IF(ISNUMBER(T12),IF(T14&gt;T12,1.0,IF(T14=T12,0.5,0.0)),""),"")</f>
+        <v/>
+      </c>
+      <c r="Z14" s="9">
+        <f>IF(ISNUMBER(T14),IF(ISNUMBER(T13),IF(T14&gt;T13,1.0,IF(T14=T13,0.5,0.0)),""),"")</f>
+        <v/>
+      </c>
+      <c r="AA14" s="24">
+        <f>IF(AND(ISNUMBER(S14),ISNUMBER(S11)),VLOOKUP(ABS(S14-S11),'IMP Table'!$A$2:$C$26,3)*SIGN(S14-S11),0)</f>
         <v/>
       </c>
       <c r="AB14" s="9">
-        <f>IF(AND(ISNUMBER(R14),ISNUMBER(R13)),VLOOKUP(ABS(R14-R13),'IMP Table'!$A$2:$C$26,3)*SIGN(R14-R13),0)</f>
+        <f>IF(AND(ISNUMBER(S14),ISNUMBER(S12)),VLOOKUP(ABS(S14-S12),'IMP Table'!$A$2:$C$26,3)*SIGN(S14-S12),0)</f>
         <v/>
       </c>
       <c r="AC14" s="9">
-        <f>IF(AND(ISNUMBER(S14),ISNUMBER(S11)),VLOOKUP(ABS(S14-S11),'IMP Table'!$A$2:$C$26,3)*SIGN(S14-S11),0)</f>
+        <f>IF(AND(ISNUMBER(S14),ISNUMBER(S13)),VLOOKUP(ABS(S14-S13),'IMP Table'!$A$2:$C$26,3)*SIGN(S14-S13),0)</f>
         <v/>
       </c>
       <c r="AD14" s="9">
-        <f>IF(AND(ISNUMBER(S14),ISNUMBER(S12)),VLOOKUP(ABS(S14-S12),'IMP Table'!$A$2:$C$26,3)*SIGN(S14-S12),0)</f>
+        <f>IF(AND(ISNUMBER(T14),ISNUMBER(T11)),VLOOKUP(ABS(T14-T11),'IMP Table'!$A$2:$C$26,3)*SIGN(T14-T11),0)</f>
         <v/>
       </c>
       <c r="AE14" s="9">
-        <f>IF(AND(ISNUMBER(S14),ISNUMBER(S13)),VLOOKUP(ABS(S14-S13),'IMP Table'!$A$2:$C$26,3)*SIGN(S14-S13),0)</f>
+        <f>IF(AND(ISNUMBER(T14),ISNUMBER(T12)),VLOOKUP(ABS(T14-T12),'IMP Table'!$A$2:$C$26,3)*SIGN(T14-T12),0)</f>
+        <v/>
+      </c>
+      <c r="AF14" s="9">
+        <f>IF(AND(ISNUMBER(T14),ISNUMBER(T13)),VLOOKUP(ABS(T14-T13),'IMP Table'!$A$2:$C$26,3)*SIGN(T14-T13),0)</f>
         <v/>
       </c>
     </row>
@@ -2513,84 +2571,88 @@
         <f>IF(ISBLANK('By Round'!K39),"",'By Round'!K39)</f>
         <v/>
       </c>
-      <c r="L15" s="16">
-        <f>AVERAGE(Z15:AB15)</f>
-        <v/>
-      </c>
-      <c r="M15" s="7">
-        <f>AVERAGE(AC15:AE15)</f>
-        <v/>
-      </c>
-      <c r="N15" s="6">
-        <f>IF(COUNT(T15:V15)&gt;0,P15/COUNT(T15:V15),0.5)</f>
+      <c r="L15">
+        <f>IF(ISBLANK('By Round'!L39),"",'By Round'!L39)</f>
+        <v/>
+      </c>
+      <c r="M15" s="16">
+        <f>AVERAGE(AA15:AC15)</f>
+        <v/>
+      </c>
+      <c r="N15" s="7">
+        <f>AVERAGE(AD15:AF15)</f>
         <v/>
       </c>
       <c r="O15" s="6">
-        <f>IF(COUNT(W15:Y15)&gt;0,Q15/COUNT(W15:Y15),0.5)</f>
-        <v/>
-      </c>
-      <c r="P15" s="17">
-        <f>SUM(T15:V15)</f>
+        <f>IF(COUNT(U15:W15)&gt;0,Q15/COUNT(U15:W15),0.5)</f>
+        <v/>
+      </c>
+      <c r="P15" s="6">
+        <f>IF(COUNT(X15:Z15)&gt;0,R15/COUNT(X15:Z15),0.5)</f>
         <v/>
       </c>
       <c r="Q15" s="17">
-        <f>SUM(W15:Y15)</f>
-        <v/>
-      </c>
-      <c r="R15" s="18">
-        <f>IF(ISNUMBER(J15),J15,IF(ISNUMBER(K15),-K15,""))</f>
-        <v/>
-      </c>
-      <c r="S15">
-        <f>IF(ISNUMBER(K15),K15,IF(ISNUMBER(J15),-J15,""))</f>
-        <v/>
-      </c>
-      <c r="T15" s="18">
-        <f>IF(ISNUMBER(R15),IF(ISNUMBER(R16),IF(R15&gt;R16,1.0,IF(R15=R16,0.5,0.0)),""),"")</f>
-        <v/>
-      </c>
-      <c r="U15">
-        <f>IF(ISNUMBER(R15),IF(ISNUMBER(R17),IF(R15&gt;R17,1.0,IF(R15=R17,0.5,0.0)),""),"")</f>
+        <f>SUM(U15:W15)</f>
+        <v/>
+      </c>
+      <c r="R15" s="17">
+        <f>SUM(X15:Z15)</f>
+        <v/>
+      </c>
+      <c r="S15" s="18">
+        <f>IF(ISNUMBER(K15),K15,IF(ISNUMBER(L15),-L15,""))</f>
+        <v/>
+      </c>
+      <c r="T15">
+        <f>IF(ISNUMBER(L15),L15,IF(ISNUMBER(K15),-K15,""))</f>
+        <v/>
+      </c>
+      <c r="U15" s="18">
+        <f>IF(ISNUMBER(S15),IF(ISNUMBER(S16),IF(S15&gt;S16,1.0,IF(S15=S16,0.5,0.0)),""),"")</f>
         <v/>
       </c>
       <c r="V15">
-        <f>IF(ISNUMBER(R15),IF(ISNUMBER(R18),IF(R15&gt;R18,1.0,IF(R15=R18,0.5,0.0)),""),"")</f>
+        <f>IF(ISNUMBER(S15),IF(ISNUMBER(S17),IF(S15&gt;S17,1.0,IF(S15=S17,0.5,0.0)),""),"")</f>
         <v/>
       </c>
       <c r="W15">
-        <f>IF(ISNUMBER(S15),IF(ISNUMBER(S16),IF(S15&gt;S16,1.0,IF(S15=S16,0.5,0.0)),""),"")</f>
+        <f>IF(ISNUMBER(S15),IF(ISNUMBER(S18),IF(S15&gt;S18,1.0,IF(S15=S18,0.5,0.0)),""),"")</f>
         <v/>
       </c>
       <c r="X15">
-        <f>IF(ISNUMBER(S15),IF(ISNUMBER(S17),IF(S15&gt;S17,1.0,IF(S15=S17,0.5,0.0)),""),"")</f>
+        <f>IF(ISNUMBER(T15),IF(ISNUMBER(T16),IF(T15&gt;T16,1.0,IF(T15=T16,0.5,0.0)),""),"")</f>
         <v/>
       </c>
       <c r="Y15">
-        <f>IF(ISNUMBER(S15),IF(ISNUMBER(S18),IF(S15&gt;S18,1.0,IF(S15=S18,0.5,0.0)),""),"")</f>
-        <v/>
-      </c>
-      <c r="Z15" s="18">
-        <f>IF(AND(ISNUMBER(R15),ISNUMBER(R16)),VLOOKUP(ABS(R15-R16),'IMP Table'!$A$2:$C$26,3)*SIGN(R15-R16),0)</f>
-        <v/>
-      </c>
-      <c r="AA15">
-        <f>IF(AND(ISNUMBER(R15),ISNUMBER(R17)),VLOOKUP(ABS(R15-R17),'IMP Table'!$A$2:$C$26,3)*SIGN(R15-R17),0)</f>
+        <f>IF(ISNUMBER(T15),IF(ISNUMBER(T17),IF(T15&gt;T17,1.0,IF(T15=T17,0.5,0.0)),""),"")</f>
+        <v/>
+      </c>
+      <c r="Z15">
+        <f>IF(ISNUMBER(T15),IF(ISNUMBER(T18),IF(T15&gt;T18,1.0,IF(T15=T18,0.5,0.0)),""),"")</f>
+        <v/>
+      </c>
+      <c r="AA15" s="18">
+        <f>IF(AND(ISNUMBER(S15),ISNUMBER(S16)),VLOOKUP(ABS(S15-S16),'IMP Table'!$A$2:$C$26,3)*SIGN(S15-S16),0)</f>
         <v/>
       </c>
       <c r="AB15">
-        <f>IF(AND(ISNUMBER(R15),ISNUMBER(R18)),VLOOKUP(ABS(R15-R18),'IMP Table'!$A$2:$C$26,3)*SIGN(R15-R18),0)</f>
+        <f>IF(AND(ISNUMBER(S15),ISNUMBER(S17)),VLOOKUP(ABS(S15-S17),'IMP Table'!$A$2:$C$26,3)*SIGN(S15-S17),0)</f>
         <v/>
       </c>
       <c r="AC15">
-        <f>IF(AND(ISNUMBER(S15),ISNUMBER(S16)),VLOOKUP(ABS(S15-S16),'IMP Table'!$A$2:$C$26,3)*SIGN(S15-S16),0)</f>
+        <f>IF(AND(ISNUMBER(S15),ISNUMBER(S18)),VLOOKUP(ABS(S15-S18),'IMP Table'!$A$2:$C$26,3)*SIGN(S15-S18),0)</f>
         <v/>
       </c>
       <c r="AD15">
-        <f>IF(AND(ISNUMBER(S15),ISNUMBER(S17)),VLOOKUP(ABS(S15-S17),'IMP Table'!$A$2:$C$26,3)*SIGN(S15-S17),0)</f>
+        <f>IF(AND(ISNUMBER(T15),ISNUMBER(T16)),VLOOKUP(ABS(T15-T16),'IMP Table'!$A$2:$C$26,3)*SIGN(T15-T16),0)</f>
         <v/>
       </c>
       <c r="AE15">
-        <f>IF(AND(ISNUMBER(S15),ISNUMBER(S18)),VLOOKUP(ABS(S15-S18),'IMP Table'!$A$2:$C$26,3)*SIGN(S15-S18),0)</f>
+        <f>IF(AND(ISNUMBER(T15),ISNUMBER(T17)),VLOOKUP(ABS(T15-T17),'IMP Table'!$A$2:$C$26,3)*SIGN(T15-T17),0)</f>
+        <v/>
+      </c>
+      <c r="AF15">
+        <f>IF(AND(ISNUMBER(T15),ISNUMBER(T18)),VLOOKUP(ABS(T15-T18),'IMP Table'!$A$2:$C$26,3)*SIGN(T15-T18),0)</f>
         <v/>
       </c>
     </row>
@@ -2635,84 +2697,88 @@
         <f>IF(ISBLANK('By Round'!K6),"",'By Round'!K6)</f>
         <v/>
       </c>
-      <c r="L16" s="16">
-        <f>AVERAGE(Z16:AB16)</f>
-        <v/>
-      </c>
-      <c r="M16" s="7">
-        <f>AVERAGE(AC16:AE16)</f>
-        <v/>
-      </c>
-      <c r="N16" s="6">
-        <f>IF(COUNT(T16:V16)&gt;0,P16/COUNT(T16:V16),0.5)</f>
+      <c r="L16">
+        <f>IF(ISBLANK('By Round'!L6),"",'By Round'!L6)</f>
+        <v/>
+      </c>
+      <c r="M16" s="16">
+        <f>AVERAGE(AA16:AC16)</f>
+        <v/>
+      </c>
+      <c r="N16" s="7">
+        <f>AVERAGE(AD16:AF16)</f>
         <v/>
       </c>
       <c r="O16" s="6">
-        <f>IF(COUNT(W16:Y16)&gt;0,Q16/COUNT(W16:Y16),0.5)</f>
-        <v/>
-      </c>
-      <c r="P16" s="17">
-        <f>SUM(T16:V16)</f>
+        <f>IF(COUNT(U16:W16)&gt;0,Q16/COUNT(U16:W16),0.5)</f>
+        <v/>
+      </c>
+      <c r="P16" s="6">
+        <f>IF(COUNT(X16:Z16)&gt;0,R16/COUNT(X16:Z16),0.5)</f>
         <v/>
       </c>
       <c r="Q16" s="17">
-        <f>SUM(W16:Y16)</f>
-        <v/>
-      </c>
-      <c r="R16" s="18">
-        <f>IF(ISNUMBER(J16),J16,IF(ISNUMBER(K16),-K16,""))</f>
-        <v/>
-      </c>
-      <c r="S16">
-        <f>IF(ISNUMBER(K16),K16,IF(ISNUMBER(J16),-J16,""))</f>
-        <v/>
-      </c>
-      <c r="T16" s="18">
-        <f>IF(ISNUMBER(R16),IF(ISNUMBER(R15),IF(R16&gt;R15,1.0,IF(R16=R15,0.5,0.0)),""),"")</f>
-        <v/>
-      </c>
-      <c r="U16">
-        <f>IF(ISNUMBER(R16),IF(ISNUMBER(R17),IF(R16&gt;R17,1.0,IF(R16=R17,0.5,0.0)),""),"")</f>
+        <f>SUM(U16:W16)</f>
+        <v/>
+      </c>
+      <c r="R16" s="17">
+        <f>SUM(X16:Z16)</f>
+        <v/>
+      </c>
+      <c r="S16" s="18">
+        <f>IF(ISNUMBER(K16),K16,IF(ISNUMBER(L16),-L16,""))</f>
+        <v/>
+      </c>
+      <c r="T16">
+        <f>IF(ISNUMBER(L16),L16,IF(ISNUMBER(K16),-K16,""))</f>
+        <v/>
+      </c>
+      <c r="U16" s="18">
+        <f>IF(ISNUMBER(S16),IF(ISNUMBER(S15),IF(S16&gt;S15,1.0,IF(S16=S15,0.5,0.0)),""),"")</f>
         <v/>
       </c>
       <c r="V16">
-        <f>IF(ISNUMBER(R16),IF(ISNUMBER(R18),IF(R16&gt;R18,1.0,IF(R16=R18,0.5,0.0)),""),"")</f>
+        <f>IF(ISNUMBER(S16),IF(ISNUMBER(S17),IF(S16&gt;S17,1.0,IF(S16=S17,0.5,0.0)),""),"")</f>
         <v/>
       </c>
       <c r="W16">
-        <f>IF(ISNUMBER(S16),IF(ISNUMBER(S15),IF(S16&gt;S15,1.0,IF(S16=S15,0.5,0.0)),""),"")</f>
+        <f>IF(ISNUMBER(S16),IF(ISNUMBER(S18),IF(S16&gt;S18,1.0,IF(S16=S18,0.5,0.0)),""),"")</f>
         <v/>
       </c>
       <c r="X16">
-        <f>IF(ISNUMBER(S16),IF(ISNUMBER(S17),IF(S16&gt;S17,1.0,IF(S16=S17,0.5,0.0)),""),"")</f>
+        <f>IF(ISNUMBER(T16),IF(ISNUMBER(T15),IF(T16&gt;T15,1.0,IF(T16=T15,0.5,0.0)),""),"")</f>
         <v/>
       </c>
       <c r="Y16">
-        <f>IF(ISNUMBER(S16),IF(ISNUMBER(S18),IF(S16&gt;S18,1.0,IF(S16=S18,0.5,0.0)),""),"")</f>
-        <v/>
-      </c>
-      <c r="Z16" s="18">
-        <f>IF(AND(ISNUMBER(R16),ISNUMBER(R15)),VLOOKUP(ABS(R16-R15),'IMP Table'!$A$2:$C$26,3)*SIGN(R16-R15),0)</f>
-        <v/>
-      </c>
-      <c r="AA16">
-        <f>IF(AND(ISNUMBER(R16),ISNUMBER(R17)),VLOOKUP(ABS(R16-R17),'IMP Table'!$A$2:$C$26,3)*SIGN(R16-R17),0)</f>
+        <f>IF(ISNUMBER(T16),IF(ISNUMBER(T17),IF(T16&gt;T17,1.0,IF(T16=T17,0.5,0.0)),""),"")</f>
+        <v/>
+      </c>
+      <c r="Z16">
+        <f>IF(ISNUMBER(T16),IF(ISNUMBER(T18),IF(T16&gt;T18,1.0,IF(T16=T18,0.5,0.0)),""),"")</f>
+        <v/>
+      </c>
+      <c r="AA16" s="18">
+        <f>IF(AND(ISNUMBER(S16),ISNUMBER(S15)),VLOOKUP(ABS(S16-S15),'IMP Table'!$A$2:$C$26,3)*SIGN(S16-S15),0)</f>
         <v/>
       </c>
       <c r="AB16">
-        <f>IF(AND(ISNUMBER(R16),ISNUMBER(R18)),VLOOKUP(ABS(R16-R18),'IMP Table'!$A$2:$C$26,3)*SIGN(R16-R18),0)</f>
+        <f>IF(AND(ISNUMBER(S16),ISNUMBER(S17)),VLOOKUP(ABS(S16-S17),'IMP Table'!$A$2:$C$26,3)*SIGN(S16-S17),0)</f>
         <v/>
       </c>
       <c r="AC16">
-        <f>IF(AND(ISNUMBER(S16),ISNUMBER(S15)),VLOOKUP(ABS(S16-S15),'IMP Table'!$A$2:$C$26,3)*SIGN(S16-S15),0)</f>
+        <f>IF(AND(ISNUMBER(S16),ISNUMBER(S18)),VLOOKUP(ABS(S16-S18),'IMP Table'!$A$2:$C$26,3)*SIGN(S16-S18),0)</f>
         <v/>
       </c>
       <c r="AD16">
-        <f>IF(AND(ISNUMBER(S16),ISNUMBER(S17)),VLOOKUP(ABS(S16-S17),'IMP Table'!$A$2:$C$26,3)*SIGN(S16-S17),0)</f>
+        <f>IF(AND(ISNUMBER(T16),ISNUMBER(T15)),VLOOKUP(ABS(T16-T15),'IMP Table'!$A$2:$C$26,3)*SIGN(T16-T15),0)</f>
         <v/>
       </c>
       <c r="AE16">
-        <f>IF(AND(ISNUMBER(S16),ISNUMBER(S18)),VLOOKUP(ABS(S16-S18),'IMP Table'!$A$2:$C$26,3)*SIGN(S16-S18),0)</f>
+        <f>IF(AND(ISNUMBER(T16),ISNUMBER(T17)),VLOOKUP(ABS(T16-T17),'IMP Table'!$A$2:$C$26,3)*SIGN(T16-T17),0)</f>
+        <v/>
+      </c>
+      <c r="AF16">
+        <f>IF(AND(ISNUMBER(T16),ISNUMBER(T18)),VLOOKUP(ABS(T16-T18),'IMP Table'!$A$2:$C$26,3)*SIGN(T16-T18),0)</f>
         <v/>
       </c>
     </row>
@@ -2757,84 +2823,88 @@
         <f>IF(ISBLANK('By Round'!K21),"",'By Round'!K21)</f>
         <v/>
       </c>
-      <c r="L17" s="16">
-        <f>AVERAGE(Z17:AB17)</f>
-        <v/>
-      </c>
-      <c r="M17" s="7">
-        <f>AVERAGE(AC17:AE17)</f>
-        <v/>
-      </c>
-      <c r="N17" s="6">
-        <f>IF(COUNT(T17:V17)&gt;0,P17/COUNT(T17:V17),0.5)</f>
+      <c r="L17">
+        <f>IF(ISBLANK('By Round'!L21),"",'By Round'!L21)</f>
+        <v/>
+      </c>
+      <c r="M17" s="16">
+        <f>AVERAGE(AA17:AC17)</f>
+        <v/>
+      </c>
+      <c r="N17" s="7">
+        <f>AVERAGE(AD17:AF17)</f>
         <v/>
       </c>
       <c r="O17" s="6">
-        <f>IF(COUNT(W17:Y17)&gt;0,Q17/COUNT(W17:Y17),0.5)</f>
-        <v/>
-      </c>
-      <c r="P17" s="17">
-        <f>SUM(T17:V17)</f>
+        <f>IF(COUNT(U17:W17)&gt;0,Q17/COUNT(U17:W17),0.5)</f>
+        <v/>
+      </c>
+      <c r="P17" s="6">
+        <f>IF(COUNT(X17:Z17)&gt;0,R17/COUNT(X17:Z17),0.5)</f>
         <v/>
       </c>
       <c r="Q17" s="17">
-        <f>SUM(W17:Y17)</f>
-        <v/>
-      </c>
-      <c r="R17" s="18">
-        <f>IF(ISNUMBER(J17),J17,IF(ISNUMBER(K17),-K17,""))</f>
-        <v/>
-      </c>
-      <c r="S17">
-        <f>IF(ISNUMBER(K17),K17,IF(ISNUMBER(J17),-J17,""))</f>
-        <v/>
-      </c>
-      <c r="T17" s="18">
-        <f>IF(ISNUMBER(R17),IF(ISNUMBER(R15),IF(R17&gt;R15,1.0,IF(R17=R15,0.5,0.0)),""),"")</f>
-        <v/>
-      </c>
-      <c r="U17">
-        <f>IF(ISNUMBER(R17),IF(ISNUMBER(R16),IF(R17&gt;R16,1.0,IF(R17=R16,0.5,0.0)),""),"")</f>
+        <f>SUM(U17:W17)</f>
+        <v/>
+      </c>
+      <c r="R17" s="17">
+        <f>SUM(X17:Z17)</f>
+        <v/>
+      </c>
+      <c r="S17" s="18">
+        <f>IF(ISNUMBER(K17),K17,IF(ISNUMBER(L17),-L17,""))</f>
+        <v/>
+      </c>
+      <c r="T17">
+        <f>IF(ISNUMBER(L17),L17,IF(ISNUMBER(K17),-K17,""))</f>
+        <v/>
+      </c>
+      <c r="U17" s="18">
+        <f>IF(ISNUMBER(S17),IF(ISNUMBER(S15),IF(S17&gt;S15,1.0,IF(S17=S15,0.5,0.0)),""),"")</f>
         <v/>
       </c>
       <c r="V17">
-        <f>IF(ISNUMBER(R17),IF(ISNUMBER(R18),IF(R17&gt;R18,1.0,IF(R17=R18,0.5,0.0)),""),"")</f>
+        <f>IF(ISNUMBER(S17),IF(ISNUMBER(S16),IF(S17&gt;S16,1.0,IF(S17=S16,0.5,0.0)),""),"")</f>
         <v/>
       </c>
       <c r="W17">
-        <f>IF(ISNUMBER(S17),IF(ISNUMBER(S15),IF(S17&gt;S15,1.0,IF(S17=S15,0.5,0.0)),""),"")</f>
+        <f>IF(ISNUMBER(S17),IF(ISNUMBER(S18),IF(S17&gt;S18,1.0,IF(S17=S18,0.5,0.0)),""),"")</f>
         <v/>
       </c>
       <c r="X17">
-        <f>IF(ISNUMBER(S17),IF(ISNUMBER(S16),IF(S17&gt;S16,1.0,IF(S17=S16,0.5,0.0)),""),"")</f>
+        <f>IF(ISNUMBER(T17),IF(ISNUMBER(T15),IF(T17&gt;T15,1.0,IF(T17=T15,0.5,0.0)),""),"")</f>
         <v/>
       </c>
       <c r="Y17">
-        <f>IF(ISNUMBER(S17),IF(ISNUMBER(S18),IF(S17&gt;S18,1.0,IF(S17=S18,0.5,0.0)),""),"")</f>
-        <v/>
-      </c>
-      <c r="Z17" s="18">
-        <f>IF(AND(ISNUMBER(R17),ISNUMBER(R15)),VLOOKUP(ABS(R17-R15),'IMP Table'!$A$2:$C$26,3)*SIGN(R17-R15),0)</f>
-        <v/>
-      </c>
-      <c r="AA17">
-        <f>IF(AND(ISNUMBER(R17),ISNUMBER(R16)),VLOOKUP(ABS(R17-R16),'IMP Table'!$A$2:$C$26,3)*SIGN(R17-R16),0)</f>
+        <f>IF(ISNUMBER(T17),IF(ISNUMBER(T16),IF(T17&gt;T16,1.0,IF(T17=T16,0.5,0.0)),""),"")</f>
+        <v/>
+      </c>
+      <c r="Z17">
+        <f>IF(ISNUMBER(T17),IF(ISNUMBER(T18),IF(T17&gt;T18,1.0,IF(T17=T18,0.5,0.0)),""),"")</f>
+        <v/>
+      </c>
+      <c r="AA17" s="18">
+        <f>IF(AND(ISNUMBER(S17),ISNUMBER(S15)),VLOOKUP(ABS(S17-S15),'IMP Table'!$A$2:$C$26,3)*SIGN(S17-S15),0)</f>
         <v/>
       </c>
       <c r="AB17">
-        <f>IF(AND(ISNUMBER(R17),ISNUMBER(R18)),VLOOKUP(ABS(R17-R18),'IMP Table'!$A$2:$C$26,3)*SIGN(R17-R18),0)</f>
+        <f>IF(AND(ISNUMBER(S17),ISNUMBER(S16)),VLOOKUP(ABS(S17-S16),'IMP Table'!$A$2:$C$26,3)*SIGN(S17-S16),0)</f>
         <v/>
       </c>
       <c r="AC17">
-        <f>IF(AND(ISNUMBER(S17),ISNUMBER(S15)),VLOOKUP(ABS(S17-S15),'IMP Table'!$A$2:$C$26,3)*SIGN(S17-S15),0)</f>
+        <f>IF(AND(ISNUMBER(S17),ISNUMBER(S18)),VLOOKUP(ABS(S17-S18),'IMP Table'!$A$2:$C$26,3)*SIGN(S17-S18),0)</f>
         <v/>
       </c>
       <c r="AD17">
-        <f>IF(AND(ISNUMBER(S17),ISNUMBER(S16)),VLOOKUP(ABS(S17-S16),'IMP Table'!$A$2:$C$26,3)*SIGN(S17-S16),0)</f>
+        <f>IF(AND(ISNUMBER(T17),ISNUMBER(T15)),VLOOKUP(ABS(T17-T15),'IMP Table'!$A$2:$C$26,3)*SIGN(T17-T15),0)</f>
         <v/>
       </c>
       <c r="AE17">
-        <f>IF(AND(ISNUMBER(S17),ISNUMBER(S18)),VLOOKUP(ABS(S17-S18),'IMP Table'!$A$2:$C$26,3)*SIGN(S17-S18),0)</f>
+        <f>IF(AND(ISNUMBER(T17),ISNUMBER(T16)),VLOOKUP(ABS(T17-T16),'IMP Table'!$A$2:$C$26,3)*SIGN(T17-T16),0)</f>
+        <v/>
+      </c>
+      <c r="AF17">
+        <f>IF(AND(ISNUMBER(T17),ISNUMBER(T18)),VLOOKUP(ABS(T17-T18),'IMP Table'!$A$2:$C$26,3)*SIGN(T17-T18),0)</f>
         <v/>
       </c>
     </row>
@@ -2880,84 +2950,88 @@
         <f>IF(ISBLANK('By Round'!K36),"",'By Round'!K36)</f>
         <v/>
       </c>
-      <c r="L18" s="20">
-        <f>AVERAGE(Z18:AB18)</f>
-        <v/>
-      </c>
-      <c r="M18" s="21">
-        <f>AVERAGE(AC18:AE18)</f>
-        <v/>
-      </c>
-      <c r="N18" s="22">
-        <f>IF(COUNT(T18:V18)&gt;0,P18/COUNT(T18:V18),0.5)</f>
+      <c r="L18" s="9">
+        <f>IF(ISBLANK('By Round'!L36),"",'By Round'!L36)</f>
+        <v/>
+      </c>
+      <c r="M18" s="20">
+        <f>AVERAGE(AA18:AC18)</f>
+        <v/>
+      </c>
+      <c r="N18" s="21">
+        <f>AVERAGE(AD18:AF18)</f>
         <v/>
       </c>
       <c r="O18" s="22">
-        <f>IF(COUNT(W18:Y18)&gt;0,Q18/COUNT(W18:Y18),0.5)</f>
-        <v/>
-      </c>
-      <c r="P18" s="23">
-        <f>SUM(T18:V18)</f>
+        <f>IF(COUNT(U18:W18)&gt;0,Q18/COUNT(U18:W18),0.5)</f>
+        <v/>
+      </c>
+      <c r="P18" s="22">
+        <f>IF(COUNT(X18:Z18)&gt;0,R18/COUNT(X18:Z18),0.5)</f>
         <v/>
       </c>
       <c r="Q18" s="23">
-        <f>SUM(W18:Y18)</f>
-        <v/>
-      </c>
-      <c r="R18" s="24">
-        <f>IF(ISNUMBER(J18),J18,IF(ISNUMBER(K18),-K18,""))</f>
-        <v/>
-      </c>
-      <c r="S18" s="9">
-        <f>IF(ISNUMBER(K18),K18,IF(ISNUMBER(J18),-J18,""))</f>
-        <v/>
-      </c>
-      <c r="T18" s="24">
-        <f>IF(ISNUMBER(R18),IF(ISNUMBER(R15),IF(R18&gt;R15,1.0,IF(R18=R15,0.5,0.0)),""),"")</f>
-        <v/>
-      </c>
-      <c r="U18" s="9">
-        <f>IF(ISNUMBER(R18),IF(ISNUMBER(R16),IF(R18&gt;R16,1.0,IF(R18=R16,0.5,0.0)),""),"")</f>
+        <f>SUM(U18:W18)</f>
+        <v/>
+      </c>
+      <c r="R18" s="23">
+        <f>SUM(X18:Z18)</f>
+        <v/>
+      </c>
+      <c r="S18" s="24">
+        <f>IF(ISNUMBER(K18),K18,IF(ISNUMBER(L18),-L18,""))</f>
+        <v/>
+      </c>
+      <c r="T18" s="9">
+        <f>IF(ISNUMBER(L18),L18,IF(ISNUMBER(K18),-K18,""))</f>
+        <v/>
+      </c>
+      <c r="U18" s="24">
+        <f>IF(ISNUMBER(S18),IF(ISNUMBER(S15),IF(S18&gt;S15,1.0,IF(S18=S15,0.5,0.0)),""),"")</f>
         <v/>
       </c>
       <c r="V18" s="9">
-        <f>IF(ISNUMBER(R18),IF(ISNUMBER(R17),IF(R18&gt;R17,1.0,IF(R18=R17,0.5,0.0)),""),"")</f>
+        <f>IF(ISNUMBER(S18),IF(ISNUMBER(S16),IF(S18&gt;S16,1.0,IF(S18=S16,0.5,0.0)),""),"")</f>
         <v/>
       </c>
       <c r="W18" s="9">
-        <f>IF(ISNUMBER(S18),IF(ISNUMBER(S15),IF(S18&gt;S15,1.0,IF(S18=S15,0.5,0.0)),""),"")</f>
+        <f>IF(ISNUMBER(S18),IF(ISNUMBER(S17),IF(S18&gt;S17,1.0,IF(S18=S17,0.5,0.0)),""),"")</f>
         <v/>
       </c>
       <c r="X18" s="9">
-        <f>IF(ISNUMBER(S18),IF(ISNUMBER(S16),IF(S18&gt;S16,1.0,IF(S18=S16,0.5,0.0)),""),"")</f>
+        <f>IF(ISNUMBER(T18),IF(ISNUMBER(T15),IF(T18&gt;T15,1.0,IF(T18=T15,0.5,0.0)),""),"")</f>
         <v/>
       </c>
       <c r="Y18" s="9">
-        <f>IF(ISNUMBER(S18),IF(ISNUMBER(S17),IF(S18&gt;S17,1.0,IF(S18=S17,0.5,0.0)),""),"")</f>
-        <v/>
-      </c>
-      <c r="Z18" s="24">
-        <f>IF(AND(ISNUMBER(R18),ISNUMBER(R15)),VLOOKUP(ABS(R18-R15),'IMP Table'!$A$2:$C$26,3)*SIGN(R18-R15),0)</f>
-        <v/>
-      </c>
-      <c r="AA18" s="9">
-        <f>IF(AND(ISNUMBER(R18),ISNUMBER(R16)),VLOOKUP(ABS(R18-R16),'IMP Table'!$A$2:$C$26,3)*SIGN(R18-R16),0)</f>
+        <f>IF(ISNUMBER(T18),IF(ISNUMBER(T16),IF(T18&gt;T16,1.0,IF(T18=T16,0.5,0.0)),""),"")</f>
+        <v/>
+      </c>
+      <c r="Z18" s="9">
+        <f>IF(ISNUMBER(T18),IF(ISNUMBER(T17),IF(T18&gt;T17,1.0,IF(T18=T17,0.5,0.0)),""),"")</f>
+        <v/>
+      </c>
+      <c r="AA18" s="24">
+        <f>IF(AND(ISNUMBER(S18),ISNUMBER(S15)),VLOOKUP(ABS(S18-S15),'IMP Table'!$A$2:$C$26,3)*SIGN(S18-S15),0)</f>
         <v/>
       </c>
       <c r="AB18" s="9">
-        <f>IF(AND(ISNUMBER(R18),ISNUMBER(R17)),VLOOKUP(ABS(R18-R17),'IMP Table'!$A$2:$C$26,3)*SIGN(R18-R17),0)</f>
+        <f>IF(AND(ISNUMBER(S18),ISNUMBER(S16)),VLOOKUP(ABS(S18-S16),'IMP Table'!$A$2:$C$26,3)*SIGN(S18-S16),0)</f>
         <v/>
       </c>
       <c r="AC18" s="9">
-        <f>IF(AND(ISNUMBER(S18),ISNUMBER(S15)),VLOOKUP(ABS(S18-S15),'IMP Table'!$A$2:$C$26,3)*SIGN(S18-S15),0)</f>
+        <f>IF(AND(ISNUMBER(S18),ISNUMBER(S17)),VLOOKUP(ABS(S18-S17),'IMP Table'!$A$2:$C$26,3)*SIGN(S18-S17),0)</f>
         <v/>
       </c>
       <c r="AD18" s="9">
-        <f>IF(AND(ISNUMBER(S18),ISNUMBER(S16)),VLOOKUP(ABS(S18-S16),'IMP Table'!$A$2:$C$26,3)*SIGN(S18-S16),0)</f>
+        <f>IF(AND(ISNUMBER(T18),ISNUMBER(T15)),VLOOKUP(ABS(T18-T15),'IMP Table'!$A$2:$C$26,3)*SIGN(T18-T15),0)</f>
         <v/>
       </c>
       <c r="AE18" s="9">
-        <f>IF(AND(ISNUMBER(S18),ISNUMBER(S17)),VLOOKUP(ABS(S18-S17),'IMP Table'!$A$2:$C$26,3)*SIGN(S18-S17),0)</f>
+        <f>IF(AND(ISNUMBER(T18),ISNUMBER(T16)),VLOOKUP(ABS(T18-T16),'IMP Table'!$A$2:$C$26,3)*SIGN(T18-T16),0)</f>
+        <v/>
+      </c>
+      <c r="AF18" s="9">
+        <f>IF(AND(ISNUMBER(T18),ISNUMBER(T17)),VLOOKUP(ABS(T18-T17),'IMP Table'!$A$2:$C$26,3)*SIGN(T18-T17),0)</f>
         <v/>
       </c>
     </row>
@@ -3005,84 +3079,88 @@
         <f>IF(ISBLANK('By Round'!K40),"",'By Round'!K40)</f>
         <v/>
       </c>
-      <c r="L19" s="16">
-        <f>AVERAGE(Z19:AB19)</f>
-        <v/>
-      </c>
-      <c r="M19" s="7">
-        <f>AVERAGE(AC19:AE19)</f>
-        <v/>
-      </c>
-      <c r="N19" s="6">
-        <f>IF(COUNT(T19:V19)&gt;0,P19/COUNT(T19:V19),0.5)</f>
+      <c r="L19">
+        <f>IF(ISBLANK('By Round'!L40),"",'By Round'!L40)</f>
+        <v/>
+      </c>
+      <c r="M19" s="16">
+        <f>AVERAGE(AA19:AC19)</f>
+        <v/>
+      </c>
+      <c r="N19" s="7">
+        <f>AVERAGE(AD19:AF19)</f>
         <v/>
       </c>
       <c r="O19" s="6">
-        <f>IF(COUNT(W19:Y19)&gt;0,Q19/COUNT(W19:Y19),0.5)</f>
-        <v/>
-      </c>
-      <c r="P19" s="17">
-        <f>SUM(T19:V19)</f>
+        <f>IF(COUNT(U19:W19)&gt;0,Q19/COUNT(U19:W19),0.5)</f>
+        <v/>
+      </c>
+      <c r="P19" s="6">
+        <f>IF(COUNT(X19:Z19)&gt;0,R19/COUNT(X19:Z19),0.5)</f>
         <v/>
       </c>
       <c r="Q19" s="17">
-        <f>SUM(W19:Y19)</f>
-        <v/>
-      </c>
-      <c r="R19" s="18">
-        <f>IF(ISNUMBER(J19),J19,IF(ISNUMBER(K19),-K19,""))</f>
-        <v/>
-      </c>
-      <c r="S19">
-        <f>IF(ISNUMBER(K19),K19,IF(ISNUMBER(J19),-J19,""))</f>
-        <v/>
-      </c>
-      <c r="T19" s="18">
-        <f>IF(ISNUMBER(R19),IF(ISNUMBER(R20),IF(R19&gt;R20,1.0,IF(R19=R20,0.5,0.0)),""),"")</f>
-        <v/>
-      </c>
-      <c r="U19">
-        <f>IF(ISNUMBER(R19),IF(ISNUMBER(R21),IF(R19&gt;R21,1.0,IF(R19=R21,0.5,0.0)),""),"")</f>
+        <f>SUM(U19:W19)</f>
+        <v/>
+      </c>
+      <c r="R19" s="17">
+        <f>SUM(X19:Z19)</f>
+        <v/>
+      </c>
+      <c r="S19" s="18">
+        <f>IF(ISNUMBER(K19),K19,IF(ISNUMBER(L19),-L19,""))</f>
+        <v/>
+      </c>
+      <c r="T19">
+        <f>IF(ISNUMBER(L19),L19,IF(ISNUMBER(K19),-K19,""))</f>
+        <v/>
+      </c>
+      <c r="U19" s="18">
+        <f>IF(ISNUMBER(S19),IF(ISNUMBER(S20),IF(S19&gt;S20,1.0,IF(S19=S20,0.5,0.0)),""),"")</f>
         <v/>
       </c>
       <c r="V19">
-        <f>IF(ISNUMBER(R19),IF(ISNUMBER(R22),IF(R19&gt;R22,1.0,IF(R19=R22,0.5,0.0)),""),"")</f>
+        <f>IF(ISNUMBER(S19),IF(ISNUMBER(S21),IF(S19&gt;S21,1.0,IF(S19=S21,0.5,0.0)),""),"")</f>
         <v/>
       </c>
       <c r="W19">
-        <f>IF(ISNUMBER(S19),IF(ISNUMBER(S20),IF(S19&gt;S20,1.0,IF(S19=S20,0.5,0.0)),""),"")</f>
+        <f>IF(ISNUMBER(S19),IF(ISNUMBER(S22),IF(S19&gt;S22,1.0,IF(S19=S22,0.5,0.0)),""),"")</f>
         <v/>
       </c>
       <c r="X19">
-        <f>IF(ISNUMBER(S19),IF(ISNUMBER(S21),IF(S19&gt;S21,1.0,IF(S19=S21,0.5,0.0)),""),"")</f>
+        <f>IF(ISNUMBER(T19),IF(ISNUMBER(T20),IF(T19&gt;T20,1.0,IF(T19=T20,0.5,0.0)),""),"")</f>
         <v/>
       </c>
       <c r="Y19">
-        <f>IF(ISNUMBER(S19),IF(ISNUMBER(S22),IF(S19&gt;S22,1.0,IF(S19=S22,0.5,0.0)),""),"")</f>
-        <v/>
-      </c>
-      <c r="Z19" s="18">
-        <f>IF(AND(ISNUMBER(R19),ISNUMBER(R20)),VLOOKUP(ABS(R19-R20),'IMP Table'!$A$2:$C$26,3)*SIGN(R19-R20),0)</f>
-        <v/>
-      </c>
-      <c r="AA19">
-        <f>IF(AND(ISNUMBER(R19),ISNUMBER(R21)),VLOOKUP(ABS(R19-R21),'IMP Table'!$A$2:$C$26,3)*SIGN(R19-R21),0)</f>
+        <f>IF(ISNUMBER(T19),IF(ISNUMBER(T21),IF(T19&gt;T21,1.0,IF(T19=T21,0.5,0.0)),""),"")</f>
+        <v/>
+      </c>
+      <c r="Z19">
+        <f>IF(ISNUMBER(T19),IF(ISNUMBER(T22),IF(T19&gt;T22,1.0,IF(T19=T22,0.5,0.0)),""),"")</f>
+        <v/>
+      </c>
+      <c r="AA19" s="18">
+        <f>IF(AND(ISNUMBER(S19),ISNUMBER(S20)),VLOOKUP(ABS(S19-S20),'IMP Table'!$A$2:$C$26,3)*SIGN(S19-S20),0)</f>
         <v/>
       </c>
       <c r="AB19">
-        <f>IF(AND(ISNUMBER(R19),ISNUMBER(R22)),VLOOKUP(ABS(R19-R22),'IMP Table'!$A$2:$C$26,3)*SIGN(R19-R22),0)</f>
+        <f>IF(AND(ISNUMBER(S19),ISNUMBER(S21)),VLOOKUP(ABS(S19-S21),'IMP Table'!$A$2:$C$26,3)*SIGN(S19-S21),0)</f>
         <v/>
       </c>
       <c r="AC19">
-        <f>IF(AND(ISNUMBER(S19),ISNUMBER(S20)),VLOOKUP(ABS(S19-S20),'IMP Table'!$A$2:$C$26,3)*SIGN(S19-S20),0)</f>
+        <f>IF(AND(ISNUMBER(S19),ISNUMBER(S22)),VLOOKUP(ABS(S19-S22),'IMP Table'!$A$2:$C$26,3)*SIGN(S19-S22),0)</f>
         <v/>
       </c>
       <c r="AD19">
-        <f>IF(AND(ISNUMBER(S19),ISNUMBER(S21)),VLOOKUP(ABS(S19-S21),'IMP Table'!$A$2:$C$26,3)*SIGN(S19-S21),0)</f>
+        <f>IF(AND(ISNUMBER(T19),ISNUMBER(T20)),VLOOKUP(ABS(T19-T20),'IMP Table'!$A$2:$C$26,3)*SIGN(T19-T20),0)</f>
         <v/>
       </c>
       <c r="AE19">
-        <f>IF(AND(ISNUMBER(S19),ISNUMBER(S22)),VLOOKUP(ABS(S19-S22),'IMP Table'!$A$2:$C$26,3)*SIGN(S19-S22),0)</f>
+        <f>IF(AND(ISNUMBER(T19),ISNUMBER(T21)),VLOOKUP(ABS(T19-T21),'IMP Table'!$A$2:$C$26,3)*SIGN(T19-T21),0)</f>
+        <v/>
+      </c>
+      <c r="AF19">
+        <f>IF(AND(ISNUMBER(T19),ISNUMBER(T22)),VLOOKUP(ABS(T19-T22),'IMP Table'!$A$2:$C$26,3)*SIGN(T19-T22),0)</f>
         <v/>
       </c>
     </row>
@@ -3127,84 +3205,88 @@
         <f>IF(ISBLANK('By Round'!K7),"",'By Round'!K7)</f>
         <v/>
       </c>
-      <c r="L20" s="16">
-        <f>AVERAGE(Z20:AB20)</f>
-        <v/>
-      </c>
-      <c r="M20" s="7">
-        <f>AVERAGE(AC20:AE20)</f>
-        <v/>
-      </c>
-      <c r="N20" s="6">
-        <f>IF(COUNT(T20:V20)&gt;0,P20/COUNT(T20:V20),0.5)</f>
+      <c r="L20">
+        <f>IF(ISBLANK('By Round'!L7),"",'By Round'!L7)</f>
+        <v/>
+      </c>
+      <c r="M20" s="16">
+        <f>AVERAGE(AA20:AC20)</f>
+        <v/>
+      </c>
+      <c r="N20" s="7">
+        <f>AVERAGE(AD20:AF20)</f>
         <v/>
       </c>
       <c r="O20" s="6">
-        <f>IF(COUNT(W20:Y20)&gt;0,Q20/COUNT(W20:Y20),0.5)</f>
-        <v/>
-      </c>
-      <c r="P20" s="17">
-        <f>SUM(T20:V20)</f>
+        <f>IF(COUNT(U20:W20)&gt;0,Q20/COUNT(U20:W20),0.5)</f>
+        <v/>
+      </c>
+      <c r="P20" s="6">
+        <f>IF(COUNT(X20:Z20)&gt;0,R20/COUNT(X20:Z20),0.5)</f>
         <v/>
       </c>
       <c r="Q20" s="17">
-        <f>SUM(W20:Y20)</f>
-        <v/>
-      </c>
-      <c r="R20" s="18">
-        <f>IF(ISNUMBER(J20),J20,IF(ISNUMBER(K20),-K20,""))</f>
-        <v/>
-      </c>
-      <c r="S20">
-        <f>IF(ISNUMBER(K20),K20,IF(ISNUMBER(J20),-J20,""))</f>
-        <v/>
-      </c>
-      <c r="T20" s="18">
-        <f>IF(ISNUMBER(R20),IF(ISNUMBER(R19),IF(R20&gt;R19,1.0,IF(R20=R19,0.5,0.0)),""),"")</f>
-        <v/>
-      </c>
-      <c r="U20">
-        <f>IF(ISNUMBER(R20),IF(ISNUMBER(R21),IF(R20&gt;R21,1.0,IF(R20=R21,0.5,0.0)),""),"")</f>
+        <f>SUM(U20:W20)</f>
+        <v/>
+      </c>
+      <c r="R20" s="17">
+        <f>SUM(X20:Z20)</f>
+        <v/>
+      </c>
+      <c r="S20" s="18">
+        <f>IF(ISNUMBER(K20),K20,IF(ISNUMBER(L20),-L20,""))</f>
+        <v/>
+      </c>
+      <c r="T20">
+        <f>IF(ISNUMBER(L20),L20,IF(ISNUMBER(K20),-K20,""))</f>
+        <v/>
+      </c>
+      <c r="U20" s="18">
+        <f>IF(ISNUMBER(S20),IF(ISNUMBER(S19),IF(S20&gt;S19,1.0,IF(S20=S19,0.5,0.0)),""),"")</f>
         <v/>
       </c>
       <c r="V20">
-        <f>IF(ISNUMBER(R20),IF(ISNUMBER(R22),IF(R20&gt;R22,1.0,IF(R20=R22,0.5,0.0)),""),"")</f>
+        <f>IF(ISNUMBER(S20),IF(ISNUMBER(S21),IF(S20&gt;S21,1.0,IF(S20=S21,0.5,0.0)),""),"")</f>
         <v/>
       </c>
       <c r="W20">
-        <f>IF(ISNUMBER(S20),IF(ISNUMBER(S19),IF(S20&gt;S19,1.0,IF(S20=S19,0.5,0.0)),""),"")</f>
+        <f>IF(ISNUMBER(S20),IF(ISNUMBER(S22),IF(S20&gt;S22,1.0,IF(S20=S22,0.5,0.0)),""),"")</f>
         <v/>
       </c>
       <c r="X20">
-        <f>IF(ISNUMBER(S20),IF(ISNUMBER(S21),IF(S20&gt;S21,1.0,IF(S20=S21,0.5,0.0)),""),"")</f>
+        <f>IF(ISNUMBER(T20),IF(ISNUMBER(T19),IF(T20&gt;T19,1.0,IF(T20=T19,0.5,0.0)),""),"")</f>
         <v/>
       </c>
       <c r="Y20">
-        <f>IF(ISNUMBER(S20),IF(ISNUMBER(S22),IF(S20&gt;S22,1.0,IF(S20=S22,0.5,0.0)),""),"")</f>
-        <v/>
-      </c>
-      <c r="Z20" s="18">
-        <f>IF(AND(ISNUMBER(R20),ISNUMBER(R19)),VLOOKUP(ABS(R20-R19),'IMP Table'!$A$2:$C$26,3)*SIGN(R20-R19),0)</f>
-        <v/>
-      </c>
-      <c r="AA20">
-        <f>IF(AND(ISNUMBER(R20),ISNUMBER(R21)),VLOOKUP(ABS(R20-R21),'IMP Table'!$A$2:$C$26,3)*SIGN(R20-R21),0)</f>
+        <f>IF(ISNUMBER(T20),IF(ISNUMBER(T21),IF(T20&gt;T21,1.0,IF(T20=T21,0.5,0.0)),""),"")</f>
+        <v/>
+      </c>
+      <c r="Z20">
+        <f>IF(ISNUMBER(T20),IF(ISNUMBER(T22),IF(T20&gt;T22,1.0,IF(T20=T22,0.5,0.0)),""),"")</f>
+        <v/>
+      </c>
+      <c r="AA20" s="18">
+        <f>IF(AND(ISNUMBER(S20),ISNUMBER(S19)),VLOOKUP(ABS(S20-S19),'IMP Table'!$A$2:$C$26,3)*SIGN(S20-S19),0)</f>
         <v/>
       </c>
       <c r="AB20">
-        <f>IF(AND(ISNUMBER(R20),ISNUMBER(R22)),VLOOKUP(ABS(R20-R22),'IMP Table'!$A$2:$C$26,3)*SIGN(R20-R22),0)</f>
+        <f>IF(AND(ISNUMBER(S20),ISNUMBER(S21)),VLOOKUP(ABS(S20-S21),'IMP Table'!$A$2:$C$26,3)*SIGN(S20-S21),0)</f>
         <v/>
       </c>
       <c r="AC20">
-        <f>IF(AND(ISNUMBER(S20),ISNUMBER(S19)),VLOOKUP(ABS(S20-S19),'IMP Table'!$A$2:$C$26,3)*SIGN(S20-S19),0)</f>
+        <f>IF(AND(ISNUMBER(S20),ISNUMBER(S22)),VLOOKUP(ABS(S20-S22),'IMP Table'!$A$2:$C$26,3)*SIGN(S20-S22),0)</f>
         <v/>
       </c>
       <c r="AD20">
-        <f>IF(AND(ISNUMBER(S20),ISNUMBER(S21)),VLOOKUP(ABS(S20-S21),'IMP Table'!$A$2:$C$26,3)*SIGN(S20-S21),0)</f>
+        <f>IF(AND(ISNUMBER(T20),ISNUMBER(T19)),VLOOKUP(ABS(T20-T19),'IMP Table'!$A$2:$C$26,3)*SIGN(T20-T19),0)</f>
         <v/>
       </c>
       <c r="AE20">
-        <f>IF(AND(ISNUMBER(S20),ISNUMBER(S22)),VLOOKUP(ABS(S20-S22),'IMP Table'!$A$2:$C$26,3)*SIGN(S20-S22),0)</f>
+        <f>IF(AND(ISNUMBER(T20),ISNUMBER(T21)),VLOOKUP(ABS(T20-T21),'IMP Table'!$A$2:$C$26,3)*SIGN(T20-T21),0)</f>
+        <v/>
+      </c>
+      <c r="AF20">
+        <f>IF(AND(ISNUMBER(T20),ISNUMBER(T22)),VLOOKUP(ABS(T20-T22),'IMP Table'!$A$2:$C$26,3)*SIGN(T20-T22),0)</f>
         <v/>
       </c>
     </row>
@@ -3249,84 +3331,88 @@
         <f>IF(ISBLANK('By Round'!K22),"",'By Round'!K22)</f>
         <v/>
       </c>
-      <c r="L21" s="16">
-        <f>AVERAGE(Z21:AB21)</f>
-        <v/>
-      </c>
-      <c r="M21" s="7">
-        <f>AVERAGE(AC21:AE21)</f>
-        <v/>
-      </c>
-      <c r="N21" s="6">
-        <f>IF(COUNT(T21:V21)&gt;0,P21/COUNT(T21:V21),0.5)</f>
+      <c r="L21">
+        <f>IF(ISBLANK('By Round'!L22),"",'By Round'!L22)</f>
+        <v/>
+      </c>
+      <c r="M21" s="16">
+        <f>AVERAGE(AA21:AC21)</f>
+        <v/>
+      </c>
+      <c r="N21" s="7">
+        <f>AVERAGE(AD21:AF21)</f>
         <v/>
       </c>
       <c r="O21" s="6">
-        <f>IF(COUNT(W21:Y21)&gt;0,Q21/COUNT(W21:Y21),0.5)</f>
-        <v/>
-      </c>
-      <c r="P21" s="17">
-        <f>SUM(T21:V21)</f>
+        <f>IF(COUNT(U21:W21)&gt;0,Q21/COUNT(U21:W21),0.5)</f>
+        <v/>
+      </c>
+      <c r="P21" s="6">
+        <f>IF(COUNT(X21:Z21)&gt;0,R21/COUNT(X21:Z21),0.5)</f>
         <v/>
       </c>
       <c r="Q21" s="17">
-        <f>SUM(W21:Y21)</f>
-        <v/>
-      </c>
-      <c r="R21" s="18">
-        <f>IF(ISNUMBER(J21),J21,IF(ISNUMBER(K21),-K21,""))</f>
-        <v/>
-      </c>
-      <c r="S21">
-        <f>IF(ISNUMBER(K21),K21,IF(ISNUMBER(J21),-J21,""))</f>
-        <v/>
-      </c>
-      <c r="T21" s="18">
-        <f>IF(ISNUMBER(R21),IF(ISNUMBER(R19),IF(R21&gt;R19,1.0,IF(R21=R19,0.5,0.0)),""),"")</f>
-        <v/>
-      </c>
-      <c r="U21">
-        <f>IF(ISNUMBER(R21),IF(ISNUMBER(R20),IF(R21&gt;R20,1.0,IF(R21=R20,0.5,0.0)),""),"")</f>
+        <f>SUM(U21:W21)</f>
+        <v/>
+      </c>
+      <c r="R21" s="17">
+        <f>SUM(X21:Z21)</f>
+        <v/>
+      </c>
+      <c r="S21" s="18">
+        <f>IF(ISNUMBER(K21),K21,IF(ISNUMBER(L21),-L21,""))</f>
+        <v/>
+      </c>
+      <c r="T21">
+        <f>IF(ISNUMBER(L21),L21,IF(ISNUMBER(K21),-K21,""))</f>
+        <v/>
+      </c>
+      <c r="U21" s="18">
+        <f>IF(ISNUMBER(S21),IF(ISNUMBER(S19),IF(S21&gt;S19,1.0,IF(S21=S19,0.5,0.0)),""),"")</f>
         <v/>
       </c>
       <c r="V21">
-        <f>IF(ISNUMBER(R21),IF(ISNUMBER(R22),IF(R21&gt;R22,1.0,IF(R21=R22,0.5,0.0)),""),"")</f>
+        <f>IF(ISNUMBER(S21),IF(ISNUMBER(S20),IF(S21&gt;S20,1.0,IF(S21=S20,0.5,0.0)),""),"")</f>
         <v/>
       </c>
       <c r="W21">
-        <f>IF(ISNUMBER(S21),IF(ISNUMBER(S19),IF(S21&gt;S19,1.0,IF(S21=S19,0.5,0.0)),""),"")</f>
+        <f>IF(ISNUMBER(S21),IF(ISNUMBER(S22),IF(S21&gt;S22,1.0,IF(S21=S22,0.5,0.0)),""),"")</f>
         <v/>
       </c>
       <c r="X21">
-        <f>IF(ISNUMBER(S21),IF(ISNUMBER(S20),IF(S21&gt;S20,1.0,IF(S21=S20,0.5,0.0)),""),"")</f>
+        <f>IF(ISNUMBER(T21),IF(ISNUMBER(T19),IF(T21&gt;T19,1.0,IF(T21=T19,0.5,0.0)),""),"")</f>
         <v/>
       </c>
       <c r="Y21">
-        <f>IF(ISNUMBER(S21),IF(ISNUMBER(S22),IF(S21&gt;S22,1.0,IF(S21=S22,0.5,0.0)),""),"")</f>
-        <v/>
-      </c>
-      <c r="Z21" s="18">
-        <f>IF(AND(ISNUMBER(R21),ISNUMBER(R19)),VLOOKUP(ABS(R21-R19),'IMP Table'!$A$2:$C$26,3)*SIGN(R21-R19),0)</f>
-        <v/>
-      </c>
-      <c r="AA21">
-        <f>IF(AND(ISNUMBER(R21),ISNUMBER(R20)),VLOOKUP(ABS(R21-R20),'IMP Table'!$A$2:$C$26,3)*SIGN(R21-R20),0)</f>
+        <f>IF(ISNUMBER(T21),IF(ISNUMBER(T20),IF(T21&gt;T20,1.0,IF(T21=T20,0.5,0.0)),""),"")</f>
+        <v/>
+      </c>
+      <c r="Z21">
+        <f>IF(ISNUMBER(T21),IF(ISNUMBER(T22),IF(T21&gt;T22,1.0,IF(T21=T22,0.5,0.0)),""),"")</f>
+        <v/>
+      </c>
+      <c r="AA21" s="18">
+        <f>IF(AND(ISNUMBER(S21),ISNUMBER(S19)),VLOOKUP(ABS(S21-S19),'IMP Table'!$A$2:$C$26,3)*SIGN(S21-S19),0)</f>
         <v/>
       </c>
       <c r="AB21">
-        <f>IF(AND(ISNUMBER(R21),ISNUMBER(R22)),VLOOKUP(ABS(R21-R22),'IMP Table'!$A$2:$C$26,3)*SIGN(R21-R22),0)</f>
+        <f>IF(AND(ISNUMBER(S21),ISNUMBER(S20)),VLOOKUP(ABS(S21-S20),'IMP Table'!$A$2:$C$26,3)*SIGN(S21-S20),0)</f>
         <v/>
       </c>
       <c r="AC21">
-        <f>IF(AND(ISNUMBER(S21),ISNUMBER(S19)),VLOOKUP(ABS(S21-S19),'IMP Table'!$A$2:$C$26,3)*SIGN(S21-S19),0)</f>
+        <f>IF(AND(ISNUMBER(S21),ISNUMBER(S22)),VLOOKUP(ABS(S21-S22),'IMP Table'!$A$2:$C$26,3)*SIGN(S21-S22),0)</f>
         <v/>
       </c>
       <c r="AD21">
-        <f>IF(AND(ISNUMBER(S21),ISNUMBER(S20)),VLOOKUP(ABS(S21-S20),'IMP Table'!$A$2:$C$26,3)*SIGN(S21-S20),0)</f>
+        <f>IF(AND(ISNUMBER(T21),ISNUMBER(T19)),VLOOKUP(ABS(T21-T19),'IMP Table'!$A$2:$C$26,3)*SIGN(T21-T19),0)</f>
         <v/>
       </c>
       <c r="AE21">
-        <f>IF(AND(ISNUMBER(S21),ISNUMBER(S22)),VLOOKUP(ABS(S21-S22),'IMP Table'!$A$2:$C$26,3)*SIGN(S21-S22),0)</f>
+        <f>IF(AND(ISNUMBER(T21),ISNUMBER(T20)),VLOOKUP(ABS(T21-T20),'IMP Table'!$A$2:$C$26,3)*SIGN(T21-T20),0)</f>
+        <v/>
+      </c>
+      <c r="AF21">
+        <f>IF(AND(ISNUMBER(T21),ISNUMBER(T22)),VLOOKUP(ABS(T21-T22),'IMP Table'!$A$2:$C$26,3)*SIGN(T21-T22),0)</f>
         <v/>
       </c>
     </row>
@@ -3372,84 +3458,88 @@
         <f>IF(ISBLANK('By Round'!K37),"",'By Round'!K37)</f>
         <v/>
       </c>
-      <c r="L22" s="20">
-        <f>AVERAGE(Z22:AB22)</f>
-        <v/>
-      </c>
-      <c r="M22" s="21">
-        <f>AVERAGE(AC22:AE22)</f>
-        <v/>
-      </c>
-      <c r="N22" s="22">
-        <f>IF(COUNT(T22:V22)&gt;0,P22/COUNT(T22:V22),0.5)</f>
+      <c r="L22" s="9">
+        <f>IF(ISBLANK('By Round'!L37),"",'By Round'!L37)</f>
+        <v/>
+      </c>
+      <c r="M22" s="20">
+        <f>AVERAGE(AA22:AC22)</f>
+        <v/>
+      </c>
+      <c r="N22" s="21">
+        <f>AVERAGE(AD22:AF22)</f>
         <v/>
       </c>
       <c r="O22" s="22">
-        <f>IF(COUNT(W22:Y22)&gt;0,Q22/COUNT(W22:Y22),0.5)</f>
-        <v/>
-      </c>
-      <c r="P22" s="23">
-        <f>SUM(T22:V22)</f>
+        <f>IF(COUNT(U22:W22)&gt;0,Q22/COUNT(U22:W22),0.5)</f>
+        <v/>
+      </c>
+      <c r="P22" s="22">
+        <f>IF(COUNT(X22:Z22)&gt;0,R22/COUNT(X22:Z22),0.5)</f>
         <v/>
       </c>
       <c r="Q22" s="23">
-        <f>SUM(W22:Y22)</f>
-        <v/>
-      </c>
-      <c r="R22" s="24">
-        <f>IF(ISNUMBER(J22),J22,IF(ISNUMBER(K22),-K22,""))</f>
-        <v/>
-      </c>
-      <c r="S22" s="9">
-        <f>IF(ISNUMBER(K22),K22,IF(ISNUMBER(J22),-J22,""))</f>
-        <v/>
-      </c>
-      <c r="T22" s="24">
-        <f>IF(ISNUMBER(R22),IF(ISNUMBER(R19),IF(R22&gt;R19,1.0,IF(R22=R19,0.5,0.0)),""),"")</f>
-        <v/>
-      </c>
-      <c r="U22" s="9">
-        <f>IF(ISNUMBER(R22),IF(ISNUMBER(R20),IF(R22&gt;R20,1.0,IF(R22=R20,0.5,0.0)),""),"")</f>
+        <f>SUM(U22:W22)</f>
+        <v/>
+      </c>
+      <c r="R22" s="23">
+        <f>SUM(X22:Z22)</f>
+        <v/>
+      </c>
+      <c r="S22" s="24">
+        <f>IF(ISNUMBER(K22),K22,IF(ISNUMBER(L22),-L22,""))</f>
+        <v/>
+      </c>
+      <c r="T22" s="9">
+        <f>IF(ISNUMBER(L22),L22,IF(ISNUMBER(K22),-K22,""))</f>
+        <v/>
+      </c>
+      <c r="U22" s="24">
+        <f>IF(ISNUMBER(S22),IF(ISNUMBER(S19),IF(S22&gt;S19,1.0,IF(S22=S19,0.5,0.0)),""),"")</f>
         <v/>
       </c>
       <c r="V22" s="9">
-        <f>IF(ISNUMBER(R22),IF(ISNUMBER(R21),IF(R22&gt;R21,1.0,IF(R22=R21,0.5,0.0)),""),"")</f>
+        <f>IF(ISNUMBER(S22),IF(ISNUMBER(S20),IF(S22&gt;S20,1.0,IF(S22=S20,0.5,0.0)),""),"")</f>
         <v/>
       </c>
       <c r="W22" s="9">
-        <f>IF(ISNUMBER(S22),IF(ISNUMBER(S19),IF(S22&gt;S19,1.0,IF(S22=S19,0.5,0.0)),""),"")</f>
+        <f>IF(ISNUMBER(S22),IF(ISNUMBER(S21),IF(S22&gt;S21,1.0,IF(S22=S21,0.5,0.0)),""),"")</f>
         <v/>
       </c>
       <c r="X22" s="9">
-        <f>IF(ISNUMBER(S22),IF(ISNUMBER(S20),IF(S22&gt;S20,1.0,IF(S22=S20,0.5,0.0)),""),"")</f>
+        <f>IF(ISNUMBER(T22),IF(ISNUMBER(T19),IF(T22&gt;T19,1.0,IF(T22=T19,0.5,0.0)),""),"")</f>
         <v/>
       </c>
       <c r="Y22" s="9">
-        <f>IF(ISNUMBER(S22),IF(ISNUMBER(S21),IF(S22&gt;S21,1.0,IF(S22=S21,0.5,0.0)),""),"")</f>
-        <v/>
-      </c>
-      <c r="Z22" s="24">
-        <f>IF(AND(ISNUMBER(R22),ISNUMBER(R19)),VLOOKUP(ABS(R22-R19),'IMP Table'!$A$2:$C$26,3)*SIGN(R22-R19),0)</f>
-        <v/>
-      </c>
-      <c r="AA22" s="9">
-        <f>IF(AND(ISNUMBER(R22),ISNUMBER(R20)),VLOOKUP(ABS(R22-R20),'IMP Table'!$A$2:$C$26,3)*SIGN(R22-R20),0)</f>
+        <f>IF(ISNUMBER(T22),IF(ISNUMBER(T20),IF(T22&gt;T20,1.0,IF(T22=T20,0.5,0.0)),""),"")</f>
+        <v/>
+      </c>
+      <c r="Z22" s="9">
+        <f>IF(ISNUMBER(T22),IF(ISNUMBER(T21),IF(T22&gt;T21,1.0,IF(T22=T21,0.5,0.0)),""),"")</f>
+        <v/>
+      </c>
+      <c r="AA22" s="24">
+        <f>IF(AND(ISNUMBER(S22),ISNUMBER(S19)),VLOOKUP(ABS(S22-S19),'IMP Table'!$A$2:$C$26,3)*SIGN(S22-S19),0)</f>
         <v/>
       </c>
       <c r="AB22" s="9">
-        <f>IF(AND(ISNUMBER(R22),ISNUMBER(R21)),VLOOKUP(ABS(R22-R21),'IMP Table'!$A$2:$C$26,3)*SIGN(R22-R21),0)</f>
+        <f>IF(AND(ISNUMBER(S22),ISNUMBER(S20)),VLOOKUP(ABS(S22-S20),'IMP Table'!$A$2:$C$26,3)*SIGN(S22-S20),0)</f>
         <v/>
       </c>
       <c r="AC22" s="9">
-        <f>IF(AND(ISNUMBER(S22),ISNUMBER(S19)),VLOOKUP(ABS(S22-S19),'IMP Table'!$A$2:$C$26,3)*SIGN(S22-S19),0)</f>
+        <f>IF(AND(ISNUMBER(S22),ISNUMBER(S21)),VLOOKUP(ABS(S22-S21),'IMP Table'!$A$2:$C$26,3)*SIGN(S22-S21),0)</f>
         <v/>
       </c>
       <c r="AD22" s="9">
-        <f>IF(AND(ISNUMBER(S22),ISNUMBER(S20)),VLOOKUP(ABS(S22-S20),'IMP Table'!$A$2:$C$26,3)*SIGN(S22-S20),0)</f>
+        <f>IF(AND(ISNUMBER(T22),ISNUMBER(T19)),VLOOKUP(ABS(T22-T19),'IMP Table'!$A$2:$C$26,3)*SIGN(T22-T19),0)</f>
         <v/>
       </c>
       <c r="AE22" s="9">
-        <f>IF(AND(ISNUMBER(S22),ISNUMBER(S21)),VLOOKUP(ABS(S22-S21),'IMP Table'!$A$2:$C$26,3)*SIGN(S22-S21),0)</f>
+        <f>IF(AND(ISNUMBER(T22),ISNUMBER(T20)),VLOOKUP(ABS(T22-T20),'IMP Table'!$A$2:$C$26,3)*SIGN(T22-T20),0)</f>
+        <v/>
+      </c>
+      <c r="AF22" s="9">
+        <f>IF(AND(ISNUMBER(T22),ISNUMBER(T21)),VLOOKUP(ABS(T22-T21),'IMP Table'!$A$2:$C$26,3)*SIGN(T22-T21),0)</f>
         <v/>
       </c>
     </row>
@@ -3497,84 +3587,88 @@
         <f>IF(ISBLANK('By Round'!K41),"",'By Round'!K41)</f>
         <v/>
       </c>
-      <c r="L23" s="16">
-        <f>AVERAGE(Z23:AB23)</f>
-        <v/>
-      </c>
-      <c r="M23" s="7">
-        <f>AVERAGE(AC23:AE23)</f>
-        <v/>
-      </c>
-      <c r="N23" s="6">
-        <f>IF(COUNT(T23:V23)&gt;0,P23/COUNT(T23:V23),0.5)</f>
+      <c r="L23">
+        <f>IF(ISBLANK('By Round'!L41),"",'By Round'!L41)</f>
+        <v/>
+      </c>
+      <c r="M23" s="16">
+        <f>AVERAGE(AA23:AC23)</f>
+        <v/>
+      </c>
+      <c r="N23" s="7">
+        <f>AVERAGE(AD23:AF23)</f>
         <v/>
       </c>
       <c r="O23" s="6">
-        <f>IF(COUNT(W23:Y23)&gt;0,Q23/COUNT(W23:Y23),0.5)</f>
-        <v/>
-      </c>
-      <c r="P23" s="17">
-        <f>SUM(T23:V23)</f>
+        <f>IF(COUNT(U23:W23)&gt;0,Q23/COUNT(U23:W23),0.5)</f>
+        <v/>
+      </c>
+      <c r="P23" s="6">
+        <f>IF(COUNT(X23:Z23)&gt;0,R23/COUNT(X23:Z23),0.5)</f>
         <v/>
       </c>
       <c r="Q23" s="17">
-        <f>SUM(W23:Y23)</f>
-        <v/>
-      </c>
-      <c r="R23" s="18">
-        <f>IF(ISNUMBER(J23),J23,IF(ISNUMBER(K23),-K23,""))</f>
-        <v/>
-      </c>
-      <c r="S23">
-        <f>IF(ISNUMBER(K23),K23,IF(ISNUMBER(J23),-J23,""))</f>
-        <v/>
-      </c>
-      <c r="T23" s="18">
-        <f>IF(ISNUMBER(R23),IF(ISNUMBER(R24),IF(R23&gt;R24,1.0,IF(R23=R24,0.5,0.0)),""),"")</f>
-        <v/>
-      </c>
-      <c r="U23">
-        <f>IF(ISNUMBER(R23),IF(ISNUMBER(R25),IF(R23&gt;R25,1.0,IF(R23=R25,0.5,0.0)),""),"")</f>
+        <f>SUM(U23:W23)</f>
+        <v/>
+      </c>
+      <c r="R23" s="17">
+        <f>SUM(X23:Z23)</f>
+        <v/>
+      </c>
+      <c r="S23" s="18">
+        <f>IF(ISNUMBER(K23),K23,IF(ISNUMBER(L23),-L23,""))</f>
+        <v/>
+      </c>
+      <c r="T23">
+        <f>IF(ISNUMBER(L23),L23,IF(ISNUMBER(K23),-K23,""))</f>
+        <v/>
+      </c>
+      <c r="U23" s="18">
+        <f>IF(ISNUMBER(S23),IF(ISNUMBER(S24),IF(S23&gt;S24,1.0,IF(S23=S24,0.5,0.0)),""),"")</f>
         <v/>
       </c>
       <c r="V23">
-        <f>IF(ISNUMBER(R23),IF(ISNUMBER(R26),IF(R23&gt;R26,1.0,IF(R23=R26,0.5,0.0)),""),"")</f>
+        <f>IF(ISNUMBER(S23),IF(ISNUMBER(S25),IF(S23&gt;S25,1.0,IF(S23=S25,0.5,0.0)),""),"")</f>
         <v/>
       </c>
       <c r="W23">
-        <f>IF(ISNUMBER(S23),IF(ISNUMBER(S24),IF(S23&gt;S24,1.0,IF(S23=S24,0.5,0.0)),""),"")</f>
+        <f>IF(ISNUMBER(S23),IF(ISNUMBER(S26),IF(S23&gt;S26,1.0,IF(S23=S26,0.5,0.0)),""),"")</f>
         <v/>
       </c>
       <c r="X23">
-        <f>IF(ISNUMBER(S23),IF(ISNUMBER(S25),IF(S23&gt;S25,1.0,IF(S23=S25,0.5,0.0)),""),"")</f>
+        <f>IF(ISNUMBER(T23),IF(ISNUMBER(T24),IF(T23&gt;T24,1.0,IF(T23=T24,0.5,0.0)),""),"")</f>
         <v/>
       </c>
       <c r="Y23">
-        <f>IF(ISNUMBER(S23),IF(ISNUMBER(S26),IF(S23&gt;S26,1.0,IF(S23=S26,0.5,0.0)),""),"")</f>
-        <v/>
-      </c>
-      <c r="Z23" s="18">
-        <f>IF(AND(ISNUMBER(R23),ISNUMBER(R24)),VLOOKUP(ABS(R23-R24),'IMP Table'!$A$2:$C$26,3)*SIGN(R23-R24),0)</f>
-        <v/>
-      </c>
-      <c r="AA23">
-        <f>IF(AND(ISNUMBER(R23),ISNUMBER(R25)),VLOOKUP(ABS(R23-R25),'IMP Table'!$A$2:$C$26,3)*SIGN(R23-R25),0)</f>
+        <f>IF(ISNUMBER(T23),IF(ISNUMBER(T25),IF(T23&gt;T25,1.0,IF(T23=T25,0.5,0.0)),""),"")</f>
+        <v/>
+      </c>
+      <c r="Z23">
+        <f>IF(ISNUMBER(T23),IF(ISNUMBER(T26),IF(T23&gt;T26,1.0,IF(T23=T26,0.5,0.0)),""),"")</f>
+        <v/>
+      </c>
+      <c r="AA23" s="18">
+        <f>IF(AND(ISNUMBER(S23),ISNUMBER(S24)),VLOOKUP(ABS(S23-S24),'IMP Table'!$A$2:$C$26,3)*SIGN(S23-S24),0)</f>
         <v/>
       </c>
       <c r="AB23">
-        <f>IF(AND(ISNUMBER(R23),ISNUMBER(R26)),VLOOKUP(ABS(R23-R26),'IMP Table'!$A$2:$C$26,3)*SIGN(R23-R26),0)</f>
+        <f>IF(AND(ISNUMBER(S23),ISNUMBER(S25)),VLOOKUP(ABS(S23-S25),'IMP Table'!$A$2:$C$26,3)*SIGN(S23-S25),0)</f>
         <v/>
       </c>
       <c r="AC23">
-        <f>IF(AND(ISNUMBER(S23),ISNUMBER(S24)),VLOOKUP(ABS(S23-S24),'IMP Table'!$A$2:$C$26,3)*SIGN(S23-S24),0)</f>
+        <f>IF(AND(ISNUMBER(S23),ISNUMBER(S26)),VLOOKUP(ABS(S23-S26),'IMP Table'!$A$2:$C$26,3)*SIGN(S23-S26),0)</f>
         <v/>
       </c>
       <c r="AD23">
-        <f>IF(AND(ISNUMBER(S23),ISNUMBER(S25)),VLOOKUP(ABS(S23-S25),'IMP Table'!$A$2:$C$26,3)*SIGN(S23-S25),0)</f>
+        <f>IF(AND(ISNUMBER(T23),ISNUMBER(T24)),VLOOKUP(ABS(T23-T24),'IMP Table'!$A$2:$C$26,3)*SIGN(T23-T24),0)</f>
         <v/>
       </c>
       <c r="AE23">
-        <f>IF(AND(ISNUMBER(S23),ISNUMBER(S26)),VLOOKUP(ABS(S23-S26),'IMP Table'!$A$2:$C$26,3)*SIGN(S23-S26),0)</f>
+        <f>IF(AND(ISNUMBER(T23),ISNUMBER(T25)),VLOOKUP(ABS(T23-T25),'IMP Table'!$A$2:$C$26,3)*SIGN(T23-T25),0)</f>
+        <v/>
+      </c>
+      <c r="AF23">
+        <f>IF(AND(ISNUMBER(T23),ISNUMBER(T26)),VLOOKUP(ABS(T23-T26),'IMP Table'!$A$2:$C$26,3)*SIGN(T23-T26),0)</f>
         <v/>
       </c>
     </row>
@@ -3619,84 +3713,88 @@
         <f>IF(ISBLANK('By Round'!K8),"",'By Round'!K8)</f>
         <v/>
       </c>
-      <c r="L24" s="16">
-        <f>AVERAGE(Z24:AB24)</f>
-        <v/>
-      </c>
-      <c r="M24" s="7">
-        <f>AVERAGE(AC24:AE24)</f>
-        <v/>
-      </c>
-      <c r="N24" s="6">
-        <f>IF(COUNT(T24:V24)&gt;0,P24/COUNT(T24:V24),0.5)</f>
+      <c r="L24">
+        <f>IF(ISBLANK('By Round'!L8),"",'By Round'!L8)</f>
+        <v/>
+      </c>
+      <c r="M24" s="16">
+        <f>AVERAGE(AA24:AC24)</f>
+        <v/>
+      </c>
+      <c r="N24" s="7">
+        <f>AVERAGE(AD24:AF24)</f>
         <v/>
       </c>
       <c r="O24" s="6">
-        <f>IF(COUNT(W24:Y24)&gt;0,Q24/COUNT(W24:Y24),0.5)</f>
-        <v/>
-      </c>
-      <c r="P24" s="17">
-        <f>SUM(T24:V24)</f>
+        <f>IF(COUNT(U24:W24)&gt;0,Q24/COUNT(U24:W24),0.5)</f>
+        <v/>
+      </c>
+      <c r="P24" s="6">
+        <f>IF(COUNT(X24:Z24)&gt;0,R24/COUNT(X24:Z24),0.5)</f>
         <v/>
       </c>
       <c r="Q24" s="17">
-        <f>SUM(W24:Y24)</f>
-        <v/>
-      </c>
-      <c r="R24" s="18">
-        <f>IF(ISNUMBER(J24),J24,IF(ISNUMBER(K24),-K24,""))</f>
-        <v/>
-      </c>
-      <c r="S24">
-        <f>IF(ISNUMBER(K24),K24,IF(ISNUMBER(J24),-J24,""))</f>
-        <v/>
-      </c>
-      <c r="T24" s="18">
-        <f>IF(ISNUMBER(R24),IF(ISNUMBER(R23),IF(R24&gt;R23,1.0,IF(R24=R23,0.5,0.0)),""),"")</f>
-        <v/>
-      </c>
-      <c r="U24">
-        <f>IF(ISNUMBER(R24),IF(ISNUMBER(R25),IF(R24&gt;R25,1.0,IF(R24=R25,0.5,0.0)),""),"")</f>
+        <f>SUM(U24:W24)</f>
+        <v/>
+      </c>
+      <c r="R24" s="17">
+        <f>SUM(X24:Z24)</f>
+        <v/>
+      </c>
+      <c r="S24" s="18">
+        <f>IF(ISNUMBER(K24),K24,IF(ISNUMBER(L24),-L24,""))</f>
+        <v/>
+      </c>
+      <c r="T24">
+        <f>IF(ISNUMBER(L24),L24,IF(ISNUMBER(K24),-K24,""))</f>
+        <v/>
+      </c>
+      <c r="U24" s="18">
+        <f>IF(ISNUMBER(S24),IF(ISNUMBER(S23),IF(S24&gt;S23,1.0,IF(S24=S23,0.5,0.0)),""),"")</f>
         <v/>
       </c>
       <c r="V24">
-        <f>IF(ISNUMBER(R24),IF(ISNUMBER(R26),IF(R24&gt;R26,1.0,IF(R24=R26,0.5,0.0)),""),"")</f>
+        <f>IF(ISNUMBER(S24),IF(ISNUMBER(S25),IF(S24&gt;S25,1.0,IF(S24=S25,0.5,0.0)),""),"")</f>
         <v/>
       </c>
       <c r="W24">
-        <f>IF(ISNUMBER(S24),IF(ISNUMBER(S23),IF(S24&gt;S23,1.0,IF(S24=S23,0.5,0.0)),""),"")</f>
+        <f>IF(ISNUMBER(S24),IF(ISNUMBER(S26),IF(S24&gt;S26,1.0,IF(S24=S26,0.5,0.0)),""),"")</f>
         <v/>
       </c>
       <c r="X24">
-        <f>IF(ISNUMBER(S24),IF(ISNUMBER(S25),IF(S24&gt;S25,1.0,IF(S24=S25,0.5,0.0)),""),"")</f>
+        <f>IF(ISNUMBER(T24),IF(ISNUMBER(T23),IF(T24&gt;T23,1.0,IF(T24=T23,0.5,0.0)),""),"")</f>
         <v/>
       </c>
       <c r="Y24">
-        <f>IF(ISNUMBER(S24),IF(ISNUMBER(S26),IF(S24&gt;S26,1.0,IF(S24=S26,0.5,0.0)),""),"")</f>
-        <v/>
-      </c>
-      <c r="Z24" s="18">
-        <f>IF(AND(ISNUMBER(R24),ISNUMBER(R23)),VLOOKUP(ABS(R24-R23),'IMP Table'!$A$2:$C$26,3)*SIGN(R24-R23),0)</f>
-        <v/>
-      </c>
-      <c r="AA24">
-        <f>IF(AND(ISNUMBER(R24),ISNUMBER(R25)),VLOOKUP(ABS(R24-R25),'IMP Table'!$A$2:$C$26,3)*SIGN(R24-R25),0)</f>
+        <f>IF(ISNUMBER(T24),IF(ISNUMBER(T25),IF(T24&gt;T25,1.0,IF(T24=T25,0.5,0.0)),""),"")</f>
+        <v/>
+      </c>
+      <c r="Z24">
+        <f>IF(ISNUMBER(T24),IF(ISNUMBER(T26),IF(T24&gt;T26,1.0,IF(T24=T26,0.5,0.0)),""),"")</f>
+        <v/>
+      </c>
+      <c r="AA24" s="18">
+        <f>IF(AND(ISNUMBER(S24),ISNUMBER(S23)),VLOOKUP(ABS(S24-S23),'IMP Table'!$A$2:$C$26,3)*SIGN(S24-S23),0)</f>
         <v/>
       </c>
       <c r="AB24">
-        <f>IF(AND(ISNUMBER(R24),ISNUMBER(R26)),VLOOKUP(ABS(R24-R26),'IMP Table'!$A$2:$C$26,3)*SIGN(R24-R26),0)</f>
+        <f>IF(AND(ISNUMBER(S24),ISNUMBER(S25)),VLOOKUP(ABS(S24-S25),'IMP Table'!$A$2:$C$26,3)*SIGN(S24-S25),0)</f>
         <v/>
       </c>
       <c r="AC24">
-        <f>IF(AND(ISNUMBER(S24),ISNUMBER(S23)),VLOOKUP(ABS(S24-S23),'IMP Table'!$A$2:$C$26,3)*SIGN(S24-S23),0)</f>
+        <f>IF(AND(ISNUMBER(S24),ISNUMBER(S26)),VLOOKUP(ABS(S24-S26),'IMP Table'!$A$2:$C$26,3)*SIGN(S24-S26),0)</f>
         <v/>
       </c>
       <c r="AD24">
-        <f>IF(AND(ISNUMBER(S24),ISNUMBER(S25)),VLOOKUP(ABS(S24-S25),'IMP Table'!$A$2:$C$26,3)*SIGN(S24-S25),0)</f>
+        <f>IF(AND(ISNUMBER(T24),ISNUMBER(T23)),VLOOKUP(ABS(T24-T23),'IMP Table'!$A$2:$C$26,3)*SIGN(T24-T23),0)</f>
         <v/>
       </c>
       <c r="AE24">
-        <f>IF(AND(ISNUMBER(S24),ISNUMBER(S26)),VLOOKUP(ABS(S24-S26),'IMP Table'!$A$2:$C$26,3)*SIGN(S24-S26),0)</f>
+        <f>IF(AND(ISNUMBER(T24),ISNUMBER(T25)),VLOOKUP(ABS(T24-T25),'IMP Table'!$A$2:$C$26,3)*SIGN(T24-T25),0)</f>
+        <v/>
+      </c>
+      <c r="AF24">
+        <f>IF(AND(ISNUMBER(T24),ISNUMBER(T26)),VLOOKUP(ABS(T24-T26),'IMP Table'!$A$2:$C$26,3)*SIGN(T24-T26),0)</f>
         <v/>
       </c>
     </row>
@@ -3741,84 +3839,88 @@
         <f>IF(ISBLANK('By Round'!K23),"",'By Round'!K23)</f>
         <v/>
       </c>
-      <c r="L25" s="16">
-        <f>AVERAGE(Z25:AB25)</f>
-        <v/>
-      </c>
-      <c r="M25" s="7">
-        <f>AVERAGE(AC25:AE25)</f>
-        <v/>
-      </c>
-      <c r="N25" s="6">
-        <f>IF(COUNT(T25:V25)&gt;0,P25/COUNT(T25:V25),0.5)</f>
+      <c r="L25">
+        <f>IF(ISBLANK('By Round'!L23),"",'By Round'!L23)</f>
+        <v/>
+      </c>
+      <c r="M25" s="16">
+        <f>AVERAGE(AA25:AC25)</f>
+        <v/>
+      </c>
+      <c r="N25" s="7">
+        <f>AVERAGE(AD25:AF25)</f>
         <v/>
       </c>
       <c r="O25" s="6">
-        <f>IF(COUNT(W25:Y25)&gt;0,Q25/COUNT(W25:Y25),0.5)</f>
-        <v/>
-      </c>
-      <c r="P25" s="17">
-        <f>SUM(T25:V25)</f>
+        <f>IF(COUNT(U25:W25)&gt;0,Q25/COUNT(U25:W25),0.5)</f>
+        <v/>
+      </c>
+      <c r="P25" s="6">
+        <f>IF(COUNT(X25:Z25)&gt;0,R25/COUNT(X25:Z25),0.5)</f>
         <v/>
       </c>
       <c r="Q25" s="17">
-        <f>SUM(W25:Y25)</f>
-        <v/>
-      </c>
-      <c r="R25" s="18">
-        <f>IF(ISNUMBER(J25),J25,IF(ISNUMBER(K25),-K25,""))</f>
-        <v/>
-      </c>
-      <c r="S25">
-        <f>IF(ISNUMBER(K25),K25,IF(ISNUMBER(J25),-J25,""))</f>
-        <v/>
-      </c>
-      <c r="T25" s="18">
-        <f>IF(ISNUMBER(R25),IF(ISNUMBER(R23),IF(R25&gt;R23,1.0,IF(R25=R23,0.5,0.0)),""),"")</f>
-        <v/>
-      </c>
-      <c r="U25">
-        <f>IF(ISNUMBER(R25),IF(ISNUMBER(R24),IF(R25&gt;R24,1.0,IF(R25=R24,0.5,0.0)),""),"")</f>
+        <f>SUM(U25:W25)</f>
+        <v/>
+      </c>
+      <c r="R25" s="17">
+        <f>SUM(X25:Z25)</f>
+        <v/>
+      </c>
+      <c r="S25" s="18">
+        <f>IF(ISNUMBER(K25),K25,IF(ISNUMBER(L25),-L25,""))</f>
+        <v/>
+      </c>
+      <c r="T25">
+        <f>IF(ISNUMBER(L25),L25,IF(ISNUMBER(K25),-K25,""))</f>
+        <v/>
+      </c>
+      <c r="U25" s="18">
+        <f>IF(ISNUMBER(S25),IF(ISNUMBER(S23),IF(S25&gt;S23,1.0,IF(S25=S23,0.5,0.0)),""),"")</f>
         <v/>
       </c>
       <c r="V25">
-        <f>IF(ISNUMBER(R25),IF(ISNUMBER(R26),IF(R25&gt;R26,1.0,IF(R25=R26,0.5,0.0)),""),"")</f>
+        <f>IF(ISNUMBER(S25),IF(ISNUMBER(S24),IF(S25&gt;S24,1.0,IF(S25=S24,0.5,0.0)),""),"")</f>
         <v/>
       </c>
       <c r="W25">
-        <f>IF(ISNUMBER(S25),IF(ISNUMBER(S23),IF(S25&gt;S23,1.0,IF(S25=S23,0.5,0.0)),""),"")</f>
+        <f>IF(ISNUMBER(S25),IF(ISNUMBER(S26),IF(S25&gt;S26,1.0,IF(S25=S26,0.5,0.0)),""),"")</f>
         <v/>
       </c>
       <c r="X25">
-        <f>IF(ISNUMBER(S25),IF(ISNUMBER(S24),IF(S25&gt;S24,1.0,IF(S25=S24,0.5,0.0)),""),"")</f>
+        <f>IF(ISNUMBER(T25),IF(ISNUMBER(T23),IF(T25&gt;T23,1.0,IF(T25=T23,0.5,0.0)),""),"")</f>
         <v/>
       </c>
       <c r="Y25">
-        <f>IF(ISNUMBER(S25),IF(ISNUMBER(S26),IF(S25&gt;S26,1.0,IF(S25=S26,0.5,0.0)),""),"")</f>
-        <v/>
-      </c>
-      <c r="Z25" s="18">
-        <f>IF(AND(ISNUMBER(R25),ISNUMBER(R23)),VLOOKUP(ABS(R25-R23),'IMP Table'!$A$2:$C$26,3)*SIGN(R25-R23),0)</f>
-        <v/>
-      </c>
-      <c r="AA25">
-        <f>IF(AND(ISNUMBER(R25),ISNUMBER(R24)),VLOOKUP(ABS(R25-R24),'IMP Table'!$A$2:$C$26,3)*SIGN(R25-R24),0)</f>
+        <f>IF(ISNUMBER(T25),IF(ISNUMBER(T24),IF(T25&gt;T24,1.0,IF(T25=T24,0.5,0.0)),""),"")</f>
+        <v/>
+      </c>
+      <c r="Z25">
+        <f>IF(ISNUMBER(T25),IF(ISNUMBER(T26),IF(T25&gt;T26,1.0,IF(T25=T26,0.5,0.0)),""),"")</f>
+        <v/>
+      </c>
+      <c r="AA25" s="18">
+        <f>IF(AND(ISNUMBER(S25),ISNUMBER(S23)),VLOOKUP(ABS(S25-S23),'IMP Table'!$A$2:$C$26,3)*SIGN(S25-S23),0)</f>
         <v/>
       </c>
       <c r="AB25">
-        <f>IF(AND(ISNUMBER(R25),ISNUMBER(R26)),VLOOKUP(ABS(R25-R26),'IMP Table'!$A$2:$C$26,3)*SIGN(R25-R26),0)</f>
+        <f>IF(AND(ISNUMBER(S25),ISNUMBER(S24)),VLOOKUP(ABS(S25-S24),'IMP Table'!$A$2:$C$26,3)*SIGN(S25-S24),0)</f>
         <v/>
       </c>
       <c r="AC25">
-        <f>IF(AND(ISNUMBER(S25),ISNUMBER(S23)),VLOOKUP(ABS(S25-S23),'IMP Table'!$A$2:$C$26,3)*SIGN(S25-S23),0)</f>
+        <f>IF(AND(ISNUMBER(S25),ISNUMBER(S26)),VLOOKUP(ABS(S25-S26),'IMP Table'!$A$2:$C$26,3)*SIGN(S25-S26),0)</f>
         <v/>
       </c>
       <c r="AD25">
-        <f>IF(AND(ISNUMBER(S25),ISNUMBER(S24)),VLOOKUP(ABS(S25-S24),'IMP Table'!$A$2:$C$26,3)*SIGN(S25-S24),0)</f>
+        <f>IF(AND(ISNUMBER(T25),ISNUMBER(T23)),VLOOKUP(ABS(T25-T23),'IMP Table'!$A$2:$C$26,3)*SIGN(T25-T23),0)</f>
         <v/>
       </c>
       <c r="AE25">
-        <f>IF(AND(ISNUMBER(S25),ISNUMBER(S26)),VLOOKUP(ABS(S25-S26),'IMP Table'!$A$2:$C$26,3)*SIGN(S25-S26),0)</f>
+        <f>IF(AND(ISNUMBER(T25),ISNUMBER(T24)),VLOOKUP(ABS(T25-T24),'IMP Table'!$A$2:$C$26,3)*SIGN(T25-T24),0)</f>
+        <v/>
+      </c>
+      <c r="AF25">
+        <f>IF(AND(ISNUMBER(T25),ISNUMBER(T26)),VLOOKUP(ABS(T25-T26),'IMP Table'!$A$2:$C$26,3)*SIGN(T25-T26),0)</f>
         <v/>
       </c>
     </row>
@@ -3864,84 +3966,88 @@
         <f>IF(ISBLANK('By Round'!K38),"",'By Round'!K38)</f>
         <v/>
       </c>
-      <c r="L26" s="20">
-        <f>AVERAGE(Z26:AB26)</f>
-        <v/>
-      </c>
-      <c r="M26" s="21">
-        <f>AVERAGE(AC26:AE26)</f>
-        <v/>
-      </c>
-      <c r="N26" s="22">
-        <f>IF(COUNT(T26:V26)&gt;0,P26/COUNT(T26:V26),0.5)</f>
+      <c r="L26" s="9">
+        <f>IF(ISBLANK('By Round'!L38),"",'By Round'!L38)</f>
+        <v/>
+      </c>
+      <c r="M26" s="20">
+        <f>AVERAGE(AA26:AC26)</f>
+        <v/>
+      </c>
+      <c r="N26" s="21">
+        <f>AVERAGE(AD26:AF26)</f>
         <v/>
       </c>
       <c r="O26" s="22">
-        <f>IF(COUNT(W26:Y26)&gt;0,Q26/COUNT(W26:Y26),0.5)</f>
-        <v/>
-      </c>
-      <c r="P26" s="23">
-        <f>SUM(T26:V26)</f>
+        <f>IF(COUNT(U26:W26)&gt;0,Q26/COUNT(U26:W26),0.5)</f>
+        <v/>
+      </c>
+      <c r="P26" s="22">
+        <f>IF(COUNT(X26:Z26)&gt;0,R26/COUNT(X26:Z26),0.5)</f>
         <v/>
       </c>
       <c r="Q26" s="23">
-        <f>SUM(W26:Y26)</f>
-        <v/>
-      </c>
-      <c r="R26" s="24">
-        <f>IF(ISNUMBER(J26),J26,IF(ISNUMBER(K26),-K26,""))</f>
-        <v/>
-      </c>
-      <c r="S26" s="9">
-        <f>IF(ISNUMBER(K26),K26,IF(ISNUMBER(J26),-J26,""))</f>
-        <v/>
-      </c>
-      <c r="T26" s="24">
-        <f>IF(ISNUMBER(R26),IF(ISNUMBER(R23),IF(R26&gt;R23,1.0,IF(R26=R23,0.5,0.0)),""),"")</f>
-        <v/>
-      </c>
-      <c r="U26" s="9">
-        <f>IF(ISNUMBER(R26),IF(ISNUMBER(R24),IF(R26&gt;R24,1.0,IF(R26=R24,0.5,0.0)),""),"")</f>
+        <f>SUM(U26:W26)</f>
+        <v/>
+      </c>
+      <c r="R26" s="23">
+        <f>SUM(X26:Z26)</f>
+        <v/>
+      </c>
+      <c r="S26" s="24">
+        <f>IF(ISNUMBER(K26),K26,IF(ISNUMBER(L26),-L26,""))</f>
+        <v/>
+      </c>
+      <c r="T26" s="9">
+        <f>IF(ISNUMBER(L26),L26,IF(ISNUMBER(K26),-K26,""))</f>
+        <v/>
+      </c>
+      <c r="U26" s="24">
+        <f>IF(ISNUMBER(S26),IF(ISNUMBER(S23),IF(S26&gt;S23,1.0,IF(S26=S23,0.5,0.0)),""),"")</f>
         <v/>
       </c>
       <c r="V26" s="9">
-        <f>IF(ISNUMBER(R26),IF(ISNUMBER(R25),IF(R26&gt;R25,1.0,IF(R26=R25,0.5,0.0)),""),"")</f>
+        <f>IF(ISNUMBER(S26),IF(ISNUMBER(S24),IF(S26&gt;S24,1.0,IF(S26=S24,0.5,0.0)),""),"")</f>
         <v/>
       </c>
       <c r="W26" s="9">
-        <f>IF(ISNUMBER(S26),IF(ISNUMBER(S23),IF(S26&gt;S23,1.0,IF(S26=S23,0.5,0.0)),""),"")</f>
+        <f>IF(ISNUMBER(S26),IF(ISNUMBER(S25),IF(S26&gt;S25,1.0,IF(S26=S25,0.5,0.0)),""),"")</f>
         <v/>
       </c>
       <c r="X26" s="9">
-        <f>IF(ISNUMBER(S26),IF(ISNUMBER(S24),IF(S26&gt;S24,1.0,IF(S26=S24,0.5,0.0)),""),"")</f>
+        <f>IF(ISNUMBER(T26),IF(ISNUMBER(T23),IF(T26&gt;T23,1.0,IF(T26=T23,0.5,0.0)),""),"")</f>
         <v/>
       </c>
       <c r="Y26" s="9">
-        <f>IF(ISNUMBER(S26),IF(ISNUMBER(S25),IF(S26&gt;S25,1.0,IF(S26=S25,0.5,0.0)),""),"")</f>
-        <v/>
-      </c>
-      <c r="Z26" s="24">
-        <f>IF(AND(ISNUMBER(R26),ISNUMBER(R23)),VLOOKUP(ABS(R26-R23),'IMP Table'!$A$2:$C$26,3)*SIGN(R26-R23),0)</f>
-        <v/>
-      </c>
-      <c r="AA26" s="9">
-        <f>IF(AND(ISNUMBER(R26),ISNUMBER(R24)),VLOOKUP(ABS(R26-R24),'IMP Table'!$A$2:$C$26,3)*SIGN(R26-R24),0)</f>
+        <f>IF(ISNUMBER(T26),IF(ISNUMBER(T24),IF(T26&gt;T24,1.0,IF(T26=T24,0.5,0.0)),""),"")</f>
+        <v/>
+      </c>
+      <c r="Z26" s="9">
+        <f>IF(ISNUMBER(T26),IF(ISNUMBER(T25),IF(T26&gt;T25,1.0,IF(T26=T25,0.5,0.0)),""),"")</f>
+        <v/>
+      </c>
+      <c r="AA26" s="24">
+        <f>IF(AND(ISNUMBER(S26),ISNUMBER(S23)),VLOOKUP(ABS(S26-S23),'IMP Table'!$A$2:$C$26,3)*SIGN(S26-S23),0)</f>
         <v/>
       </c>
       <c r="AB26" s="9">
-        <f>IF(AND(ISNUMBER(R26),ISNUMBER(R25)),VLOOKUP(ABS(R26-R25),'IMP Table'!$A$2:$C$26,3)*SIGN(R26-R25),0)</f>
+        <f>IF(AND(ISNUMBER(S26),ISNUMBER(S24)),VLOOKUP(ABS(S26-S24),'IMP Table'!$A$2:$C$26,3)*SIGN(S26-S24),0)</f>
         <v/>
       </c>
       <c r="AC26" s="9">
-        <f>IF(AND(ISNUMBER(S26),ISNUMBER(S23)),VLOOKUP(ABS(S26-S23),'IMP Table'!$A$2:$C$26,3)*SIGN(S26-S23),0)</f>
+        <f>IF(AND(ISNUMBER(S26),ISNUMBER(S25)),VLOOKUP(ABS(S26-S25),'IMP Table'!$A$2:$C$26,3)*SIGN(S26-S25),0)</f>
         <v/>
       </c>
       <c r="AD26" s="9">
-        <f>IF(AND(ISNUMBER(S26),ISNUMBER(S24)),VLOOKUP(ABS(S26-S24),'IMP Table'!$A$2:$C$26,3)*SIGN(S26-S24),0)</f>
+        <f>IF(AND(ISNUMBER(T26),ISNUMBER(T23)),VLOOKUP(ABS(T26-T23),'IMP Table'!$A$2:$C$26,3)*SIGN(T26-T23),0)</f>
         <v/>
       </c>
       <c r="AE26" s="9">
-        <f>IF(AND(ISNUMBER(S26),ISNUMBER(S25)),VLOOKUP(ABS(S26-S25),'IMP Table'!$A$2:$C$26,3)*SIGN(S26-S25),0)</f>
+        <f>IF(AND(ISNUMBER(T26),ISNUMBER(T24)),VLOOKUP(ABS(T26-T24),'IMP Table'!$A$2:$C$26,3)*SIGN(T26-T24),0)</f>
+        <v/>
+      </c>
+      <c r="AF26" s="9">
+        <f>IF(AND(ISNUMBER(T26),ISNUMBER(T25)),VLOOKUP(ABS(T26-T25),'IMP Table'!$A$2:$C$26,3)*SIGN(T26-T25),0)</f>
         <v/>
       </c>
     </row>
@@ -3989,84 +4095,88 @@
         <f>IF(ISBLANK('By Round'!K27),"",'By Round'!K27)</f>
         <v/>
       </c>
-      <c r="L27" s="16">
-        <f>AVERAGE(Z27:AB27)</f>
-        <v/>
-      </c>
-      <c r="M27" s="7">
-        <f>AVERAGE(AC27:AE27)</f>
-        <v/>
-      </c>
-      <c r="N27" s="6">
-        <f>IF(COUNT(T27:V27)&gt;0,P27/COUNT(T27:V27),0.5)</f>
+      <c r="L27">
+        <f>IF(ISBLANK('By Round'!L27),"",'By Round'!L27)</f>
+        <v/>
+      </c>
+      <c r="M27" s="16">
+        <f>AVERAGE(AA27:AC27)</f>
+        <v/>
+      </c>
+      <c r="N27" s="7">
+        <f>AVERAGE(AD27:AF27)</f>
         <v/>
       </c>
       <c r="O27" s="6">
-        <f>IF(COUNT(W27:Y27)&gt;0,Q27/COUNT(W27:Y27),0.5)</f>
-        <v/>
-      </c>
-      <c r="P27" s="17">
-        <f>SUM(T27:V27)</f>
+        <f>IF(COUNT(U27:W27)&gt;0,Q27/COUNT(U27:W27),0.5)</f>
+        <v/>
+      </c>
+      <c r="P27" s="6">
+        <f>IF(COUNT(X27:Z27)&gt;0,R27/COUNT(X27:Z27),0.5)</f>
         <v/>
       </c>
       <c r="Q27" s="17">
-        <f>SUM(W27:Y27)</f>
-        <v/>
-      </c>
-      <c r="R27" s="18">
-        <f>IF(ISNUMBER(J27),J27,IF(ISNUMBER(K27),-K27,""))</f>
-        <v/>
-      </c>
-      <c r="S27">
-        <f>IF(ISNUMBER(K27),K27,IF(ISNUMBER(J27),-J27,""))</f>
-        <v/>
-      </c>
-      <c r="T27" s="18">
-        <f>IF(ISNUMBER(R27),IF(ISNUMBER(R28),IF(R27&gt;R28,1.0,IF(R27=R28,0.5,0.0)),""),"")</f>
-        <v/>
-      </c>
-      <c r="U27">
-        <f>IF(ISNUMBER(R27),IF(ISNUMBER(R29),IF(R27&gt;R29,1.0,IF(R27=R29,0.5,0.0)),""),"")</f>
+        <f>SUM(U27:W27)</f>
+        <v/>
+      </c>
+      <c r="R27" s="17">
+        <f>SUM(X27:Z27)</f>
+        <v/>
+      </c>
+      <c r="S27" s="18">
+        <f>IF(ISNUMBER(K27),K27,IF(ISNUMBER(L27),-L27,""))</f>
+        <v/>
+      </c>
+      <c r="T27">
+        <f>IF(ISNUMBER(L27),L27,IF(ISNUMBER(K27),-K27,""))</f>
+        <v/>
+      </c>
+      <c r="U27" s="18">
+        <f>IF(ISNUMBER(S27),IF(ISNUMBER(S28),IF(S27&gt;S28,1.0,IF(S27=S28,0.5,0.0)),""),"")</f>
         <v/>
       </c>
       <c r="V27">
-        <f>IF(ISNUMBER(R27),IF(ISNUMBER(R30),IF(R27&gt;R30,1.0,IF(R27=R30,0.5,0.0)),""),"")</f>
+        <f>IF(ISNUMBER(S27),IF(ISNUMBER(S29),IF(S27&gt;S29,1.0,IF(S27=S29,0.5,0.0)),""),"")</f>
         <v/>
       </c>
       <c r="W27">
-        <f>IF(ISNUMBER(S27),IF(ISNUMBER(S28),IF(S27&gt;S28,1.0,IF(S27=S28,0.5,0.0)),""),"")</f>
+        <f>IF(ISNUMBER(S27),IF(ISNUMBER(S30),IF(S27&gt;S30,1.0,IF(S27=S30,0.5,0.0)),""),"")</f>
         <v/>
       </c>
       <c r="X27">
-        <f>IF(ISNUMBER(S27),IF(ISNUMBER(S29),IF(S27&gt;S29,1.0,IF(S27=S29,0.5,0.0)),""),"")</f>
+        <f>IF(ISNUMBER(T27),IF(ISNUMBER(T28),IF(T27&gt;T28,1.0,IF(T27=T28,0.5,0.0)),""),"")</f>
         <v/>
       </c>
       <c r="Y27">
-        <f>IF(ISNUMBER(S27),IF(ISNUMBER(S30),IF(S27&gt;S30,1.0,IF(S27=S30,0.5,0.0)),""),"")</f>
-        <v/>
-      </c>
-      <c r="Z27" s="18">
-        <f>IF(AND(ISNUMBER(R27),ISNUMBER(R28)),VLOOKUP(ABS(R27-R28),'IMP Table'!$A$2:$C$26,3)*SIGN(R27-R28),0)</f>
-        <v/>
-      </c>
-      <c r="AA27">
-        <f>IF(AND(ISNUMBER(R27),ISNUMBER(R29)),VLOOKUP(ABS(R27-R29),'IMP Table'!$A$2:$C$26,3)*SIGN(R27-R29),0)</f>
+        <f>IF(ISNUMBER(T27),IF(ISNUMBER(T29),IF(T27&gt;T29,1.0,IF(T27=T29,0.5,0.0)),""),"")</f>
+        <v/>
+      </c>
+      <c r="Z27">
+        <f>IF(ISNUMBER(T27),IF(ISNUMBER(T30),IF(T27&gt;T30,1.0,IF(T27=T30,0.5,0.0)),""),"")</f>
+        <v/>
+      </c>
+      <c r="AA27" s="18">
+        <f>IF(AND(ISNUMBER(S27),ISNUMBER(S28)),VLOOKUP(ABS(S27-S28),'IMP Table'!$A$2:$C$26,3)*SIGN(S27-S28),0)</f>
         <v/>
       </c>
       <c r="AB27">
-        <f>IF(AND(ISNUMBER(R27),ISNUMBER(R30)),VLOOKUP(ABS(R27-R30),'IMP Table'!$A$2:$C$26,3)*SIGN(R27-R30),0)</f>
+        <f>IF(AND(ISNUMBER(S27),ISNUMBER(S29)),VLOOKUP(ABS(S27-S29),'IMP Table'!$A$2:$C$26,3)*SIGN(S27-S29),0)</f>
         <v/>
       </c>
       <c r="AC27">
-        <f>IF(AND(ISNUMBER(S27),ISNUMBER(S28)),VLOOKUP(ABS(S27-S28),'IMP Table'!$A$2:$C$26,3)*SIGN(S27-S28),0)</f>
+        <f>IF(AND(ISNUMBER(S27),ISNUMBER(S30)),VLOOKUP(ABS(S27-S30),'IMP Table'!$A$2:$C$26,3)*SIGN(S27-S30),0)</f>
         <v/>
       </c>
       <c r="AD27">
-        <f>IF(AND(ISNUMBER(S27),ISNUMBER(S29)),VLOOKUP(ABS(S27-S29),'IMP Table'!$A$2:$C$26,3)*SIGN(S27-S29),0)</f>
+        <f>IF(AND(ISNUMBER(T27),ISNUMBER(T28)),VLOOKUP(ABS(T27-T28),'IMP Table'!$A$2:$C$26,3)*SIGN(T27-T28),0)</f>
         <v/>
       </c>
       <c r="AE27">
-        <f>IF(AND(ISNUMBER(S27),ISNUMBER(S30)),VLOOKUP(ABS(S27-S30),'IMP Table'!$A$2:$C$26,3)*SIGN(S27-S30),0)</f>
+        <f>IF(AND(ISNUMBER(T27),ISNUMBER(T29)),VLOOKUP(ABS(T27-T29),'IMP Table'!$A$2:$C$26,3)*SIGN(T27-T29),0)</f>
+        <v/>
+      </c>
+      <c r="AF27">
+        <f>IF(AND(ISNUMBER(T27),ISNUMBER(T30)),VLOOKUP(ABS(T27-T30),'IMP Table'!$A$2:$C$26,3)*SIGN(T27-T30),0)</f>
         <v/>
       </c>
     </row>
@@ -4111,84 +4221,88 @@
         <f>IF(ISBLANK('By Round'!K18),"",'By Round'!K18)</f>
         <v/>
       </c>
-      <c r="L28" s="16">
-        <f>AVERAGE(Z28:AB28)</f>
-        <v/>
-      </c>
-      <c r="M28" s="7">
-        <f>AVERAGE(AC28:AE28)</f>
-        <v/>
-      </c>
-      <c r="N28" s="6">
-        <f>IF(COUNT(T28:V28)&gt;0,P28/COUNT(T28:V28),0.5)</f>
+      <c r="L28">
+        <f>IF(ISBLANK('By Round'!L18),"",'By Round'!L18)</f>
+        <v/>
+      </c>
+      <c r="M28" s="16">
+        <f>AVERAGE(AA28:AC28)</f>
+        <v/>
+      </c>
+      <c r="N28" s="7">
+        <f>AVERAGE(AD28:AF28)</f>
         <v/>
       </c>
       <c r="O28" s="6">
-        <f>IF(COUNT(W28:Y28)&gt;0,Q28/COUNT(W28:Y28),0.5)</f>
-        <v/>
-      </c>
-      <c r="P28" s="17">
-        <f>SUM(T28:V28)</f>
+        <f>IF(COUNT(U28:W28)&gt;0,Q28/COUNT(U28:W28),0.5)</f>
+        <v/>
+      </c>
+      <c r="P28" s="6">
+        <f>IF(COUNT(X28:Z28)&gt;0,R28/COUNT(X28:Z28),0.5)</f>
         <v/>
       </c>
       <c r="Q28" s="17">
-        <f>SUM(W28:Y28)</f>
-        <v/>
-      </c>
-      <c r="R28" s="18">
-        <f>IF(ISNUMBER(J28),J28,IF(ISNUMBER(K28),-K28,""))</f>
-        <v/>
-      </c>
-      <c r="S28">
-        <f>IF(ISNUMBER(K28),K28,IF(ISNUMBER(J28),-J28,""))</f>
-        <v/>
-      </c>
-      <c r="T28" s="18">
-        <f>IF(ISNUMBER(R28),IF(ISNUMBER(R27),IF(R28&gt;R27,1.0,IF(R28=R27,0.5,0.0)),""),"")</f>
-        <v/>
-      </c>
-      <c r="U28">
-        <f>IF(ISNUMBER(R28),IF(ISNUMBER(R29),IF(R28&gt;R29,1.0,IF(R28=R29,0.5,0.0)),""),"")</f>
+        <f>SUM(U28:W28)</f>
+        <v/>
+      </c>
+      <c r="R28" s="17">
+        <f>SUM(X28:Z28)</f>
+        <v/>
+      </c>
+      <c r="S28" s="18">
+        <f>IF(ISNUMBER(K28),K28,IF(ISNUMBER(L28),-L28,""))</f>
+        <v/>
+      </c>
+      <c r="T28">
+        <f>IF(ISNUMBER(L28),L28,IF(ISNUMBER(K28),-K28,""))</f>
+        <v/>
+      </c>
+      <c r="U28" s="18">
+        <f>IF(ISNUMBER(S28),IF(ISNUMBER(S27),IF(S28&gt;S27,1.0,IF(S28=S27,0.5,0.0)),""),"")</f>
         <v/>
       </c>
       <c r="V28">
-        <f>IF(ISNUMBER(R28),IF(ISNUMBER(R30),IF(R28&gt;R30,1.0,IF(R28=R30,0.5,0.0)),""),"")</f>
+        <f>IF(ISNUMBER(S28),IF(ISNUMBER(S29),IF(S28&gt;S29,1.0,IF(S28=S29,0.5,0.0)),""),"")</f>
         <v/>
       </c>
       <c r="W28">
-        <f>IF(ISNUMBER(S28),IF(ISNUMBER(S27),IF(S28&gt;S27,1.0,IF(S28=S27,0.5,0.0)),""),"")</f>
+        <f>IF(ISNUMBER(S28),IF(ISNUMBER(S30),IF(S28&gt;S30,1.0,IF(S28=S30,0.5,0.0)),""),"")</f>
         <v/>
       </c>
       <c r="X28">
-        <f>IF(ISNUMBER(S28),IF(ISNUMBER(S29),IF(S28&gt;S29,1.0,IF(S28=S29,0.5,0.0)),""),"")</f>
+        <f>IF(ISNUMBER(T28),IF(ISNUMBER(T27),IF(T28&gt;T27,1.0,IF(T28=T27,0.5,0.0)),""),"")</f>
         <v/>
       </c>
       <c r="Y28">
-        <f>IF(ISNUMBER(S28),IF(ISNUMBER(S30),IF(S28&gt;S30,1.0,IF(S28=S30,0.5,0.0)),""),"")</f>
-        <v/>
-      </c>
-      <c r="Z28" s="18">
-        <f>IF(AND(ISNUMBER(R28),ISNUMBER(R27)),VLOOKUP(ABS(R28-R27),'IMP Table'!$A$2:$C$26,3)*SIGN(R28-R27),0)</f>
-        <v/>
-      </c>
-      <c r="AA28">
-        <f>IF(AND(ISNUMBER(R28),ISNUMBER(R29)),VLOOKUP(ABS(R28-R29),'IMP Table'!$A$2:$C$26,3)*SIGN(R28-R29),0)</f>
+        <f>IF(ISNUMBER(T28),IF(ISNUMBER(T29),IF(T28&gt;T29,1.0,IF(T28=T29,0.5,0.0)),""),"")</f>
+        <v/>
+      </c>
+      <c r="Z28">
+        <f>IF(ISNUMBER(T28),IF(ISNUMBER(T30),IF(T28&gt;T30,1.0,IF(T28=T30,0.5,0.0)),""),"")</f>
+        <v/>
+      </c>
+      <c r="AA28" s="18">
+        <f>IF(AND(ISNUMBER(S28),ISNUMBER(S27)),VLOOKUP(ABS(S28-S27),'IMP Table'!$A$2:$C$26,3)*SIGN(S28-S27),0)</f>
         <v/>
       </c>
       <c r="AB28">
-        <f>IF(AND(ISNUMBER(R28),ISNUMBER(R30)),VLOOKUP(ABS(R28-R30),'IMP Table'!$A$2:$C$26,3)*SIGN(R28-R30),0)</f>
+        <f>IF(AND(ISNUMBER(S28),ISNUMBER(S29)),VLOOKUP(ABS(S28-S29),'IMP Table'!$A$2:$C$26,3)*SIGN(S28-S29),0)</f>
         <v/>
       </c>
       <c r="AC28">
-        <f>IF(AND(ISNUMBER(S28),ISNUMBER(S27)),VLOOKUP(ABS(S28-S27),'IMP Table'!$A$2:$C$26,3)*SIGN(S28-S27),0)</f>
+        <f>IF(AND(ISNUMBER(S28),ISNUMBER(S30)),VLOOKUP(ABS(S28-S30),'IMP Table'!$A$2:$C$26,3)*SIGN(S28-S30),0)</f>
         <v/>
       </c>
       <c r="AD28">
-        <f>IF(AND(ISNUMBER(S28),ISNUMBER(S29)),VLOOKUP(ABS(S28-S29),'IMP Table'!$A$2:$C$26,3)*SIGN(S28-S29),0)</f>
+        <f>IF(AND(ISNUMBER(T28),ISNUMBER(T27)),VLOOKUP(ABS(T28-T27),'IMP Table'!$A$2:$C$26,3)*SIGN(T28-T27),0)</f>
         <v/>
       </c>
       <c r="AE28">
-        <f>IF(AND(ISNUMBER(S28),ISNUMBER(S30)),VLOOKUP(ABS(S28-S30),'IMP Table'!$A$2:$C$26,3)*SIGN(S28-S30),0)</f>
+        <f>IF(AND(ISNUMBER(T28),ISNUMBER(T29)),VLOOKUP(ABS(T28-T29),'IMP Table'!$A$2:$C$26,3)*SIGN(T28-T29),0)</f>
+        <v/>
+      </c>
+      <c r="AF28">
+        <f>IF(AND(ISNUMBER(T28),ISNUMBER(T30)),VLOOKUP(ABS(T28-T30),'IMP Table'!$A$2:$C$26,3)*SIGN(T28-T30),0)</f>
         <v/>
       </c>
     </row>
@@ -4233,84 +4347,88 @@
         <f>IF(ISBLANK('By Round'!K9),"",'By Round'!K9)</f>
         <v/>
       </c>
-      <c r="L29" s="16">
-        <f>AVERAGE(Z29:AB29)</f>
-        <v/>
-      </c>
-      <c r="M29" s="7">
-        <f>AVERAGE(AC29:AE29)</f>
-        <v/>
-      </c>
-      <c r="N29" s="6">
-        <f>IF(COUNT(T29:V29)&gt;0,P29/COUNT(T29:V29),0.5)</f>
+      <c r="L29">
+        <f>IF(ISBLANK('By Round'!L9),"",'By Round'!L9)</f>
+        <v/>
+      </c>
+      <c r="M29" s="16">
+        <f>AVERAGE(AA29:AC29)</f>
+        <v/>
+      </c>
+      <c r="N29" s="7">
+        <f>AVERAGE(AD29:AF29)</f>
         <v/>
       </c>
       <c r="O29" s="6">
-        <f>IF(COUNT(W29:Y29)&gt;0,Q29/COUNT(W29:Y29),0.5)</f>
-        <v/>
-      </c>
-      <c r="P29" s="17">
-        <f>SUM(T29:V29)</f>
+        <f>IF(COUNT(U29:W29)&gt;0,Q29/COUNT(U29:W29),0.5)</f>
+        <v/>
+      </c>
+      <c r="P29" s="6">
+        <f>IF(COUNT(X29:Z29)&gt;0,R29/COUNT(X29:Z29),0.5)</f>
         <v/>
       </c>
       <c r="Q29" s="17">
-        <f>SUM(W29:Y29)</f>
-        <v/>
-      </c>
-      <c r="R29" s="18">
-        <f>IF(ISNUMBER(J29),J29,IF(ISNUMBER(K29),-K29,""))</f>
-        <v/>
-      </c>
-      <c r="S29">
-        <f>IF(ISNUMBER(K29),K29,IF(ISNUMBER(J29),-J29,""))</f>
-        <v/>
-      </c>
-      <c r="T29" s="18">
-        <f>IF(ISNUMBER(R29),IF(ISNUMBER(R27),IF(R29&gt;R27,1.0,IF(R29=R27,0.5,0.0)),""),"")</f>
-        <v/>
-      </c>
-      <c r="U29">
-        <f>IF(ISNUMBER(R29),IF(ISNUMBER(R28),IF(R29&gt;R28,1.0,IF(R29=R28,0.5,0.0)),""),"")</f>
+        <f>SUM(U29:W29)</f>
+        <v/>
+      </c>
+      <c r="R29" s="17">
+        <f>SUM(X29:Z29)</f>
+        <v/>
+      </c>
+      <c r="S29" s="18">
+        <f>IF(ISNUMBER(K29),K29,IF(ISNUMBER(L29),-L29,""))</f>
+        <v/>
+      </c>
+      <c r="T29">
+        <f>IF(ISNUMBER(L29),L29,IF(ISNUMBER(K29),-K29,""))</f>
+        <v/>
+      </c>
+      <c r="U29" s="18">
+        <f>IF(ISNUMBER(S29),IF(ISNUMBER(S27),IF(S29&gt;S27,1.0,IF(S29=S27,0.5,0.0)),""),"")</f>
         <v/>
       </c>
       <c r="V29">
-        <f>IF(ISNUMBER(R29),IF(ISNUMBER(R30),IF(R29&gt;R30,1.0,IF(R29=R30,0.5,0.0)),""),"")</f>
+        <f>IF(ISNUMBER(S29),IF(ISNUMBER(S28),IF(S29&gt;S28,1.0,IF(S29=S28,0.5,0.0)),""),"")</f>
         <v/>
       </c>
       <c r="W29">
-        <f>IF(ISNUMBER(S29),IF(ISNUMBER(S27),IF(S29&gt;S27,1.0,IF(S29=S27,0.5,0.0)),""),"")</f>
+        <f>IF(ISNUMBER(S29),IF(ISNUMBER(S30),IF(S29&gt;S30,1.0,IF(S29=S30,0.5,0.0)),""),"")</f>
         <v/>
       </c>
       <c r="X29">
-        <f>IF(ISNUMBER(S29),IF(ISNUMBER(S28),IF(S29&gt;S28,1.0,IF(S29=S28,0.5,0.0)),""),"")</f>
+        <f>IF(ISNUMBER(T29),IF(ISNUMBER(T27),IF(T29&gt;T27,1.0,IF(T29=T27,0.5,0.0)),""),"")</f>
         <v/>
       </c>
       <c r="Y29">
-        <f>IF(ISNUMBER(S29),IF(ISNUMBER(S30),IF(S29&gt;S30,1.0,IF(S29=S30,0.5,0.0)),""),"")</f>
-        <v/>
-      </c>
-      <c r="Z29" s="18">
-        <f>IF(AND(ISNUMBER(R29),ISNUMBER(R27)),VLOOKUP(ABS(R29-R27),'IMP Table'!$A$2:$C$26,3)*SIGN(R29-R27),0)</f>
-        <v/>
-      </c>
-      <c r="AA29">
-        <f>IF(AND(ISNUMBER(R29),ISNUMBER(R28)),VLOOKUP(ABS(R29-R28),'IMP Table'!$A$2:$C$26,3)*SIGN(R29-R28),0)</f>
+        <f>IF(ISNUMBER(T29),IF(ISNUMBER(T28),IF(T29&gt;T28,1.0,IF(T29=T28,0.5,0.0)),""),"")</f>
+        <v/>
+      </c>
+      <c r="Z29">
+        <f>IF(ISNUMBER(T29),IF(ISNUMBER(T30),IF(T29&gt;T30,1.0,IF(T29=T30,0.5,0.0)),""),"")</f>
+        <v/>
+      </c>
+      <c r="AA29" s="18">
+        <f>IF(AND(ISNUMBER(S29),ISNUMBER(S27)),VLOOKUP(ABS(S29-S27),'IMP Table'!$A$2:$C$26,3)*SIGN(S29-S27),0)</f>
         <v/>
       </c>
       <c r="AB29">
-        <f>IF(AND(ISNUMBER(R29),ISNUMBER(R30)),VLOOKUP(ABS(R29-R30),'IMP Table'!$A$2:$C$26,3)*SIGN(R29-R30),0)</f>
+        <f>IF(AND(ISNUMBER(S29),ISNUMBER(S28)),VLOOKUP(ABS(S29-S28),'IMP Table'!$A$2:$C$26,3)*SIGN(S29-S28),0)</f>
         <v/>
       </c>
       <c r="AC29">
-        <f>IF(AND(ISNUMBER(S29),ISNUMBER(S27)),VLOOKUP(ABS(S29-S27),'IMP Table'!$A$2:$C$26,3)*SIGN(S29-S27),0)</f>
+        <f>IF(AND(ISNUMBER(S29),ISNUMBER(S30)),VLOOKUP(ABS(S29-S30),'IMP Table'!$A$2:$C$26,3)*SIGN(S29-S30),0)</f>
         <v/>
       </c>
       <c r="AD29">
-        <f>IF(AND(ISNUMBER(S29),ISNUMBER(S28)),VLOOKUP(ABS(S29-S28),'IMP Table'!$A$2:$C$26,3)*SIGN(S29-S28),0)</f>
+        <f>IF(AND(ISNUMBER(T29),ISNUMBER(T27)),VLOOKUP(ABS(T29-T27),'IMP Table'!$A$2:$C$26,3)*SIGN(T29-T27),0)</f>
         <v/>
       </c>
       <c r="AE29">
-        <f>IF(AND(ISNUMBER(S29),ISNUMBER(S30)),VLOOKUP(ABS(S29-S30),'IMP Table'!$A$2:$C$26,3)*SIGN(S29-S30),0)</f>
+        <f>IF(AND(ISNUMBER(T29),ISNUMBER(T28)),VLOOKUP(ABS(T29-T28),'IMP Table'!$A$2:$C$26,3)*SIGN(T29-T28),0)</f>
+        <v/>
+      </c>
+      <c r="AF29">
+        <f>IF(AND(ISNUMBER(T29),ISNUMBER(T30)),VLOOKUP(ABS(T29-T30),'IMP Table'!$A$2:$C$26,3)*SIGN(T29-T30),0)</f>
         <v/>
       </c>
     </row>
@@ -4356,84 +4474,88 @@
         <f>IF(ISBLANK('By Round'!K48),"",'By Round'!K48)</f>
         <v/>
       </c>
-      <c r="L30" s="20">
-        <f>AVERAGE(Z30:AB30)</f>
-        <v/>
-      </c>
-      <c r="M30" s="21">
-        <f>AVERAGE(AC30:AE30)</f>
-        <v/>
-      </c>
-      <c r="N30" s="22">
-        <f>IF(COUNT(T30:V30)&gt;0,P30/COUNT(T30:V30),0.5)</f>
+      <c r="L30" s="9">
+        <f>IF(ISBLANK('By Round'!L48),"",'By Round'!L48)</f>
+        <v/>
+      </c>
+      <c r="M30" s="20">
+        <f>AVERAGE(AA30:AC30)</f>
+        <v/>
+      </c>
+      <c r="N30" s="21">
+        <f>AVERAGE(AD30:AF30)</f>
         <v/>
       </c>
       <c r="O30" s="22">
-        <f>IF(COUNT(W30:Y30)&gt;0,Q30/COUNT(W30:Y30),0.5)</f>
-        <v/>
-      </c>
-      <c r="P30" s="23">
-        <f>SUM(T30:V30)</f>
+        <f>IF(COUNT(U30:W30)&gt;0,Q30/COUNT(U30:W30),0.5)</f>
+        <v/>
+      </c>
+      <c r="P30" s="22">
+        <f>IF(COUNT(X30:Z30)&gt;0,R30/COUNT(X30:Z30),0.5)</f>
         <v/>
       </c>
       <c r="Q30" s="23">
-        <f>SUM(W30:Y30)</f>
-        <v/>
-      </c>
-      <c r="R30" s="24">
-        <f>IF(ISNUMBER(J30),J30,IF(ISNUMBER(K30),-K30,""))</f>
-        <v/>
-      </c>
-      <c r="S30" s="9">
-        <f>IF(ISNUMBER(K30),K30,IF(ISNUMBER(J30),-J30,""))</f>
-        <v/>
-      </c>
-      <c r="T30" s="24">
-        <f>IF(ISNUMBER(R30),IF(ISNUMBER(R27),IF(R30&gt;R27,1.0,IF(R30=R27,0.5,0.0)),""),"")</f>
-        <v/>
-      </c>
-      <c r="U30" s="9">
-        <f>IF(ISNUMBER(R30),IF(ISNUMBER(R28),IF(R30&gt;R28,1.0,IF(R30=R28,0.5,0.0)),""),"")</f>
+        <f>SUM(U30:W30)</f>
+        <v/>
+      </c>
+      <c r="R30" s="23">
+        <f>SUM(X30:Z30)</f>
+        <v/>
+      </c>
+      <c r="S30" s="24">
+        <f>IF(ISNUMBER(K30),K30,IF(ISNUMBER(L30),-L30,""))</f>
+        <v/>
+      </c>
+      <c r="T30" s="9">
+        <f>IF(ISNUMBER(L30),L30,IF(ISNUMBER(K30),-K30,""))</f>
+        <v/>
+      </c>
+      <c r="U30" s="24">
+        <f>IF(ISNUMBER(S30),IF(ISNUMBER(S27),IF(S30&gt;S27,1.0,IF(S30=S27,0.5,0.0)),""),"")</f>
         <v/>
       </c>
       <c r="V30" s="9">
-        <f>IF(ISNUMBER(R30),IF(ISNUMBER(R29),IF(R30&gt;R29,1.0,IF(R30=R29,0.5,0.0)),""),"")</f>
+        <f>IF(ISNUMBER(S30),IF(ISNUMBER(S28),IF(S30&gt;S28,1.0,IF(S30=S28,0.5,0.0)),""),"")</f>
         <v/>
       </c>
       <c r="W30" s="9">
-        <f>IF(ISNUMBER(S30),IF(ISNUMBER(S27),IF(S30&gt;S27,1.0,IF(S30=S27,0.5,0.0)),""),"")</f>
+        <f>IF(ISNUMBER(S30),IF(ISNUMBER(S29),IF(S30&gt;S29,1.0,IF(S30=S29,0.5,0.0)),""),"")</f>
         <v/>
       </c>
       <c r="X30" s="9">
-        <f>IF(ISNUMBER(S30),IF(ISNUMBER(S28),IF(S30&gt;S28,1.0,IF(S30=S28,0.5,0.0)),""),"")</f>
+        <f>IF(ISNUMBER(T30),IF(ISNUMBER(T27),IF(T30&gt;T27,1.0,IF(T30=T27,0.5,0.0)),""),"")</f>
         <v/>
       </c>
       <c r="Y30" s="9">
-        <f>IF(ISNUMBER(S30),IF(ISNUMBER(S29),IF(S30&gt;S29,1.0,IF(S30=S29,0.5,0.0)),""),"")</f>
-        <v/>
-      </c>
-      <c r="Z30" s="24">
-        <f>IF(AND(ISNUMBER(R30),ISNUMBER(R27)),VLOOKUP(ABS(R30-R27),'IMP Table'!$A$2:$C$26,3)*SIGN(R30-R27),0)</f>
-        <v/>
-      </c>
-      <c r="AA30" s="9">
-        <f>IF(AND(ISNUMBER(R30),ISNUMBER(R28)),VLOOKUP(ABS(R30-R28),'IMP Table'!$A$2:$C$26,3)*SIGN(R30-R28),0)</f>
+        <f>IF(ISNUMBER(T30),IF(ISNUMBER(T28),IF(T30&gt;T28,1.0,IF(T30=T28,0.5,0.0)),""),"")</f>
+        <v/>
+      </c>
+      <c r="Z30" s="9">
+        <f>IF(ISNUMBER(T30),IF(ISNUMBER(T29),IF(T30&gt;T29,1.0,IF(T30=T29,0.5,0.0)),""),"")</f>
+        <v/>
+      </c>
+      <c r="AA30" s="24">
+        <f>IF(AND(ISNUMBER(S30),ISNUMBER(S27)),VLOOKUP(ABS(S30-S27),'IMP Table'!$A$2:$C$26,3)*SIGN(S30-S27),0)</f>
         <v/>
       </c>
       <c r="AB30" s="9">
-        <f>IF(AND(ISNUMBER(R30),ISNUMBER(R29)),VLOOKUP(ABS(R30-R29),'IMP Table'!$A$2:$C$26,3)*SIGN(R30-R29),0)</f>
+        <f>IF(AND(ISNUMBER(S30),ISNUMBER(S28)),VLOOKUP(ABS(S30-S28),'IMP Table'!$A$2:$C$26,3)*SIGN(S30-S28),0)</f>
         <v/>
       </c>
       <c r="AC30" s="9">
-        <f>IF(AND(ISNUMBER(S30),ISNUMBER(S27)),VLOOKUP(ABS(S30-S27),'IMP Table'!$A$2:$C$26,3)*SIGN(S30-S27),0)</f>
+        <f>IF(AND(ISNUMBER(S30),ISNUMBER(S29)),VLOOKUP(ABS(S30-S29),'IMP Table'!$A$2:$C$26,3)*SIGN(S30-S29),0)</f>
         <v/>
       </c>
       <c r="AD30" s="9">
-        <f>IF(AND(ISNUMBER(S30),ISNUMBER(S28)),VLOOKUP(ABS(S30-S28),'IMP Table'!$A$2:$C$26,3)*SIGN(S30-S28),0)</f>
+        <f>IF(AND(ISNUMBER(T30),ISNUMBER(T27)),VLOOKUP(ABS(T30-T27),'IMP Table'!$A$2:$C$26,3)*SIGN(T30-T27),0)</f>
         <v/>
       </c>
       <c r="AE30" s="9">
-        <f>IF(AND(ISNUMBER(S30),ISNUMBER(S29)),VLOOKUP(ABS(S30-S29),'IMP Table'!$A$2:$C$26,3)*SIGN(S30-S29),0)</f>
+        <f>IF(AND(ISNUMBER(T30),ISNUMBER(T28)),VLOOKUP(ABS(T30-T28),'IMP Table'!$A$2:$C$26,3)*SIGN(T30-T28),0)</f>
+        <v/>
+      </c>
+      <c r="AF30" s="9">
+        <f>IF(AND(ISNUMBER(T30),ISNUMBER(T29)),VLOOKUP(ABS(T30-T29),'IMP Table'!$A$2:$C$26,3)*SIGN(T30-T29),0)</f>
         <v/>
       </c>
     </row>
@@ -4481,84 +4603,88 @@
         <f>IF(ISBLANK('By Round'!K28),"",'By Round'!K28)</f>
         <v/>
       </c>
-      <c r="L31" s="16">
-        <f>AVERAGE(Z31:AB31)</f>
-        <v/>
-      </c>
-      <c r="M31" s="7">
-        <f>AVERAGE(AC31:AE31)</f>
-        <v/>
-      </c>
-      <c r="N31" s="6">
-        <f>IF(COUNT(T31:V31)&gt;0,P31/COUNT(T31:V31),0.5)</f>
+      <c r="L31">
+        <f>IF(ISBLANK('By Round'!L28),"",'By Round'!L28)</f>
+        <v/>
+      </c>
+      <c r="M31" s="16">
+        <f>AVERAGE(AA31:AC31)</f>
+        <v/>
+      </c>
+      <c r="N31" s="7">
+        <f>AVERAGE(AD31:AF31)</f>
         <v/>
       </c>
       <c r="O31" s="6">
-        <f>IF(COUNT(W31:Y31)&gt;0,Q31/COUNT(W31:Y31),0.5)</f>
-        <v/>
-      </c>
-      <c r="P31" s="17">
-        <f>SUM(T31:V31)</f>
+        <f>IF(COUNT(U31:W31)&gt;0,Q31/COUNT(U31:W31),0.5)</f>
+        <v/>
+      </c>
+      <c r="P31" s="6">
+        <f>IF(COUNT(X31:Z31)&gt;0,R31/COUNT(X31:Z31),0.5)</f>
         <v/>
       </c>
       <c r="Q31" s="17">
-        <f>SUM(W31:Y31)</f>
-        <v/>
-      </c>
-      <c r="R31" s="18">
-        <f>IF(ISNUMBER(J31),J31,IF(ISNUMBER(K31),-K31,""))</f>
-        <v/>
-      </c>
-      <c r="S31">
-        <f>IF(ISNUMBER(K31),K31,IF(ISNUMBER(J31),-J31,""))</f>
-        <v/>
-      </c>
-      <c r="T31" s="18">
-        <f>IF(ISNUMBER(R31),IF(ISNUMBER(R32),IF(R31&gt;R32,1.0,IF(R31=R32,0.5,0.0)),""),"")</f>
-        <v/>
-      </c>
-      <c r="U31">
-        <f>IF(ISNUMBER(R31),IF(ISNUMBER(R33),IF(R31&gt;R33,1.0,IF(R31=R33,0.5,0.0)),""),"")</f>
+        <f>SUM(U31:W31)</f>
+        <v/>
+      </c>
+      <c r="R31" s="17">
+        <f>SUM(X31:Z31)</f>
+        <v/>
+      </c>
+      <c r="S31" s="18">
+        <f>IF(ISNUMBER(K31),K31,IF(ISNUMBER(L31),-L31,""))</f>
+        <v/>
+      </c>
+      <c r="T31">
+        <f>IF(ISNUMBER(L31),L31,IF(ISNUMBER(K31),-K31,""))</f>
+        <v/>
+      </c>
+      <c r="U31" s="18">
+        <f>IF(ISNUMBER(S31),IF(ISNUMBER(S32),IF(S31&gt;S32,1.0,IF(S31=S32,0.5,0.0)),""),"")</f>
         <v/>
       </c>
       <c r="V31">
-        <f>IF(ISNUMBER(R31),IF(ISNUMBER(R34),IF(R31&gt;R34,1.0,IF(R31=R34,0.5,0.0)),""),"")</f>
+        <f>IF(ISNUMBER(S31),IF(ISNUMBER(S33),IF(S31&gt;S33,1.0,IF(S31=S33,0.5,0.0)),""),"")</f>
         <v/>
       </c>
       <c r="W31">
-        <f>IF(ISNUMBER(S31),IF(ISNUMBER(S32),IF(S31&gt;S32,1.0,IF(S31=S32,0.5,0.0)),""),"")</f>
+        <f>IF(ISNUMBER(S31),IF(ISNUMBER(S34),IF(S31&gt;S34,1.0,IF(S31=S34,0.5,0.0)),""),"")</f>
         <v/>
       </c>
       <c r="X31">
-        <f>IF(ISNUMBER(S31),IF(ISNUMBER(S33),IF(S31&gt;S33,1.0,IF(S31=S33,0.5,0.0)),""),"")</f>
+        <f>IF(ISNUMBER(T31),IF(ISNUMBER(T32),IF(T31&gt;T32,1.0,IF(T31=T32,0.5,0.0)),""),"")</f>
         <v/>
       </c>
       <c r="Y31">
-        <f>IF(ISNUMBER(S31),IF(ISNUMBER(S34),IF(S31&gt;S34,1.0,IF(S31=S34,0.5,0.0)),""),"")</f>
-        <v/>
-      </c>
-      <c r="Z31" s="18">
-        <f>IF(AND(ISNUMBER(R31),ISNUMBER(R32)),VLOOKUP(ABS(R31-R32),'IMP Table'!$A$2:$C$26,3)*SIGN(R31-R32),0)</f>
-        <v/>
-      </c>
-      <c r="AA31">
-        <f>IF(AND(ISNUMBER(R31),ISNUMBER(R33)),VLOOKUP(ABS(R31-R33),'IMP Table'!$A$2:$C$26,3)*SIGN(R31-R33),0)</f>
+        <f>IF(ISNUMBER(T31),IF(ISNUMBER(T33),IF(T31&gt;T33,1.0,IF(T31=T33,0.5,0.0)),""),"")</f>
+        <v/>
+      </c>
+      <c r="Z31">
+        <f>IF(ISNUMBER(T31),IF(ISNUMBER(T34),IF(T31&gt;T34,1.0,IF(T31=T34,0.5,0.0)),""),"")</f>
+        <v/>
+      </c>
+      <c r="AA31" s="18">
+        <f>IF(AND(ISNUMBER(S31),ISNUMBER(S32)),VLOOKUP(ABS(S31-S32),'IMP Table'!$A$2:$C$26,3)*SIGN(S31-S32),0)</f>
         <v/>
       </c>
       <c r="AB31">
-        <f>IF(AND(ISNUMBER(R31),ISNUMBER(R34)),VLOOKUP(ABS(R31-R34),'IMP Table'!$A$2:$C$26,3)*SIGN(R31-R34),0)</f>
+        <f>IF(AND(ISNUMBER(S31),ISNUMBER(S33)),VLOOKUP(ABS(S31-S33),'IMP Table'!$A$2:$C$26,3)*SIGN(S31-S33),0)</f>
         <v/>
       </c>
       <c r="AC31">
-        <f>IF(AND(ISNUMBER(S31),ISNUMBER(S32)),VLOOKUP(ABS(S31-S32),'IMP Table'!$A$2:$C$26,3)*SIGN(S31-S32),0)</f>
+        <f>IF(AND(ISNUMBER(S31),ISNUMBER(S34)),VLOOKUP(ABS(S31-S34),'IMP Table'!$A$2:$C$26,3)*SIGN(S31-S34),0)</f>
         <v/>
       </c>
       <c r="AD31">
-        <f>IF(AND(ISNUMBER(S31),ISNUMBER(S33)),VLOOKUP(ABS(S31-S33),'IMP Table'!$A$2:$C$26,3)*SIGN(S31-S33),0)</f>
+        <f>IF(AND(ISNUMBER(T31),ISNUMBER(T32)),VLOOKUP(ABS(T31-T32),'IMP Table'!$A$2:$C$26,3)*SIGN(T31-T32),0)</f>
         <v/>
       </c>
       <c r="AE31">
-        <f>IF(AND(ISNUMBER(S31),ISNUMBER(S34)),VLOOKUP(ABS(S31-S34),'IMP Table'!$A$2:$C$26,3)*SIGN(S31-S34),0)</f>
+        <f>IF(AND(ISNUMBER(T31),ISNUMBER(T33)),VLOOKUP(ABS(T31-T33),'IMP Table'!$A$2:$C$26,3)*SIGN(T31-T33),0)</f>
+        <v/>
+      </c>
+      <c r="AF31">
+        <f>IF(AND(ISNUMBER(T31),ISNUMBER(T34)),VLOOKUP(ABS(T31-T34),'IMP Table'!$A$2:$C$26,3)*SIGN(T31-T34),0)</f>
         <v/>
       </c>
     </row>
@@ -4603,84 +4729,88 @@
         <f>IF(ISBLANK('By Round'!K19),"",'By Round'!K19)</f>
         <v/>
       </c>
-      <c r="L32" s="16">
-        <f>AVERAGE(Z32:AB32)</f>
-        <v/>
-      </c>
-      <c r="M32" s="7">
-        <f>AVERAGE(AC32:AE32)</f>
-        <v/>
-      </c>
-      <c r="N32" s="6">
-        <f>IF(COUNT(T32:V32)&gt;0,P32/COUNT(T32:V32),0.5)</f>
+      <c r="L32">
+        <f>IF(ISBLANK('By Round'!L19),"",'By Round'!L19)</f>
+        <v/>
+      </c>
+      <c r="M32" s="16">
+        <f>AVERAGE(AA32:AC32)</f>
+        <v/>
+      </c>
+      <c r="N32" s="7">
+        <f>AVERAGE(AD32:AF32)</f>
         <v/>
       </c>
       <c r="O32" s="6">
-        <f>IF(COUNT(W32:Y32)&gt;0,Q32/COUNT(W32:Y32),0.5)</f>
-        <v/>
-      </c>
-      <c r="P32" s="17">
-        <f>SUM(T32:V32)</f>
+        <f>IF(COUNT(U32:W32)&gt;0,Q32/COUNT(U32:W32),0.5)</f>
+        <v/>
+      </c>
+      <c r="P32" s="6">
+        <f>IF(COUNT(X32:Z32)&gt;0,R32/COUNT(X32:Z32),0.5)</f>
         <v/>
       </c>
       <c r="Q32" s="17">
-        <f>SUM(W32:Y32)</f>
-        <v/>
-      </c>
-      <c r="R32" s="18">
-        <f>IF(ISNUMBER(J32),J32,IF(ISNUMBER(K32),-K32,""))</f>
-        <v/>
-      </c>
-      <c r="S32">
-        <f>IF(ISNUMBER(K32),K32,IF(ISNUMBER(J32),-J32,""))</f>
-        <v/>
-      </c>
-      <c r="T32" s="18">
-        <f>IF(ISNUMBER(R32),IF(ISNUMBER(R31),IF(R32&gt;R31,1.0,IF(R32=R31,0.5,0.0)),""),"")</f>
-        <v/>
-      </c>
-      <c r="U32">
-        <f>IF(ISNUMBER(R32),IF(ISNUMBER(R33),IF(R32&gt;R33,1.0,IF(R32=R33,0.5,0.0)),""),"")</f>
+        <f>SUM(U32:W32)</f>
+        <v/>
+      </c>
+      <c r="R32" s="17">
+        <f>SUM(X32:Z32)</f>
+        <v/>
+      </c>
+      <c r="S32" s="18">
+        <f>IF(ISNUMBER(K32),K32,IF(ISNUMBER(L32),-L32,""))</f>
+        <v/>
+      </c>
+      <c r="T32">
+        <f>IF(ISNUMBER(L32),L32,IF(ISNUMBER(K32),-K32,""))</f>
+        <v/>
+      </c>
+      <c r="U32" s="18">
+        <f>IF(ISNUMBER(S32),IF(ISNUMBER(S31),IF(S32&gt;S31,1.0,IF(S32=S31,0.5,0.0)),""),"")</f>
         <v/>
       </c>
       <c r="V32">
-        <f>IF(ISNUMBER(R32),IF(ISNUMBER(R34),IF(R32&gt;R34,1.0,IF(R32=R34,0.5,0.0)),""),"")</f>
+        <f>IF(ISNUMBER(S32),IF(ISNUMBER(S33),IF(S32&gt;S33,1.0,IF(S32=S33,0.5,0.0)),""),"")</f>
         <v/>
       </c>
       <c r="W32">
-        <f>IF(ISNUMBER(S32),IF(ISNUMBER(S31),IF(S32&gt;S31,1.0,IF(S32=S31,0.5,0.0)),""),"")</f>
+        <f>IF(ISNUMBER(S32),IF(ISNUMBER(S34),IF(S32&gt;S34,1.0,IF(S32=S34,0.5,0.0)),""),"")</f>
         <v/>
       </c>
       <c r="X32">
-        <f>IF(ISNUMBER(S32),IF(ISNUMBER(S33),IF(S32&gt;S33,1.0,IF(S32=S33,0.5,0.0)),""),"")</f>
+        <f>IF(ISNUMBER(T32),IF(ISNUMBER(T31),IF(T32&gt;T31,1.0,IF(T32=T31,0.5,0.0)),""),"")</f>
         <v/>
       </c>
       <c r="Y32">
-        <f>IF(ISNUMBER(S32),IF(ISNUMBER(S34),IF(S32&gt;S34,1.0,IF(S32=S34,0.5,0.0)),""),"")</f>
-        <v/>
-      </c>
-      <c r="Z32" s="18">
-        <f>IF(AND(ISNUMBER(R32),ISNUMBER(R31)),VLOOKUP(ABS(R32-R31),'IMP Table'!$A$2:$C$26,3)*SIGN(R32-R31),0)</f>
-        <v/>
-      </c>
-      <c r="AA32">
-        <f>IF(AND(ISNUMBER(R32),ISNUMBER(R33)),VLOOKUP(ABS(R32-R33),'IMP Table'!$A$2:$C$26,3)*SIGN(R32-R33),0)</f>
+        <f>IF(ISNUMBER(T32),IF(ISNUMBER(T33),IF(T32&gt;T33,1.0,IF(T32=T33,0.5,0.0)),""),"")</f>
+        <v/>
+      </c>
+      <c r="Z32">
+        <f>IF(ISNUMBER(T32),IF(ISNUMBER(T34),IF(T32&gt;T34,1.0,IF(T32=T34,0.5,0.0)),""),"")</f>
+        <v/>
+      </c>
+      <c r="AA32" s="18">
+        <f>IF(AND(ISNUMBER(S32),ISNUMBER(S31)),VLOOKUP(ABS(S32-S31),'IMP Table'!$A$2:$C$26,3)*SIGN(S32-S31),0)</f>
         <v/>
       </c>
       <c r="AB32">
-        <f>IF(AND(ISNUMBER(R32),ISNUMBER(R34)),VLOOKUP(ABS(R32-R34),'IMP Table'!$A$2:$C$26,3)*SIGN(R32-R34),0)</f>
+        <f>IF(AND(ISNUMBER(S32),ISNUMBER(S33)),VLOOKUP(ABS(S32-S33),'IMP Table'!$A$2:$C$26,3)*SIGN(S32-S33),0)</f>
         <v/>
       </c>
       <c r="AC32">
-        <f>IF(AND(ISNUMBER(S32),ISNUMBER(S31)),VLOOKUP(ABS(S32-S31),'IMP Table'!$A$2:$C$26,3)*SIGN(S32-S31),0)</f>
+        <f>IF(AND(ISNUMBER(S32),ISNUMBER(S34)),VLOOKUP(ABS(S32-S34),'IMP Table'!$A$2:$C$26,3)*SIGN(S32-S34),0)</f>
         <v/>
       </c>
       <c r="AD32">
-        <f>IF(AND(ISNUMBER(S32),ISNUMBER(S33)),VLOOKUP(ABS(S32-S33),'IMP Table'!$A$2:$C$26,3)*SIGN(S32-S33),0)</f>
+        <f>IF(AND(ISNUMBER(T32),ISNUMBER(T31)),VLOOKUP(ABS(T32-T31),'IMP Table'!$A$2:$C$26,3)*SIGN(T32-T31),0)</f>
         <v/>
       </c>
       <c r="AE32">
-        <f>IF(AND(ISNUMBER(S32),ISNUMBER(S34)),VLOOKUP(ABS(S32-S34),'IMP Table'!$A$2:$C$26,3)*SIGN(S32-S34),0)</f>
+        <f>IF(AND(ISNUMBER(T32),ISNUMBER(T33)),VLOOKUP(ABS(T32-T33),'IMP Table'!$A$2:$C$26,3)*SIGN(T32-T33),0)</f>
+        <v/>
+      </c>
+      <c r="AF32">
+        <f>IF(AND(ISNUMBER(T32),ISNUMBER(T34)),VLOOKUP(ABS(T32-T34),'IMP Table'!$A$2:$C$26,3)*SIGN(T32-T34),0)</f>
         <v/>
       </c>
     </row>
@@ -4725,84 +4855,88 @@
         <f>IF(ISBLANK('By Round'!K10),"",'By Round'!K10)</f>
         <v/>
       </c>
-      <c r="L33" s="16">
-        <f>AVERAGE(Z33:AB33)</f>
-        <v/>
-      </c>
-      <c r="M33" s="7">
-        <f>AVERAGE(AC33:AE33)</f>
-        <v/>
-      </c>
-      <c r="N33" s="6">
-        <f>IF(COUNT(T33:V33)&gt;0,P33/COUNT(T33:V33),0.5)</f>
+      <c r="L33">
+        <f>IF(ISBLANK('By Round'!L10),"",'By Round'!L10)</f>
+        <v/>
+      </c>
+      <c r="M33" s="16">
+        <f>AVERAGE(AA33:AC33)</f>
+        <v/>
+      </c>
+      <c r="N33" s="7">
+        <f>AVERAGE(AD33:AF33)</f>
         <v/>
       </c>
       <c r="O33" s="6">
-        <f>IF(COUNT(W33:Y33)&gt;0,Q33/COUNT(W33:Y33),0.5)</f>
-        <v/>
-      </c>
-      <c r="P33" s="17">
-        <f>SUM(T33:V33)</f>
+        <f>IF(COUNT(U33:W33)&gt;0,Q33/COUNT(U33:W33),0.5)</f>
+        <v/>
+      </c>
+      <c r="P33" s="6">
+        <f>IF(COUNT(X33:Z33)&gt;0,R33/COUNT(X33:Z33),0.5)</f>
         <v/>
       </c>
       <c r="Q33" s="17">
-        <f>SUM(W33:Y33)</f>
-        <v/>
-      </c>
-      <c r="R33" s="18">
-        <f>IF(ISNUMBER(J33),J33,IF(ISNUMBER(K33),-K33,""))</f>
-        <v/>
-      </c>
-      <c r="S33">
-        <f>IF(ISNUMBER(K33),K33,IF(ISNUMBER(J33),-J33,""))</f>
-        <v/>
-      </c>
-      <c r="T33" s="18">
-        <f>IF(ISNUMBER(R33),IF(ISNUMBER(R31),IF(R33&gt;R31,1.0,IF(R33=R31,0.5,0.0)),""),"")</f>
-        <v/>
-      </c>
-      <c r="U33">
-        <f>IF(ISNUMBER(R33),IF(ISNUMBER(R32),IF(R33&gt;R32,1.0,IF(R33=R32,0.5,0.0)),""),"")</f>
+        <f>SUM(U33:W33)</f>
+        <v/>
+      </c>
+      <c r="R33" s="17">
+        <f>SUM(X33:Z33)</f>
+        <v/>
+      </c>
+      <c r="S33" s="18">
+        <f>IF(ISNUMBER(K33),K33,IF(ISNUMBER(L33),-L33,""))</f>
+        <v/>
+      </c>
+      <c r="T33">
+        <f>IF(ISNUMBER(L33),L33,IF(ISNUMBER(K33),-K33,""))</f>
+        <v/>
+      </c>
+      <c r="U33" s="18">
+        <f>IF(ISNUMBER(S33),IF(ISNUMBER(S31),IF(S33&gt;S31,1.0,IF(S33=S31,0.5,0.0)),""),"")</f>
         <v/>
       </c>
       <c r="V33">
-        <f>IF(ISNUMBER(R33),IF(ISNUMBER(R34),IF(R33&gt;R34,1.0,IF(R33=R34,0.5,0.0)),""),"")</f>
+        <f>IF(ISNUMBER(S33),IF(ISNUMBER(S32),IF(S33&gt;S32,1.0,IF(S33=S32,0.5,0.0)),""),"")</f>
         <v/>
       </c>
       <c r="W33">
-        <f>IF(ISNUMBER(S33),IF(ISNUMBER(S31),IF(S33&gt;S31,1.0,IF(S33=S31,0.5,0.0)),""),"")</f>
+        <f>IF(ISNUMBER(S33),IF(ISNUMBER(S34),IF(S33&gt;S34,1.0,IF(S33=S34,0.5,0.0)),""),"")</f>
         <v/>
       </c>
       <c r="X33">
-        <f>IF(ISNUMBER(S33),IF(ISNUMBER(S32),IF(S33&gt;S32,1.0,IF(S33=S32,0.5,0.0)),""),"")</f>
+        <f>IF(ISNUMBER(T33),IF(ISNUMBER(T31),IF(T33&gt;T31,1.0,IF(T33=T31,0.5,0.0)),""),"")</f>
         <v/>
       </c>
       <c r="Y33">
-        <f>IF(ISNUMBER(S33),IF(ISNUMBER(S34),IF(S33&gt;S34,1.0,IF(S33=S34,0.5,0.0)),""),"")</f>
-        <v/>
-      </c>
-      <c r="Z33" s="18">
-        <f>IF(AND(ISNUMBER(R33),ISNUMBER(R31)),VLOOKUP(ABS(R33-R31),'IMP Table'!$A$2:$C$26,3)*SIGN(R33-R31),0)</f>
-        <v/>
-      </c>
-      <c r="AA33">
-        <f>IF(AND(ISNUMBER(R33),ISNUMBER(R32)),VLOOKUP(ABS(R33-R32),'IMP Table'!$A$2:$C$26,3)*SIGN(R33-R32),0)</f>
+        <f>IF(ISNUMBER(T33),IF(ISNUMBER(T32),IF(T33&gt;T32,1.0,IF(T33=T32,0.5,0.0)),""),"")</f>
+        <v/>
+      </c>
+      <c r="Z33">
+        <f>IF(ISNUMBER(T33),IF(ISNUMBER(T34),IF(T33&gt;T34,1.0,IF(T33=T34,0.5,0.0)),""),"")</f>
+        <v/>
+      </c>
+      <c r="AA33" s="18">
+        <f>IF(AND(ISNUMBER(S33),ISNUMBER(S31)),VLOOKUP(ABS(S33-S31),'IMP Table'!$A$2:$C$26,3)*SIGN(S33-S31),0)</f>
         <v/>
       </c>
       <c r="AB33">
-        <f>IF(AND(ISNUMBER(R33),ISNUMBER(R34)),VLOOKUP(ABS(R33-R34),'IMP Table'!$A$2:$C$26,3)*SIGN(R33-R34),0)</f>
+        <f>IF(AND(ISNUMBER(S33),ISNUMBER(S32)),VLOOKUP(ABS(S33-S32),'IMP Table'!$A$2:$C$26,3)*SIGN(S33-S32),0)</f>
         <v/>
       </c>
       <c r="AC33">
-        <f>IF(AND(ISNUMBER(S33),ISNUMBER(S31)),VLOOKUP(ABS(S33-S31),'IMP Table'!$A$2:$C$26,3)*SIGN(S33-S31),0)</f>
+        <f>IF(AND(ISNUMBER(S33),ISNUMBER(S34)),VLOOKUP(ABS(S33-S34),'IMP Table'!$A$2:$C$26,3)*SIGN(S33-S34),0)</f>
         <v/>
       </c>
       <c r="AD33">
-        <f>IF(AND(ISNUMBER(S33),ISNUMBER(S32)),VLOOKUP(ABS(S33-S32),'IMP Table'!$A$2:$C$26,3)*SIGN(S33-S32),0)</f>
+        <f>IF(AND(ISNUMBER(T33),ISNUMBER(T31)),VLOOKUP(ABS(T33-T31),'IMP Table'!$A$2:$C$26,3)*SIGN(T33-T31),0)</f>
         <v/>
       </c>
       <c r="AE33">
-        <f>IF(AND(ISNUMBER(S33),ISNUMBER(S34)),VLOOKUP(ABS(S33-S34),'IMP Table'!$A$2:$C$26,3)*SIGN(S33-S34),0)</f>
+        <f>IF(AND(ISNUMBER(T33),ISNUMBER(T32)),VLOOKUP(ABS(T33-T32),'IMP Table'!$A$2:$C$26,3)*SIGN(T33-T32),0)</f>
+        <v/>
+      </c>
+      <c r="AF33">
+        <f>IF(AND(ISNUMBER(T33),ISNUMBER(T34)),VLOOKUP(ABS(T33-T34),'IMP Table'!$A$2:$C$26,3)*SIGN(T33-T34),0)</f>
         <v/>
       </c>
     </row>
@@ -4848,84 +4982,88 @@
         <f>IF(ISBLANK('By Round'!K49),"",'By Round'!K49)</f>
         <v/>
       </c>
-      <c r="L34" s="20">
-        <f>AVERAGE(Z34:AB34)</f>
-        <v/>
-      </c>
-      <c r="M34" s="21">
-        <f>AVERAGE(AC34:AE34)</f>
-        <v/>
-      </c>
-      <c r="N34" s="22">
-        <f>IF(COUNT(T34:V34)&gt;0,P34/COUNT(T34:V34),0.5)</f>
+      <c r="L34" s="9">
+        <f>IF(ISBLANK('By Round'!L49),"",'By Round'!L49)</f>
+        <v/>
+      </c>
+      <c r="M34" s="20">
+        <f>AVERAGE(AA34:AC34)</f>
+        <v/>
+      </c>
+      <c r="N34" s="21">
+        <f>AVERAGE(AD34:AF34)</f>
         <v/>
       </c>
       <c r="O34" s="22">
-        <f>IF(COUNT(W34:Y34)&gt;0,Q34/COUNT(W34:Y34),0.5)</f>
-        <v/>
-      </c>
-      <c r="P34" s="23">
-        <f>SUM(T34:V34)</f>
+        <f>IF(COUNT(U34:W34)&gt;0,Q34/COUNT(U34:W34),0.5)</f>
+        <v/>
+      </c>
+      <c r="P34" s="22">
+        <f>IF(COUNT(X34:Z34)&gt;0,R34/COUNT(X34:Z34),0.5)</f>
         <v/>
       </c>
       <c r="Q34" s="23">
-        <f>SUM(W34:Y34)</f>
-        <v/>
-      </c>
-      <c r="R34" s="24">
-        <f>IF(ISNUMBER(J34),J34,IF(ISNUMBER(K34),-K34,""))</f>
-        <v/>
-      </c>
-      <c r="S34" s="9">
-        <f>IF(ISNUMBER(K34),K34,IF(ISNUMBER(J34),-J34,""))</f>
-        <v/>
-      </c>
-      <c r="T34" s="24">
-        <f>IF(ISNUMBER(R34),IF(ISNUMBER(R31),IF(R34&gt;R31,1.0,IF(R34=R31,0.5,0.0)),""),"")</f>
-        <v/>
-      </c>
-      <c r="U34" s="9">
-        <f>IF(ISNUMBER(R34),IF(ISNUMBER(R32),IF(R34&gt;R32,1.0,IF(R34=R32,0.5,0.0)),""),"")</f>
+        <f>SUM(U34:W34)</f>
+        <v/>
+      </c>
+      <c r="R34" s="23">
+        <f>SUM(X34:Z34)</f>
+        <v/>
+      </c>
+      <c r="S34" s="24">
+        <f>IF(ISNUMBER(K34),K34,IF(ISNUMBER(L34),-L34,""))</f>
+        <v/>
+      </c>
+      <c r="T34" s="9">
+        <f>IF(ISNUMBER(L34),L34,IF(ISNUMBER(K34),-K34,""))</f>
+        <v/>
+      </c>
+      <c r="U34" s="24">
+        <f>IF(ISNUMBER(S34),IF(ISNUMBER(S31),IF(S34&gt;S31,1.0,IF(S34=S31,0.5,0.0)),""),"")</f>
         <v/>
       </c>
       <c r="V34" s="9">
-        <f>IF(ISNUMBER(R34),IF(ISNUMBER(R33),IF(R34&gt;R33,1.0,IF(R34=R33,0.5,0.0)),""),"")</f>
+        <f>IF(ISNUMBER(S34),IF(ISNUMBER(S32),IF(S34&gt;S32,1.0,IF(S34=S32,0.5,0.0)),""),"")</f>
         <v/>
       </c>
       <c r="W34" s="9">
-        <f>IF(ISNUMBER(S34),IF(ISNUMBER(S31),IF(S34&gt;S31,1.0,IF(S34=S31,0.5,0.0)),""),"")</f>
+        <f>IF(ISNUMBER(S34),IF(ISNUMBER(S33),IF(S34&gt;S33,1.0,IF(S34=S33,0.5,0.0)),""),"")</f>
         <v/>
       </c>
       <c r="X34" s="9">
-        <f>IF(ISNUMBER(S34),IF(ISNUMBER(S32),IF(S34&gt;S32,1.0,IF(S34=S32,0.5,0.0)),""),"")</f>
+        <f>IF(ISNUMBER(T34),IF(ISNUMBER(T31),IF(T34&gt;T31,1.0,IF(T34=T31,0.5,0.0)),""),"")</f>
         <v/>
       </c>
       <c r="Y34" s="9">
-        <f>IF(ISNUMBER(S34),IF(ISNUMBER(S33),IF(S34&gt;S33,1.0,IF(S34=S33,0.5,0.0)),""),"")</f>
-        <v/>
-      </c>
-      <c r="Z34" s="24">
-        <f>IF(AND(ISNUMBER(R34),ISNUMBER(R31)),VLOOKUP(ABS(R34-R31),'IMP Table'!$A$2:$C$26,3)*SIGN(R34-R31),0)</f>
-        <v/>
-      </c>
-      <c r="AA34" s="9">
-        <f>IF(AND(ISNUMBER(R34),ISNUMBER(R32)),VLOOKUP(ABS(R34-R32),'IMP Table'!$A$2:$C$26,3)*SIGN(R34-R32),0)</f>
+        <f>IF(ISNUMBER(T34),IF(ISNUMBER(T32),IF(T34&gt;T32,1.0,IF(T34=T32,0.5,0.0)),""),"")</f>
+        <v/>
+      </c>
+      <c r="Z34" s="9">
+        <f>IF(ISNUMBER(T34),IF(ISNUMBER(T33),IF(T34&gt;T33,1.0,IF(T34=T33,0.5,0.0)),""),"")</f>
+        <v/>
+      </c>
+      <c r="AA34" s="24">
+        <f>IF(AND(ISNUMBER(S34),ISNUMBER(S31)),VLOOKUP(ABS(S34-S31),'IMP Table'!$A$2:$C$26,3)*SIGN(S34-S31),0)</f>
         <v/>
       </c>
       <c r="AB34" s="9">
-        <f>IF(AND(ISNUMBER(R34),ISNUMBER(R33)),VLOOKUP(ABS(R34-R33),'IMP Table'!$A$2:$C$26,3)*SIGN(R34-R33),0)</f>
+        <f>IF(AND(ISNUMBER(S34),ISNUMBER(S32)),VLOOKUP(ABS(S34-S32),'IMP Table'!$A$2:$C$26,3)*SIGN(S34-S32),0)</f>
         <v/>
       </c>
       <c r="AC34" s="9">
-        <f>IF(AND(ISNUMBER(S34),ISNUMBER(S31)),VLOOKUP(ABS(S34-S31),'IMP Table'!$A$2:$C$26,3)*SIGN(S34-S31),0)</f>
+        <f>IF(AND(ISNUMBER(S34),ISNUMBER(S33)),VLOOKUP(ABS(S34-S33),'IMP Table'!$A$2:$C$26,3)*SIGN(S34-S33),0)</f>
         <v/>
       </c>
       <c r="AD34" s="9">
-        <f>IF(AND(ISNUMBER(S34),ISNUMBER(S32)),VLOOKUP(ABS(S34-S32),'IMP Table'!$A$2:$C$26,3)*SIGN(S34-S32),0)</f>
+        <f>IF(AND(ISNUMBER(T34),ISNUMBER(T31)),VLOOKUP(ABS(T34-T31),'IMP Table'!$A$2:$C$26,3)*SIGN(T34-T31),0)</f>
         <v/>
       </c>
       <c r="AE34" s="9">
-        <f>IF(AND(ISNUMBER(S34),ISNUMBER(S33)),VLOOKUP(ABS(S34-S33),'IMP Table'!$A$2:$C$26,3)*SIGN(S34-S33),0)</f>
+        <f>IF(AND(ISNUMBER(T34),ISNUMBER(T32)),VLOOKUP(ABS(T34-T32),'IMP Table'!$A$2:$C$26,3)*SIGN(T34-T32),0)</f>
+        <v/>
+      </c>
+      <c r="AF34" s="9">
+        <f>IF(AND(ISNUMBER(T34),ISNUMBER(T33)),VLOOKUP(ABS(T34-T33),'IMP Table'!$A$2:$C$26,3)*SIGN(T34-T33),0)</f>
         <v/>
       </c>
     </row>
@@ -4973,84 +5111,88 @@
         <f>IF(ISBLANK('By Round'!K29),"",'By Round'!K29)</f>
         <v/>
       </c>
-      <c r="L35" s="16">
-        <f>AVERAGE(Z35:AB35)</f>
-        <v/>
-      </c>
-      <c r="M35" s="7">
-        <f>AVERAGE(AC35:AE35)</f>
-        <v/>
-      </c>
-      <c r="N35" s="6">
-        <f>IF(COUNT(T35:V35)&gt;0,P35/COUNT(T35:V35),0.5)</f>
+      <c r="L35">
+        <f>IF(ISBLANK('By Round'!L29),"",'By Round'!L29)</f>
+        <v/>
+      </c>
+      <c r="M35" s="16">
+        <f>AVERAGE(AA35:AC35)</f>
+        <v/>
+      </c>
+      <c r="N35" s="7">
+        <f>AVERAGE(AD35:AF35)</f>
         <v/>
       </c>
       <c r="O35" s="6">
-        <f>IF(COUNT(W35:Y35)&gt;0,Q35/COUNT(W35:Y35),0.5)</f>
-        <v/>
-      </c>
-      <c r="P35" s="17">
-        <f>SUM(T35:V35)</f>
+        <f>IF(COUNT(U35:W35)&gt;0,Q35/COUNT(U35:W35),0.5)</f>
+        <v/>
+      </c>
+      <c r="P35" s="6">
+        <f>IF(COUNT(X35:Z35)&gt;0,R35/COUNT(X35:Z35),0.5)</f>
         <v/>
       </c>
       <c r="Q35" s="17">
-        <f>SUM(W35:Y35)</f>
-        <v/>
-      </c>
-      <c r="R35" s="18">
-        <f>IF(ISNUMBER(J35),J35,IF(ISNUMBER(K35),-K35,""))</f>
-        <v/>
-      </c>
-      <c r="S35">
-        <f>IF(ISNUMBER(K35),K35,IF(ISNUMBER(J35),-J35,""))</f>
-        <v/>
-      </c>
-      <c r="T35" s="18">
-        <f>IF(ISNUMBER(R35),IF(ISNUMBER(R36),IF(R35&gt;R36,1.0,IF(R35=R36,0.5,0.0)),""),"")</f>
-        <v/>
-      </c>
-      <c r="U35">
-        <f>IF(ISNUMBER(R35),IF(ISNUMBER(R37),IF(R35&gt;R37,1.0,IF(R35=R37,0.5,0.0)),""),"")</f>
+        <f>SUM(U35:W35)</f>
+        <v/>
+      </c>
+      <c r="R35" s="17">
+        <f>SUM(X35:Z35)</f>
+        <v/>
+      </c>
+      <c r="S35" s="18">
+        <f>IF(ISNUMBER(K35),K35,IF(ISNUMBER(L35),-L35,""))</f>
+        <v/>
+      </c>
+      <c r="T35">
+        <f>IF(ISNUMBER(L35),L35,IF(ISNUMBER(K35),-K35,""))</f>
+        <v/>
+      </c>
+      <c r="U35" s="18">
+        <f>IF(ISNUMBER(S35),IF(ISNUMBER(S36),IF(S35&gt;S36,1.0,IF(S35=S36,0.5,0.0)),""),"")</f>
         <v/>
       </c>
       <c r="V35">
-        <f>IF(ISNUMBER(R35),IF(ISNUMBER(R38),IF(R35&gt;R38,1.0,IF(R35=R38,0.5,0.0)),""),"")</f>
+        <f>IF(ISNUMBER(S35),IF(ISNUMBER(S37),IF(S35&gt;S37,1.0,IF(S35=S37,0.5,0.0)),""),"")</f>
         <v/>
       </c>
       <c r="W35">
-        <f>IF(ISNUMBER(S35),IF(ISNUMBER(S36),IF(S35&gt;S36,1.0,IF(S35=S36,0.5,0.0)),""),"")</f>
+        <f>IF(ISNUMBER(S35),IF(ISNUMBER(S38),IF(S35&gt;S38,1.0,IF(S35=S38,0.5,0.0)),""),"")</f>
         <v/>
       </c>
       <c r="X35">
-        <f>IF(ISNUMBER(S35),IF(ISNUMBER(S37),IF(S35&gt;S37,1.0,IF(S35=S37,0.5,0.0)),""),"")</f>
+        <f>IF(ISNUMBER(T35),IF(ISNUMBER(T36),IF(T35&gt;T36,1.0,IF(T35=T36,0.5,0.0)),""),"")</f>
         <v/>
       </c>
       <c r="Y35">
-        <f>IF(ISNUMBER(S35),IF(ISNUMBER(S38),IF(S35&gt;S38,1.0,IF(S35=S38,0.5,0.0)),""),"")</f>
-        <v/>
-      </c>
-      <c r="Z35" s="18">
-        <f>IF(AND(ISNUMBER(R35),ISNUMBER(R36)),VLOOKUP(ABS(R35-R36),'IMP Table'!$A$2:$C$26,3)*SIGN(R35-R36),0)</f>
-        <v/>
-      </c>
-      <c r="AA35">
-        <f>IF(AND(ISNUMBER(R35),ISNUMBER(R37)),VLOOKUP(ABS(R35-R37),'IMP Table'!$A$2:$C$26,3)*SIGN(R35-R37),0)</f>
+        <f>IF(ISNUMBER(T35),IF(ISNUMBER(T37),IF(T35&gt;T37,1.0,IF(T35=T37,0.5,0.0)),""),"")</f>
+        <v/>
+      </c>
+      <c r="Z35">
+        <f>IF(ISNUMBER(T35),IF(ISNUMBER(T38),IF(T35&gt;T38,1.0,IF(T35=T38,0.5,0.0)),""),"")</f>
+        <v/>
+      </c>
+      <c r="AA35" s="18">
+        <f>IF(AND(ISNUMBER(S35),ISNUMBER(S36)),VLOOKUP(ABS(S35-S36),'IMP Table'!$A$2:$C$26,3)*SIGN(S35-S36),0)</f>
         <v/>
       </c>
       <c r="AB35">
-        <f>IF(AND(ISNUMBER(R35),ISNUMBER(R38)),VLOOKUP(ABS(R35-R38),'IMP Table'!$A$2:$C$26,3)*SIGN(R35-R38),0)</f>
+        <f>IF(AND(ISNUMBER(S35),ISNUMBER(S37)),VLOOKUP(ABS(S35-S37),'IMP Table'!$A$2:$C$26,3)*SIGN(S35-S37),0)</f>
         <v/>
       </c>
       <c r="AC35">
-        <f>IF(AND(ISNUMBER(S35),ISNUMBER(S36)),VLOOKUP(ABS(S35-S36),'IMP Table'!$A$2:$C$26,3)*SIGN(S35-S36),0)</f>
+        <f>IF(AND(ISNUMBER(S35),ISNUMBER(S38)),VLOOKUP(ABS(S35-S38),'IMP Table'!$A$2:$C$26,3)*SIGN(S35-S38),0)</f>
         <v/>
       </c>
       <c r="AD35">
-        <f>IF(AND(ISNUMBER(S35),ISNUMBER(S37)),VLOOKUP(ABS(S35-S37),'IMP Table'!$A$2:$C$26,3)*SIGN(S35-S37),0)</f>
+        <f>IF(AND(ISNUMBER(T35),ISNUMBER(T36)),VLOOKUP(ABS(T35-T36),'IMP Table'!$A$2:$C$26,3)*SIGN(T35-T36),0)</f>
         <v/>
       </c>
       <c r="AE35">
-        <f>IF(AND(ISNUMBER(S35),ISNUMBER(S38)),VLOOKUP(ABS(S35-S38),'IMP Table'!$A$2:$C$26,3)*SIGN(S35-S38),0)</f>
+        <f>IF(AND(ISNUMBER(T35),ISNUMBER(T37)),VLOOKUP(ABS(T35-T37),'IMP Table'!$A$2:$C$26,3)*SIGN(T35-T37),0)</f>
+        <v/>
+      </c>
+      <c r="AF35">
+        <f>IF(AND(ISNUMBER(T35),ISNUMBER(T38)),VLOOKUP(ABS(T35-T38),'IMP Table'!$A$2:$C$26,3)*SIGN(T35-T38),0)</f>
         <v/>
       </c>
     </row>
@@ -5095,84 +5237,88 @@
         <f>IF(ISBLANK('By Round'!K20),"",'By Round'!K20)</f>
         <v/>
       </c>
-      <c r="L36" s="16">
-        <f>AVERAGE(Z36:AB36)</f>
-        <v/>
-      </c>
-      <c r="M36" s="7">
-        <f>AVERAGE(AC36:AE36)</f>
-        <v/>
-      </c>
-      <c r="N36" s="6">
-        <f>IF(COUNT(T36:V36)&gt;0,P36/COUNT(T36:V36),0.5)</f>
+      <c r="L36">
+        <f>IF(ISBLANK('By Round'!L20),"",'By Round'!L20)</f>
+        <v/>
+      </c>
+      <c r="M36" s="16">
+        <f>AVERAGE(AA36:AC36)</f>
+        <v/>
+      </c>
+      <c r="N36" s="7">
+        <f>AVERAGE(AD36:AF36)</f>
         <v/>
       </c>
       <c r="O36" s="6">
-        <f>IF(COUNT(W36:Y36)&gt;0,Q36/COUNT(W36:Y36),0.5)</f>
-        <v/>
-      </c>
-      <c r="P36" s="17">
-        <f>SUM(T36:V36)</f>
+        <f>IF(COUNT(U36:W36)&gt;0,Q36/COUNT(U36:W36),0.5)</f>
+        <v/>
+      </c>
+      <c r="P36" s="6">
+        <f>IF(COUNT(X36:Z36)&gt;0,R36/COUNT(X36:Z36),0.5)</f>
         <v/>
       </c>
       <c r="Q36" s="17">
-        <f>SUM(W36:Y36)</f>
-        <v/>
-      </c>
-      <c r="R36" s="18">
-        <f>IF(ISNUMBER(J36),J36,IF(ISNUMBER(K36),-K36,""))</f>
-        <v/>
-      </c>
-      <c r="S36">
-        <f>IF(ISNUMBER(K36),K36,IF(ISNUMBER(J36),-J36,""))</f>
-        <v/>
-      </c>
-      <c r="T36" s="18">
-        <f>IF(ISNUMBER(R36),IF(ISNUMBER(R35),IF(R36&gt;R35,1.0,IF(R36=R35,0.5,0.0)),""),"")</f>
-        <v/>
-      </c>
-      <c r="U36">
-        <f>IF(ISNUMBER(R36),IF(ISNUMBER(R37),IF(R36&gt;R37,1.0,IF(R36=R37,0.5,0.0)),""),"")</f>
+        <f>SUM(U36:W36)</f>
+        <v/>
+      </c>
+      <c r="R36" s="17">
+        <f>SUM(X36:Z36)</f>
+        <v/>
+      </c>
+      <c r="S36" s="18">
+        <f>IF(ISNUMBER(K36),K36,IF(ISNUMBER(L36),-L36,""))</f>
+        <v/>
+      </c>
+      <c r="T36">
+        <f>IF(ISNUMBER(L36),L36,IF(ISNUMBER(K36),-K36,""))</f>
+        <v/>
+      </c>
+      <c r="U36" s="18">
+        <f>IF(ISNUMBER(S36),IF(ISNUMBER(S35),IF(S36&gt;S35,1.0,IF(S36=S35,0.5,0.0)),""),"")</f>
         <v/>
       </c>
       <c r="V36">
-        <f>IF(ISNUMBER(R36),IF(ISNUMBER(R38),IF(R36&gt;R38,1.0,IF(R36=R38,0.5,0.0)),""),"")</f>
+        <f>IF(ISNUMBER(S36),IF(ISNUMBER(S37),IF(S36&gt;S37,1.0,IF(S36=S37,0.5,0.0)),""),"")</f>
         <v/>
       </c>
       <c r="W36">
-        <f>IF(ISNUMBER(S36),IF(ISNUMBER(S35),IF(S36&gt;S35,1.0,IF(S36=S35,0.5,0.0)),""),"")</f>
+        <f>IF(ISNUMBER(S36),IF(ISNUMBER(S38),IF(S36&gt;S38,1.0,IF(S36=S38,0.5,0.0)),""),"")</f>
         <v/>
       </c>
       <c r="X36">
-        <f>IF(ISNUMBER(S36),IF(ISNUMBER(S37),IF(S36&gt;S37,1.0,IF(S36=S37,0.5,0.0)),""),"")</f>
+        <f>IF(ISNUMBER(T36),IF(ISNUMBER(T35),IF(T36&gt;T35,1.0,IF(T36=T35,0.5,0.0)),""),"")</f>
         <v/>
       </c>
       <c r="Y36">
-        <f>IF(ISNUMBER(S36),IF(ISNUMBER(S38),IF(S36&gt;S38,1.0,IF(S36=S38,0.5,0.0)),""),"")</f>
-        <v/>
-      </c>
-      <c r="Z36" s="18">
-        <f>IF(AND(ISNUMBER(R36),ISNUMBER(R35)),VLOOKUP(ABS(R36-R35),'IMP Table'!$A$2:$C$26,3)*SIGN(R36-R35),0)</f>
-        <v/>
-      </c>
-      <c r="AA36">
-        <f>IF(AND(ISNUMBER(R36),ISNUMBER(R37)),VLOOKUP(ABS(R36-R37),'IMP Table'!$A$2:$C$26,3)*SIGN(R36-R37),0)</f>
+        <f>IF(ISNUMBER(T36),IF(ISNUMBER(T37),IF(T36&gt;T37,1.0,IF(T36=T37,0.5,0.0)),""),"")</f>
+        <v/>
+      </c>
+      <c r="Z36">
+        <f>IF(ISNUMBER(T36),IF(ISNUMBER(T38),IF(T36&gt;T38,1.0,IF(T36=T38,0.5,0.0)),""),"")</f>
+        <v/>
+      </c>
+      <c r="AA36" s="18">
+        <f>IF(AND(ISNUMBER(S36),ISNUMBER(S35)),VLOOKUP(ABS(S36-S35),'IMP Table'!$A$2:$C$26,3)*SIGN(S36-S35),0)</f>
         <v/>
       </c>
       <c r="AB36">
-        <f>IF(AND(ISNUMBER(R36),ISNUMBER(R38)),VLOOKUP(ABS(R36-R38),'IMP Table'!$A$2:$C$26,3)*SIGN(R36-R38),0)</f>
+        <f>IF(AND(ISNUMBER(S36),ISNUMBER(S37)),VLOOKUP(ABS(S36-S37),'IMP Table'!$A$2:$C$26,3)*SIGN(S36-S37),0)</f>
         <v/>
       </c>
       <c r="AC36">
-        <f>IF(AND(ISNUMBER(S36),ISNUMBER(S35)),VLOOKUP(ABS(S36-S35),'IMP Table'!$A$2:$C$26,3)*SIGN(S36-S35),0)</f>
+        <f>IF(AND(ISNUMBER(S36),ISNUMBER(S38)),VLOOKUP(ABS(S36-S38),'IMP Table'!$A$2:$C$26,3)*SIGN(S36-S38),0)</f>
         <v/>
       </c>
       <c r="AD36">
-        <f>IF(AND(ISNUMBER(S36),ISNUMBER(S37)),VLOOKUP(ABS(S36-S37),'IMP Table'!$A$2:$C$26,3)*SIGN(S36-S37),0)</f>
+        <f>IF(AND(ISNUMBER(T36),ISNUMBER(T35)),VLOOKUP(ABS(T36-T35),'IMP Table'!$A$2:$C$26,3)*SIGN(T36-T35),0)</f>
         <v/>
       </c>
       <c r="AE36">
-        <f>IF(AND(ISNUMBER(S36),ISNUMBER(S38)),VLOOKUP(ABS(S36-S38),'IMP Table'!$A$2:$C$26,3)*SIGN(S36-S38),0)</f>
+        <f>IF(AND(ISNUMBER(T36),ISNUMBER(T37)),VLOOKUP(ABS(T36-T37),'IMP Table'!$A$2:$C$26,3)*SIGN(T36-T37),0)</f>
+        <v/>
+      </c>
+      <c r="AF36">
+        <f>IF(AND(ISNUMBER(T36),ISNUMBER(T38)),VLOOKUP(ABS(T36-T38),'IMP Table'!$A$2:$C$26,3)*SIGN(T36-T38),0)</f>
         <v/>
       </c>
     </row>
@@ -5217,84 +5363,88 @@
         <f>IF(ISBLANK('By Round'!K11),"",'By Round'!K11)</f>
         <v/>
       </c>
-      <c r="L37" s="16">
-        <f>AVERAGE(Z37:AB37)</f>
-        <v/>
-      </c>
-      <c r="M37" s="7">
-        <f>AVERAGE(AC37:AE37)</f>
-        <v/>
-      </c>
-      <c r="N37" s="6">
-        <f>IF(COUNT(T37:V37)&gt;0,P37/COUNT(T37:V37),0.5)</f>
+      <c r="L37">
+        <f>IF(ISBLANK('By Round'!L11),"",'By Round'!L11)</f>
+        <v/>
+      </c>
+      <c r="M37" s="16">
+        <f>AVERAGE(AA37:AC37)</f>
+        <v/>
+      </c>
+      <c r="N37" s="7">
+        <f>AVERAGE(AD37:AF37)</f>
         <v/>
       </c>
       <c r="O37" s="6">
-        <f>IF(COUNT(W37:Y37)&gt;0,Q37/COUNT(W37:Y37),0.5)</f>
-        <v/>
-      </c>
-      <c r="P37" s="17">
-        <f>SUM(T37:V37)</f>
+        <f>IF(COUNT(U37:W37)&gt;0,Q37/COUNT(U37:W37),0.5)</f>
+        <v/>
+      </c>
+      <c r="P37" s="6">
+        <f>IF(COUNT(X37:Z37)&gt;0,R37/COUNT(X37:Z37),0.5)</f>
         <v/>
       </c>
       <c r="Q37" s="17">
-        <f>SUM(W37:Y37)</f>
-        <v/>
-      </c>
-      <c r="R37" s="18">
-        <f>IF(ISNUMBER(J37),J37,IF(ISNUMBER(K37),-K37,""))</f>
-        <v/>
-      </c>
-      <c r="S37">
-        <f>IF(ISNUMBER(K37),K37,IF(ISNUMBER(J37),-J37,""))</f>
-        <v/>
-      </c>
-      <c r="T37" s="18">
-        <f>IF(ISNUMBER(R37),IF(ISNUMBER(R35),IF(R37&gt;R35,1.0,IF(R37=R35,0.5,0.0)),""),"")</f>
-        <v/>
-      </c>
-      <c r="U37">
-        <f>IF(ISNUMBER(R37),IF(ISNUMBER(R36),IF(R37&gt;R36,1.0,IF(R37=R36,0.5,0.0)),""),"")</f>
+        <f>SUM(U37:W37)</f>
+        <v/>
+      </c>
+      <c r="R37" s="17">
+        <f>SUM(X37:Z37)</f>
+        <v/>
+      </c>
+      <c r="S37" s="18">
+        <f>IF(ISNUMBER(K37),K37,IF(ISNUMBER(L37),-L37,""))</f>
+        <v/>
+      </c>
+      <c r="T37">
+        <f>IF(ISNUMBER(L37),L37,IF(ISNUMBER(K37),-K37,""))</f>
+        <v/>
+      </c>
+      <c r="U37" s="18">
+        <f>IF(ISNUMBER(S37),IF(ISNUMBER(S35),IF(S37&gt;S35,1.0,IF(S37=S35,0.5,0.0)),""),"")</f>
         <v/>
       </c>
       <c r="V37">
-        <f>IF(ISNUMBER(R37),IF(ISNUMBER(R38),IF(R37&gt;R38,1.0,IF(R37=R38,0.5,0.0)),""),"")</f>
+        <f>IF(ISNUMBER(S37),IF(ISNUMBER(S36),IF(S37&gt;S36,1.0,IF(S37=S36,0.5,0.0)),""),"")</f>
         <v/>
       </c>
       <c r="W37">
-        <f>IF(ISNUMBER(S37),IF(ISNUMBER(S35),IF(S37&gt;S35,1.0,IF(S37=S35,0.5,0.0)),""),"")</f>
+        <f>IF(ISNUMBER(S37),IF(ISNUMBER(S38),IF(S37&gt;S38,1.0,IF(S37=S38,0.5,0.0)),""),"")</f>
         <v/>
       </c>
       <c r="X37">
-        <f>IF(ISNUMBER(S37),IF(ISNUMBER(S36),IF(S37&gt;S36,1.0,IF(S37=S36,0.5,0.0)),""),"")</f>
+        <f>IF(ISNUMBER(T37),IF(ISNUMBER(T35),IF(T37&gt;T35,1.0,IF(T37=T35,0.5,0.0)),""),"")</f>
         <v/>
       </c>
       <c r="Y37">
-        <f>IF(ISNUMBER(S37),IF(ISNUMBER(S38),IF(S37&gt;S38,1.0,IF(S37=S38,0.5,0.0)),""),"")</f>
-        <v/>
-      </c>
-      <c r="Z37" s="18">
-        <f>IF(AND(ISNUMBER(R37),ISNUMBER(R35)),VLOOKUP(ABS(R37-R35),'IMP Table'!$A$2:$C$26,3)*SIGN(R37-R35),0)</f>
-        <v/>
-      </c>
-      <c r="AA37">
-        <f>IF(AND(ISNUMBER(R37),ISNUMBER(R36)),VLOOKUP(ABS(R37-R36),'IMP Table'!$A$2:$C$26,3)*SIGN(R37-R36),0)</f>
+        <f>IF(ISNUMBER(T37),IF(ISNUMBER(T36),IF(T37&gt;T36,1.0,IF(T37=T36,0.5,0.0)),""),"")</f>
+        <v/>
+      </c>
+      <c r="Z37">
+        <f>IF(ISNUMBER(T37),IF(ISNUMBER(T38),IF(T37&gt;T38,1.0,IF(T37=T38,0.5,0.0)),""),"")</f>
+        <v/>
+      </c>
+      <c r="AA37" s="18">
+        <f>IF(AND(ISNUMBER(S37),ISNUMBER(S35)),VLOOKUP(ABS(S37-S35),'IMP Table'!$A$2:$C$26,3)*SIGN(S37-S35),0)</f>
         <v/>
       </c>
       <c r="AB37">
-        <f>IF(AND(ISNUMBER(R37),ISNUMBER(R38)),VLOOKUP(ABS(R37-R38),'IMP Table'!$A$2:$C$26,3)*SIGN(R37-R38),0)</f>
+        <f>IF(AND(ISNUMBER(S37),ISNUMBER(S36)),VLOOKUP(ABS(S37-S36),'IMP Table'!$A$2:$C$26,3)*SIGN(S37-S36),0)</f>
         <v/>
       </c>
       <c r="AC37">
-        <f>IF(AND(ISNUMBER(S37),ISNUMBER(S35)),VLOOKUP(ABS(S37-S35),'IMP Table'!$A$2:$C$26,3)*SIGN(S37-S35),0)</f>
+        <f>IF(AND(ISNUMBER(S37),ISNUMBER(S38)),VLOOKUP(ABS(S37-S38),'IMP Table'!$A$2:$C$26,3)*SIGN(S37-S38),0)</f>
         <v/>
       </c>
       <c r="AD37">
-        <f>IF(AND(ISNUMBER(S37),ISNUMBER(S36)),VLOOKUP(ABS(S37-S36),'IMP Table'!$A$2:$C$26,3)*SIGN(S37-S36),0)</f>
+        <f>IF(AND(ISNUMBER(T37),ISNUMBER(T35)),VLOOKUP(ABS(T37-T35),'IMP Table'!$A$2:$C$26,3)*SIGN(T37-T35),0)</f>
         <v/>
       </c>
       <c r="AE37">
-        <f>IF(AND(ISNUMBER(S37),ISNUMBER(S38)),VLOOKUP(ABS(S37-S38),'IMP Table'!$A$2:$C$26,3)*SIGN(S37-S38),0)</f>
+        <f>IF(AND(ISNUMBER(T37),ISNUMBER(T36)),VLOOKUP(ABS(T37-T36),'IMP Table'!$A$2:$C$26,3)*SIGN(T37-T36),0)</f>
+        <v/>
+      </c>
+      <c r="AF37">
+        <f>IF(AND(ISNUMBER(T37),ISNUMBER(T38)),VLOOKUP(ABS(T37-T38),'IMP Table'!$A$2:$C$26,3)*SIGN(T37-T38),0)</f>
         <v/>
       </c>
     </row>
@@ -5340,84 +5490,88 @@
         <f>IF(ISBLANK('By Round'!K50),"",'By Round'!K50)</f>
         <v/>
       </c>
-      <c r="L38" s="20">
-        <f>AVERAGE(Z38:AB38)</f>
-        <v/>
-      </c>
-      <c r="M38" s="21">
-        <f>AVERAGE(AC38:AE38)</f>
-        <v/>
-      </c>
-      <c r="N38" s="22">
-        <f>IF(COUNT(T38:V38)&gt;0,P38/COUNT(T38:V38),0.5)</f>
+      <c r="L38" s="9">
+        <f>IF(ISBLANK('By Round'!L50),"",'By Round'!L50)</f>
+        <v/>
+      </c>
+      <c r="M38" s="20">
+        <f>AVERAGE(AA38:AC38)</f>
+        <v/>
+      </c>
+      <c r="N38" s="21">
+        <f>AVERAGE(AD38:AF38)</f>
         <v/>
       </c>
       <c r="O38" s="22">
-        <f>IF(COUNT(W38:Y38)&gt;0,Q38/COUNT(W38:Y38),0.5)</f>
-        <v/>
-      </c>
-      <c r="P38" s="23">
-        <f>SUM(T38:V38)</f>
+        <f>IF(COUNT(U38:W38)&gt;0,Q38/COUNT(U38:W38),0.5)</f>
+        <v/>
+      </c>
+      <c r="P38" s="22">
+        <f>IF(COUNT(X38:Z38)&gt;0,R38/COUNT(X38:Z38),0.5)</f>
         <v/>
       </c>
       <c r="Q38" s="23">
-        <f>SUM(W38:Y38)</f>
-        <v/>
-      </c>
-      <c r="R38" s="24">
-        <f>IF(ISNUMBER(J38),J38,IF(ISNUMBER(K38),-K38,""))</f>
-        <v/>
-      </c>
-      <c r="S38" s="9">
-        <f>IF(ISNUMBER(K38),K38,IF(ISNUMBER(J38),-J38,""))</f>
-        <v/>
-      </c>
-      <c r="T38" s="24">
-        <f>IF(ISNUMBER(R38),IF(ISNUMBER(R35),IF(R38&gt;R35,1.0,IF(R38=R35,0.5,0.0)),""),"")</f>
-        <v/>
-      </c>
-      <c r="U38" s="9">
-        <f>IF(ISNUMBER(R38),IF(ISNUMBER(R36),IF(R38&gt;R36,1.0,IF(R38=R36,0.5,0.0)),""),"")</f>
+        <f>SUM(U38:W38)</f>
+        <v/>
+      </c>
+      <c r="R38" s="23">
+        <f>SUM(X38:Z38)</f>
+        <v/>
+      </c>
+      <c r="S38" s="24">
+        <f>IF(ISNUMBER(K38),K38,IF(ISNUMBER(L38),-L38,""))</f>
+        <v/>
+      </c>
+      <c r="T38" s="9">
+        <f>IF(ISNUMBER(L38),L38,IF(ISNUMBER(K38),-K38,""))</f>
+        <v/>
+      </c>
+      <c r="U38" s="24">
+        <f>IF(ISNUMBER(S38),IF(ISNUMBER(S35),IF(S38&gt;S35,1.0,IF(S38=S35,0.5,0.0)),""),"")</f>
         <v/>
       </c>
       <c r="V38" s="9">
-        <f>IF(ISNUMBER(R38),IF(ISNUMBER(R37),IF(R38&gt;R37,1.0,IF(R38=R37,0.5,0.0)),""),"")</f>
+        <f>IF(ISNUMBER(S38),IF(ISNUMBER(S36),IF(S38&gt;S36,1.0,IF(S38=S36,0.5,0.0)),""),"")</f>
         <v/>
       </c>
       <c r="W38" s="9">
-        <f>IF(ISNUMBER(S38),IF(ISNUMBER(S35),IF(S38&gt;S35,1.0,IF(S38=S35,0.5,0.0)),""),"")</f>
+        <f>IF(ISNUMBER(S38),IF(ISNUMBER(S37),IF(S38&gt;S37,1.0,IF(S38=S37,0.5,0.0)),""),"")</f>
         <v/>
       </c>
       <c r="X38" s="9">
-        <f>IF(ISNUMBER(S38),IF(ISNUMBER(S36),IF(S38&gt;S36,1.0,IF(S38=S36,0.5,0.0)),""),"")</f>
+        <f>IF(ISNUMBER(T38),IF(ISNUMBER(T35),IF(T38&gt;T35,1.0,IF(T38=T35,0.5,0.0)),""),"")</f>
         <v/>
       </c>
       <c r="Y38" s="9">
-        <f>IF(ISNUMBER(S38),IF(ISNUMBER(S37),IF(S38&gt;S37,1.0,IF(S38=S37,0.5,0.0)),""),"")</f>
-        <v/>
-      </c>
-      <c r="Z38" s="24">
-        <f>IF(AND(ISNUMBER(R38),ISNUMBER(R35)),VLOOKUP(ABS(R38-R35),'IMP Table'!$A$2:$C$26,3)*SIGN(R38-R35),0)</f>
-        <v/>
-      </c>
-      <c r="AA38" s="9">
-        <f>IF(AND(ISNUMBER(R38),ISNUMBER(R36)),VLOOKUP(ABS(R38-R36),'IMP Table'!$A$2:$C$26,3)*SIGN(R38-R36),0)</f>
+        <f>IF(ISNUMBER(T38),IF(ISNUMBER(T36),IF(T38&gt;T36,1.0,IF(T38=T36,0.5,0.0)),""),"")</f>
+        <v/>
+      </c>
+      <c r="Z38" s="9">
+        <f>IF(ISNUMBER(T38),IF(ISNUMBER(T37),IF(T38&gt;T37,1.0,IF(T38=T37,0.5,0.0)),""),"")</f>
+        <v/>
+      </c>
+      <c r="AA38" s="24">
+        <f>IF(AND(ISNUMBER(S38),ISNUMBER(S35)),VLOOKUP(ABS(S38-S35),'IMP Table'!$A$2:$C$26,3)*SIGN(S38-S35),0)</f>
         <v/>
       </c>
       <c r="AB38" s="9">
-        <f>IF(AND(ISNUMBER(R38),ISNUMBER(R37)),VLOOKUP(ABS(R38-R37),'IMP Table'!$A$2:$C$26,3)*SIGN(R38-R37),0)</f>
+        <f>IF(AND(ISNUMBER(S38),ISNUMBER(S36)),VLOOKUP(ABS(S38-S36),'IMP Table'!$A$2:$C$26,3)*SIGN(S38-S36),0)</f>
         <v/>
       </c>
       <c r="AC38" s="9">
-        <f>IF(AND(ISNUMBER(S38),ISNUMBER(S35)),VLOOKUP(ABS(S38-S35),'IMP Table'!$A$2:$C$26,3)*SIGN(S38-S35),0)</f>
+        <f>IF(AND(ISNUMBER(S38),ISNUMBER(S37)),VLOOKUP(ABS(S38-S37),'IMP Table'!$A$2:$C$26,3)*SIGN(S38-S37),0)</f>
         <v/>
       </c>
       <c r="AD38" s="9">
-        <f>IF(AND(ISNUMBER(S38),ISNUMBER(S36)),VLOOKUP(ABS(S38-S36),'IMP Table'!$A$2:$C$26,3)*SIGN(S38-S36),0)</f>
+        <f>IF(AND(ISNUMBER(T38),ISNUMBER(T35)),VLOOKUP(ABS(T38-T35),'IMP Table'!$A$2:$C$26,3)*SIGN(T38-T35),0)</f>
         <v/>
       </c>
       <c r="AE38" s="9">
-        <f>IF(AND(ISNUMBER(S38),ISNUMBER(S37)),VLOOKUP(ABS(S38-S37),'IMP Table'!$A$2:$C$26,3)*SIGN(S38-S37),0)</f>
+        <f>IF(AND(ISNUMBER(T38),ISNUMBER(T36)),VLOOKUP(ABS(T38-T36),'IMP Table'!$A$2:$C$26,3)*SIGN(T38-T36),0)</f>
+        <v/>
+      </c>
+      <c r="AF38" s="9">
+        <f>IF(AND(ISNUMBER(T38),ISNUMBER(T37)),VLOOKUP(ABS(T38-T37),'IMP Table'!$A$2:$C$26,3)*SIGN(T38-T37),0)</f>
         <v/>
       </c>
     </row>
@@ -5465,84 +5619,88 @@
         <f>IF(ISBLANK('By Round'!K15),"",'By Round'!K15)</f>
         <v/>
       </c>
-      <c r="L39" s="16">
-        <f>AVERAGE(Z39:AB39)</f>
-        <v/>
-      </c>
-      <c r="M39" s="7">
-        <f>AVERAGE(AC39:AE39)</f>
-        <v/>
-      </c>
-      <c r="N39" s="6">
-        <f>IF(COUNT(T39:V39)&gt;0,P39/COUNT(T39:V39),0.5)</f>
+      <c r="L39">
+        <f>IF(ISBLANK('By Round'!L15),"",'By Round'!L15)</f>
+        <v/>
+      </c>
+      <c r="M39" s="16">
+        <f>AVERAGE(AA39:AC39)</f>
+        <v/>
+      </c>
+      <c r="N39" s="7">
+        <f>AVERAGE(AD39:AF39)</f>
         <v/>
       </c>
       <c r="O39" s="6">
-        <f>IF(COUNT(W39:Y39)&gt;0,Q39/COUNT(W39:Y39),0.5)</f>
-        <v/>
-      </c>
-      <c r="P39" s="17">
-        <f>SUM(T39:V39)</f>
+        <f>IF(COUNT(U39:W39)&gt;0,Q39/COUNT(U39:W39),0.5)</f>
+        <v/>
+      </c>
+      <c r="P39" s="6">
+        <f>IF(COUNT(X39:Z39)&gt;0,R39/COUNT(X39:Z39),0.5)</f>
         <v/>
       </c>
       <c r="Q39" s="17">
-        <f>SUM(W39:Y39)</f>
-        <v/>
-      </c>
-      <c r="R39" s="18">
-        <f>IF(ISNUMBER(J39),J39,IF(ISNUMBER(K39),-K39,""))</f>
-        <v/>
-      </c>
-      <c r="S39">
-        <f>IF(ISNUMBER(K39),K39,IF(ISNUMBER(J39),-J39,""))</f>
-        <v/>
-      </c>
-      <c r="T39" s="18">
-        <f>IF(ISNUMBER(R39),IF(ISNUMBER(R40),IF(R39&gt;R40,1.0,IF(R39=R40,0.5,0.0)),""),"")</f>
-        <v/>
-      </c>
-      <c r="U39">
-        <f>IF(ISNUMBER(R39),IF(ISNUMBER(R41),IF(R39&gt;R41,1.0,IF(R39=R41,0.5,0.0)),""),"")</f>
+        <f>SUM(U39:W39)</f>
+        <v/>
+      </c>
+      <c r="R39" s="17">
+        <f>SUM(X39:Z39)</f>
+        <v/>
+      </c>
+      <c r="S39" s="18">
+        <f>IF(ISNUMBER(K39),K39,IF(ISNUMBER(L39),-L39,""))</f>
+        <v/>
+      </c>
+      <c r="T39">
+        <f>IF(ISNUMBER(L39),L39,IF(ISNUMBER(K39),-K39,""))</f>
+        <v/>
+      </c>
+      <c r="U39" s="18">
+        <f>IF(ISNUMBER(S39),IF(ISNUMBER(S40),IF(S39&gt;S40,1.0,IF(S39=S40,0.5,0.0)),""),"")</f>
         <v/>
       </c>
       <c r="V39">
-        <f>IF(ISNUMBER(R39),IF(ISNUMBER(R42),IF(R39&gt;R42,1.0,IF(R39=R42,0.5,0.0)),""),"")</f>
+        <f>IF(ISNUMBER(S39),IF(ISNUMBER(S41),IF(S39&gt;S41,1.0,IF(S39=S41,0.5,0.0)),""),"")</f>
         <v/>
       </c>
       <c r="W39">
-        <f>IF(ISNUMBER(S39),IF(ISNUMBER(S40),IF(S39&gt;S40,1.0,IF(S39=S40,0.5,0.0)),""),"")</f>
+        <f>IF(ISNUMBER(S39),IF(ISNUMBER(S42),IF(S39&gt;S42,1.0,IF(S39=S42,0.5,0.0)),""),"")</f>
         <v/>
       </c>
       <c r="X39">
-        <f>IF(ISNUMBER(S39),IF(ISNUMBER(S41),IF(S39&gt;S41,1.0,IF(S39=S41,0.5,0.0)),""),"")</f>
+        <f>IF(ISNUMBER(T39),IF(ISNUMBER(T40),IF(T39&gt;T40,1.0,IF(T39=T40,0.5,0.0)),""),"")</f>
         <v/>
       </c>
       <c r="Y39">
-        <f>IF(ISNUMBER(S39),IF(ISNUMBER(S42),IF(S39&gt;S42,1.0,IF(S39=S42,0.5,0.0)),""),"")</f>
-        <v/>
-      </c>
-      <c r="Z39" s="18">
-        <f>IF(AND(ISNUMBER(R39),ISNUMBER(R40)),VLOOKUP(ABS(R39-R40),'IMP Table'!$A$2:$C$26,3)*SIGN(R39-R40),0)</f>
-        <v/>
-      </c>
-      <c r="AA39">
-        <f>IF(AND(ISNUMBER(R39),ISNUMBER(R41)),VLOOKUP(ABS(R39-R41),'IMP Table'!$A$2:$C$26,3)*SIGN(R39-R41),0)</f>
+        <f>IF(ISNUMBER(T39),IF(ISNUMBER(T41),IF(T39&gt;T41,1.0,IF(T39=T41,0.5,0.0)),""),"")</f>
+        <v/>
+      </c>
+      <c r="Z39">
+        <f>IF(ISNUMBER(T39),IF(ISNUMBER(T42),IF(T39&gt;T42,1.0,IF(T39=T42,0.5,0.0)),""),"")</f>
+        <v/>
+      </c>
+      <c r="AA39" s="18">
+        <f>IF(AND(ISNUMBER(S39),ISNUMBER(S40)),VLOOKUP(ABS(S39-S40),'IMP Table'!$A$2:$C$26,3)*SIGN(S39-S40),0)</f>
         <v/>
       </c>
       <c r="AB39">
-        <f>IF(AND(ISNUMBER(R39),ISNUMBER(R42)),VLOOKUP(ABS(R39-R42),'IMP Table'!$A$2:$C$26,3)*SIGN(R39-R42),0)</f>
+        <f>IF(AND(ISNUMBER(S39),ISNUMBER(S41)),VLOOKUP(ABS(S39-S41),'IMP Table'!$A$2:$C$26,3)*SIGN(S39-S41),0)</f>
         <v/>
       </c>
       <c r="AC39">
-        <f>IF(AND(ISNUMBER(S39),ISNUMBER(S40)),VLOOKUP(ABS(S39-S40),'IMP Table'!$A$2:$C$26,3)*SIGN(S39-S40),0)</f>
+        <f>IF(AND(ISNUMBER(S39),ISNUMBER(S42)),VLOOKUP(ABS(S39-S42),'IMP Table'!$A$2:$C$26,3)*SIGN(S39-S42),0)</f>
         <v/>
       </c>
       <c r="AD39">
-        <f>IF(AND(ISNUMBER(S39),ISNUMBER(S41)),VLOOKUP(ABS(S39-S41),'IMP Table'!$A$2:$C$26,3)*SIGN(S39-S41),0)</f>
+        <f>IF(AND(ISNUMBER(T39),ISNUMBER(T40)),VLOOKUP(ABS(T39-T40),'IMP Table'!$A$2:$C$26,3)*SIGN(T39-T40),0)</f>
         <v/>
       </c>
       <c r="AE39">
-        <f>IF(AND(ISNUMBER(S39),ISNUMBER(S42)),VLOOKUP(ABS(S39-S42),'IMP Table'!$A$2:$C$26,3)*SIGN(S39-S42),0)</f>
+        <f>IF(AND(ISNUMBER(T39),ISNUMBER(T41)),VLOOKUP(ABS(T39-T41),'IMP Table'!$A$2:$C$26,3)*SIGN(T39-T41),0)</f>
+        <v/>
+      </c>
+      <c r="AF39">
+        <f>IF(AND(ISNUMBER(T39),ISNUMBER(T42)),VLOOKUP(ABS(T39-T42),'IMP Table'!$A$2:$C$26,3)*SIGN(T39-T42),0)</f>
         <v/>
       </c>
     </row>
@@ -5587,84 +5745,88 @@
         <f>IF(ISBLANK('By Round'!K30),"",'By Round'!K30)</f>
         <v/>
       </c>
-      <c r="L40" s="16">
-        <f>AVERAGE(Z40:AB40)</f>
-        <v/>
-      </c>
-      <c r="M40" s="7">
-        <f>AVERAGE(AC40:AE40)</f>
-        <v/>
-      </c>
-      <c r="N40" s="6">
-        <f>IF(COUNT(T40:V40)&gt;0,P40/COUNT(T40:V40),0.5)</f>
+      <c r="L40">
+        <f>IF(ISBLANK('By Round'!L30),"",'By Round'!L30)</f>
+        <v/>
+      </c>
+      <c r="M40" s="16">
+        <f>AVERAGE(AA40:AC40)</f>
+        <v/>
+      </c>
+      <c r="N40" s="7">
+        <f>AVERAGE(AD40:AF40)</f>
         <v/>
       </c>
       <c r="O40" s="6">
-        <f>IF(COUNT(W40:Y40)&gt;0,Q40/COUNT(W40:Y40),0.5)</f>
-        <v/>
-      </c>
-      <c r="P40" s="17">
-        <f>SUM(T40:V40)</f>
+        <f>IF(COUNT(U40:W40)&gt;0,Q40/COUNT(U40:W40),0.5)</f>
+        <v/>
+      </c>
+      <c r="P40" s="6">
+        <f>IF(COUNT(X40:Z40)&gt;0,R40/COUNT(X40:Z40),0.5)</f>
         <v/>
       </c>
       <c r="Q40" s="17">
-        <f>SUM(W40:Y40)</f>
-        <v/>
-      </c>
-      <c r="R40" s="18">
-        <f>IF(ISNUMBER(J40),J40,IF(ISNUMBER(K40),-K40,""))</f>
-        <v/>
-      </c>
-      <c r="S40">
-        <f>IF(ISNUMBER(K40),K40,IF(ISNUMBER(J40),-J40,""))</f>
-        <v/>
-      </c>
-      <c r="T40" s="18">
-        <f>IF(ISNUMBER(R40),IF(ISNUMBER(R39),IF(R40&gt;R39,1.0,IF(R40=R39,0.5,0.0)),""),"")</f>
-        <v/>
-      </c>
-      <c r="U40">
-        <f>IF(ISNUMBER(R40),IF(ISNUMBER(R41),IF(R40&gt;R41,1.0,IF(R40=R41,0.5,0.0)),""),"")</f>
+        <f>SUM(U40:W40)</f>
+        <v/>
+      </c>
+      <c r="R40" s="17">
+        <f>SUM(X40:Z40)</f>
+        <v/>
+      </c>
+      <c r="S40" s="18">
+        <f>IF(ISNUMBER(K40),K40,IF(ISNUMBER(L40),-L40,""))</f>
+        <v/>
+      </c>
+      <c r="T40">
+        <f>IF(ISNUMBER(L40),L40,IF(ISNUMBER(K40),-K40,""))</f>
+        <v/>
+      </c>
+      <c r="U40" s="18">
+        <f>IF(ISNUMBER(S40),IF(ISNUMBER(S39),IF(S40&gt;S39,1.0,IF(S40=S39,0.5,0.0)),""),"")</f>
         <v/>
       </c>
       <c r="V40">
-        <f>IF(ISNUMBER(R40),IF(ISNUMBER(R42),IF(R40&gt;R42,1.0,IF(R40=R42,0.5,0.0)),""),"")</f>
+        <f>IF(ISNUMBER(S40),IF(ISNUMBER(S41),IF(S40&gt;S41,1.0,IF(S40=S41,0.5,0.0)),""),"")</f>
         <v/>
       </c>
       <c r="W40">
-        <f>IF(ISNUMBER(S40),IF(ISNUMBER(S39),IF(S40&gt;S39,1.0,IF(S40=S39,0.5,0.0)),""),"")</f>
+        <f>IF(ISNUMBER(S40),IF(ISNUMBER(S42),IF(S40&gt;S42,1.0,IF(S40=S42,0.5,0.0)),""),"")</f>
         <v/>
       </c>
       <c r="X40">
-        <f>IF(ISNUMBER(S40),IF(ISNUMBER(S41),IF(S40&gt;S41,1.0,IF(S40=S41,0.5,0.0)),""),"")</f>
+        <f>IF(ISNUMBER(T40),IF(ISNUMBER(T39),IF(T40&gt;T39,1.0,IF(T40=T39,0.5,0.0)),""),"")</f>
         <v/>
       </c>
       <c r="Y40">
-        <f>IF(ISNUMBER(S40),IF(ISNUMBER(S42),IF(S40&gt;S42,1.0,IF(S40=S42,0.5,0.0)),""),"")</f>
-        <v/>
-      </c>
-      <c r="Z40" s="18">
-        <f>IF(AND(ISNUMBER(R40),ISNUMBER(R39)),VLOOKUP(ABS(R40-R39),'IMP Table'!$A$2:$C$26,3)*SIGN(R40-R39),0)</f>
-        <v/>
-      </c>
-      <c r="AA40">
-        <f>IF(AND(ISNUMBER(R40),ISNUMBER(R41)),VLOOKUP(ABS(R40-R41),'IMP Table'!$A$2:$C$26,3)*SIGN(R40-R41),0)</f>
+        <f>IF(ISNUMBER(T40),IF(ISNUMBER(T41),IF(T40&gt;T41,1.0,IF(T40=T41,0.5,0.0)),""),"")</f>
+        <v/>
+      </c>
+      <c r="Z40">
+        <f>IF(ISNUMBER(T40),IF(ISNUMBER(T42),IF(T40&gt;T42,1.0,IF(T40=T42,0.5,0.0)),""),"")</f>
+        <v/>
+      </c>
+      <c r="AA40" s="18">
+        <f>IF(AND(ISNUMBER(S40),ISNUMBER(S39)),VLOOKUP(ABS(S40-S39),'IMP Table'!$A$2:$C$26,3)*SIGN(S40-S39),0)</f>
         <v/>
       </c>
       <c r="AB40">
-        <f>IF(AND(ISNUMBER(R40),ISNUMBER(R42)),VLOOKUP(ABS(R40-R42),'IMP Table'!$A$2:$C$26,3)*SIGN(R40-R42),0)</f>
+        <f>IF(AND(ISNUMBER(S40),ISNUMBER(S41)),VLOOKUP(ABS(S40-S41),'IMP Table'!$A$2:$C$26,3)*SIGN(S40-S41),0)</f>
         <v/>
       </c>
       <c r="AC40">
-        <f>IF(AND(ISNUMBER(S40),ISNUMBER(S39)),VLOOKUP(ABS(S40-S39),'IMP Table'!$A$2:$C$26,3)*SIGN(S40-S39),0)</f>
+        <f>IF(AND(ISNUMBER(S40),ISNUMBER(S42)),VLOOKUP(ABS(S40-S42),'IMP Table'!$A$2:$C$26,3)*SIGN(S40-S42),0)</f>
         <v/>
       </c>
       <c r="AD40">
-        <f>IF(AND(ISNUMBER(S40),ISNUMBER(S41)),VLOOKUP(ABS(S40-S41),'IMP Table'!$A$2:$C$26,3)*SIGN(S40-S41),0)</f>
+        <f>IF(AND(ISNUMBER(T40),ISNUMBER(T39)),VLOOKUP(ABS(T40-T39),'IMP Table'!$A$2:$C$26,3)*SIGN(T40-T39),0)</f>
         <v/>
       </c>
       <c r="AE40">
-        <f>IF(AND(ISNUMBER(S40),ISNUMBER(S42)),VLOOKUP(ABS(S40-S42),'IMP Table'!$A$2:$C$26,3)*SIGN(S40-S42),0)</f>
+        <f>IF(AND(ISNUMBER(T40),ISNUMBER(T41)),VLOOKUP(ABS(T40-T41),'IMP Table'!$A$2:$C$26,3)*SIGN(T40-T41),0)</f>
+        <v/>
+      </c>
+      <c r="AF40">
+        <f>IF(AND(ISNUMBER(T40),ISNUMBER(T42)),VLOOKUP(ABS(T40-T42),'IMP Table'!$A$2:$C$26,3)*SIGN(T40-T42),0)</f>
         <v/>
       </c>
     </row>
@@ -5709,84 +5871,88 @@
         <f>IF(ISBLANK('By Round'!K45),"",'By Round'!K45)</f>
         <v/>
       </c>
-      <c r="L41" s="16">
-        <f>AVERAGE(Z41:AB41)</f>
-        <v/>
-      </c>
-      <c r="M41" s="7">
-        <f>AVERAGE(AC41:AE41)</f>
-        <v/>
-      </c>
-      <c r="N41" s="6">
-        <f>IF(COUNT(T41:V41)&gt;0,P41/COUNT(T41:V41),0.5)</f>
+      <c r="L41">
+        <f>IF(ISBLANK('By Round'!L45),"",'By Round'!L45)</f>
+        <v/>
+      </c>
+      <c r="M41" s="16">
+        <f>AVERAGE(AA41:AC41)</f>
+        <v/>
+      </c>
+      <c r="N41" s="7">
+        <f>AVERAGE(AD41:AF41)</f>
         <v/>
       </c>
       <c r="O41" s="6">
-        <f>IF(COUNT(W41:Y41)&gt;0,Q41/COUNT(W41:Y41),0.5)</f>
-        <v/>
-      </c>
-      <c r="P41" s="17">
-        <f>SUM(T41:V41)</f>
+        <f>IF(COUNT(U41:W41)&gt;0,Q41/COUNT(U41:W41),0.5)</f>
+        <v/>
+      </c>
+      <c r="P41" s="6">
+        <f>IF(COUNT(X41:Z41)&gt;0,R41/COUNT(X41:Z41),0.5)</f>
         <v/>
       </c>
       <c r="Q41" s="17">
-        <f>SUM(W41:Y41)</f>
-        <v/>
-      </c>
-      <c r="R41" s="18">
-        <f>IF(ISNUMBER(J41),J41,IF(ISNUMBER(K41),-K41,""))</f>
-        <v/>
-      </c>
-      <c r="S41">
-        <f>IF(ISNUMBER(K41),K41,IF(ISNUMBER(J41),-J41,""))</f>
-        <v/>
-      </c>
-      <c r="T41" s="18">
-        <f>IF(ISNUMBER(R41),IF(ISNUMBER(R39),IF(R41&gt;R39,1.0,IF(R41=R39,0.5,0.0)),""),"")</f>
-        <v/>
-      </c>
-      <c r="U41">
-        <f>IF(ISNUMBER(R41),IF(ISNUMBER(R40),IF(R41&gt;R40,1.0,IF(R41=R40,0.5,0.0)),""),"")</f>
+        <f>SUM(U41:W41)</f>
+        <v/>
+      </c>
+      <c r="R41" s="17">
+        <f>SUM(X41:Z41)</f>
+        <v/>
+      </c>
+      <c r="S41" s="18">
+        <f>IF(ISNUMBER(K41),K41,IF(ISNUMBER(L41),-L41,""))</f>
+        <v/>
+      </c>
+      <c r="T41">
+        <f>IF(ISNUMBER(L41),L41,IF(ISNUMBER(K41),-K41,""))</f>
+        <v/>
+      </c>
+      <c r="U41" s="18">
+        <f>IF(ISNUMBER(S41),IF(ISNUMBER(S39),IF(S41&gt;S39,1.0,IF(S41=S39,0.5,0.0)),""),"")</f>
         <v/>
       </c>
       <c r="V41">
-        <f>IF(ISNUMBER(R41),IF(ISNUMBER(R42),IF(R41&gt;R42,1.0,IF(R41=R42,0.5,0.0)),""),"")</f>
+        <f>IF(ISNUMBER(S41),IF(ISNUMBER(S40),IF(S41&gt;S40,1.0,IF(S41=S40,0.5,0.0)),""),"")</f>
         <v/>
       </c>
       <c r="W41">
-        <f>IF(ISNUMBER(S41),IF(ISNUMBER(S39),IF(S41&gt;S39,1.0,IF(S41=S39,0.5,0.0)),""),"")</f>
+        <f>IF(ISNUMBER(S41),IF(ISNUMBER(S42),IF(S41&gt;S42,1.0,IF(S41=S42,0.5,0.0)),""),"")</f>
         <v/>
       </c>
       <c r="X41">
-        <f>IF(ISNUMBER(S41),IF(ISNUMBER(S40),IF(S41&gt;S40,1.0,IF(S41=S40,0.5,0.0)),""),"")</f>
+        <f>IF(ISNUMBER(T41),IF(ISNUMBER(T39),IF(T41&gt;T39,1.0,IF(T41=T39,0.5,0.0)),""),"")</f>
         <v/>
       </c>
       <c r="Y41">
-        <f>IF(ISNUMBER(S41),IF(ISNUMBER(S42),IF(S41&gt;S42,1.0,IF(S41=S42,0.5,0.0)),""),"")</f>
-        <v/>
-      </c>
-      <c r="Z41" s="18">
-        <f>IF(AND(ISNUMBER(R41),ISNUMBER(R39)),VLOOKUP(ABS(R41-R39),'IMP Table'!$A$2:$C$26,3)*SIGN(R41-R39),0)</f>
-        <v/>
-      </c>
-      <c r="AA41">
-        <f>IF(AND(ISNUMBER(R41),ISNUMBER(R40)),VLOOKUP(ABS(R41-R40),'IMP Table'!$A$2:$C$26,3)*SIGN(R41-R40),0)</f>
+        <f>IF(ISNUMBER(T41),IF(ISNUMBER(T40),IF(T41&gt;T40,1.0,IF(T41=T40,0.5,0.0)),""),"")</f>
+        <v/>
+      </c>
+      <c r="Z41">
+        <f>IF(ISNUMBER(T41),IF(ISNUMBER(T42),IF(T41&gt;T42,1.0,IF(T41=T42,0.5,0.0)),""),"")</f>
+        <v/>
+      </c>
+      <c r="AA41" s="18">
+        <f>IF(AND(ISNUMBER(S41),ISNUMBER(S39)),VLOOKUP(ABS(S41-S39),'IMP Table'!$A$2:$C$26,3)*SIGN(S41-S39),0)</f>
         <v/>
       </c>
       <c r="AB41">
-        <f>IF(AND(ISNUMBER(R41),ISNUMBER(R42)),VLOOKUP(ABS(R41-R42),'IMP Table'!$A$2:$C$26,3)*SIGN(R41-R42),0)</f>
+        <f>IF(AND(ISNUMBER(S41),ISNUMBER(S40)),VLOOKUP(ABS(S41-S40),'IMP Table'!$A$2:$C$26,3)*SIGN(S41-S40),0)</f>
         <v/>
       </c>
       <c r="AC41">
-        <f>IF(AND(ISNUMBER(S41),ISNUMBER(S39)),VLOOKUP(ABS(S41-S39),'IMP Table'!$A$2:$C$26,3)*SIGN(S41-S39),0)</f>
+        <f>IF(AND(ISNUMBER(S41),ISNUMBER(S42)),VLOOKUP(ABS(S41-S42),'IMP Table'!$A$2:$C$26,3)*SIGN(S41-S42),0)</f>
         <v/>
       </c>
       <c r="AD41">
-        <f>IF(AND(ISNUMBER(S41),ISNUMBER(S40)),VLOOKUP(ABS(S41-S40),'IMP Table'!$A$2:$C$26,3)*SIGN(S41-S40),0)</f>
+        <f>IF(AND(ISNUMBER(T41),ISNUMBER(T39)),VLOOKUP(ABS(T41-T39),'IMP Table'!$A$2:$C$26,3)*SIGN(T41-T39),0)</f>
         <v/>
       </c>
       <c r="AE41">
-        <f>IF(AND(ISNUMBER(S41),ISNUMBER(S42)),VLOOKUP(ABS(S41-S42),'IMP Table'!$A$2:$C$26,3)*SIGN(S41-S42),0)</f>
+        <f>IF(AND(ISNUMBER(T41),ISNUMBER(T40)),VLOOKUP(ABS(T41-T40),'IMP Table'!$A$2:$C$26,3)*SIGN(T41-T40),0)</f>
+        <v/>
+      </c>
+      <c r="AF41">
+        <f>IF(AND(ISNUMBER(T41),ISNUMBER(T42)),VLOOKUP(ABS(T41-T42),'IMP Table'!$A$2:$C$26,3)*SIGN(T41-T42),0)</f>
         <v/>
       </c>
     </row>
@@ -5832,84 +5998,88 @@
         <f>IF(ISBLANK('By Round'!K12),"",'By Round'!K12)</f>
         <v/>
       </c>
-      <c r="L42" s="20">
-        <f>AVERAGE(Z42:AB42)</f>
-        <v/>
-      </c>
-      <c r="M42" s="21">
-        <f>AVERAGE(AC42:AE42)</f>
-        <v/>
-      </c>
-      <c r="N42" s="22">
-        <f>IF(COUNT(T42:V42)&gt;0,P42/COUNT(T42:V42),0.5)</f>
+      <c r="L42" s="9">
+        <f>IF(ISBLANK('By Round'!L12),"",'By Round'!L12)</f>
+        <v/>
+      </c>
+      <c r="M42" s="20">
+        <f>AVERAGE(AA42:AC42)</f>
+        <v/>
+      </c>
+      <c r="N42" s="21">
+        <f>AVERAGE(AD42:AF42)</f>
         <v/>
       </c>
       <c r="O42" s="22">
-        <f>IF(COUNT(W42:Y42)&gt;0,Q42/COUNT(W42:Y42),0.5)</f>
-        <v/>
-      </c>
-      <c r="P42" s="23">
-        <f>SUM(T42:V42)</f>
+        <f>IF(COUNT(U42:W42)&gt;0,Q42/COUNT(U42:W42),0.5)</f>
+        <v/>
+      </c>
+      <c r="P42" s="22">
+        <f>IF(COUNT(X42:Z42)&gt;0,R42/COUNT(X42:Z42),0.5)</f>
         <v/>
       </c>
       <c r="Q42" s="23">
-        <f>SUM(W42:Y42)</f>
-        <v/>
-      </c>
-      <c r="R42" s="24">
-        <f>IF(ISNUMBER(J42),J42,IF(ISNUMBER(K42),-K42,""))</f>
-        <v/>
-      </c>
-      <c r="S42" s="9">
-        <f>IF(ISNUMBER(K42),K42,IF(ISNUMBER(J42),-J42,""))</f>
-        <v/>
-      </c>
-      <c r="T42" s="24">
-        <f>IF(ISNUMBER(R42),IF(ISNUMBER(R39),IF(R42&gt;R39,1.0,IF(R42=R39,0.5,0.0)),""),"")</f>
-        <v/>
-      </c>
-      <c r="U42" s="9">
-        <f>IF(ISNUMBER(R42),IF(ISNUMBER(R40),IF(R42&gt;R40,1.0,IF(R42=R40,0.5,0.0)),""),"")</f>
+        <f>SUM(U42:W42)</f>
+        <v/>
+      </c>
+      <c r="R42" s="23">
+        <f>SUM(X42:Z42)</f>
+        <v/>
+      </c>
+      <c r="S42" s="24">
+        <f>IF(ISNUMBER(K42),K42,IF(ISNUMBER(L42),-L42,""))</f>
+        <v/>
+      </c>
+      <c r="T42" s="9">
+        <f>IF(ISNUMBER(L42),L42,IF(ISNUMBER(K42),-K42,""))</f>
+        <v/>
+      </c>
+      <c r="U42" s="24">
+        <f>IF(ISNUMBER(S42),IF(ISNUMBER(S39),IF(S42&gt;S39,1.0,IF(S42=S39,0.5,0.0)),""),"")</f>
         <v/>
       </c>
       <c r="V42" s="9">
-        <f>IF(ISNUMBER(R42),IF(ISNUMBER(R41),IF(R42&gt;R41,1.0,IF(R42=R41,0.5,0.0)),""),"")</f>
+        <f>IF(ISNUMBER(S42),IF(ISNUMBER(S40),IF(S42&gt;S40,1.0,IF(S42=S40,0.5,0.0)),""),"")</f>
         <v/>
       </c>
       <c r="W42" s="9">
-        <f>IF(ISNUMBER(S42),IF(ISNUMBER(S39),IF(S42&gt;S39,1.0,IF(S42=S39,0.5,0.0)),""),"")</f>
+        <f>IF(ISNUMBER(S42),IF(ISNUMBER(S41),IF(S42&gt;S41,1.0,IF(S42=S41,0.5,0.0)),""),"")</f>
         <v/>
       </c>
       <c r="X42" s="9">
-        <f>IF(ISNUMBER(S42),IF(ISNUMBER(S40),IF(S42&gt;S40,1.0,IF(S42=S40,0.5,0.0)),""),"")</f>
+        <f>IF(ISNUMBER(T42),IF(ISNUMBER(T39),IF(T42&gt;T39,1.0,IF(T42=T39,0.5,0.0)),""),"")</f>
         <v/>
       </c>
       <c r="Y42" s="9">
-        <f>IF(ISNUMBER(S42),IF(ISNUMBER(S41),IF(S42&gt;S41,1.0,IF(S42=S41,0.5,0.0)),""),"")</f>
-        <v/>
-      </c>
-      <c r="Z42" s="24">
-        <f>IF(AND(ISNUMBER(R42),ISNUMBER(R39)),VLOOKUP(ABS(R42-R39),'IMP Table'!$A$2:$C$26,3)*SIGN(R42-R39),0)</f>
-        <v/>
-      </c>
-      <c r="AA42" s="9">
-        <f>IF(AND(ISNUMBER(R42),ISNUMBER(R40)),VLOOKUP(ABS(R42-R40),'IMP Table'!$A$2:$C$26,3)*SIGN(R42-R40),0)</f>
+        <f>IF(ISNUMBER(T42),IF(ISNUMBER(T40),IF(T42&gt;T40,1.0,IF(T42=T40,0.5,0.0)),""),"")</f>
+        <v/>
+      </c>
+      <c r="Z42" s="9">
+        <f>IF(ISNUMBER(T42),IF(ISNUMBER(T41),IF(T42&gt;T41,1.0,IF(T42=T41,0.5,0.0)),""),"")</f>
+        <v/>
+      </c>
+      <c r="AA42" s="24">
+        <f>IF(AND(ISNUMBER(S42),ISNUMBER(S39)),VLOOKUP(ABS(S42-S39),'IMP Table'!$A$2:$C$26,3)*SIGN(S42-S39),0)</f>
         <v/>
       </c>
       <c r="AB42" s="9">
-        <f>IF(AND(ISNUMBER(R42),ISNUMBER(R41)),VLOOKUP(ABS(R42-R41),'IMP Table'!$A$2:$C$26,3)*SIGN(R42-R41),0)</f>
+        <f>IF(AND(ISNUMBER(S42),ISNUMBER(S40)),VLOOKUP(ABS(S42-S40),'IMP Table'!$A$2:$C$26,3)*SIGN(S42-S40),0)</f>
         <v/>
       </c>
       <c r="AC42" s="9">
-        <f>IF(AND(ISNUMBER(S42),ISNUMBER(S39)),VLOOKUP(ABS(S42-S39),'IMP Table'!$A$2:$C$26,3)*SIGN(S42-S39),0)</f>
+        <f>IF(AND(ISNUMBER(S42),ISNUMBER(S41)),VLOOKUP(ABS(S42-S41),'IMP Table'!$A$2:$C$26,3)*SIGN(S42-S41),0)</f>
         <v/>
       </c>
       <c r="AD42" s="9">
-        <f>IF(AND(ISNUMBER(S42),ISNUMBER(S40)),VLOOKUP(ABS(S42-S40),'IMP Table'!$A$2:$C$26,3)*SIGN(S42-S40),0)</f>
+        <f>IF(AND(ISNUMBER(T42),ISNUMBER(T39)),VLOOKUP(ABS(T42-T39),'IMP Table'!$A$2:$C$26,3)*SIGN(T42-T39),0)</f>
         <v/>
       </c>
       <c r="AE42" s="9">
-        <f>IF(AND(ISNUMBER(S42),ISNUMBER(S41)),VLOOKUP(ABS(S42-S41),'IMP Table'!$A$2:$C$26,3)*SIGN(S42-S41),0)</f>
+        <f>IF(AND(ISNUMBER(T42),ISNUMBER(T40)),VLOOKUP(ABS(T42-T40),'IMP Table'!$A$2:$C$26,3)*SIGN(T42-T40),0)</f>
+        <v/>
+      </c>
+      <c r="AF42" s="9">
+        <f>IF(AND(ISNUMBER(T42),ISNUMBER(T41)),VLOOKUP(ABS(T42-T41),'IMP Table'!$A$2:$C$26,3)*SIGN(T42-T41),0)</f>
         <v/>
       </c>
     </row>
@@ -5957,84 +6127,88 @@
         <f>IF(ISBLANK('By Round'!K16),"",'By Round'!K16)</f>
         <v/>
       </c>
-      <c r="L43" s="16">
-        <f>AVERAGE(Z43:AB43)</f>
-        <v/>
-      </c>
-      <c r="M43" s="7">
-        <f>AVERAGE(AC43:AE43)</f>
-        <v/>
-      </c>
-      <c r="N43" s="6">
-        <f>IF(COUNT(T43:V43)&gt;0,P43/COUNT(T43:V43),0.5)</f>
+      <c r="L43">
+        <f>IF(ISBLANK('By Round'!L16),"",'By Round'!L16)</f>
+        <v/>
+      </c>
+      <c r="M43" s="16">
+        <f>AVERAGE(AA43:AC43)</f>
+        <v/>
+      </c>
+      <c r="N43" s="7">
+        <f>AVERAGE(AD43:AF43)</f>
         <v/>
       </c>
       <c r="O43" s="6">
-        <f>IF(COUNT(W43:Y43)&gt;0,Q43/COUNT(W43:Y43),0.5)</f>
-        <v/>
-      </c>
-      <c r="P43" s="17">
-        <f>SUM(T43:V43)</f>
+        <f>IF(COUNT(U43:W43)&gt;0,Q43/COUNT(U43:W43),0.5)</f>
+        <v/>
+      </c>
+      <c r="P43" s="6">
+        <f>IF(COUNT(X43:Z43)&gt;0,R43/COUNT(X43:Z43),0.5)</f>
         <v/>
       </c>
       <c r="Q43" s="17">
-        <f>SUM(W43:Y43)</f>
-        <v/>
-      </c>
-      <c r="R43" s="18">
-        <f>IF(ISNUMBER(J43),J43,IF(ISNUMBER(K43),-K43,""))</f>
-        <v/>
-      </c>
-      <c r="S43">
-        <f>IF(ISNUMBER(K43),K43,IF(ISNUMBER(J43),-J43,""))</f>
-        <v/>
-      </c>
-      <c r="T43" s="18">
-        <f>IF(ISNUMBER(R43),IF(ISNUMBER(R44),IF(R43&gt;R44,1.0,IF(R43=R44,0.5,0.0)),""),"")</f>
-        <v/>
-      </c>
-      <c r="U43">
-        <f>IF(ISNUMBER(R43),IF(ISNUMBER(R45),IF(R43&gt;R45,1.0,IF(R43=R45,0.5,0.0)),""),"")</f>
+        <f>SUM(U43:W43)</f>
+        <v/>
+      </c>
+      <c r="R43" s="17">
+        <f>SUM(X43:Z43)</f>
+        <v/>
+      </c>
+      <c r="S43" s="18">
+        <f>IF(ISNUMBER(K43),K43,IF(ISNUMBER(L43),-L43,""))</f>
+        <v/>
+      </c>
+      <c r="T43">
+        <f>IF(ISNUMBER(L43),L43,IF(ISNUMBER(K43),-K43,""))</f>
+        <v/>
+      </c>
+      <c r="U43" s="18">
+        <f>IF(ISNUMBER(S43),IF(ISNUMBER(S44),IF(S43&gt;S44,1.0,IF(S43=S44,0.5,0.0)),""),"")</f>
         <v/>
       </c>
       <c r="V43">
-        <f>IF(ISNUMBER(R43),IF(ISNUMBER(R46),IF(R43&gt;R46,1.0,IF(R43=R46,0.5,0.0)),""),"")</f>
+        <f>IF(ISNUMBER(S43),IF(ISNUMBER(S45),IF(S43&gt;S45,1.0,IF(S43=S45,0.5,0.0)),""),"")</f>
         <v/>
       </c>
       <c r="W43">
-        <f>IF(ISNUMBER(S43),IF(ISNUMBER(S44),IF(S43&gt;S44,1.0,IF(S43=S44,0.5,0.0)),""),"")</f>
+        <f>IF(ISNUMBER(S43),IF(ISNUMBER(S46),IF(S43&gt;S46,1.0,IF(S43=S46,0.5,0.0)),""),"")</f>
         <v/>
       </c>
       <c r="X43">
-        <f>IF(ISNUMBER(S43),IF(ISNUMBER(S45),IF(S43&gt;S45,1.0,IF(S43=S45,0.5,0.0)),""),"")</f>
+        <f>IF(ISNUMBER(T43),IF(ISNUMBER(T44),IF(T43&gt;T44,1.0,IF(T43=T44,0.5,0.0)),""),"")</f>
         <v/>
       </c>
       <c r="Y43">
-        <f>IF(ISNUMBER(S43),IF(ISNUMBER(S46),IF(S43&gt;S46,1.0,IF(S43=S46,0.5,0.0)),""),"")</f>
-        <v/>
-      </c>
-      <c r="Z43" s="18">
-        <f>IF(AND(ISNUMBER(R43),ISNUMBER(R44)),VLOOKUP(ABS(R43-R44),'IMP Table'!$A$2:$C$26,3)*SIGN(R43-R44),0)</f>
-        <v/>
-      </c>
-      <c r="AA43">
-        <f>IF(AND(ISNUMBER(R43),ISNUMBER(R45)),VLOOKUP(ABS(R43-R45),'IMP Table'!$A$2:$C$26,3)*SIGN(R43-R45),0)</f>
+        <f>IF(ISNUMBER(T43),IF(ISNUMBER(T45),IF(T43&gt;T45,1.0,IF(T43=T45,0.5,0.0)),""),"")</f>
+        <v/>
+      </c>
+      <c r="Z43">
+        <f>IF(ISNUMBER(T43),IF(ISNUMBER(T46),IF(T43&gt;T46,1.0,IF(T43=T46,0.5,0.0)),""),"")</f>
+        <v/>
+      </c>
+      <c r="AA43" s="18">
+        <f>IF(AND(ISNUMBER(S43),ISNUMBER(S44)),VLOOKUP(ABS(S43-S44),'IMP Table'!$A$2:$C$26,3)*SIGN(S43-S44),0)</f>
         <v/>
       </c>
       <c r="AB43">
-        <f>IF(AND(ISNUMBER(R43),ISNUMBER(R46)),VLOOKUP(ABS(R43-R46),'IMP Table'!$A$2:$C$26,3)*SIGN(R43-R46),0)</f>
+        <f>IF(AND(ISNUMBER(S43),ISNUMBER(S45)),VLOOKUP(ABS(S43-S45),'IMP Table'!$A$2:$C$26,3)*SIGN(S43-S45),0)</f>
         <v/>
       </c>
       <c r="AC43">
-        <f>IF(AND(ISNUMBER(S43),ISNUMBER(S44)),VLOOKUP(ABS(S43-S44),'IMP Table'!$A$2:$C$26,3)*SIGN(S43-S44),0)</f>
+        <f>IF(AND(ISNUMBER(S43),ISNUMBER(S46)),VLOOKUP(ABS(S43-S46),'IMP Table'!$A$2:$C$26,3)*SIGN(S43-S46),0)</f>
         <v/>
       </c>
       <c r="AD43">
-        <f>IF(AND(ISNUMBER(S43),ISNUMBER(S45)),VLOOKUP(ABS(S43-S45),'IMP Table'!$A$2:$C$26,3)*SIGN(S43-S45),0)</f>
+        <f>IF(AND(ISNUMBER(T43),ISNUMBER(T44)),VLOOKUP(ABS(T43-T44),'IMP Table'!$A$2:$C$26,3)*SIGN(T43-T44),0)</f>
         <v/>
       </c>
       <c r="AE43">
-        <f>IF(AND(ISNUMBER(S43),ISNUMBER(S46)),VLOOKUP(ABS(S43-S46),'IMP Table'!$A$2:$C$26,3)*SIGN(S43-S46),0)</f>
+        <f>IF(AND(ISNUMBER(T43),ISNUMBER(T45)),VLOOKUP(ABS(T43-T45),'IMP Table'!$A$2:$C$26,3)*SIGN(T43-T45),0)</f>
+        <v/>
+      </c>
+      <c r="AF43">
+        <f>IF(AND(ISNUMBER(T43),ISNUMBER(T46)),VLOOKUP(ABS(T43-T46),'IMP Table'!$A$2:$C$26,3)*SIGN(T43-T46),0)</f>
         <v/>
       </c>
     </row>
@@ -6079,84 +6253,88 @@
         <f>IF(ISBLANK('By Round'!K31),"",'By Round'!K31)</f>
         <v/>
       </c>
-      <c r="L44" s="16">
-        <f>AVERAGE(Z44:AB44)</f>
-        <v/>
-      </c>
-      <c r="M44" s="7">
-        <f>AVERAGE(AC44:AE44)</f>
-        <v/>
-      </c>
-      <c r="N44" s="6">
-        <f>IF(COUNT(T44:V44)&gt;0,P44/COUNT(T44:V44),0.5)</f>
+      <c r="L44">
+        <f>IF(ISBLANK('By Round'!L31),"",'By Round'!L31)</f>
+        <v/>
+      </c>
+      <c r="M44" s="16">
+        <f>AVERAGE(AA44:AC44)</f>
+        <v/>
+      </c>
+      <c r="N44" s="7">
+        <f>AVERAGE(AD44:AF44)</f>
         <v/>
       </c>
       <c r="O44" s="6">
-        <f>IF(COUNT(W44:Y44)&gt;0,Q44/COUNT(W44:Y44),0.5)</f>
-        <v/>
-      </c>
-      <c r="P44" s="17">
-        <f>SUM(T44:V44)</f>
+        <f>IF(COUNT(U44:W44)&gt;0,Q44/COUNT(U44:W44),0.5)</f>
+        <v/>
+      </c>
+      <c r="P44" s="6">
+        <f>IF(COUNT(X44:Z44)&gt;0,R44/COUNT(X44:Z44),0.5)</f>
         <v/>
       </c>
       <c r="Q44" s="17">
-        <f>SUM(W44:Y44)</f>
-        <v/>
-      </c>
-      <c r="R44" s="18">
-        <f>IF(ISNUMBER(J44),J44,IF(ISNUMBER(K44),-K44,""))</f>
-        <v/>
-      </c>
-      <c r="S44">
-        <f>IF(ISNUMBER(K44),K44,IF(ISNUMBER(J44),-J44,""))</f>
-        <v/>
-      </c>
-      <c r="T44" s="18">
-        <f>IF(ISNUMBER(R44),IF(ISNUMBER(R43),IF(R44&gt;R43,1.0,IF(R44=R43,0.5,0.0)),""),"")</f>
-        <v/>
-      </c>
-      <c r="U44">
-        <f>IF(ISNUMBER(R44),IF(ISNUMBER(R45),IF(R44&gt;R45,1.0,IF(R44=R45,0.5,0.0)),""),"")</f>
+        <f>SUM(U44:W44)</f>
+        <v/>
+      </c>
+      <c r="R44" s="17">
+        <f>SUM(X44:Z44)</f>
+        <v/>
+      </c>
+      <c r="S44" s="18">
+        <f>IF(ISNUMBER(K44),K44,IF(ISNUMBER(L44),-L44,""))</f>
+        <v/>
+      </c>
+      <c r="T44">
+        <f>IF(ISNUMBER(L44),L44,IF(ISNUMBER(K44),-K44,""))</f>
+        <v/>
+      </c>
+      <c r="U44" s="18">
+        <f>IF(ISNUMBER(S44),IF(ISNUMBER(S43),IF(S44&gt;S43,1.0,IF(S44=S43,0.5,0.0)),""),"")</f>
         <v/>
       </c>
       <c r="V44">
-        <f>IF(ISNUMBER(R44),IF(ISNUMBER(R46),IF(R44&gt;R46,1.0,IF(R44=R46,0.5,0.0)),""),"")</f>
+        <f>IF(ISNUMBER(S44),IF(ISNUMBER(S45),IF(S44&gt;S45,1.0,IF(S44=S45,0.5,0.0)),""),"")</f>
         <v/>
       </c>
       <c r="W44">
-        <f>IF(ISNUMBER(S44),IF(ISNUMBER(S43),IF(S44&gt;S43,1.0,IF(S44=S43,0.5,0.0)),""),"")</f>
+        <f>IF(ISNUMBER(S44),IF(ISNUMBER(S46),IF(S44&gt;S46,1.0,IF(S44=S46,0.5,0.0)),""),"")</f>
         <v/>
       </c>
       <c r="X44">
-        <f>IF(ISNUMBER(S44),IF(ISNUMBER(S45),IF(S44&gt;S45,1.0,IF(S44=S45,0.5,0.0)),""),"")</f>
+        <f>IF(ISNUMBER(T44),IF(ISNUMBER(T43),IF(T44&gt;T43,1.0,IF(T44=T43,0.5,0.0)),""),"")</f>
         <v/>
       </c>
       <c r="Y44">
-        <f>IF(ISNUMBER(S44),IF(ISNUMBER(S46),IF(S44&gt;S46,1.0,IF(S44=S46,0.5,0.0)),""),"")</f>
-        <v/>
-      </c>
-      <c r="Z44" s="18">
-        <f>IF(AND(ISNUMBER(R44),ISNUMBER(R43)),VLOOKUP(ABS(R44-R43),'IMP Table'!$A$2:$C$26,3)*SIGN(R44-R43),0)</f>
-        <v/>
-      </c>
-      <c r="AA44">
-        <f>IF(AND(ISNUMBER(R44),ISNUMBER(R45)),VLOOKUP(ABS(R44-R45),'IMP Table'!$A$2:$C$26,3)*SIGN(R44-R45),0)</f>
+        <f>IF(ISNUMBER(T44),IF(ISNUMBER(T45),IF(T44&gt;T45,1.0,IF(T44=T45,0.5,0.0)),""),"")</f>
+        <v/>
+      </c>
+      <c r="Z44">
+        <f>IF(ISNUMBER(T44),IF(ISNUMBER(T46),IF(T44&gt;T46,1.0,IF(T44=T46,0.5,0.0)),""),"")</f>
+        <v/>
+      </c>
+      <c r="AA44" s="18">
+        <f>IF(AND(ISNUMBER(S44),ISNUMBER(S43)),VLOOKUP(ABS(S44-S43),'IMP Table'!$A$2:$C$26,3)*SIGN(S44-S43),0)</f>
         <v/>
       </c>
       <c r="AB44">
-        <f>IF(AND(ISNUMBER(R44),ISNUMBER(R46)),VLOOKUP(ABS(R44-R46),'IMP Table'!$A$2:$C$26,3)*SIGN(R44-R46),0)</f>
+        <f>IF(AND(ISNUMBER(S44),ISNUMBER(S45)),VLOOKUP(ABS(S44-S45),'IMP Table'!$A$2:$C$26,3)*SIGN(S44-S45),0)</f>
         <v/>
       </c>
       <c r="AC44">
-        <f>IF(AND(ISNUMBER(S44),ISNUMBER(S43)),VLOOKUP(ABS(S44-S43),'IMP Table'!$A$2:$C$26,3)*SIGN(S44-S43),0)</f>
+        <f>IF(AND(ISNUMBER(S44),ISNUMBER(S46)),VLOOKUP(ABS(S44-S46),'IMP Table'!$A$2:$C$26,3)*SIGN(S44-S46),0)</f>
         <v/>
       </c>
       <c r="AD44">
-        <f>IF(AND(ISNUMBER(S44),ISNUMBER(S45)),VLOOKUP(ABS(S44-S45),'IMP Table'!$A$2:$C$26,3)*SIGN(S44-S45),0)</f>
+        <f>IF(AND(ISNUMBER(T44),ISNUMBER(T43)),VLOOKUP(ABS(T44-T43),'IMP Table'!$A$2:$C$26,3)*SIGN(T44-T43),0)</f>
         <v/>
       </c>
       <c r="AE44">
-        <f>IF(AND(ISNUMBER(S44),ISNUMBER(S46)),VLOOKUP(ABS(S44-S46),'IMP Table'!$A$2:$C$26,3)*SIGN(S44-S46),0)</f>
+        <f>IF(AND(ISNUMBER(T44),ISNUMBER(T45)),VLOOKUP(ABS(T44-T45),'IMP Table'!$A$2:$C$26,3)*SIGN(T44-T45),0)</f>
+        <v/>
+      </c>
+      <c r="AF44">
+        <f>IF(AND(ISNUMBER(T44),ISNUMBER(T46)),VLOOKUP(ABS(T44-T46),'IMP Table'!$A$2:$C$26,3)*SIGN(T44-T46),0)</f>
         <v/>
       </c>
     </row>
@@ -6201,84 +6379,88 @@
         <f>IF(ISBLANK('By Round'!K46),"",'By Round'!K46)</f>
         <v/>
       </c>
-      <c r="L45" s="16">
-        <f>AVERAGE(Z45:AB45)</f>
-        <v/>
-      </c>
-      <c r="M45" s="7">
-        <f>AVERAGE(AC45:AE45)</f>
-        <v/>
-      </c>
-      <c r="N45" s="6">
-        <f>IF(COUNT(T45:V45)&gt;0,P45/COUNT(T45:V45),0.5)</f>
+      <c r="L45">
+        <f>IF(ISBLANK('By Round'!L46),"",'By Round'!L46)</f>
+        <v/>
+      </c>
+      <c r="M45" s="16">
+        <f>AVERAGE(AA45:AC45)</f>
+        <v/>
+      </c>
+      <c r="N45" s="7">
+        <f>AVERAGE(AD45:AF45)</f>
         <v/>
       </c>
       <c r="O45" s="6">
-        <f>IF(COUNT(W45:Y45)&gt;0,Q45/COUNT(W45:Y45),0.5)</f>
-        <v/>
-      </c>
-      <c r="P45" s="17">
-        <f>SUM(T45:V45)</f>
+        <f>IF(COUNT(U45:W45)&gt;0,Q45/COUNT(U45:W45),0.5)</f>
+        <v/>
+      </c>
+      <c r="P45" s="6">
+        <f>IF(COUNT(X45:Z45)&gt;0,R45/COUNT(X45:Z45),0.5)</f>
         <v/>
       </c>
       <c r="Q45" s="17">
-        <f>SUM(W45:Y45)</f>
-        <v/>
-      </c>
-      <c r="R45" s="18">
-        <f>IF(ISNUMBER(J45),J45,IF(ISNUMBER(K45),-K45,""))</f>
-        <v/>
-      </c>
-      <c r="S45">
-        <f>IF(ISNUMBER(K45),K45,IF(ISNUMBER(J45),-J45,""))</f>
-        <v/>
-      </c>
-      <c r="T45" s="18">
-        <f>IF(ISNUMBER(R45),IF(ISNUMBER(R43),IF(R45&gt;R43,1.0,IF(R45=R43,0.5,0.0)),""),"")</f>
-        <v/>
-      </c>
-      <c r="U45">
-        <f>IF(ISNUMBER(R45),IF(ISNUMBER(R44),IF(R45&gt;R44,1.0,IF(R45=R44,0.5,0.0)),""),"")</f>
+        <f>SUM(U45:W45)</f>
+        <v/>
+      </c>
+      <c r="R45" s="17">
+        <f>SUM(X45:Z45)</f>
+        <v/>
+      </c>
+      <c r="S45" s="18">
+        <f>IF(ISNUMBER(K45),K45,IF(ISNUMBER(L45),-L45,""))</f>
+        <v/>
+      </c>
+      <c r="T45">
+        <f>IF(ISNUMBER(L45),L45,IF(ISNUMBER(K45),-K45,""))</f>
+        <v/>
+      </c>
+      <c r="U45" s="18">
+        <f>IF(ISNUMBER(S45),IF(ISNUMBER(S43),IF(S45&gt;S43,1.0,IF(S45=S43,0.5,0.0)),""),"")</f>
         <v/>
       </c>
       <c r="V45">
-        <f>IF(ISNUMBER(R45),IF(ISNUMBER(R46),IF(R45&gt;R46,1.0,IF(R45=R46,0.5,0.0)),""),"")</f>
+        <f>IF(ISNUMBER(S45),IF(ISNUMBER(S44),IF(S45&gt;S44,1.0,IF(S45=S44,0.5,0.0)),""),"")</f>
         <v/>
       </c>
       <c r="W45">
-        <f>IF(ISNUMBER(S45),IF(ISNUMBER(S43),IF(S45&gt;S43,1.0,IF(S45=S43,0.5,0.0)),""),"")</f>
+        <f>IF(ISNUMBER(S45),IF(ISNUMBER(S46),IF(S45&gt;S46,1.0,IF(S45=S46,0.5,0.0)),""),"")</f>
         <v/>
       </c>
       <c r="X45">
-        <f>IF(ISNUMBER(S45),IF(ISNUMBER(S44),IF(S45&gt;S44,1.0,IF(S45=S44,0.5,0.0)),""),"")</f>
+        <f>IF(ISNUMBER(T45),IF(ISNUMBER(T43),IF(T45&gt;T43,1.0,IF(T45=T43,0.5,0.0)),""),"")</f>
         <v/>
       </c>
       <c r="Y45">
-        <f>IF(ISNUMBER(S45),IF(ISNUMBER(S46),IF(S45&gt;S46,1.0,IF(S45=S46,0.5,0.0)),""),"")</f>
-        <v/>
-      </c>
-      <c r="Z45" s="18">
-        <f>IF(AND(ISNUMBER(R45),ISNUMBER(R43)),VLOOKUP(ABS(R45-R43),'IMP Table'!$A$2:$C$26,3)*SIGN(R45-R43),0)</f>
-        <v/>
-      </c>
-      <c r="AA45">
-        <f>IF(AND(ISNUMBER(R45),ISNUMBER(R44)),VLOOKUP(ABS(R45-R44),'IMP Table'!$A$2:$C$26,3)*SIGN(R45-R44),0)</f>
+        <f>IF(ISNUMBER(T45),IF(ISNUMBER(T44),IF(T45&gt;T44,1.0,IF(T45=T44,0.5,0.0)),""),"")</f>
+        <v/>
+      </c>
+      <c r="Z45">
+        <f>IF(ISNUMBER(T45),IF(ISNUMBER(T46),IF(T45&gt;T46,1.0,IF(T45=T46,0.5,0.0)),""),"")</f>
+        <v/>
+      </c>
+      <c r="AA45" s="18">
+        <f>IF(AND(ISNUMBER(S45),ISNUMBER(S43)),VLOOKUP(ABS(S45-S43),'IMP Table'!$A$2:$C$26,3)*SIGN(S45-S43),0)</f>
         <v/>
       </c>
       <c r="AB45">
-        <f>IF(AND(ISNUMBER(R45),ISNUMBER(R46)),VLOOKUP(ABS(R45-R46),'IMP Table'!$A$2:$C$26,3)*SIGN(R45-R46),0)</f>
+        <f>IF(AND(ISNUMBER(S45),ISNUMBER(S44)),VLOOKUP(ABS(S45-S44),'IMP Table'!$A$2:$C$26,3)*SIGN(S45-S44),0)</f>
         <v/>
       </c>
       <c r="AC45">
-        <f>IF(AND(ISNUMBER(S45),ISNUMBER(S43)),VLOOKUP(ABS(S45-S43),'IMP Table'!$A$2:$C$26,3)*SIGN(S45-S43),0)</f>
+        <f>IF(AND(ISNUMBER(S45),ISNUMBER(S46)),VLOOKUP(ABS(S45-S46),'IMP Table'!$A$2:$C$26,3)*SIGN(S45-S46),0)</f>
         <v/>
       </c>
       <c r="AD45">
-        <f>IF(AND(ISNUMBER(S45),ISNUMBER(S44)),VLOOKUP(ABS(S45-S44),'IMP Table'!$A$2:$C$26,3)*SIGN(S45-S44),0)</f>
+        <f>IF(AND(ISNUMBER(T45),ISNUMBER(T43)),VLOOKUP(ABS(T45-T43),'IMP Table'!$A$2:$C$26,3)*SIGN(T45-T43),0)</f>
         <v/>
       </c>
       <c r="AE45">
-        <f>IF(AND(ISNUMBER(S45),ISNUMBER(S46)),VLOOKUP(ABS(S45-S46),'IMP Table'!$A$2:$C$26,3)*SIGN(S45-S46),0)</f>
+        <f>IF(AND(ISNUMBER(T45),ISNUMBER(T44)),VLOOKUP(ABS(T45-T44),'IMP Table'!$A$2:$C$26,3)*SIGN(T45-T44),0)</f>
+        <v/>
+      </c>
+      <c r="AF45">
+        <f>IF(AND(ISNUMBER(T45),ISNUMBER(T46)),VLOOKUP(ABS(T45-T46),'IMP Table'!$A$2:$C$26,3)*SIGN(T45-T46),0)</f>
         <v/>
       </c>
     </row>
@@ -6324,84 +6506,88 @@
         <f>IF(ISBLANK('By Round'!K13),"",'By Round'!K13)</f>
         <v/>
       </c>
-      <c r="L46" s="20">
-        <f>AVERAGE(Z46:AB46)</f>
-        <v/>
-      </c>
-      <c r="M46" s="21">
-        <f>AVERAGE(AC46:AE46)</f>
-        <v/>
-      </c>
-      <c r="N46" s="22">
-        <f>IF(COUNT(T46:V46)&gt;0,P46/COUNT(T46:V46),0.5)</f>
+      <c r="L46" s="9">
+        <f>IF(ISBLANK('By Round'!L13),"",'By Round'!L13)</f>
+        <v/>
+      </c>
+      <c r="M46" s="20">
+        <f>AVERAGE(AA46:AC46)</f>
+        <v/>
+      </c>
+      <c r="N46" s="21">
+        <f>AVERAGE(AD46:AF46)</f>
         <v/>
       </c>
       <c r="O46" s="22">
-        <f>IF(COUNT(W46:Y46)&gt;0,Q46/COUNT(W46:Y46),0.5)</f>
-        <v/>
-      </c>
-      <c r="P46" s="23">
-        <f>SUM(T46:V46)</f>
+        <f>IF(COUNT(U46:W46)&gt;0,Q46/COUNT(U46:W46),0.5)</f>
+        <v/>
+      </c>
+      <c r="P46" s="22">
+        <f>IF(COUNT(X46:Z46)&gt;0,R46/COUNT(X46:Z46),0.5)</f>
         <v/>
       </c>
       <c r="Q46" s="23">
-        <f>SUM(W46:Y46)</f>
-        <v/>
-      </c>
-      <c r="R46" s="24">
-        <f>IF(ISNUMBER(J46),J46,IF(ISNUMBER(K46),-K46,""))</f>
-        <v/>
-      </c>
-      <c r="S46" s="9">
-        <f>IF(ISNUMBER(K46),K46,IF(ISNUMBER(J46),-J46,""))</f>
-        <v/>
-      </c>
-      <c r="T46" s="24">
-        <f>IF(ISNUMBER(R46),IF(ISNUMBER(R43),IF(R46&gt;R43,1.0,IF(R46=R43,0.5,0.0)),""),"")</f>
-        <v/>
-      </c>
-      <c r="U46" s="9">
-        <f>IF(ISNUMBER(R46),IF(ISNUMBER(R44),IF(R46&gt;R44,1.0,IF(R46=R44,0.5,0.0)),""),"")</f>
+        <f>SUM(U46:W46)</f>
+        <v/>
+      </c>
+      <c r="R46" s="23">
+        <f>SUM(X46:Z46)</f>
+        <v/>
+      </c>
+      <c r="S46" s="24">
+        <f>IF(ISNUMBER(K46),K46,IF(ISNUMBER(L46),-L46,""))</f>
+        <v/>
+      </c>
+      <c r="T46" s="9">
+        <f>IF(ISNUMBER(L46),L46,IF(ISNUMBER(K46),-K46,""))</f>
+        <v/>
+      </c>
+      <c r="U46" s="24">
+        <f>IF(ISNUMBER(S46),IF(ISNUMBER(S43),IF(S46&gt;S43,1.0,IF(S46=S43,0.5,0.0)),""),"")</f>
         <v/>
       </c>
       <c r="V46" s="9">
-        <f>IF(ISNUMBER(R46),IF(ISNUMBER(R45),IF(R46&gt;R45,1.0,IF(R46=R45,0.5,0.0)),""),"")</f>
+        <f>IF(ISNUMBER(S46),IF(ISNUMBER(S44),IF(S46&gt;S44,1.0,IF(S46=S44,0.5,0.0)),""),"")</f>
         <v/>
       </c>
       <c r="W46" s="9">
-        <f>IF(ISNUMBER(S46),IF(ISNUMBER(S43),IF(S46&gt;S43,1.0,IF(S46=S43,0.5,0.0)),""),"")</f>
+        <f>IF(ISNUMBER(S46),IF(ISNUMBER(S45),IF(S46&gt;S45,1.0,IF(S46=S45,0.5,0.0)),""),"")</f>
         <v/>
       </c>
       <c r="X46" s="9">
-        <f>IF(ISNUMBER(S46),IF(ISNUMBER(S44),IF(S46&gt;S44,1.0,IF(S46=S44,0.5,0.0)),""),"")</f>
+        <f>IF(ISNUMBER(T46),IF(ISNUMBER(T43),IF(T46&gt;T43,1.0,IF(T46=T43,0.5,0.0)),""),"")</f>
         <v/>
       </c>
       <c r="Y46" s="9">
-        <f>IF(ISNUMBER(S46),IF(ISNUMBER(S45),IF(S46&gt;S45,1.0,IF(S46=S45,0.5,0.0)),""),"")</f>
-        <v/>
-      </c>
-      <c r="Z46" s="24">
-        <f>IF(AND(ISNUMBER(R46),ISNUMBER(R43)),VLOOKUP(ABS(R46-R43),'IMP Table'!$A$2:$C$26,3)*SIGN(R46-R43),0)</f>
-        <v/>
-      </c>
-      <c r="AA46" s="9">
-        <f>IF(AND(ISNUMBER(R46),ISNUMBER(R44)),VLOOKUP(ABS(R46-R44),'IMP Table'!$A$2:$C$26,3)*SIGN(R46-R44),0)</f>
+        <f>IF(ISNUMBER(T46),IF(ISNUMBER(T44),IF(T46&gt;T44,1.0,IF(T46=T44,0.5,0.0)),""),"")</f>
+        <v/>
+      </c>
+      <c r="Z46" s="9">
+        <f>IF(ISNUMBER(T46),IF(ISNUMBER(T45),IF(T46&gt;T45,1.0,IF(T46=T45,0.5,0.0)),""),"")</f>
+        <v/>
+      </c>
+      <c r="AA46" s="24">
+        <f>IF(AND(ISNUMBER(S46),ISNUMBER(S43)),VLOOKUP(ABS(S46-S43),'IMP Table'!$A$2:$C$26,3)*SIGN(S46-S43),0)</f>
         <v/>
       </c>
       <c r="AB46" s="9">
-        <f>IF(AND(ISNUMBER(R46),ISNUMBER(R45)),VLOOKUP(ABS(R46-R45),'IMP Table'!$A$2:$C$26,3)*SIGN(R46-R45),0)</f>
+        <f>IF(AND(ISNUMBER(S46),ISNUMBER(S44)),VLOOKUP(ABS(S46-S44),'IMP Table'!$A$2:$C$26,3)*SIGN(S46-S44),0)</f>
         <v/>
       </c>
       <c r="AC46" s="9">
-        <f>IF(AND(ISNUMBER(S46),ISNUMBER(S43)),VLOOKUP(ABS(S46-S43),'IMP Table'!$A$2:$C$26,3)*SIGN(S46-S43),0)</f>
+        <f>IF(AND(ISNUMBER(S46),ISNUMBER(S45)),VLOOKUP(ABS(S46-S45),'IMP Table'!$A$2:$C$26,3)*SIGN(S46-S45),0)</f>
         <v/>
       </c>
       <c r="AD46" s="9">
-        <f>IF(AND(ISNUMBER(S46),ISNUMBER(S44)),VLOOKUP(ABS(S46-S44),'IMP Table'!$A$2:$C$26,3)*SIGN(S46-S44),0)</f>
+        <f>IF(AND(ISNUMBER(T46),ISNUMBER(T43)),VLOOKUP(ABS(T46-T43),'IMP Table'!$A$2:$C$26,3)*SIGN(T46-T43),0)</f>
         <v/>
       </c>
       <c r="AE46" s="9">
-        <f>IF(AND(ISNUMBER(S46),ISNUMBER(S45)),VLOOKUP(ABS(S46-S45),'IMP Table'!$A$2:$C$26,3)*SIGN(S46-S45),0)</f>
+        <f>IF(AND(ISNUMBER(T46),ISNUMBER(T44)),VLOOKUP(ABS(T46-T44),'IMP Table'!$A$2:$C$26,3)*SIGN(T46-T44),0)</f>
+        <v/>
+      </c>
+      <c r="AF46" s="9">
+        <f>IF(AND(ISNUMBER(T46),ISNUMBER(T45)),VLOOKUP(ABS(T46-T45),'IMP Table'!$A$2:$C$26,3)*SIGN(T46-T45),0)</f>
         <v/>
       </c>
     </row>
@@ -6449,84 +6635,88 @@
         <f>IF(ISBLANK('By Round'!K17),"",'By Round'!K17)</f>
         <v/>
       </c>
-      <c r="L47" s="16">
-        <f>AVERAGE(Z47:AB47)</f>
-        <v/>
-      </c>
-      <c r="M47" s="7">
-        <f>AVERAGE(AC47:AE47)</f>
-        <v/>
-      </c>
-      <c r="N47" s="6">
-        <f>IF(COUNT(T47:V47)&gt;0,P47/COUNT(T47:V47),0.5)</f>
+      <c r="L47">
+        <f>IF(ISBLANK('By Round'!L17),"",'By Round'!L17)</f>
+        <v/>
+      </c>
+      <c r="M47" s="16">
+        <f>AVERAGE(AA47:AC47)</f>
+        <v/>
+      </c>
+      <c r="N47" s="7">
+        <f>AVERAGE(AD47:AF47)</f>
         <v/>
       </c>
       <c r="O47" s="6">
-        <f>IF(COUNT(W47:Y47)&gt;0,Q47/COUNT(W47:Y47),0.5)</f>
-        <v/>
-      </c>
-      <c r="P47" s="17">
-        <f>SUM(T47:V47)</f>
+        <f>IF(COUNT(U47:W47)&gt;0,Q47/COUNT(U47:W47),0.5)</f>
+        <v/>
+      </c>
+      <c r="P47" s="6">
+        <f>IF(COUNT(X47:Z47)&gt;0,R47/COUNT(X47:Z47),0.5)</f>
         <v/>
       </c>
       <c r="Q47" s="17">
-        <f>SUM(W47:Y47)</f>
-        <v/>
-      </c>
-      <c r="R47" s="18">
-        <f>IF(ISNUMBER(J47),J47,IF(ISNUMBER(K47),-K47,""))</f>
-        <v/>
-      </c>
-      <c r="S47">
-        <f>IF(ISNUMBER(K47),K47,IF(ISNUMBER(J47),-J47,""))</f>
-        <v/>
-      </c>
-      <c r="T47" s="18">
-        <f>IF(ISNUMBER(R47),IF(ISNUMBER(R48),IF(R47&gt;R48,1.0,IF(R47=R48,0.5,0.0)),""),"")</f>
-        <v/>
-      </c>
-      <c r="U47">
-        <f>IF(ISNUMBER(R47),IF(ISNUMBER(R49),IF(R47&gt;R49,1.0,IF(R47=R49,0.5,0.0)),""),"")</f>
+        <f>SUM(U47:W47)</f>
+        <v/>
+      </c>
+      <c r="R47" s="17">
+        <f>SUM(X47:Z47)</f>
+        <v/>
+      </c>
+      <c r="S47" s="18">
+        <f>IF(ISNUMBER(K47),K47,IF(ISNUMBER(L47),-L47,""))</f>
+        <v/>
+      </c>
+      <c r="T47">
+        <f>IF(ISNUMBER(L47),L47,IF(ISNUMBER(K47),-K47,""))</f>
+        <v/>
+      </c>
+      <c r="U47" s="18">
+        <f>IF(ISNUMBER(S47),IF(ISNUMBER(S48),IF(S47&gt;S48,1.0,IF(S47=S48,0.5,0.0)),""),"")</f>
         <v/>
       </c>
       <c r="V47">
-        <f>IF(ISNUMBER(R47),IF(ISNUMBER(R50),IF(R47&gt;R50,1.0,IF(R47=R50,0.5,0.0)),""),"")</f>
+        <f>IF(ISNUMBER(S47),IF(ISNUMBER(S49),IF(S47&gt;S49,1.0,IF(S47=S49,0.5,0.0)),""),"")</f>
         <v/>
       </c>
       <c r="W47">
-        <f>IF(ISNUMBER(S47),IF(ISNUMBER(S48),IF(S47&gt;S48,1.0,IF(S47=S48,0.5,0.0)),""),"")</f>
+        <f>IF(ISNUMBER(S47),IF(ISNUMBER(S50),IF(S47&gt;S50,1.0,IF(S47=S50,0.5,0.0)),""),"")</f>
         <v/>
       </c>
       <c r="X47">
-        <f>IF(ISNUMBER(S47),IF(ISNUMBER(S49),IF(S47&gt;S49,1.0,IF(S47=S49,0.5,0.0)),""),"")</f>
+        <f>IF(ISNUMBER(T47),IF(ISNUMBER(T48),IF(T47&gt;T48,1.0,IF(T47=T48,0.5,0.0)),""),"")</f>
         <v/>
       </c>
       <c r="Y47">
-        <f>IF(ISNUMBER(S47),IF(ISNUMBER(S50),IF(S47&gt;S50,1.0,IF(S47=S50,0.5,0.0)),""),"")</f>
-        <v/>
-      </c>
-      <c r="Z47" s="18">
-        <f>IF(AND(ISNUMBER(R47),ISNUMBER(R48)),VLOOKUP(ABS(R47-R48),'IMP Table'!$A$2:$C$26,3)*SIGN(R47-R48),0)</f>
-        <v/>
-      </c>
-      <c r="AA47">
-        <f>IF(AND(ISNUMBER(R47),ISNUMBER(R49)),VLOOKUP(ABS(R47-R49),'IMP Table'!$A$2:$C$26,3)*SIGN(R47-R49),0)</f>
+        <f>IF(ISNUMBER(T47),IF(ISNUMBER(T49),IF(T47&gt;T49,1.0,IF(T47=T49,0.5,0.0)),""),"")</f>
+        <v/>
+      </c>
+      <c r="Z47">
+        <f>IF(ISNUMBER(T47),IF(ISNUMBER(T50),IF(T47&gt;T50,1.0,IF(T47=T50,0.5,0.0)),""),"")</f>
+        <v/>
+      </c>
+      <c r="AA47" s="18">
+        <f>IF(AND(ISNUMBER(S47),ISNUMBER(S48)),VLOOKUP(ABS(S47-S48),'IMP Table'!$A$2:$C$26,3)*SIGN(S47-S48),0)</f>
         <v/>
       </c>
       <c r="AB47">
-        <f>IF(AND(ISNUMBER(R47),ISNUMBER(R50)),VLOOKUP(ABS(R47-R50),'IMP Table'!$A$2:$C$26,3)*SIGN(R47-R50),0)</f>
+        <f>IF(AND(ISNUMBER(S47),ISNUMBER(S49)),VLOOKUP(ABS(S47-S49),'IMP Table'!$A$2:$C$26,3)*SIGN(S47-S49),0)</f>
         <v/>
       </c>
       <c r="AC47">
-        <f>IF(AND(ISNUMBER(S47),ISNUMBER(S48)),VLOOKUP(ABS(S47-S48),'IMP Table'!$A$2:$C$26,3)*SIGN(S47-S48),0)</f>
+        <f>IF(AND(ISNUMBER(S47),ISNUMBER(S50)),VLOOKUP(ABS(S47-S50),'IMP Table'!$A$2:$C$26,3)*SIGN(S47-S50),0)</f>
         <v/>
       </c>
       <c r="AD47">
-        <f>IF(AND(ISNUMBER(S47),ISNUMBER(S49)),VLOOKUP(ABS(S47-S49),'IMP Table'!$A$2:$C$26,3)*SIGN(S47-S49),0)</f>
+        <f>IF(AND(ISNUMBER(T47),ISNUMBER(T48)),VLOOKUP(ABS(T47-T48),'IMP Table'!$A$2:$C$26,3)*SIGN(T47-T48),0)</f>
         <v/>
       </c>
       <c r="AE47">
-        <f>IF(AND(ISNUMBER(S47),ISNUMBER(S50)),VLOOKUP(ABS(S47-S50),'IMP Table'!$A$2:$C$26,3)*SIGN(S47-S50),0)</f>
+        <f>IF(AND(ISNUMBER(T47),ISNUMBER(T49)),VLOOKUP(ABS(T47-T49),'IMP Table'!$A$2:$C$26,3)*SIGN(T47-T49),0)</f>
+        <v/>
+      </c>
+      <c r="AF47">
+        <f>IF(AND(ISNUMBER(T47),ISNUMBER(T50)),VLOOKUP(ABS(T47-T50),'IMP Table'!$A$2:$C$26,3)*SIGN(T47-T50),0)</f>
         <v/>
       </c>
     </row>
@@ -6571,84 +6761,88 @@
         <f>IF(ISBLANK('By Round'!K32),"",'By Round'!K32)</f>
         <v/>
       </c>
-      <c r="L48" s="16">
-        <f>AVERAGE(Z48:AB48)</f>
-        <v/>
-      </c>
-      <c r="M48" s="7">
-        <f>AVERAGE(AC48:AE48)</f>
-        <v/>
-      </c>
-      <c r="N48" s="6">
-        <f>IF(COUNT(T48:V48)&gt;0,P48/COUNT(T48:V48),0.5)</f>
+      <c r="L48">
+        <f>IF(ISBLANK('By Round'!L32),"",'By Round'!L32)</f>
+        <v/>
+      </c>
+      <c r="M48" s="16">
+        <f>AVERAGE(AA48:AC48)</f>
+        <v/>
+      </c>
+      <c r="N48" s="7">
+        <f>AVERAGE(AD48:AF48)</f>
         <v/>
       </c>
       <c r="O48" s="6">
-        <f>IF(COUNT(W48:Y48)&gt;0,Q48/COUNT(W48:Y48),0.5)</f>
-        <v/>
-      </c>
-      <c r="P48" s="17">
-        <f>SUM(T48:V48)</f>
+        <f>IF(COUNT(U48:W48)&gt;0,Q48/COUNT(U48:W48),0.5)</f>
+        <v/>
+      </c>
+      <c r="P48" s="6">
+        <f>IF(COUNT(X48:Z48)&gt;0,R48/COUNT(X48:Z48),0.5)</f>
         <v/>
       </c>
       <c r="Q48" s="17">
-        <f>SUM(W48:Y48)</f>
-        <v/>
-      </c>
-      <c r="R48" s="18">
-        <f>IF(ISNUMBER(J48),J48,IF(ISNUMBER(K48),-K48,""))</f>
-        <v/>
-      </c>
-      <c r="S48">
-        <f>IF(ISNUMBER(K48),K48,IF(ISNUMBER(J48),-J48,""))</f>
-        <v/>
-      </c>
-      <c r="T48" s="18">
-        <f>IF(ISNUMBER(R48),IF(ISNUMBER(R47),IF(R48&gt;R47,1.0,IF(R48=R47,0.5,0.0)),""),"")</f>
-        <v/>
-      </c>
-      <c r="U48">
-        <f>IF(ISNUMBER(R48),IF(ISNUMBER(R49),IF(R48&gt;R49,1.0,IF(R48=R49,0.5,0.0)),""),"")</f>
+        <f>SUM(U48:W48)</f>
+        <v/>
+      </c>
+      <c r="R48" s="17">
+        <f>SUM(X48:Z48)</f>
+        <v/>
+      </c>
+      <c r="S48" s="18">
+        <f>IF(ISNUMBER(K48),K48,IF(ISNUMBER(L48),-L48,""))</f>
+        <v/>
+      </c>
+      <c r="T48">
+        <f>IF(ISNUMBER(L48),L48,IF(ISNUMBER(K48),-K48,""))</f>
+        <v/>
+      </c>
+      <c r="U48" s="18">
+        <f>IF(ISNUMBER(S48),IF(ISNUMBER(S47),IF(S48&gt;S47,1.0,IF(S48=S47,0.5,0.0)),""),"")</f>
         <v/>
       </c>
       <c r="V48">
-        <f>IF(ISNUMBER(R48),IF(ISNUMBER(R50),IF(R48&gt;R50,1.0,IF(R48=R50,0.5,0.0)),""),"")</f>
+        <f>IF(ISNUMBER(S48),IF(ISNUMBER(S49),IF(S48&gt;S49,1.0,IF(S48=S49,0.5,0.0)),""),"")</f>
         <v/>
       </c>
       <c r="W48">
-        <f>IF(ISNUMBER(S48),IF(ISNUMBER(S47),IF(S48&gt;S47,1.0,IF(S48=S47,0.5,0.0)),""),"")</f>
+        <f>IF(ISNUMBER(S48),IF(ISNUMBER(S50),IF(S48&gt;S50,1.0,IF(S48=S50,0.5,0.0)),""),"")</f>
         <v/>
       </c>
       <c r="X48">
-        <f>IF(ISNUMBER(S48),IF(ISNUMBER(S49),IF(S48&gt;S49,1.0,IF(S48=S49,0.5,0.0)),""),"")</f>
+        <f>IF(ISNUMBER(T48),IF(ISNUMBER(T47),IF(T48&gt;T47,1.0,IF(T48=T47,0.5,0.0)),""),"")</f>
         <v/>
       </c>
       <c r="Y48">
-        <f>IF(ISNUMBER(S48),IF(ISNUMBER(S50),IF(S48&gt;S50,1.0,IF(S48=S50,0.5,0.0)),""),"")</f>
-        <v/>
-      </c>
-      <c r="Z48" s="18">
-        <f>IF(AND(ISNUMBER(R48),ISNUMBER(R47)),VLOOKUP(ABS(R48-R47),'IMP Table'!$A$2:$C$26,3)*SIGN(R48-R47),0)</f>
-        <v/>
-      </c>
-      <c r="AA48">
-        <f>IF(AND(ISNUMBER(R48),ISNUMBER(R49)),VLOOKUP(ABS(R48-R49),'IMP Table'!$A$2:$C$26,3)*SIGN(R48-R49),0)</f>
+        <f>IF(ISNUMBER(T48),IF(ISNUMBER(T49),IF(T48&gt;T49,1.0,IF(T48=T49,0.5,0.0)),""),"")</f>
+        <v/>
+      </c>
+      <c r="Z48">
+        <f>IF(ISNUMBER(T48),IF(ISNUMBER(T50),IF(T48&gt;T50,1.0,IF(T48=T50,0.5,0.0)),""),"")</f>
+        <v/>
+      </c>
+      <c r="AA48" s="18">
+        <f>IF(AND(ISNUMBER(S48),ISNUMBER(S47)),VLOOKUP(ABS(S48-S47),'IMP Table'!$A$2:$C$26,3)*SIGN(S48-S47),0)</f>
         <v/>
       </c>
       <c r="AB48">
-        <f>IF(AND(ISNUMBER(R48),ISNUMBER(R50)),VLOOKUP(ABS(R48-R50),'IMP Table'!$A$2:$C$26,3)*SIGN(R48-R50),0)</f>
+        <f>IF(AND(ISNUMBER(S48),ISNUMBER(S49)),VLOOKUP(ABS(S48-S49),'IMP Table'!$A$2:$C$26,3)*SIGN(S48-S49),0)</f>
         <v/>
       </c>
       <c r="AC48">
-        <f>IF(AND(ISNUMBER(S48),ISNUMBER(S47)),VLOOKUP(ABS(S48-S47),'IMP Table'!$A$2:$C$26,3)*SIGN(S48-S47),0)</f>
+        <f>IF(AND(ISNUMBER(S48),ISNUMBER(S50)),VLOOKUP(ABS(S48-S50),'IMP Table'!$A$2:$C$26,3)*SIGN(S48-S50),0)</f>
         <v/>
       </c>
       <c r="AD48">
-        <f>IF(AND(ISNUMBER(S48),ISNUMBER(S49)),VLOOKUP(ABS(S48-S49),'IMP Table'!$A$2:$C$26,3)*SIGN(S48-S49),0)</f>
+        <f>IF(AND(ISNUMBER(T48),ISNUMBER(T47)),VLOOKUP(ABS(T48-T47),'IMP Table'!$A$2:$C$26,3)*SIGN(T48-T47),0)</f>
         <v/>
       </c>
       <c r="AE48">
-        <f>IF(AND(ISNUMBER(S48),ISNUMBER(S50)),VLOOKUP(ABS(S48-S50),'IMP Table'!$A$2:$C$26,3)*SIGN(S48-S50),0)</f>
+        <f>IF(AND(ISNUMBER(T48),ISNUMBER(T49)),VLOOKUP(ABS(T48-T49),'IMP Table'!$A$2:$C$26,3)*SIGN(T48-T49),0)</f>
+        <v/>
+      </c>
+      <c r="AF48">
+        <f>IF(AND(ISNUMBER(T48),ISNUMBER(T50)),VLOOKUP(ABS(T48-T50),'IMP Table'!$A$2:$C$26,3)*SIGN(T48-T50),0)</f>
         <v/>
       </c>
     </row>
@@ -6693,84 +6887,88 @@
         <f>IF(ISBLANK('By Round'!K47),"",'By Round'!K47)</f>
         <v/>
       </c>
-      <c r="L49" s="16">
-        <f>AVERAGE(Z49:AB49)</f>
-        <v/>
-      </c>
-      <c r="M49" s="7">
-        <f>AVERAGE(AC49:AE49)</f>
-        <v/>
-      </c>
-      <c r="N49" s="6">
-        <f>IF(COUNT(T49:V49)&gt;0,P49/COUNT(T49:V49),0.5)</f>
+      <c r="L49">
+        <f>IF(ISBLANK('By Round'!L47),"",'By Round'!L47)</f>
+        <v/>
+      </c>
+      <c r="M49" s="16">
+        <f>AVERAGE(AA49:AC49)</f>
+        <v/>
+      </c>
+      <c r="N49" s="7">
+        <f>AVERAGE(AD49:AF49)</f>
         <v/>
       </c>
       <c r="O49" s="6">
-        <f>IF(COUNT(W49:Y49)&gt;0,Q49/COUNT(W49:Y49),0.5)</f>
-        <v/>
-      </c>
-      <c r="P49" s="17">
-        <f>SUM(T49:V49)</f>
+        <f>IF(COUNT(U49:W49)&gt;0,Q49/COUNT(U49:W49),0.5)</f>
+        <v/>
+      </c>
+      <c r="P49" s="6">
+        <f>IF(COUNT(X49:Z49)&gt;0,R49/COUNT(X49:Z49),0.5)</f>
         <v/>
       </c>
       <c r="Q49" s="17">
-        <f>SUM(W49:Y49)</f>
-        <v/>
-      </c>
-      <c r="R49" s="18">
-        <f>IF(ISNUMBER(J49),J49,IF(ISNUMBER(K49),-K49,""))</f>
-        <v/>
-      </c>
-      <c r="S49">
-        <f>IF(ISNUMBER(K49),K49,IF(ISNUMBER(J49),-J49,""))</f>
-        <v/>
-      </c>
-      <c r="T49" s="18">
-        <f>IF(ISNUMBER(R49),IF(ISNUMBER(R47),IF(R49&gt;R47,1.0,IF(R49=R47,0.5,0.0)),""),"")</f>
-        <v/>
-      </c>
-      <c r="U49">
-        <f>IF(ISNUMBER(R49),IF(ISNUMBER(R48),IF(R49&gt;R48,1.0,IF(R49=R48,0.5,0.0)),""),"")</f>
+        <f>SUM(U49:W49)</f>
+        <v/>
+      </c>
+      <c r="R49" s="17">
+        <f>SUM(X49:Z49)</f>
+        <v/>
+      </c>
+      <c r="S49" s="18">
+        <f>IF(ISNUMBER(K49),K49,IF(ISNUMBER(L49),-L49,""))</f>
+        <v/>
+      </c>
+      <c r="T49">
+        <f>IF(ISNUMBER(L49),L49,IF(ISNUMBER(K49),-K49,""))</f>
+        <v/>
+      </c>
+      <c r="U49" s="18">
+        <f>IF(ISNUMBER(S49),IF(ISNUMBER(S47),IF(S49&gt;S47,1.0,IF(S49=S47,0.5,0.0)),""),"")</f>
         <v/>
       </c>
       <c r="V49">
-        <f>IF(ISNUMBER(R49),IF(ISNUMBER(R50),IF(R49&gt;R50,1.0,IF(R49=R50,0.5,0.0)),""),"")</f>
+        <f>IF(ISNUMBER(S49),IF(ISNUMBER(S48),IF(S49&gt;S48,1.0,IF(S49=S48,0.5,0.0)),""),"")</f>
         <v/>
       </c>
       <c r="W49">
-        <f>IF(ISNUMBER(S49),IF(ISNUMBER(S47),IF(S49&gt;S47,1.0,IF(S49=S47,0.5,0.0)),""),"")</f>
+        <f>IF(ISNUMBER(S49),IF(ISNUMBER(S50),IF(S49&gt;S50,1.0,IF(S49=S50,0.5,0.0)),""),"")</f>
         <v/>
       </c>
       <c r="X49">
-        <f>IF(ISNUMBER(S49),IF(ISNUMBER(S48),IF(S49&gt;S48,1.0,IF(S49=S48,0.5,0.0)),""),"")</f>
+        <f>IF(ISNUMBER(T49),IF(ISNUMBER(T47),IF(T49&gt;T47,1.0,IF(T49=T47,0.5,0.0)),""),"")</f>
         <v/>
       </c>
       <c r="Y49">
-        <f>IF(ISNUMBER(S49),IF(ISNUMBER(S50),IF(S49&gt;S50,1.0,IF(S49=S50,0.5,0.0)),""),"")</f>
-        <v/>
-      </c>
-      <c r="Z49" s="18">
-        <f>IF(AND(ISNUMBER(R49),ISNUMBER(R47)),VLOOKUP(ABS(R49-R47),'IMP Table'!$A$2:$C$26,3)*SIGN(R49-R47),0)</f>
-        <v/>
-      </c>
-      <c r="AA49">
-        <f>IF(AND(ISNUMBER(R49),ISNUMBER(R48)),VLOOKUP(ABS(R49-R48),'IMP Table'!$A$2:$C$26,3)*SIGN(R49-R48),0)</f>
+        <f>IF(ISNUMBER(T49),IF(ISNUMBER(T48),IF(T49&gt;T48,1.0,IF(T49=T48,0.5,0.0)),""),"")</f>
+        <v/>
+      </c>
+      <c r="Z49">
+        <f>IF(ISNUMBER(T49),IF(ISNUMBER(T50),IF(T49&gt;T50,1.0,IF(T49=T50,0.5,0.0)),""),"")</f>
+        <v/>
+      </c>
+      <c r="AA49" s="18">
+        <f>IF(AND(ISNUMBER(S49),ISNUMBER(S47)),VLOOKUP(ABS(S49-S47),'IMP Table'!$A$2:$C$26,3)*SIGN(S49-S47),0)</f>
         <v/>
       </c>
       <c r="AB49">
-        <f>IF(AND(ISNUMBER(R49),ISNUMBER(R50)),VLOOKUP(ABS(R49-R50),'IMP Table'!$A$2:$C$26,3)*SIGN(R49-R50),0)</f>
+        <f>IF(AND(ISNUMBER(S49),ISNUMBER(S48)),VLOOKUP(ABS(S49-S48),'IMP Table'!$A$2:$C$26,3)*SIGN(S49-S48),0)</f>
         <v/>
       </c>
       <c r="AC49">
-        <f>IF(AND(ISNUMBER(S49),ISNUMBER(S47)),VLOOKUP(ABS(S49-S47),'IMP Table'!$A$2:$C$26,3)*SIGN(S49-S47),0)</f>
+        <f>IF(AND(ISNUMBER(S49),ISNUMBER(S50)),VLOOKUP(ABS(S49-S50),'IMP Table'!$A$2:$C$26,3)*SIGN(S49-S50),0)</f>
         <v/>
       </c>
       <c r="AD49">
-        <f>IF(AND(ISNUMBER(S49),ISNUMBER(S48)),VLOOKUP(ABS(S49-S48),'IMP Table'!$A$2:$C$26,3)*SIGN(S49-S48),0)</f>
+        <f>IF(AND(ISNUMBER(T49),ISNUMBER(T47)),VLOOKUP(ABS(T49-T47),'IMP Table'!$A$2:$C$26,3)*SIGN(T49-T47),0)</f>
         <v/>
       </c>
       <c r="AE49">
-        <f>IF(AND(ISNUMBER(S49),ISNUMBER(S50)),VLOOKUP(ABS(S49-S50),'IMP Table'!$A$2:$C$26,3)*SIGN(S49-S50),0)</f>
+        <f>IF(AND(ISNUMBER(T49),ISNUMBER(T48)),VLOOKUP(ABS(T49-T48),'IMP Table'!$A$2:$C$26,3)*SIGN(T49-T48),0)</f>
+        <v/>
+      </c>
+      <c r="AF49">
+        <f>IF(AND(ISNUMBER(T49),ISNUMBER(T50)),VLOOKUP(ABS(T49-T50),'IMP Table'!$A$2:$C$26,3)*SIGN(T49-T50),0)</f>
         <v/>
       </c>
     </row>
@@ -6816,100 +7014,105 @@
         <f>IF(ISBLANK('By Round'!K14),"",'By Round'!K14)</f>
         <v/>
       </c>
-      <c r="L50" s="20">
-        <f>AVERAGE(Z50:AB50)</f>
-        <v/>
-      </c>
-      <c r="M50" s="21">
-        <f>AVERAGE(AC50:AE50)</f>
-        <v/>
-      </c>
-      <c r="N50" s="22">
-        <f>IF(COUNT(T50:V50)&gt;0,P50/COUNT(T50:V50),0.5)</f>
+      <c r="L50" s="9">
+        <f>IF(ISBLANK('By Round'!L14),"",'By Round'!L14)</f>
+        <v/>
+      </c>
+      <c r="M50" s="20">
+        <f>AVERAGE(AA50:AC50)</f>
+        <v/>
+      </c>
+      <c r="N50" s="21">
+        <f>AVERAGE(AD50:AF50)</f>
         <v/>
       </c>
       <c r="O50" s="22">
-        <f>IF(COUNT(W50:Y50)&gt;0,Q50/COUNT(W50:Y50),0.5)</f>
-        <v/>
-      </c>
-      <c r="P50" s="23">
-        <f>SUM(T50:V50)</f>
+        <f>IF(COUNT(U50:W50)&gt;0,Q50/COUNT(U50:W50),0.5)</f>
+        <v/>
+      </c>
+      <c r="P50" s="22">
+        <f>IF(COUNT(X50:Z50)&gt;0,R50/COUNT(X50:Z50),0.5)</f>
         <v/>
       </c>
       <c r="Q50" s="23">
-        <f>SUM(W50:Y50)</f>
-        <v/>
-      </c>
-      <c r="R50" s="24">
-        <f>IF(ISNUMBER(J50),J50,IF(ISNUMBER(K50),-K50,""))</f>
-        <v/>
-      </c>
-      <c r="S50" s="9">
-        <f>IF(ISNUMBER(K50),K50,IF(ISNUMBER(J50),-J50,""))</f>
-        <v/>
-      </c>
-      <c r="T50" s="24">
-        <f>IF(ISNUMBER(R50),IF(ISNUMBER(R47),IF(R50&gt;R47,1.0,IF(R50=R47,0.5,0.0)),""),"")</f>
-        <v/>
-      </c>
-      <c r="U50" s="9">
-        <f>IF(ISNUMBER(R50),IF(ISNUMBER(R48),IF(R50&gt;R48,1.0,IF(R50=R48,0.5,0.0)),""),"")</f>
+        <f>SUM(U50:W50)</f>
+        <v/>
+      </c>
+      <c r="R50" s="23">
+        <f>SUM(X50:Z50)</f>
+        <v/>
+      </c>
+      <c r="S50" s="24">
+        <f>IF(ISNUMBER(K50),K50,IF(ISNUMBER(L50),-L50,""))</f>
+        <v/>
+      </c>
+      <c r="T50" s="9">
+        <f>IF(ISNUMBER(L50),L50,IF(ISNUMBER(K50),-K50,""))</f>
+        <v/>
+      </c>
+      <c r="U50" s="24">
+        <f>IF(ISNUMBER(S50),IF(ISNUMBER(S47),IF(S50&gt;S47,1.0,IF(S50=S47,0.5,0.0)),""),"")</f>
         <v/>
       </c>
       <c r="V50" s="9">
-        <f>IF(ISNUMBER(R50),IF(ISNUMBER(R49),IF(R50&gt;R49,1.0,IF(R50=R49,0.5,0.0)),""),"")</f>
+        <f>IF(ISNUMBER(S50),IF(ISNUMBER(S48),IF(S50&gt;S48,1.0,IF(S50=S48,0.5,0.0)),""),"")</f>
         <v/>
       </c>
       <c r="W50" s="9">
-        <f>IF(ISNUMBER(S50),IF(ISNUMBER(S47),IF(S50&gt;S47,1.0,IF(S50=S47,0.5,0.0)),""),"")</f>
+        <f>IF(ISNUMBER(S50),IF(ISNUMBER(S49),IF(S50&gt;S49,1.0,IF(S50=S49,0.5,0.0)),""),"")</f>
         <v/>
       </c>
       <c r="X50" s="9">
-        <f>IF(ISNUMBER(S50),IF(ISNUMBER(S48),IF(S50&gt;S48,1.0,IF(S50=S48,0.5,0.0)),""),"")</f>
+        <f>IF(ISNUMBER(T50),IF(ISNUMBER(T47),IF(T50&gt;T47,1.0,IF(T50=T47,0.5,0.0)),""),"")</f>
         <v/>
       </c>
       <c r="Y50" s="9">
-        <f>IF(ISNUMBER(S50),IF(ISNUMBER(S49),IF(S50&gt;S49,1.0,IF(S50=S49,0.5,0.0)),""),"")</f>
-        <v/>
-      </c>
-      <c r="Z50" s="24">
-        <f>IF(AND(ISNUMBER(R50),ISNUMBER(R47)),VLOOKUP(ABS(R50-R47),'IMP Table'!$A$2:$C$26,3)*SIGN(R50-R47),0)</f>
-        <v/>
-      </c>
-      <c r="AA50" s="9">
-        <f>IF(AND(ISNUMBER(R50),ISNUMBER(R48)),VLOOKUP(ABS(R50-R48),'IMP Table'!$A$2:$C$26,3)*SIGN(R50-R48),0)</f>
+        <f>IF(ISNUMBER(T50),IF(ISNUMBER(T48),IF(T50&gt;T48,1.0,IF(T50=T48,0.5,0.0)),""),"")</f>
+        <v/>
+      </c>
+      <c r="Z50" s="9">
+        <f>IF(ISNUMBER(T50),IF(ISNUMBER(T49),IF(T50&gt;T49,1.0,IF(T50=T49,0.5,0.0)),""),"")</f>
+        <v/>
+      </c>
+      <c r="AA50" s="24">
+        <f>IF(AND(ISNUMBER(S50),ISNUMBER(S47)),VLOOKUP(ABS(S50-S47),'IMP Table'!$A$2:$C$26,3)*SIGN(S50-S47),0)</f>
         <v/>
       </c>
       <c r="AB50" s="9">
-        <f>IF(AND(ISNUMBER(R50),ISNUMBER(R49)),VLOOKUP(ABS(R50-R49),'IMP Table'!$A$2:$C$26,3)*SIGN(R50-R49),0)</f>
+        <f>IF(AND(ISNUMBER(S50),ISNUMBER(S48)),VLOOKUP(ABS(S50-S48),'IMP Table'!$A$2:$C$26,3)*SIGN(S50-S48),0)</f>
         <v/>
       </c>
       <c r="AC50" s="9">
-        <f>IF(AND(ISNUMBER(S50),ISNUMBER(S47)),VLOOKUP(ABS(S50-S47),'IMP Table'!$A$2:$C$26,3)*SIGN(S50-S47),0)</f>
+        <f>IF(AND(ISNUMBER(S50),ISNUMBER(S49)),VLOOKUP(ABS(S50-S49),'IMP Table'!$A$2:$C$26,3)*SIGN(S50-S49),0)</f>
         <v/>
       </c>
       <c r="AD50" s="9">
-        <f>IF(AND(ISNUMBER(S50),ISNUMBER(S48)),VLOOKUP(ABS(S50-S48),'IMP Table'!$A$2:$C$26,3)*SIGN(S50-S48),0)</f>
+        <f>IF(AND(ISNUMBER(T50),ISNUMBER(T47)),VLOOKUP(ABS(T50-T47),'IMP Table'!$A$2:$C$26,3)*SIGN(T50-T47),0)</f>
         <v/>
       </c>
       <c r="AE50" s="9">
-        <f>IF(AND(ISNUMBER(S50),ISNUMBER(S49)),VLOOKUP(ABS(S50-S49),'IMP Table'!$A$2:$C$26,3)*SIGN(S50-S49),0)</f>
+        <f>IF(AND(ISNUMBER(T50),ISNUMBER(T48)),VLOOKUP(ABS(T50-T48),'IMP Table'!$A$2:$C$26,3)*SIGN(T50-T48),0)</f>
+        <v/>
+      </c>
+      <c r="AF50" s="9">
+        <f>IF(AND(ISNUMBER(T50),ISNUMBER(T49)),VLOOKUP(ABS(T50-T49),'IMP Table'!$A$2:$C$26,3)*SIGN(T50-T49),0)</f>
         <v/>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="T2:V2"/>
-    <mergeCell ref="Z2:AB2"/>
-    <mergeCell ref="Z1:AE1"/>
-    <mergeCell ref="AC2:AE2"/>
-    <mergeCell ref="T1:Y1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="R1:S1"/>
-    <mergeCell ref="W2:Y2"/>
+  <mergeCells count="12">
+    <mergeCell ref="U2:W2"/>
+    <mergeCell ref="X2:Z2"/>
+    <mergeCell ref="AA2:AC2"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="AA1:AF1"/>
+    <mergeCell ref="AD2:AF2"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="U1:Z1"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="I1:J1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -6921,7 +7124,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:K50"/>
+  <dimension ref="A1:L50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6932,6 +7135,18 @@
     <col width="30" customWidth="1" min="7" max="7"/>
   </cols>
   <sheetData>
+    <row r="1">
+      <c r="I1" s="13" t="inlineStr">
+        <is>
+          <t>Result</t>
+        </is>
+      </c>
+      <c r="K1" s="13" t="inlineStr">
+        <is>
+          <t>Score</t>
+        </is>
+      </c>
+    </row>
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
@@ -6975,15 +7190,20 @@
       </c>
       <c r="I2" s="2" t="inlineStr">
         <is>
-          <t>Result</t>
+          <t>Made</t>
         </is>
       </c>
       <c r="J2" s="2" t="inlineStr">
         <is>
+          <t>Down</t>
+        </is>
+      </c>
+      <c r="K2" s="2" t="inlineStr">
+        <is>
           <t>NS</t>
         </is>
       </c>
-      <c r="K2" s="2" t="inlineStr">
+      <c r="L2" s="2" t="inlineStr">
         <is>
           <t>EW</t>
         </is>
@@ -7041,6 +7261,7 @@
       <c r="I5" s="9" t="n"/>
       <c r="J5" s="9" t="n"/>
       <c r="K5" s="9" t="n"/>
+      <c r="L5" s="9" t="n"/>
     </row>
     <row r="6">
       <c r="B6" s="15" t="n">
@@ -7091,6 +7312,7 @@
       <c r="I8" s="9" t="n"/>
       <c r="J8" s="9" t="n"/>
       <c r="K8" s="9" t="n"/>
+      <c r="L8" s="9" t="n"/>
     </row>
     <row r="9">
       <c r="B9" s="15" t="n">
@@ -7141,6 +7363,7 @@
       <c r="I11" s="9" t="n"/>
       <c r="J11" s="9" t="n"/>
       <c r="K11" s="9" t="n"/>
+      <c r="L11" s="9" t="n"/>
     </row>
     <row r="12">
       <c r="B12" s="15" t="n">
@@ -7192,6 +7415,7 @@
       <c r="I14" s="9" t="n"/>
       <c r="J14" s="9" t="n"/>
       <c r="K14" s="9" t="n"/>
+      <c r="L14" s="9" t="n"/>
     </row>
     <row r="15">
       <c r="A15" s="15" t="n">
@@ -7245,6 +7469,7 @@
       <c r="I17" s="9" t="n"/>
       <c r="J17" s="9" t="n"/>
       <c r="K17" s="9" t="n"/>
+      <c r="L17" s="9" t="n"/>
     </row>
     <row r="18">
       <c r="B18" s="15" t="n">
@@ -7295,6 +7520,7 @@
       <c r="I20" s="9" t="n"/>
       <c r="J20" s="9" t="n"/>
       <c r="K20" s="9" t="n"/>
+      <c r="L20" s="9" t="n"/>
     </row>
     <row r="21">
       <c r="B21" s="15" t="n">
@@ -7345,6 +7571,7 @@
       <c r="I23" s="9" t="n"/>
       <c r="J23" s="9" t="n"/>
       <c r="K23" s="9" t="n"/>
+      <c r="L23" s="9" t="n"/>
     </row>
     <row r="24">
       <c r="B24" s="15" t="n">
@@ -7396,6 +7623,7 @@
       <c r="I26" s="9" t="n"/>
       <c r="J26" s="9" t="n"/>
       <c r="K26" s="9" t="n"/>
+      <c r="L26" s="9" t="n"/>
     </row>
     <row r="27">
       <c r="A27" s="15" t="n">
@@ -7449,6 +7677,7 @@
       <c r="I29" s="9" t="n"/>
       <c r="J29" s="9" t="n"/>
       <c r="K29" s="9" t="n"/>
+      <c r="L29" s="9" t="n"/>
     </row>
     <row r="30">
       <c r="B30" s="15" t="n">
@@ -7499,6 +7728,7 @@
       <c r="I32" s="9" t="n"/>
       <c r="J32" s="9" t="n"/>
       <c r="K32" s="9" t="n"/>
+      <c r="L32" s="9" t="n"/>
     </row>
     <row r="33">
       <c r="B33" s="15" t="n">
@@ -7549,6 +7779,7 @@
       <c r="I35" s="9" t="n"/>
       <c r="J35" s="9" t="n"/>
       <c r="K35" s="9" t="n"/>
+      <c r="L35" s="9" t="n"/>
     </row>
     <row r="36">
       <c r="B36" s="15" t="n">
@@ -7600,6 +7831,7 @@
       <c r="I38" s="9" t="n"/>
       <c r="J38" s="9" t="n"/>
       <c r="K38" s="9" t="n"/>
+      <c r="L38" s="9" t="n"/>
     </row>
     <row r="39">
       <c r="A39" s="15" t="n">
@@ -7653,6 +7885,7 @@
       <c r="I41" s="9" t="n"/>
       <c r="J41" s="9" t="n"/>
       <c r="K41" s="9" t="n"/>
+      <c r="L41" s="9" t="n"/>
     </row>
     <row r="42">
       <c r="B42" s="15" t="n">
@@ -7703,6 +7936,7 @@
       <c r="I44" s="9" t="n"/>
       <c r="J44" s="9" t="n"/>
       <c r="K44" s="9" t="n"/>
+      <c r="L44" s="9" t="n"/>
     </row>
     <row r="45">
       <c r="B45" s="15" t="n">
@@ -7753,6 +7987,7 @@
       <c r="I47" s="9" t="n"/>
       <c r="J47" s="9" t="n"/>
       <c r="K47" s="9" t="n"/>
+      <c r="L47" s="9" t="n"/>
     </row>
     <row r="48">
       <c r="B48" s="15" t="n">
@@ -7804,8 +8039,13 @@
       <c r="I50" s="9" t="n"/>
       <c r="J50" s="9" t="n"/>
       <c r="K50" s="9" t="n"/>
+      <c r="L50" s="9" t="n"/>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:L1"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>

--- a/mitchell8x3.xlsx
+++ b/mitchell8x3.xlsx
@@ -510,7 +510,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>For public domain. No rights reserved. Generated on Feb 13, 2026.</t>
+          <t>For public domain. No rights reserved. Generated on Feb 19, 2026.</t>
         </is>
       </c>
     </row>
@@ -594,12 +594,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Name 81</t>
+          <t>Name 22</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Name 67</t>
+          <t>Name 72</t>
         </is>
       </c>
       <c r="D10" s="6">
@@ -617,12 +617,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Name 89</t>
+          <t>Name 22</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Name 23</t>
+          <t>Name 21</t>
         </is>
       </c>
       <c r="D11" s="6">
@@ -640,12 +640,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Name 13</t>
+          <t>Name 25</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Name 30</t>
+          <t>Name 86</t>
         </is>
       </c>
       <c r="D12" s="6">
@@ -663,12 +663,12 @@
       </c>
       <c r="B13" s="9" t="inlineStr">
         <is>
-          <t>Name 27</t>
+          <t>Name 57</t>
         </is>
       </c>
       <c r="C13" s="9" t="inlineStr">
         <is>
-          <t>Name 73</t>
+          <t>Name 77</t>
         </is>
       </c>
       <c r="D13" s="9" t="n"/>
@@ -711,12 +711,12 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Name 74</t>
+          <t>Name 80</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Name 68</t>
+          <t>Name 48</t>
         </is>
       </c>
       <c r="D17" s="6">
@@ -734,12 +734,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Name 55</t>
+          <t>Name 74</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Name 72</t>
+          <t>Name 21</t>
         </is>
       </c>
       <c r="D18" s="6">
@@ -757,12 +757,12 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Name 27</t>
+          <t>Name 86</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Name 33</t>
+          <t>Name 75</t>
         </is>
       </c>
       <c r="D19" s="6">
@@ -780,12 +780,12 @@
       </c>
       <c r="B20" s="9" t="inlineStr">
         <is>
-          <t>Name 35</t>
+          <t>Name 19</t>
         </is>
       </c>
       <c r="C20" s="9" t="inlineStr">
         <is>
-          <t>Name 87</t>
+          <t>Name 56</t>
         </is>
       </c>
       <c r="D20" s="9" t="n"/>
